--- a/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
+++ b/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willbro\Dropbox (OSU Soil Physics)\NRCS testbed\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960D4528-0E91-4182-9859-78D6943C42EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011C3EB2-FEC2-4EC3-8DCF-37DDD043792E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E93F8746-9E87-4457-9EA2-96B4DD1F63F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E93F8746-9E87-4457-9EA2-96B4DD1F63F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="np_mare" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="NPmeasurements_2023" sheetId="3" r:id="rId1"/>
+    <sheet name="np_mare" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="34">
   <si>
     <t>Slope (CountRatio)</t>
   </si>
@@ -68,13 +69,85 @@
   <si>
     <t>Standard Count</t>
   </si>
+  <si>
+    <t>STIL</t>
+  </si>
+  <si>
+    <t>30871 MARE   30829 STIL</t>
+  </si>
+  <si>
+    <t>30847 MARE   30990 STIL</t>
+  </si>
+  <si>
+    <t>30849 MARE   30966 STIL</t>
+  </si>
+  <si>
+    <t>30720 MARE   30683 STIL</t>
+  </si>
+  <si>
+    <t>30871 MARE               30829 STIL</t>
+  </si>
+  <si>
+    <t>30847 MARE        30990 STIL</t>
+  </si>
+  <si>
+    <t>30849 MARE        30966 STIL</t>
+  </si>
+  <si>
+    <t>30720 MARE        30683 STIL</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Note 1</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Note 1: Installed Access Tube on this day</t>
+  </si>
+  <si>
+    <t>30838 MARE        30821 STIL</t>
+  </si>
+  <si>
+    <t>VWC(%)</t>
+  </si>
+  <si>
+    <t>30747 MARE        30420 STIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -116,12 +189,66 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -131,12 +258,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,11 +289,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,33 +325,235 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -211,9 +573,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,7 +613,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -357,7 +719,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,21 +861,6030 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07D0316-E494-46A6-902F-D47D5FC607C9}">
+  <dimension ref="A1:AF90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="18" width="9.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19">
+        <v>30815</v>
+      </c>
+      <c r="D1" s="19">
+        <v>30734</v>
+      </c>
+      <c r="E1" s="19">
+        <v>30864</v>
+      </c>
+      <c r="F1" s="19">
+        <v>30633</v>
+      </c>
+      <c r="G1" s="19">
+        <v>30623</v>
+      </c>
+      <c r="H1" s="19">
+        <v>30699</v>
+      </c>
+      <c r="I1" s="19">
+        <v>30751</v>
+      </c>
+      <c r="J1" s="19">
+        <v>30493</v>
+      </c>
+      <c r="K1" s="19">
+        <v>30716</v>
+      </c>
+      <c r="L1" s="19">
+        <v>30840</v>
+      </c>
+      <c r="M1" s="19">
+        <v>30893</v>
+      </c>
+      <c r="N1" s="19">
+        <v>30715</v>
+      </c>
+      <c r="O1" s="19">
+        <v>30667</v>
+      </c>
+      <c r="P1" s="19">
+        <v>30573</v>
+      </c>
+      <c r="Q1" s="19">
+        <v>30717</v>
+      </c>
+      <c r="R1" s="19">
+        <v>30816</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="23">
+        <v>45022</v>
+      </c>
+      <c r="D2" s="23">
+        <v>45035</v>
+      </c>
+      <c r="E2" s="23">
+        <v>45049</v>
+      </c>
+      <c r="F2" s="23">
+        <v>45063</v>
+      </c>
+      <c r="G2" s="23">
+        <v>45077</v>
+      </c>
+      <c r="H2" s="23">
+        <v>45091</v>
+      </c>
+      <c r="I2" s="23">
+        <v>45105</v>
+      </c>
+      <c r="J2" s="23">
+        <v>45119</v>
+      </c>
+      <c r="K2" s="23">
+        <v>45133</v>
+      </c>
+      <c r="L2" s="23">
+        <v>45147</v>
+      </c>
+      <c r="M2" s="23">
+        <v>45161</v>
+      </c>
+      <c r="N2" s="23">
+        <v>45163</v>
+      </c>
+      <c r="O2" s="23">
+        <v>45175</v>
+      </c>
+      <c r="P2" s="23">
+        <v>45189</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>45203</v>
+      </c>
+      <c r="R2" s="23">
+        <v>45212</v>
+      </c>
+      <c r="S2" s="23">
+        <v>45217</v>
+      </c>
+      <c r="T2" s="23">
+        <v>45231</v>
+      </c>
+      <c r="U2" s="25">
+        <v>45246</v>
+      </c>
+      <c r="V2" s="26">
+        <v>45259</v>
+      </c>
+      <c r="W2" s="26">
+        <v>45321</v>
+      </c>
+      <c r="X2" s="92">
+        <v>45371</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="28">
+        <v>10</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1.68</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1.52</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1.84</v>
+      </c>
+      <c r="F3" s="29">
+        <v>1.96</v>
+      </c>
+      <c r="G3" s="29">
+        <v>1.8</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="29">
+        <v>1.55</v>
+      </c>
+      <c r="J3" s="29">
+        <v>1.98</v>
+      </c>
+      <c r="K3" s="29">
+        <v>1.62</v>
+      </c>
+      <c r="L3" s="29">
+        <v>1.83</v>
+      </c>
+      <c r="M3" s="29">
+        <v>1.59</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="29">
+        <v>1.23</v>
+      </c>
+      <c r="P3" s="29">
+        <v>1.32</v>
+      </c>
+      <c r="Q3" s="31">
+        <v>1.17</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="29">
+        <v>1.21</v>
+      </c>
+      <c r="T3" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="U3" s="29">
+        <v>1.68</v>
+      </c>
+      <c r="V3" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="W3" s="31">
+        <v>1.91</v>
+      </c>
+      <c r="X3" s="31">
+        <v>1.86</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="28">
+        <v>30</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1.81</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1.73</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1.84</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1.91</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1.86</v>
+      </c>
+      <c r="H4" s="29">
+        <v>1.67</v>
+      </c>
+      <c r="I4" s="29">
+        <v>1.55</v>
+      </c>
+      <c r="J4" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="K4" s="29">
+        <v>1.72</v>
+      </c>
+      <c r="L4" s="29">
+        <v>1.72</v>
+      </c>
+      <c r="M4" s="29">
+        <v>1.66</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29">
+        <v>1.35</v>
+      </c>
+      <c r="P4" s="29">
+        <v>1.32</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>1.28</v>
+      </c>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29">
+        <v>1.26</v>
+      </c>
+      <c r="T4" s="29">
+        <v>1.42</v>
+      </c>
+      <c r="U4" s="29">
+        <v>1.38</v>
+      </c>
+      <c r="V4" s="31">
+        <v>1.43</v>
+      </c>
+      <c r="W4" s="31">
+        <v>1.85</v>
+      </c>
+      <c r="X4" s="31">
+        <v>1.85</v>
+      </c>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="28">
+        <v>50</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1.62</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1.62</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1.73</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1.77</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1.77</v>
+      </c>
+      <c r="H5" s="29">
+        <v>1.71</v>
+      </c>
+      <c r="I5" s="29">
+        <v>1.56</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1.68</v>
+      </c>
+      <c r="K5" s="29">
+        <v>1.69</v>
+      </c>
+      <c r="L5" s="29">
+        <v>1.46</v>
+      </c>
+      <c r="M5" s="29">
+        <v>1.44</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29">
+        <v>1.23</v>
+      </c>
+      <c r="P5" s="29">
+        <v>1.22</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>1.19</v>
+      </c>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="T5" s="29">
+        <v>1.21</v>
+      </c>
+      <c r="U5" s="29">
+        <v>1.21</v>
+      </c>
+      <c r="V5" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="W5" s="31">
+        <v>1.74</v>
+      </c>
+      <c r="X5" s="31">
+        <v>1.72</v>
+      </c>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="28">
+        <v>70</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1.54</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1.56</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1.77</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1.81</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1.81</v>
+      </c>
+      <c r="H6" s="29">
+        <v>1.75</v>
+      </c>
+      <c r="I6" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="J6" s="29">
+        <v>1.79</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1.78</v>
+      </c>
+      <c r="L6" s="29">
+        <v>1.62</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1.64</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29">
+        <v>1.42</v>
+      </c>
+      <c r="P6" s="29">
+        <v>1.36</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>1.29</v>
+      </c>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29">
+        <v>1.29</v>
+      </c>
+      <c r="T6" s="29">
+        <v>1.28</v>
+      </c>
+      <c r="U6" s="29">
+        <v>1.28</v>
+      </c>
+      <c r="V6" s="31">
+        <v>1.29</v>
+      </c>
+      <c r="W6" s="31">
+        <v>1.79</v>
+      </c>
+      <c r="X6" s="31">
+        <v>1.78</v>
+      </c>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="34">
+        <v>10</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1.57</v>
+      </c>
+      <c r="D7" s="35">
+        <v>1.36</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1.71</v>
+      </c>
+      <c r="F7" s="35">
+        <v>1.78</v>
+      </c>
+      <c r="G7" s="35">
+        <v>1.65</v>
+      </c>
+      <c r="H7" s="35">
+        <v>1.28</v>
+      </c>
+      <c r="I7" s="35">
+        <v>1.64</v>
+      </c>
+      <c r="J7" s="35">
+        <v>1.88</v>
+      </c>
+      <c r="K7" s="35">
+        <v>1.6</v>
+      </c>
+      <c r="L7" s="35">
+        <v>1.78</v>
+      </c>
+      <c r="M7" s="35">
+        <v>1.46</v>
+      </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35">
+        <v>1.05</v>
+      </c>
+      <c r="P7" s="35">
+        <v>1.29</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>1.01</v>
+      </c>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35">
+        <v>1.06</v>
+      </c>
+      <c r="T7" s="35">
+        <v>1.7</v>
+      </c>
+      <c r="U7" s="35">
+        <v>1.64</v>
+      </c>
+      <c r="V7" s="36">
+        <v>1.74</v>
+      </c>
+      <c r="W7" s="36">
+        <v>1.84</v>
+      </c>
+      <c r="X7" s="36">
+        <v>1.74</v>
+      </c>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="34">
+        <v>30</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1.8</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1.72</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1.84</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1.87</v>
+      </c>
+      <c r="G8" s="35">
+        <v>1.83</v>
+      </c>
+      <c r="H8" s="35">
+        <v>1.61</v>
+      </c>
+      <c r="I8" s="35">
+        <v>1.7</v>
+      </c>
+      <c r="J8" s="35">
+        <v>1.87</v>
+      </c>
+      <c r="K8" s="35">
+        <v>1.79</v>
+      </c>
+      <c r="L8" s="35">
+        <v>1.79</v>
+      </c>
+      <c r="M8" s="35">
+        <v>1.73</v>
+      </c>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35">
+        <v>1.35</v>
+      </c>
+      <c r="P8" s="35">
+        <v>1.31</v>
+      </c>
+      <c r="Q8" s="35">
+        <v>1.26</v>
+      </c>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35">
+        <v>1.23</v>
+      </c>
+      <c r="T8" s="35">
+        <v>1.47</v>
+      </c>
+      <c r="U8" s="35">
+        <v>1.47</v>
+      </c>
+      <c r="V8" s="36">
+        <v>1.6</v>
+      </c>
+      <c r="W8" s="36">
+        <v>1.83</v>
+      </c>
+      <c r="X8" s="36">
+        <v>1.82</v>
+      </c>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="34">
+        <v>50</v>
+      </c>
+      <c r="C9" s="34">
+        <v>1.77</v>
+      </c>
+      <c r="D9" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="E9" s="35">
+        <v>1.79</v>
+      </c>
+      <c r="F9" s="35">
+        <v>1.83</v>
+      </c>
+      <c r="G9" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1.72</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1.7</v>
+      </c>
+      <c r="J9" s="35">
+        <v>1.83</v>
+      </c>
+      <c r="K9" s="35">
+        <v>1.79</v>
+      </c>
+      <c r="L9" s="35">
+        <v>1.69</v>
+      </c>
+      <c r="M9" s="35">
+        <v>1.72</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35">
+        <v>1.47</v>
+      </c>
+      <c r="P9" s="35">
+        <v>1.37</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>1.27</v>
+      </c>
+      <c r="R9" s="36"/>
+      <c r="S9" s="35">
+        <v>1.29</v>
+      </c>
+      <c r="T9" s="35">
+        <v>1.28</v>
+      </c>
+      <c r="U9" s="35">
+        <v>1.26</v>
+      </c>
+      <c r="V9" s="36">
+        <v>1.28</v>
+      </c>
+      <c r="W9" s="36">
+        <v>1.77</v>
+      </c>
+      <c r="X9" s="36">
+        <v>1.78</v>
+      </c>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="34">
+        <v>70</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1.76</v>
+      </c>
+      <c r="D10" s="35">
+        <v>1.74</v>
+      </c>
+      <c r="E10" s="35">
+        <v>1.79</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1.83</v>
+      </c>
+      <c r="G10" s="35">
+        <v>1.86</v>
+      </c>
+      <c r="H10" s="35">
+        <v>1.82</v>
+      </c>
+      <c r="I10" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="J10" s="35">
+        <v>1.86</v>
+      </c>
+      <c r="K10" s="35">
+        <v>1.81</v>
+      </c>
+      <c r="L10" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="M10" s="35">
+        <v>1.83</v>
+      </c>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35">
+        <v>1.71</v>
+      </c>
+      <c r="P10" s="35">
+        <v>1.6</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>1.51</v>
+      </c>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35">
+        <v>1.51</v>
+      </c>
+      <c r="T10" s="35">
+        <v>1.46</v>
+      </c>
+      <c r="U10" s="35">
+        <v>1.49</v>
+      </c>
+      <c r="V10" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="W10" s="36">
+        <v>1.83</v>
+      </c>
+      <c r="X10" s="36">
+        <v>1.78</v>
+      </c>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="39">
+        <v>10</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1.83</v>
+      </c>
+      <c r="D11" s="40">
+        <v>1.68</v>
+      </c>
+      <c r="E11" s="40">
+        <v>1.95</v>
+      </c>
+      <c r="F11" s="40">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G11" s="40">
+        <v>1.9</v>
+      </c>
+      <c r="H11" s="40">
+        <v>1.65</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1.96</v>
+      </c>
+      <c r="J11" s="40">
+        <v>2.09</v>
+      </c>
+      <c r="K11" s="40">
+        <v>1.83</v>
+      </c>
+      <c r="L11" s="40">
+        <v>1.99</v>
+      </c>
+      <c r="M11" s="40">
+        <v>1.72</v>
+      </c>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40">
+        <v>1.42</v>
+      </c>
+      <c r="P11" s="40">
+        <v>1.53</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>1.36</v>
+      </c>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40">
+        <v>1.39</v>
+      </c>
+      <c r="T11" s="40">
+        <v>1.88</v>
+      </c>
+      <c r="U11" s="40">
+        <v>1.8</v>
+      </c>
+      <c r="V11" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="W11" s="41">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="X11" s="41">
+        <v>1.95</v>
+      </c>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="39">
+        <v>30</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1.99</v>
+      </c>
+      <c r="D12" s="40">
+        <v>1.95</v>
+      </c>
+      <c r="E12" s="40">
+        <v>1.99</v>
+      </c>
+      <c r="F12" s="40">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G12" s="40">
+        <v>2</v>
+      </c>
+      <c r="H12" s="40">
+        <v>1.89</v>
+      </c>
+      <c r="I12" s="40">
+        <v>1.95</v>
+      </c>
+      <c r="J12" s="40">
+        <v>1.99</v>
+      </c>
+      <c r="K12" s="40">
+        <v>1.94</v>
+      </c>
+      <c r="L12" s="40">
+        <v>1.96</v>
+      </c>
+      <c r="M12" s="40">
+        <v>1.9</v>
+      </c>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40">
+        <v>1.69</v>
+      </c>
+      <c r="P12" s="40">
+        <v>1.67</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>1.61</v>
+      </c>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40">
+        <v>1.6</v>
+      </c>
+      <c r="T12" s="40">
+        <v>1.71</v>
+      </c>
+      <c r="U12" s="40">
+        <v>1.72</v>
+      </c>
+      <c r="V12" s="41">
+        <v>1.74</v>
+      </c>
+      <c r="W12" s="41">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="X12" s="41">
+        <v>1.97</v>
+      </c>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="39">
+        <v>50</v>
+      </c>
+      <c r="C13" s="39">
+        <v>1.93</v>
+      </c>
+      <c r="D13" s="40">
+        <v>1.89</v>
+      </c>
+      <c r="E13" s="40">
+        <v>1.92</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1.93</v>
+      </c>
+      <c r="G13" s="40">
+        <v>1.96</v>
+      </c>
+      <c r="H13" s="40">
+        <v>1.9</v>
+      </c>
+      <c r="I13" s="40">
+        <v>1.89</v>
+      </c>
+      <c r="J13" s="40">
+        <v>1.93</v>
+      </c>
+      <c r="K13" s="40">
+        <v>1.86</v>
+      </c>
+      <c r="L13" s="40">
+        <v>1.93</v>
+      </c>
+      <c r="M13" s="40">
+        <v>1.86</v>
+      </c>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40">
+        <v>1.71</v>
+      </c>
+      <c r="P13" s="40">
+        <v>1.66</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>1.64</v>
+      </c>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40">
+        <v>1.61</v>
+      </c>
+      <c r="T13" s="40">
+        <v>1.63</v>
+      </c>
+      <c r="U13" s="40">
+        <v>1.67</v>
+      </c>
+      <c r="V13" s="41">
+        <v>1.68</v>
+      </c>
+      <c r="W13" s="41">
+        <v>1.89</v>
+      </c>
+      <c r="X13" s="41">
+        <v>1.93</v>
+      </c>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="39">
+        <v>70</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1.8</v>
+      </c>
+      <c r="D14" s="40">
+        <v>1.77</v>
+      </c>
+      <c r="E14" s="40">
+        <v>1.8</v>
+      </c>
+      <c r="F14" s="40">
+        <v>1.83</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1.83</v>
+      </c>
+      <c r="H14" s="40">
+        <v>1.8</v>
+      </c>
+      <c r="I14" s="40">
+        <v>1.77</v>
+      </c>
+      <c r="J14" s="40">
+        <v>1.79</v>
+      </c>
+      <c r="K14" s="40">
+        <v>1.78</v>
+      </c>
+      <c r="L14" s="40">
+        <v>1.82</v>
+      </c>
+      <c r="M14" s="40">
+        <v>1.75</v>
+      </c>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40">
+        <v>1.68</v>
+      </c>
+      <c r="P14" s="40">
+        <v>1.64</v>
+      </c>
+      <c r="Q14" s="40">
+        <v>1.61</v>
+      </c>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40">
+        <v>1.58</v>
+      </c>
+      <c r="T14" s="40">
+        <v>1.56</v>
+      </c>
+      <c r="U14" s="40">
+        <v>1.61</v>
+      </c>
+      <c r="V14" s="41">
+        <v>1.59</v>
+      </c>
+      <c r="W14" s="41">
+        <v>1.74</v>
+      </c>
+      <c r="X14" s="41">
+        <v>1.78</v>
+      </c>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="39">
+        <v>90</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1.8</v>
+      </c>
+      <c r="D15" s="40">
+        <v>1.77</v>
+      </c>
+      <c r="E15" s="40">
+        <v>1.8</v>
+      </c>
+      <c r="F15" s="40">
+        <v>1.82</v>
+      </c>
+      <c r="G15" s="40">
+        <v>1.82</v>
+      </c>
+      <c r="H15" s="40">
+        <v>1.83</v>
+      </c>
+      <c r="I15" s="40">
+        <v>1.83</v>
+      </c>
+      <c r="J15" s="40">
+        <v>1.84</v>
+      </c>
+      <c r="K15" s="40">
+        <v>1.83</v>
+      </c>
+      <c r="L15" s="40">
+        <v>1.82</v>
+      </c>
+      <c r="M15" s="40">
+        <v>1.8</v>
+      </c>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40">
+        <v>1.8</v>
+      </c>
+      <c r="P15" s="40">
+        <v>1.74</v>
+      </c>
+      <c r="Q15" s="40">
+        <v>1.73</v>
+      </c>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40">
+        <v>1.7</v>
+      </c>
+      <c r="T15" s="40">
+        <v>1.66</v>
+      </c>
+      <c r="U15" s="40">
+        <v>1.67</v>
+      </c>
+      <c r="V15" s="41">
+        <v>1.69</v>
+      </c>
+      <c r="W15" s="41">
+        <v>1.69</v>
+      </c>
+      <c r="X15" s="41">
+        <v>1.79</v>
+      </c>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="44">
+        <v>10</v>
+      </c>
+      <c r="C16" s="44">
+        <v>1.89</v>
+      </c>
+      <c r="D16" s="45">
+        <v>1.7</v>
+      </c>
+      <c r="E16" s="45">
+        <v>2.02</v>
+      </c>
+      <c r="F16" s="45">
+        <v>2.08</v>
+      </c>
+      <c r="G16" s="45">
+        <v>1.93</v>
+      </c>
+      <c r="H16" s="45">
+        <v>1.72</v>
+      </c>
+      <c r="I16" s="45">
+        <v>1.96</v>
+      </c>
+      <c r="J16" s="45">
+        <v>2.1</v>
+      </c>
+      <c r="K16" s="45">
+        <v>1.89</v>
+      </c>
+      <c r="L16" s="45">
+        <v>1.98</v>
+      </c>
+      <c r="M16" s="45">
+        <v>1.74</v>
+      </c>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45">
+        <v>1.46</v>
+      </c>
+      <c r="P16" s="45">
+        <v>1.64</v>
+      </c>
+      <c r="Q16" s="45">
+        <v>1.45</v>
+      </c>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45">
+        <v>1.46</v>
+      </c>
+      <c r="T16" s="45">
+        <v>1.9</v>
+      </c>
+      <c r="U16" s="45">
+        <v>1.87</v>
+      </c>
+      <c r="V16" s="46">
+        <v>1.94</v>
+      </c>
+      <c r="W16" s="46">
+        <v>2.02</v>
+      </c>
+      <c r="X16" s="46">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="44">
+        <v>30</v>
+      </c>
+      <c r="C17" s="44">
+        <v>2.02</v>
+      </c>
+      <c r="D17" s="45">
+        <v>1.99</v>
+      </c>
+      <c r="E17" s="45">
+        <v>2.04</v>
+      </c>
+      <c r="F17" s="45">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G17" s="45">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H17" s="45">
+        <v>1.96</v>
+      </c>
+      <c r="I17" s="45">
+        <v>2.02</v>
+      </c>
+      <c r="J17" s="45">
+        <v>2.09</v>
+      </c>
+      <c r="K17" s="45">
+        <v>2.02</v>
+      </c>
+      <c r="L17" s="45">
+        <v>2.04</v>
+      </c>
+      <c r="M17" s="45">
+        <v>1.97</v>
+      </c>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45">
+        <v>1.75</v>
+      </c>
+      <c r="P17" s="45">
+        <v>1.7</v>
+      </c>
+      <c r="Q17" s="45">
+        <v>1.69</v>
+      </c>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45">
+        <v>1.69</v>
+      </c>
+      <c r="T17" s="45">
+        <v>1.82</v>
+      </c>
+      <c r="U17" s="45">
+        <v>1.81</v>
+      </c>
+      <c r="V17" s="46">
+        <v>1.82</v>
+      </c>
+      <c r="W17" s="46">
+        <v>1.98</v>
+      </c>
+      <c r="X17" s="46">
+        <v>2.06</v>
+      </c>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="44">
+        <v>50</v>
+      </c>
+      <c r="C18" s="44">
+        <v>1.92</v>
+      </c>
+      <c r="D18" s="45">
+        <v>1.91</v>
+      </c>
+      <c r="E18" s="45">
+        <v>1.91</v>
+      </c>
+      <c r="F18" s="45">
+        <v>1.91</v>
+      </c>
+      <c r="G18" s="45">
+        <v>1.96</v>
+      </c>
+      <c r="H18" s="45">
+        <v>1.93</v>
+      </c>
+      <c r="I18" s="45">
+        <v>1.89</v>
+      </c>
+      <c r="J18" s="45">
+        <v>1.85</v>
+      </c>
+      <c r="K18" s="45">
+        <v>1.88</v>
+      </c>
+      <c r="L18" s="45">
+        <v>1.9</v>
+      </c>
+      <c r="M18" s="45">
+        <v>1.84</v>
+      </c>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45">
+        <v>1.73</v>
+      </c>
+      <c r="P18" s="45">
+        <v>1.64</v>
+      </c>
+      <c r="Q18" s="45">
+        <v>1.65</v>
+      </c>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45">
+        <v>1.6</v>
+      </c>
+      <c r="T18" s="45">
+        <v>1.63</v>
+      </c>
+      <c r="U18" s="45">
+        <v>1.63</v>
+      </c>
+      <c r="V18" s="46">
+        <v>1.63</v>
+      </c>
+      <c r="W18" s="46">
+        <v>1.92</v>
+      </c>
+      <c r="X18" s="46">
+        <v>1.91</v>
+      </c>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="44">
+        <v>70</v>
+      </c>
+      <c r="C19" s="44">
+        <v>1.77</v>
+      </c>
+      <c r="D19" s="45">
+        <v>1.74</v>
+      </c>
+      <c r="E19" s="45">
+        <v>1.77</v>
+      </c>
+      <c r="F19" s="45">
+        <v>1.76</v>
+      </c>
+      <c r="G19" s="45">
+        <v>1.79</v>
+      </c>
+      <c r="H19" s="45">
+        <v>1.81</v>
+      </c>
+      <c r="I19" s="45">
+        <v>1.76</v>
+      </c>
+      <c r="J19" s="45">
+        <v>1.77</v>
+      </c>
+      <c r="K19" s="45">
+        <v>1.78</v>
+      </c>
+      <c r="L19" s="45">
+        <v>1.73</v>
+      </c>
+      <c r="M19" s="45">
+        <v>1.73</v>
+      </c>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45">
+        <v>1.71</v>
+      </c>
+      <c r="P19" s="45">
+        <v>1.65</v>
+      </c>
+      <c r="Q19" s="45">
+        <v>1.62</v>
+      </c>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45">
+        <v>1.59</v>
+      </c>
+      <c r="T19" s="45">
+        <v>1.55</v>
+      </c>
+      <c r="U19" s="45">
+        <v>1.56</v>
+      </c>
+      <c r="V19" s="46">
+        <v>1.58</v>
+      </c>
+      <c r="W19" s="46">
+        <v>1.77</v>
+      </c>
+      <c r="X19" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="44">
+        <v>90</v>
+      </c>
+      <c r="C20" s="44">
+        <v>1.71</v>
+      </c>
+      <c r="D20" s="45">
+        <v>1.71</v>
+      </c>
+      <c r="E20" s="45">
+        <v>1.72</v>
+      </c>
+      <c r="F20" s="45">
+        <v>1.75</v>
+      </c>
+      <c r="G20" s="45">
+        <v>1.77</v>
+      </c>
+      <c r="H20" s="45">
+        <v>1.79</v>
+      </c>
+      <c r="I20" s="45">
+        <v>1.77</v>
+      </c>
+      <c r="J20" s="45">
+        <v>1.77</v>
+      </c>
+      <c r="K20" s="45">
+        <v>1.8</v>
+      </c>
+      <c r="L20" s="45">
+        <v>1.78</v>
+      </c>
+      <c r="M20" s="45">
+        <v>1.76</v>
+      </c>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45">
+        <v>1.73</v>
+      </c>
+      <c r="P20" s="45">
+        <v>1.72</v>
+      </c>
+      <c r="Q20" s="45">
+        <v>1.74</v>
+      </c>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45">
+        <v>1.7</v>
+      </c>
+      <c r="T20" s="45">
+        <v>1.72</v>
+      </c>
+      <c r="U20" s="45">
+        <v>1.68</v>
+      </c>
+      <c r="V20" s="46">
+        <v>1.72</v>
+      </c>
+      <c r="W20" s="46">
+        <v>1.73</v>
+      </c>
+      <c r="X20" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="49">
+        <v>10</v>
+      </c>
+      <c r="C21" s="49">
+        <v>1.27</v>
+      </c>
+      <c r="D21" s="50">
+        <v>1.02</v>
+      </c>
+      <c r="E21" s="50">
+        <v>1.58</v>
+      </c>
+      <c r="F21" s="50">
+        <v>1.82</v>
+      </c>
+      <c r="G21" s="50">
+        <v>1.51</v>
+      </c>
+      <c r="H21" s="50">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I21" s="50">
+        <v>1.76</v>
+      </c>
+      <c r="J21" s="50">
+        <v>1.89</v>
+      </c>
+      <c r="K21" s="50">
+        <v>1.45</v>
+      </c>
+      <c r="L21" s="50">
+        <v>1.76</v>
+      </c>
+      <c r="M21" s="50">
+        <v>1.48</v>
+      </c>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50">
+        <v>0.84</v>
+      </c>
+      <c r="P21" s="50">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q21" s="50">
+        <v>0.7</v>
+      </c>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="T21" s="50">
+        <v>1.43</v>
+      </c>
+      <c r="U21" s="50">
+        <v>1.35</v>
+      </c>
+      <c r="V21" s="51">
+        <v>1.45</v>
+      </c>
+      <c r="W21" s="51">
+        <v>1.79</v>
+      </c>
+      <c r="X21" s="51">
+        <v>1.52</v>
+      </c>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="53"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="49">
+        <v>30</v>
+      </c>
+      <c r="C22" s="49">
+        <v>1.68</v>
+      </c>
+      <c r="D22" s="50">
+        <v>1.46</v>
+      </c>
+      <c r="E22" s="50">
+        <v>1.9</v>
+      </c>
+      <c r="F22" s="50">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G22" s="50">
+        <v>1.82</v>
+      </c>
+      <c r="H22" s="50">
+        <v>1.44</v>
+      </c>
+      <c r="I22" s="50">
+        <v>1.99</v>
+      </c>
+      <c r="J22" s="50">
+        <v>2.11</v>
+      </c>
+      <c r="K22" s="50">
+        <v>1.77</v>
+      </c>
+      <c r="L22" s="50">
+        <v>2</v>
+      </c>
+      <c r="M22" s="50">
+        <v>1.78</v>
+      </c>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50">
+        <v>1.17</v>
+      </c>
+      <c r="P22" s="50">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q22" s="50">
+        <v>0.99</v>
+      </c>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50">
+        <v>0.96</v>
+      </c>
+      <c r="T22" s="50">
+        <v>1.21</v>
+      </c>
+      <c r="U22" s="50">
+        <v>1.39</v>
+      </c>
+      <c r="V22" s="51">
+        <v>1.53</v>
+      </c>
+      <c r="W22" s="51">
+        <v>2</v>
+      </c>
+      <c r="X22" s="51">
+        <v>1.78</v>
+      </c>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="54">
+        <v>10</v>
+      </c>
+      <c r="C23" s="54">
+        <v>1.19</v>
+      </c>
+      <c r="D23" s="55">
+        <v>0.85</v>
+      </c>
+      <c r="E23" s="55">
+        <v>1.63</v>
+      </c>
+      <c r="F23" s="55">
+        <v>1.85</v>
+      </c>
+      <c r="G23" s="55">
+        <v>1.48</v>
+      </c>
+      <c r="H23" s="55">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I23" s="55">
+        <v>1.77</v>
+      </c>
+      <c r="J23" s="55">
+        <v>1.89</v>
+      </c>
+      <c r="K23" s="55">
+        <v>1.45</v>
+      </c>
+      <c r="L23" s="55">
+        <v>1.8</v>
+      </c>
+      <c r="M23" s="55">
+        <v>1.4</v>
+      </c>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="P23" s="55">
+        <v>0.99</v>
+      </c>
+      <c r="Q23" s="55">
+        <v>0.65</v>
+      </c>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55">
+        <v>0.73</v>
+      </c>
+      <c r="T23" s="55">
+        <v>1.52</v>
+      </c>
+      <c r="U23" s="55">
+        <v>1.42</v>
+      </c>
+      <c r="V23" s="56">
+        <v>1.52</v>
+      </c>
+      <c r="W23" s="56">
+        <v>1.81</v>
+      </c>
+      <c r="X23" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="54">
+        <v>30</v>
+      </c>
+      <c r="C24" s="54">
+        <v>1.61</v>
+      </c>
+      <c r="D24" s="55">
+        <v>1.19</v>
+      </c>
+      <c r="E24" s="55">
+        <v>1.84</v>
+      </c>
+      <c r="F24" s="55">
+        <v>2.08</v>
+      </c>
+      <c r="G24" s="55">
+        <v>1.81</v>
+      </c>
+      <c r="H24" s="55">
+        <v>1.49</v>
+      </c>
+      <c r="I24" s="55">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J24" s="55">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K24" s="55">
+        <v>1.82</v>
+      </c>
+      <c r="L24" s="55">
+        <v>1.98</v>
+      </c>
+      <c r="M24" s="55">
+        <v>1.78</v>
+      </c>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55">
+        <v>0.99</v>
+      </c>
+      <c r="P24" s="55">
+        <v>1.05</v>
+      </c>
+      <c r="Q24" s="55">
+        <v>0.95</v>
+      </c>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55">
+        <v>0.91</v>
+      </c>
+      <c r="T24" s="55">
+        <v>1.7</v>
+      </c>
+      <c r="U24" s="55">
+        <v>1.63</v>
+      </c>
+      <c r="V24" s="56">
+        <v>1.72</v>
+      </c>
+      <c r="W24" s="56">
+        <v>1.98</v>
+      </c>
+      <c r="X24" s="56">
+        <v>1.77</v>
+      </c>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="59">
+        <v>10</v>
+      </c>
+      <c r="C25" s="59">
+        <v>1.7</v>
+      </c>
+      <c r="D25" s="60">
+        <v>1.58</v>
+      </c>
+      <c r="E25" s="60">
+        <v>1.82</v>
+      </c>
+      <c r="F25" s="60">
+        <v>1.9</v>
+      </c>
+      <c r="G25" s="60">
+        <v>1.78</v>
+      </c>
+      <c r="H25" s="60">
+        <v>1.56</v>
+      </c>
+      <c r="I25" s="60">
+        <v>1.83</v>
+      </c>
+      <c r="J25" s="60">
+        <v>1.96</v>
+      </c>
+      <c r="K25" s="60">
+        <v>1.71</v>
+      </c>
+      <c r="L25" s="60">
+        <v>1.87</v>
+      </c>
+      <c r="M25" s="60">
+        <v>1.64</v>
+      </c>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60">
+        <v>1.18</v>
+      </c>
+      <c r="P25" s="60">
+        <v>1.34</v>
+      </c>
+      <c r="Q25" s="60">
+        <v>1.17</v>
+      </c>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60">
+        <v>1.24</v>
+      </c>
+      <c r="T25" s="60">
+        <v>1.8</v>
+      </c>
+      <c r="U25" s="60">
+        <v>1.73</v>
+      </c>
+      <c r="V25" s="61">
+        <v>1.79</v>
+      </c>
+      <c r="W25" s="61">
+        <v>1.87</v>
+      </c>
+      <c r="X25" s="61">
+        <v>1.83</v>
+      </c>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="59">
+        <v>30</v>
+      </c>
+      <c r="C26" s="59">
+        <v>1.87</v>
+      </c>
+      <c r="D26" s="60">
+        <v>1.83</v>
+      </c>
+      <c r="E26" s="60">
+        <v>1.85</v>
+      </c>
+      <c r="F26" s="60">
+        <v>1.92</v>
+      </c>
+      <c r="G26" s="60">
+        <v>1.9</v>
+      </c>
+      <c r="H26" s="60">
+        <v>1.76</v>
+      </c>
+      <c r="I26" s="60">
+        <v>1.87</v>
+      </c>
+      <c r="J26" s="60">
+        <v>1.92</v>
+      </c>
+      <c r="K26" s="60">
+        <v>1.84</v>
+      </c>
+      <c r="L26" s="60">
+        <v>1.87</v>
+      </c>
+      <c r="M26" s="60">
+        <v>1.81</v>
+      </c>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60">
+        <v>1.52</v>
+      </c>
+      <c r="P26" s="60">
+        <v>1.45</v>
+      </c>
+      <c r="Q26" s="60">
+        <v>1.46</v>
+      </c>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60">
+        <v>1.44</v>
+      </c>
+      <c r="T26" s="60">
+        <v>1.77</v>
+      </c>
+      <c r="U26" s="60">
+        <v>1.73</v>
+      </c>
+      <c r="V26" s="61">
+        <v>1.83</v>
+      </c>
+      <c r="W26" s="61">
+        <v>1.88</v>
+      </c>
+      <c r="X26" s="61">
+        <v>1.85</v>
+      </c>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="63"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="59">
+        <v>50</v>
+      </c>
+      <c r="C27" s="59">
+        <v>1.82</v>
+      </c>
+      <c r="D27" s="60">
+        <v>1.77</v>
+      </c>
+      <c r="E27" s="60">
+        <v>1.81</v>
+      </c>
+      <c r="F27" s="60">
+        <v>1.82</v>
+      </c>
+      <c r="G27" s="60">
+        <v>1.84</v>
+      </c>
+      <c r="H27" s="60">
+        <v>1.79</v>
+      </c>
+      <c r="I27" s="60">
+        <v>1.82</v>
+      </c>
+      <c r="J27" s="60">
+        <v>1.86</v>
+      </c>
+      <c r="K27" s="60">
+        <v>1.84</v>
+      </c>
+      <c r="L27" s="60">
+        <v>1.79</v>
+      </c>
+      <c r="M27" s="60">
+        <v>1.79</v>
+      </c>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60">
+        <v>1.58</v>
+      </c>
+      <c r="P27" s="60">
+        <v>1.51</v>
+      </c>
+      <c r="Q27" s="60">
+        <v>1.46</v>
+      </c>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60">
+        <v>1.46</v>
+      </c>
+      <c r="T27" s="60">
+        <v>1.57</v>
+      </c>
+      <c r="U27" s="60">
+        <v>1.59</v>
+      </c>
+      <c r="V27" s="61">
+        <v>1.69</v>
+      </c>
+      <c r="W27" s="61">
+        <v>1.83</v>
+      </c>
+      <c r="X27" s="61">
+        <v>1.79</v>
+      </c>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="59">
+        <v>70</v>
+      </c>
+      <c r="C28" s="59">
+        <v>1.79</v>
+      </c>
+      <c r="D28" s="60">
+        <v>1.79</v>
+      </c>
+      <c r="E28" s="60">
+        <v>1.78</v>
+      </c>
+      <c r="F28" s="60">
+        <v>1.82</v>
+      </c>
+      <c r="G28" s="60">
+        <v>1.83</v>
+      </c>
+      <c r="H28" s="60">
+        <v>1.81</v>
+      </c>
+      <c r="I28" s="60">
+        <v>1.82</v>
+      </c>
+      <c r="J28" s="60">
+        <v>1.85</v>
+      </c>
+      <c r="K28" s="60">
+        <v>1.84</v>
+      </c>
+      <c r="L28" s="60">
+        <v>1.79</v>
+      </c>
+      <c r="M28" s="60">
+        <v>1.81</v>
+      </c>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60">
+        <v>1.67</v>
+      </c>
+      <c r="P28" s="60">
+        <v>1.62</v>
+      </c>
+      <c r="Q28" s="60">
+        <v>1.56</v>
+      </c>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60">
+        <v>1.55</v>
+      </c>
+      <c r="T28" s="60">
+        <v>1.61</v>
+      </c>
+      <c r="U28" s="60">
+        <v>1.59</v>
+      </c>
+      <c r="V28" s="61">
+        <v>1.6</v>
+      </c>
+      <c r="W28" s="61">
+        <v>1.78</v>
+      </c>
+      <c r="X28" s="61">
+        <v>1.81</v>
+      </c>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="64">
+        <v>10</v>
+      </c>
+      <c r="C29" s="64">
+        <v>1.68</v>
+      </c>
+      <c r="D29" s="65">
+        <v>1.49</v>
+      </c>
+      <c r="E29" s="65">
+        <v>1.73</v>
+      </c>
+      <c r="F29" s="65">
+        <v>1.84</v>
+      </c>
+      <c r="G29" s="65">
+        <v>1.69</v>
+      </c>
+      <c r="H29" s="65">
+        <v>1.4</v>
+      </c>
+      <c r="I29" s="65">
+        <v>1.75</v>
+      </c>
+      <c r="J29" s="65">
+        <v>1.91</v>
+      </c>
+      <c r="K29" s="65">
+        <v>1.68</v>
+      </c>
+      <c r="L29" s="65">
+        <v>1.79</v>
+      </c>
+      <c r="M29" s="65">
+        <v>1.62</v>
+      </c>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65">
+        <v>1.22</v>
+      </c>
+      <c r="P29" s="65">
+        <v>1.55</v>
+      </c>
+      <c r="Q29" s="65">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65">
+        <v>1.22</v>
+      </c>
+      <c r="T29" s="65">
+        <v>1.74</v>
+      </c>
+      <c r="U29" s="65">
+        <v>1.73</v>
+      </c>
+      <c r="V29" s="66">
+        <v>1.78</v>
+      </c>
+      <c r="W29" s="66">
+        <v>1.84</v>
+      </c>
+      <c r="X29" s="66">
+        <v>1.78</v>
+      </c>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="64">
+        <v>30</v>
+      </c>
+      <c r="C30" s="64">
+        <v>1.89</v>
+      </c>
+      <c r="D30" s="65">
+        <v>1.78</v>
+      </c>
+      <c r="E30" s="65">
+        <v>1.89</v>
+      </c>
+      <c r="F30" s="65">
+        <v>1.94</v>
+      </c>
+      <c r="G30" s="65">
+        <v>1.88</v>
+      </c>
+      <c r="H30" s="65">
+        <v>1.72</v>
+      </c>
+      <c r="I30" s="65">
+        <v>1.84</v>
+      </c>
+      <c r="J30" s="65">
+        <v>1.93</v>
+      </c>
+      <c r="K30" s="65">
+        <v>1.85</v>
+      </c>
+      <c r="L30" s="65">
+        <v>1.9</v>
+      </c>
+      <c r="M30" s="65">
+        <v>1.81</v>
+      </c>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65">
+        <v>1.48</v>
+      </c>
+      <c r="P30" s="65">
+        <v>1.63</v>
+      </c>
+      <c r="Q30" s="65">
+        <v>1.42</v>
+      </c>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65">
+        <v>1.45</v>
+      </c>
+      <c r="T30" s="65">
+        <v>1.77</v>
+      </c>
+      <c r="U30" s="65">
+        <v>1.77</v>
+      </c>
+      <c r="V30" s="66">
+        <v>1.86</v>
+      </c>
+      <c r="W30" s="66">
+        <v>1.94</v>
+      </c>
+      <c r="X30" s="66">
+        <v>1.87</v>
+      </c>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="64">
+        <v>50</v>
+      </c>
+      <c r="C31" s="64">
+        <v>1.84</v>
+      </c>
+      <c r="D31" s="65">
+        <v>1.83</v>
+      </c>
+      <c r="E31" s="65">
+        <v>1.83</v>
+      </c>
+      <c r="F31" s="65">
+        <v>1.86</v>
+      </c>
+      <c r="G31" s="65">
+        <v>1.88</v>
+      </c>
+      <c r="H31" s="65">
+        <v>1.81</v>
+      </c>
+      <c r="I31" s="65">
+        <v>1.81</v>
+      </c>
+      <c r="J31" s="65">
+        <v>1.89</v>
+      </c>
+      <c r="K31" s="65">
+        <v>1.89</v>
+      </c>
+      <c r="L31" s="65">
+        <v>1.85</v>
+      </c>
+      <c r="M31" s="65">
+        <v>1.83</v>
+      </c>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65">
+        <v>1.61</v>
+      </c>
+      <c r="P31" s="65">
+        <v>1.59</v>
+      </c>
+      <c r="Q31" s="65">
+        <v>1.52</v>
+      </c>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65">
+        <v>1.48</v>
+      </c>
+      <c r="T31" s="65">
+        <v>1.59</v>
+      </c>
+      <c r="U31" s="65">
+        <v>1.59</v>
+      </c>
+      <c r="V31" s="66">
+        <v>1.69</v>
+      </c>
+      <c r="W31" s="66">
+        <v>1.84</v>
+      </c>
+      <c r="X31" s="66">
+        <v>1.86</v>
+      </c>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="64">
+        <v>70</v>
+      </c>
+      <c r="C32" s="64">
+        <v>1.74</v>
+      </c>
+      <c r="D32" s="65">
+        <v>1.71</v>
+      </c>
+      <c r="E32" s="65">
+        <v>1.75</v>
+      </c>
+      <c r="F32" s="65">
+        <v>1.75</v>
+      </c>
+      <c r="G32" s="65">
+        <v>1.75</v>
+      </c>
+      <c r="H32" s="65">
+        <v>1.74</v>
+      </c>
+      <c r="I32" s="65">
+        <v>1.71</v>
+      </c>
+      <c r="J32" s="65">
+        <v>1.77</v>
+      </c>
+      <c r="K32" s="65">
+        <v>1.76</v>
+      </c>
+      <c r="L32" s="65">
+        <v>1.72</v>
+      </c>
+      <c r="M32" s="65">
+        <v>1.76</v>
+      </c>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65">
+        <v>1.62</v>
+      </c>
+      <c r="P32" s="65">
+        <v>1.53</v>
+      </c>
+      <c r="Q32" s="65">
+        <v>1.5</v>
+      </c>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65">
+        <v>1.46</v>
+      </c>
+      <c r="T32" s="65">
+        <v>1.49</v>
+      </c>
+      <c r="U32" s="65">
+        <v>1.48</v>
+      </c>
+      <c r="V32" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="W32" s="66">
+        <v>1.75</v>
+      </c>
+      <c r="X32" s="66">
+        <v>1.76</v>
+      </c>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+    </row>
+    <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="64">
+        <v>90</v>
+      </c>
+      <c r="C33" s="64">
+        <v>1.71</v>
+      </c>
+      <c r="D33" s="65">
+        <v>1.68</v>
+      </c>
+      <c r="E33" s="65">
+        <v>1.76</v>
+      </c>
+      <c r="F33" s="65">
+        <v>1.8</v>
+      </c>
+      <c r="G33" s="65">
+        <v>1.87</v>
+      </c>
+      <c r="H33" s="65">
+        <v>1.83</v>
+      </c>
+      <c r="I33" s="65">
+        <v>1.8</v>
+      </c>
+      <c r="J33" s="65">
+        <v>1.86</v>
+      </c>
+      <c r="K33" s="65">
+        <v>1.81</v>
+      </c>
+      <c r="L33" s="65">
+        <v>1.8</v>
+      </c>
+      <c r="M33" s="65">
+        <v>1.85</v>
+      </c>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65">
+        <v>1.76</v>
+      </c>
+      <c r="P33" s="65">
+        <v>1.72</v>
+      </c>
+      <c r="Q33" s="65">
+        <v>1.64</v>
+      </c>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65">
+        <v>1.6</v>
+      </c>
+      <c r="T33" s="65">
+        <v>1.61</v>
+      </c>
+      <c r="U33" s="65">
+        <v>1.61</v>
+      </c>
+      <c r="V33" s="66">
+        <v>1.62</v>
+      </c>
+      <c r="W33" s="66">
+        <v>1.81</v>
+      </c>
+      <c r="X33" s="66">
+        <v>1.81</v>
+      </c>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+    </row>
+    <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="68">
+        <v>10</v>
+      </c>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="70">
+        <v>1.29</v>
+      </c>
+      <c r="O34" s="70">
+        <v>1.04</v>
+      </c>
+      <c r="P34" s="71">
+        <v>1.23</v>
+      </c>
+      <c r="Q34" s="71">
+        <v>0.9</v>
+      </c>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71">
+        <v>0.87</v>
+      </c>
+      <c r="T34" s="71">
+        <v>1.55</v>
+      </c>
+      <c r="U34" s="71">
+        <v>1.4</v>
+      </c>
+      <c r="V34" s="71">
+        <v>1.51</v>
+      </c>
+      <c r="W34" s="71">
+        <v>1.63</v>
+      </c>
+      <c r="X34" s="71">
+        <v>1.54</v>
+      </c>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+    </row>
+    <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="68">
+        <v>30</v>
+      </c>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="70">
+        <v>1.57</v>
+      </c>
+      <c r="O35" s="70">
+        <v>1.41</v>
+      </c>
+      <c r="P35" s="71">
+        <v>1.34</v>
+      </c>
+      <c r="Q35" s="71">
+        <v>1.17</v>
+      </c>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="T35" s="71">
+        <v>1.57</v>
+      </c>
+      <c r="U35" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="V35" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="W35" s="71">
+        <v>1.71</v>
+      </c>
+      <c r="X35" s="71">
+        <v>1.65</v>
+      </c>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="72"/>
+      <c r="AE35" s="72"/>
+      <c r="AF35" s="72"/>
+    </row>
+    <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="68">
+        <v>50</v>
+      </c>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="70">
+        <v>1.75</v>
+      </c>
+      <c r="O36" s="70">
+        <v>1.7</v>
+      </c>
+      <c r="P36" s="71">
+        <v>1.62</v>
+      </c>
+      <c r="Q36" s="71">
+        <v>1.49</v>
+      </c>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71">
+        <v>1.41</v>
+      </c>
+      <c r="T36" s="71">
+        <v>1.45</v>
+      </c>
+      <c r="U36" s="71">
+        <v>1.46</v>
+      </c>
+      <c r="V36" s="71">
+        <v>1.49</v>
+      </c>
+      <c r="W36" s="71">
+        <v>1.78</v>
+      </c>
+      <c r="X36" s="71">
+        <v>1.75</v>
+      </c>
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="69"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="72"/>
+    </row>
+    <row r="37" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="68">
+        <v>70</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="70">
+        <v>1.9</v>
+      </c>
+      <c r="O37" s="70">
+        <v>1.86</v>
+      </c>
+      <c r="P37" s="71">
+        <v>1.85</v>
+      </c>
+      <c r="Q37" s="71">
+        <v>1.76</v>
+      </c>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71">
+        <v>1.66</v>
+      </c>
+      <c r="T37" s="71">
+        <v>1.66</v>
+      </c>
+      <c r="U37" s="71">
+        <v>1.67</v>
+      </c>
+      <c r="V37" s="71">
+        <v>1.66</v>
+      </c>
+      <c r="W37" s="71">
+        <v>1.89</v>
+      </c>
+      <c r="X37" s="71">
+        <v>1.88</v>
+      </c>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="69"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+    </row>
+    <row r="38" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="68">
+        <v>90</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="70">
+        <v>1.92</v>
+      </c>
+      <c r="O38" s="70">
+        <v>1.92</v>
+      </c>
+      <c r="P38" s="71">
+        <v>1.9</v>
+      </c>
+      <c r="Q38" s="71">
+        <v>1.83</v>
+      </c>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71">
+        <v>1.74</v>
+      </c>
+      <c r="T38" s="71">
+        <v>1.72</v>
+      </c>
+      <c r="U38" s="71">
+        <v>1.73</v>
+      </c>
+      <c r="V38" s="71">
+        <v>1.69</v>
+      </c>
+      <c r="W38" s="71">
+        <v>1.92</v>
+      </c>
+      <c r="X38" s="71">
+        <v>1.97</v>
+      </c>
+      <c r="Y38" s="69"/>
+      <c r="Z38" s="69"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="39">
+        <v>10</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41">
+        <v>1.04</v>
+      </c>
+      <c r="S39" s="41">
+        <v>1.04</v>
+      </c>
+      <c r="T39" s="41">
+        <v>1.61</v>
+      </c>
+      <c r="U39" s="41">
+        <v>1.54</v>
+      </c>
+      <c r="V39" s="41">
+        <v>1.62</v>
+      </c>
+      <c r="W39" s="41">
+        <v>1.71</v>
+      </c>
+      <c r="X39" s="41">
+        <v>1.65</v>
+      </c>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="39">
+        <v>30</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S40" s="41">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T40" s="41">
+        <v>1.66</v>
+      </c>
+      <c r="U40" s="41">
+        <v>1.57</v>
+      </c>
+      <c r="V40" s="41">
+        <v>1.65</v>
+      </c>
+      <c r="W40" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="X40" s="41">
+        <v>1.71</v>
+      </c>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="39">
+        <v>50</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41">
+        <v>1.31</v>
+      </c>
+      <c r="S41" s="41">
+        <v>1.3</v>
+      </c>
+      <c r="T41" s="41">
+        <v>1.52</v>
+      </c>
+      <c r="U41" s="41">
+        <v>1.54</v>
+      </c>
+      <c r="V41" s="41">
+        <v>1.59</v>
+      </c>
+      <c r="W41" s="41">
+        <v>1.81</v>
+      </c>
+      <c r="X41" s="41">
+        <v>1.79</v>
+      </c>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="39">
+        <v>70</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41">
+        <v>1.59</v>
+      </c>
+      <c r="S42" s="41">
+        <v>1.58</v>
+      </c>
+      <c r="T42" s="41">
+        <v>1.57</v>
+      </c>
+      <c r="U42" s="41">
+        <v>1.63</v>
+      </c>
+      <c r="V42" s="41">
+        <v>1.59</v>
+      </c>
+      <c r="W42" s="41">
+        <v>1.86</v>
+      </c>
+      <c r="X42" s="41">
+        <v>1.88</v>
+      </c>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="43"/>
+      <c r="AF42" s="43"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="39">
+        <v>90</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41">
+        <v>1.73</v>
+      </c>
+      <c r="S43" s="41">
+        <v>1.76</v>
+      </c>
+      <c r="T43" s="41">
+        <v>1.72</v>
+      </c>
+      <c r="U43" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="V43" s="41">
+        <v>1.71</v>
+      </c>
+      <c r="W43" s="41">
+        <v>1.93</v>
+      </c>
+      <c r="X43" s="41">
+        <v>1.94</v>
+      </c>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="43"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="82"/>
+      <c r="O46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46" s="83"/>
+      <c r="S46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="T46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="U46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="V46" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="W46" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="X46" s="83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="75">
+        <v>10</v>
+      </c>
+      <c r="C47" s="76">
+        <f t="shared" ref="C47" si="0">(C3*$B$90)+$B$89</f>
+        <v>0.31787199999999999</v>
+      </c>
+      <c r="D47" s="76">
+        <f t="shared" ref="D47:W47" si="1">(D3*$B$90)+$B$89</f>
+        <v>0.27860800000000002</v>
+      </c>
+      <c r="E47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.35713600000000006</v>
+      </c>
+      <c r="F47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.38658400000000004</v>
+      </c>
+      <c r="G47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.34732000000000002</v>
+      </c>
+      <c r="H47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.2737</v>
+      </c>
+      <c r="I47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.28597000000000006</v>
+      </c>
+      <c r="J47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.39149200000000001</v>
+      </c>
+      <c r="K47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.30314800000000003</v>
+      </c>
+      <c r="L47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.35468200000000005</v>
+      </c>
+      <c r="M47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.29578600000000005</v>
+      </c>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.20744200000000002</v>
+      </c>
+      <c r="P47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.22952800000000007</v>
+      </c>
+      <c r="Q47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.192718</v>
+      </c>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.20253399999999999</v>
+      </c>
+      <c r="T47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.32278000000000001</v>
+      </c>
+      <c r="U47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.31787199999999999</v>
+      </c>
+      <c r="V47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.34732000000000002</v>
+      </c>
+      <c r="W47" s="76">
+        <f t="shared" si="1"/>
+        <v>0.37431400000000004</v>
+      </c>
+      <c r="X47" s="76">
+        <f t="shared" ref="X47" si="2">(X3*$B$90)+$B$89</f>
+        <v>0.36204400000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="75">
+        <v>30</v>
+      </c>
+      <c r="C48" s="76">
+        <f t="shared" ref="C48" si="3">(C4*$C$90)+$C$89</f>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="D48" s="76">
+        <f t="shared" ref="D48:V48" si="4">(D4*$C$90)+$C$89</f>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="E48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="F48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.33752299999999991</v>
+      </c>
+      <c r="G48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="H48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.26905099999999993</v>
+      </c>
+      <c r="I48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.23481500000000002</v>
+      </c>
+      <c r="J48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.32040499999999994</v>
+      </c>
+      <c r="K48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="L48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="M48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.26619799999999993</v>
+      </c>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.17775500000000002</v>
+      </c>
+      <c r="P48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.16919600000000004</v>
+      </c>
+      <c r="Q48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.15778400000000001</v>
+      </c>
+      <c r="R48" s="76"/>
+      <c r="S48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.15207800000000002</v>
+      </c>
+      <c r="T48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.19772599999999999</v>
+      </c>
+      <c r="U48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.18631399999999995</v>
+      </c>
+      <c r="V48" s="76">
+        <f t="shared" si="4"/>
+        <v>0.20057899999999998</v>
+      </c>
+      <c r="W48" s="76">
+        <f t="shared" ref="W48:X48" si="5">(W4*$C$90)+$C$89</f>
+        <v>0.32040499999999994</v>
+      </c>
+      <c r="X48" s="76">
+        <f t="shared" si="5"/>
+        <v>0.32040499999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="75">
+        <v>50</v>
+      </c>
+      <c r="C49" s="76">
+        <f t="shared" ref="C49" si="6">(C5*$C$90)+$C$89</f>
+        <v>0.25478600000000007</v>
+      </c>
+      <c r="D49" s="76">
+        <f t="shared" ref="D49:V49" si="7">(D5*$C$90)+$C$89</f>
+        <v>0.25478600000000007</v>
+      </c>
+      <c r="E49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="F49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="G49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="H49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.28046300000000002</v>
+      </c>
+      <c r="I49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.23766800000000002</v>
+      </c>
+      <c r="J49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.27190399999999992</v>
+      </c>
+      <c r="K49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.27475700000000003</v>
+      </c>
+      <c r="L49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.20913799999999996</v>
+      </c>
+      <c r="M49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.20343199999999997</v>
+      </c>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.14351899999999998</v>
+      </c>
+      <c r="P49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.14066599999999999</v>
+      </c>
+      <c r="Q49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.132107</v>
+      </c>
+      <c r="R49" s="76"/>
+      <c r="S49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.12354799999999996</v>
+      </c>
+      <c r="T49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.13781299999999999</v>
+      </c>
+      <c r="U49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.13781299999999999</v>
+      </c>
+      <c r="V49" s="76">
+        <f t="shared" si="7"/>
+        <v>0.13496</v>
+      </c>
+      <c r="W49" s="76">
+        <f t="shared" ref="W49:X49" si="8">(W5*$C$90)+$C$89</f>
+        <v>0.289022</v>
+      </c>
+      <c r="X49" s="76">
+        <f t="shared" si="8"/>
+        <v>0.28331600000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="75">
+        <v>70</v>
+      </c>
+      <c r="C50" s="76">
+        <f t="shared" ref="C50" si="9">(C6*$C$90)+$C$89</f>
+        <v>0.23196200000000003</v>
+      </c>
+      <c r="D50" s="76">
+        <f t="shared" ref="D50:V50" si="10">(D6*$C$90)+$C$89</f>
+        <v>0.23766800000000002</v>
+      </c>
+      <c r="E50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="F50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="G50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="H50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.291875</v>
+      </c>
+      <c r="I50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.27761000000000002</v>
+      </c>
+      <c r="J50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="K50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="L50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.25478600000000007</v>
+      </c>
+      <c r="M50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.26049199999999995</v>
+      </c>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.19772599999999999</v>
+      </c>
+      <c r="P50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.18060800000000002</v>
+      </c>
+      <c r="Q50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.160637</v>
+      </c>
+      <c r="R50" s="76"/>
+      <c r="S50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.160637</v>
+      </c>
+      <c r="T50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.15778400000000001</v>
+      </c>
+      <c r="U50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.15778400000000001</v>
+      </c>
+      <c r="V50" s="76">
+        <f t="shared" si="10"/>
+        <v>0.160637</v>
+      </c>
+      <c r="W50" s="76">
+        <f t="shared" ref="W50:X50" si="11">(W6*$C$90)+$C$89</f>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="X50" s="76">
+        <f t="shared" si="11"/>
+        <v>0.30043399999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="34">
+        <v>10</v>
+      </c>
+      <c r="C51" s="77">
+        <f t="shared" ref="C51" si="12">(C7*$B$90)+$B$89</f>
+        <v>0.29087800000000003</v>
+      </c>
+      <c r="D51" s="77">
+        <f t="shared" ref="D51:V51" si="13">(D7*$B$90)+$B$89</f>
+        <v>0.23934400000000006</v>
+      </c>
+      <c r="E51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.32523400000000002</v>
+      </c>
+      <c r="F51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.34241200000000005</v>
+      </c>
+      <c r="G51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.31051000000000001</v>
+      </c>
+      <c r="H51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.21971200000000002</v>
+      </c>
+      <c r="I51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.308056</v>
+      </c>
+      <c r="J51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.366952</v>
+      </c>
+      <c r="K51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.29824000000000006</v>
+      </c>
+      <c r="L51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.34241200000000005</v>
+      </c>
+      <c r="M51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.26388400000000001</v>
+      </c>
+      <c r="N51" s="77"/>
+      <c r="O51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.16327000000000003</v>
+      </c>
+      <c r="P51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.22216600000000003</v>
+      </c>
+      <c r="Q51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.15345400000000003</v>
+      </c>
+      <c r="R51" s="77"/>
+      <c r="S51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.16572400000000004</v>
+      </c>
+      <c r="T51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.32278000000000001</v>
+      </c>
+      <c r="U51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.308056</v>
+      </c>
+      <c r="V51" s="77">
+        <f t="shared" si="13"/>
+        <v>0.332596</v>
+      </c>
+      <c r="W51" s="77">
+        <f t="shared" ref="W51:X51" si="14">(W7*$B$90)+$B$89</f>
+        <v>0.35713600000000006</v>
+      </c>
+      <c r="X51" s="77">
+        <f t="shared" si="14"/>
+        <v>0.332596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="34">
+        <v>30</v>
+      </c>
+      <c r="C52" s="77">
+        <f t="shared" ref="C52" si="15">(C8*$C$90)+$C$89</f>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="D52" s="77">
+        <f t="shared" ref="D52:V52" si="16">(D8*$C$90)+$C$89</f>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="E52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="F52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.32611100000000004</v>
+      </c>
+      <c r="G52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="H52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.25193300000000007</v>
+      </c>
+      <c r="I52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.27761000000000002</v>
+      </c>
+      <c r="J52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.32611100000000004</v>
+      </c>
+      <c r="K52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="L52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="M52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.17775500000000002</v>
+      </c>
+      <c r="P52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.16634299999999999</v>
+      </c>
+      <c r="Q52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.15207800000000002</v>
+      </c>
+      <c r="R52" s="77"/>
+      <c r="S52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.14351899999999998</v>
+      </c>
+      <c r="T52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.21199100000000001</v>
+      </c>
+      <c r="U52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.21199100000000001</v>
+      </c>
+      <c r="V52" s="77">
+        <f t="shared" si="16"/>
+        <v>0.24908</v>
+      </c>
+      <c r="W52" s="77">
+        <f t="shared" ref="W52:X52" si="17">(W8*$C$90)+$C$89</f>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="X52" s="77">
+        <f t="shared" si="17"/>
+        <v>0.31184599999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="34">
+        <v>50</v>
+      </c>
+      <c r="C53" s="77">
+        <f t="shared" ref="C53" si="18">(C9*$C$90)+$C$89</f>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="D53" s="77">
+        <f t="shared" ref="D53:V53" si="19">(D9*$C$90)+$C$89</f>
+        <v>0.291875</v>
+      </c>
+      <c r="E53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="F53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="G53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="H53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="I53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.27761000000000002</v>
+      </c>
+      <c r="J53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="K53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="L53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.27475700000000003</v>
+      </c>
+      <c r="M53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.21199100000000001</v>
+      </c>
+      <c r="P53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.18346100000000001</v>
+      </c>
+      <c r="Q53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.15493100000000001</v>
+      </c>
+      <c r="R53" s="77"/>
+      <c r="S53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.160637</v>
+      </c>
+      <c r="T53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.15778400000000001</v>
+      </c>
+      <c r="U53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.15207800000000002</v>
+      </c>
+      <c r="V53" s="77">
+        <f t="shared" si="19"/>
+        <v>0.15778400000000001</v>
+      </c>
+      <c r="W53" s="77">
+        <f t="shared" ref="W53:X53" si="20">(W9*$C$90)+$C$89</f>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="X53" s="77">
+        <f t="shared" si="20"/>
+        <v>0.30043399999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="34">
+        <v>70</v>
+      </c>
+      <c r="C54" s="77">
+        <f t="shared" ref="C54" si="21">(C10*$C$90)+$C$89</f>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="D54" s="77">
+        <f t="shared" ref="D54:V54" si="22">(D10*$C$90)+$C$89</f>
+        <v>0.289022</v>
+      </c>
+      <c r="E54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="F54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="G54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="H54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="I54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.291875</v>
+      </c>
+      <c r="J54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="K54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="L54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.291875</v>
+      </c>
+      <c r="M54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.28046300000000002</v>
+      </c>
+      <c r="P54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.24908</v>
+      </c>
+      <c r="Q54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.22340299999999999</v>
+      </c>
+      <c r="R54" s="77"/>
+      <c r="S54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.22340299999999999</v>
+      </c>
+      <c r="T54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.20913799999999996</v>
+      </c>
+      <c r="U54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.217697</v>
+      </c>
+      <c r="V54" s="77">
+        <f t="shared" si="22"/>
+        <v>0.22055</v>
+      </c>
+      <c r="W54" s="77">
+        <f t="shared" ref="W54:X54" si="23">(W10*$C$90)+$C$89</f>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="X54" s="77">
+        <f t="shared" si="23"/>
+        <v>0.30043399999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="39">
+        <v>10</v>
+      </c>
+      <c r="C55" s="79">
+        <f t="shared" ref="C55" si="24">(C11*$B$90)+$B$89</f>
+        <v>0.35468200000000005</v>
+      </c>
+      <c r="D55" s="79">
+        <f t="shared" ref="D55:V55" si="25">(D11*$B$90)+$B$89</f>
+        <v>0.31787199999999999</v>
+      </c>
+      <c r="E55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.38413000000000003</v>
+      </c>
+      <c r="F55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.39885399999999999</v>
+      </c>
+      <c r="G55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.37186000000000002</v>
+      </c>
+      <c r="H55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.31051000000000001</v>
+      </c>
+      <c r="I55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.38658400000000004</v>
+      </c>
+      <c r="J55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.41848599999999997</v>
+      </c>
+      <c r="K55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.35468200000000005</v>
+      </c>
+      <c r="L55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.39394600000000002</v>
+      </c>
+      <c r="M55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.32768800000000003</v>
+      </c>
+      <c r="N55" s="79"/>
+      <c r="O55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.25406800000000002</v>
+      </c>
+      <c r="P55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.28106200000000003</v>
+      </c>
+      <c r="Q55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.23934400000000006</v>
+      </c>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.24670599999999998</v>
+      </c>
+      <c r="T55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.366952</v>
+      </c>
+      <c r="U55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.34732000000000002</v>
+      </c>
+      <c r="V55" s="79">
+        <f t="shared" si="25"/>
+        <v>0.37186000000000002</v>
+      </c>
+      <c r="W55" s="79">
+        <f t="shared" ref="W55:X55" si="26">(W11*$B$90)+$B$89</f>
+        <v>0.40867000000000003</v>
+      </c>
+      <c r="X55" s="79">
+        <f t="shared" si="26"/>
+        <v>0.38413000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="39">
+        <v>30</v>
+      </c>
+      <c r="C56" s="79">
+        <f>(C12*$C$90)+$C$89</f>
+        <v>0.36034699999999997</v>
+      </c>
+      <c r="D56" s="79">
+        <f t="shared" ref="D56:V56" si="27">(D12*$C$90)+$C$89</f>
+        <v>0.348935</v>
+      </c>
+      <c r="E56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.36034699999999997</v>
+      </c>
+      <c r="F56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.36605299999999996</v>
+      </c>
+      <c r="G56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.36319999999999997</v>
+      </c>
+      <c r="H56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="I56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.348935</v>
+      </c>
+      <c r="J56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.36034699999999997</v>
+      </c>
+      <c r="K56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.346082</v>
+      </c>
+      <c r="L56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.35178799999999999</v>
+      </c>
+      <c r="M56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.33466999999999991</v>
+      </c>
+      <c r="N56" s="79"/>
+      <c r="O56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.27475700000000003</v>
+      </c>
+      <c r="P56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.26905099999999993</v>
+      </c>
+      <c r="Q56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.25193300000000007</v>
+      </c>
+      <c r="R56" s="79"/>
+      <c r="S56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.24908</v>
+      </c>
+      <c r="T56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.28046300000000002</v>
+      </c>
+      <c r="U56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="V56" s="79">
+        <f t="shared" si="27"/>
+        <v>0.289022</v>
+      </c>
+      <c r="W56" s="79">
+        <f t="shared" ref="W56:X56" si="28">(W12*$C$90)+$C$89</f>
+        <v>0.37746499999999994</v>
+      </c>
+      <c r="X56" s="79">
+        <f t="shared" si="28"/>
+        <v>0.35464099999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="39">
+        <v>50</v>
+      </c>
+      <c r="C57" s="79">
+        <f>(C13*$C$90)+$C$89</f>
+        <v>0.3432289999999999</v>
+      </c>
+      <c r="D57" s="79">
+        <f t="shared" ref="D57:V57" si="29">(D13*$C$90)+$C$89</f>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="E57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.3403759999999999</v>
+      </c>
+      <c r="F57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.3432289999999999</v>
+      </c>
+      <c r="G57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.35178799999999999</v>
+      </c>
+      <c r="H57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.33466999999999991</v>
+      </c>
+      <c r="I57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="J57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.3432289999999999</v>
+      </c>
+      <c r="K57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="L57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.3432289999999999</v>
+      </c>
+      <c r="M57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.28046300000000002</v>
+      </c>
+      <c r="P57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.26619799999999993</v>
+      </c>
+      <c r="Q57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.26049199999999995</v>
+      </c>
+      <c r="R57" s="79"/>
+      <c r="S57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.25193300000000007</v>
+      </c>
+      <c r="T57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.25763899999999995</v>
+      </c>
+      <c r="U57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.26905099999999993</v>
+      </c>
+      <c r="V57" s="79">
+        <f t="shared" si="29"/>
+        <v>0.27190399999999992</v>
+      </c>
+      <c r="W57" s="79">
+        <f t="shared" ref="W57:X57" si="30">(W13*$C$90)+$C$89</f>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="X57" s="79">
+        <f t="shared" si="30"/>
+        <v>0.3432289999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="39">
+        <v>70</v>
+      </c>
+      <c r="C58" s="79">
+        <f>(C14*$C$90)+$C$89</f>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="D58" s="79">
+        <f t="shared" ref="D58:V58" si="31">(D14*$C$90)+$C$89</f>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="E58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="F58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="G58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="H58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="I58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="J58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="K58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="L58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="M58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.291875</v>
+      </c>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.27190399999999992</v>
+      </c>
+      <c r="P58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.26049199999999995</v>
+      </c>
+      <c r="Q58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.25193300000000007</v>
+      </c>
+      <c r="R58" s="79"/>
+      <c r="S58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.24337400000000001</v>
+      </c>
+      <c r="T58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.23766800000000002</v>
+      </c>
+      <c r="U58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.25193300000000007</v>
+      </c>
+      <c r="V58" s="79">
+        <f t="shared" si="31"/>
+        <v>0.246227</v>
+      </c>
+      <c r="W58" s="79">
+        <f t="shared" ref="W58:X58" si="32">(W14*$C$90)+$C$89</f>
+        <v>0.289022</v>
+      </c>
+      <c r="X58" s="79">
+        <f t="shared" si="32"/>
+        <v>0.30043399999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="39">
+        <v>90</v>
+      </c>
+      <c r="C59" s="79">
+        <f>(C15*$C$90)+$C$89</f>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="D59" s="79">
+        <f t="shared" ref="D59:V59" si="33">(D15*$C$90)+$C$89</f>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="E59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="F59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="G59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="H59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="I59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="J59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="K59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="L59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="M59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="N59" s="79"/>
+      <c r="O59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="P59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.289022</v>
+      </c>
+      <c r="Q59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="R59" s="79"/>
+      <c r="S59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.27761000000000002</v>
+      </c>
+      <c r="T59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.26619799999999993</v>
+      </c>
+      <c r="U59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.26905099999999993</v>
+      </c>
+      <c r="V59" s="79">
+        <f t="shared" si="33"/>
+        <v>0.27475700000000003</v>
+      </c>
+      <c r="W59" s="79">
+        <f t="shared" ref="W59:X59" si="34">(W15*$C$90)+$C$89</f>
+        <v>0.27475700000000003</v>
+      </c>
+      <c r="X59" s="79">
+        <f t="shared" si="34"/>
+        <v>0.30328699999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="44">
+        <v>10</v>
+      </c>
+      <c r="C60" s="80">
+        <f t="shared" ref="C60" si="35">(C16*$B$90)+$B$89</f>
+        <v>0.36940600000000001</v>
+      </c>
+      <c r="D60" s="80">
+        <f t="shared" ref="D60:V60" si="36">(D16*$B$90)+$B$89</f>
+        <v>0.32278000000000001</v>
+      </c>
+      <c r="E60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.40130800000000005</v>
+      </c>
+      <c r="F60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.41603200000000001</v>
+      </c>
+      <c r="G60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.379222</v>
+      </c>
+      <c r="H60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.32768800000000003</v>
+      </c>
+      <c r="I60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.38658400000000004</v>
+      </c>
+      <c r="J60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.42094000000000004</v>
+      </c>
+      <c r="K60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.36940600000000001</v>
+      </c>
+      <c r="L60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.39149200000000001</v>
+      </c>
+      <c r="M60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.332596</v>
+      </c>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.26388400000000001</v>
+      </c>
+      <c r="P60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.308056</v>
+      </c>
+      <c r="Q60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.26143</v>
+      </c>
+      <c r="R60" s="80"/>
+      <c r="S60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.26388400000000001</v>
+      </c>
+      <c r="T60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.37186000000000002</v>
+      </c>
+      <c r="U60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.36449800000000004</v>
+      </c>
+      <c r="V60" s="80">
+        <f t="shared" si="36"/>
+        <v>0.38167600000000002</v>
+      </c>
+      <c r="W60" s="80">
+        <f t="shared" ref="W60:X60" si="37">(W16*$B$90)+$B$89</f>
+        <v>0.40130800000000005</v>
+      </c>
+      <c r="X60" s="80">
+        <f t="shared" si="37"/>
+        <v>0.39640000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="44">
+        <v>30</v>
+      </c>
+      <c r="C61" s="80">
+        <f t="shared" ref="C61" si="38">(C17*$C$90)+$C$89</f>
+        <v>0.36890599999999996</v>
+      </c>
+      <c r="D61" s="80">
+        <f t="shared" ref="D61:V61" si="39">(D17*$C$90)+$C$89</f>
+        <v>0.36034699999999997</v>
+      </c>
+      <c r="E61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.37461199999999995</v>
+      </c>
+      <c r="F61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.37746499999999994</v>
+      </c>
+      <c r="G61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.38317099999999993</v>
+      </c>
+      <c r="H61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.35178799999999999</v>
+      </c>
+      <c r="I61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.36890599999999996</v>
+      </c>
+      <c r="J61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.38887699999999992</v>
+      </c>
+      <c r="K61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.36890599999999996</v>
+      </c>
+      <c r="L61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.37461199999999995</v>
+      </c>
+      <c r="M61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.35464099999999998</v>
+      </c>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.291875</v>
+      </c>
+      <c r="P61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.27761000000000002</v>
+      </c>
+      <c r="Q61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.27475700000000003</v>
+      </c>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.27475700000000003</v>
+      </c>
+      <c r="T61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="U61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="V61" s="80">
+        <f t="shared" si="39"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="W61" s="80">
+        <f t="shared" ref="W61:X61" si="40">(W17*$C$90)+$C$89</f>
+        <v>0.35749399999999998</v>
+      </c>
+      <c r="X61" s="80">
+        <f t="shared" si="40"/>
+        <v>0.38031799999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="44">
+        <v>50</v>
+      </c>
+      <c r="C62" s="80">
+        <f t="shared" ref="C62" si="41">(C18*$C$90)+$C$89</f>
+        <v>0.3403759999999999</v>
+      </c>
+      <c r="D62" s="80">
+        <f t="shared" ref="D62:V62" si="42">(D18*$C$90)+$C$89</f>
+        <v>0.33752299999999991</v>
+      </c>
+      <c r="E62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.33752299999999991</v>
+      </c>
+      <c r="F62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.33752299999999991</v>
+      </c>
+      <c r="G62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.35178799999999999</v>
+      </c>
+      <c r="H62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.3432289999999999</v>
+      </c>
+      <c r="I62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="J62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.32040499999999994</v>
+      </c>
+      <c r="K62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.32896399999999992</v>
+      </c>
+      <c r="L62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.33466999999999991</v>
+      </c>
+      <c r="M62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="N62" s="80"/>
+      <c r="O62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="P62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.26049199999999995</v>
+      </c>
+      <c r="Q62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.26334499999999994</v>
+      </c>
+      <c r="R62" s="80"/>
+      <c r="S62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.24908</v>
+      </c>
+      <c r="T62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.25763899999999995</v>
+      </c>
+      <c r="U62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.25763899999999995</v>
+      </c>
+      <c r="V62" s="80">
+        <f t="shared" si="42"/>
+        <v>0.25763899999999995</v>
+      </c>
+      <c r="W62" s="80">
+        <f t="shared" ref="W62:X62" si="43">(W18*$C$90)+$C$89</f>
+        <v>0.3403759999999999</v>
+      </c>
+      <c r="X62" s="80">
+        <f t="shared" si="43"/>
+        <v>0.33752299999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="44">
+        <v>70</v>
+      </c>
+      <c r="C63" s="80">
+        <f t="shared" ref="C63" si="44">(C19*$C$90)+$C$89</f>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="D63" s="80">
+        <f t="shared" ref="D63:V63" si="45">(D19*$C$90)+$C$89</f>
+        <v>0.289022</v>
+      </c>
+      <c r="E63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="F63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="G63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="H63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="I63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="J63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="K63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="L63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="M63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="N63" s="80"/>
+      <c r="O63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.28046300000000002</v>
+      </c>
+      <c r="P63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.26334499999999994</v>
+      </c>
+      <c r="Q63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.25478600000000007</v>
+      </c>
+      <c r="R63" s="80"/>
+      <c r="S63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.246227</v>
+      </c>
+      <c r="T63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.23481500000000002</v>
+      </c>
+      <c r="U63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.23766800000000002</v>
+      </c>
+      <c r="V63" s="80">
+        <f t="shared" si="45"/>
+        <v>0.24337400000000001</v>
+      </c>
+      <c r="W63" s="80">
+        <f t="shared" ref="W63:X63" si="46">(W19*$C$90)+$C$89</f>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="X63" s="80">
+        <f t="shared" si="46"/>
+        <v>0.291875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="44">
+        <v>90</v>
+      </c>
+      <c r="C64" s="80">
+        <f t="shared" ref="C64" si="47">(C20*$C$90)+$C$89</f>
+        <v>0.28046300000000002</v>
+      </c>
+      <c r="D64" s="80">
+        <f t="shared" ref="D64:V64" si="48">(D20*$C$90)+$C$89</f>
+        <v>0.28046300000000002</v>
+      </c>
+      <c r="E64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="F64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.291875</v>
+      </c>
+      <c r="G64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="H64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="I64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="J64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="K64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="L64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="M64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="N64" s="80"/>
+      <c r="O64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="P64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="Q64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.289022</v>
+      </c>
+      <c r="R64" s="80"/>
+      <c r="S64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.27761000000000002</v>
+      </c>
+      <c r="T64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="U64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.27190399999999992</v>
+      </c>
+      <c r="V64" s="80">
+        <f t="shared" si="48"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="W64" s="80">
+        <f t="shared" ref="W64:X64" si="49">(W20*$C$90)+$C$89</f>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="X64" s="80">
+        <f t="shared" si="49"/>
+        <v>0.291875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="49">
+        <v>10</v>
+      </c>
+      <c r="C65" s="13">
+        <f>(C21*$B$90)+$B$89</f>
+        <v>0.21725800000000001</v>
+      </c>
+      <c r="D65" s="13">
+        <f t="shared" ref="D65:V65" si="50">(D21*$B$90)+$B$89</f>
+        <v>0.15590800000000005</v>
+      </c>
+      <c r="E65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.29333200000000004</v>
+      </c>
+      <c r="F65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.35222800000000004</v>
+      </c>
+      <c r="G65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.27615400000000001</v>
+      </c>
+      <c r="H65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.18535600000000002</v>
+      </c>
+      <c r="I65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.33750400000000003</v>
+      </c>
+      <c r="J65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.36940600000000001</v>
+      </c>
+      <c r="K65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.26143</v>
+      </c>
+      <c r="L65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.33750400000000003</v>
+      </c>
+      <c r="M65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.26879200000000003</v>
+      </c>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.11173599999999999</v>
+      </c>
+      <c r="P65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.17799400000000004</v>
+      </c>
+      <c r="Q65" s="13">
+        <f t="shared" si="50"/>
+        <v>7.737999999999999E-2</v>
+      </c>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13">
+        <f t="shared" si="50"/>
+        <v>8.9649999999999994E-2</v>
+      </c>
+      <c r="T65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.25652200000000003</v>
+      </c>
+      <c r="U65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.23689000000000004</v>
+      </c>
+      <c r="V65" s="13">
+        <f t="shared" si="50"/>
+        <v>0.26143</v>
+      </c>
+      <c r="W65" s="13">
+        <f t="shared" ref="W65:X65" si="51">(W21*$B$90)+$B$89</f>
+        <v>0.34486600000000006</v>
+      </c>
+      <c r="X65" s="13">
+        <f t="shared" si="51"/>
+        <v>0.27860800000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="49">
+        <v>30</v>
+      </c>
+      <c r="C66" s="13">
+        <f>(C22*$C$90)+$C$89</f>
+        <v>0.27190399999999992</v>
+      </c>
+      <c r="D66" s="13">
+        <f t="shared" ref="D66:V66" si="52">(D22*$C$90)+$C$89</f>
+        <v>0.20913799999999996</v>
+      </c>
+      <c r="E66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.33466999999999991</v>
+      </c>
+      <c r="F66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.38317099999999993</v>
+      </c>
+      <c r="G66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="H66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.20343199999999997</v>
+      </c>
+      <c r="I66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.36034699999999997</v>
+      </c>
+      <c r="J66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.39458299999999991</v>
+      </c>
+      <c r="K66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="L66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.36319999999999997</v>
+      </c>
+      <c r="M66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.12640099999999996</v>
+      </c>
+      <c r="P66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.10928300000000005</v>
+      </c>
+      <c r="Q66" s="13">
+        <f t="shared" si="52"/>
+        <v>7.5047000000000003E-2</v>
+      </c>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13">
+        <f t="shared" si="52"/>
+        <v>6.6487999999999964E-2</v>
+      </c>
+      <c r="T66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.13781299999999999</v>
+      </c>
+      <c r="U66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.18916699999999995</v>
+      </c>
+      <c r="V66" s="13">
+        <f t="shared" si="52"/>
+        <v>0.22910899999999998</v>
+      </c>
+      <c r="W66" s="13">
+        <f t="shared" ref="W66:X66" si="53">(W22*$C$90)+$C$89</f>
+        <v>0.36319999999999997</v>
+      </c>
+      <c r="X66" s="13">
+        <f t="shared" si="53"/>
+        <v>0.30043399999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="54">
+        <v>10</v>
+      </c>
+      <c r="C67" s="5">
+        <f>(C23*$B$90)+$B$89</f>
+        <v>0.19762600000000002</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" ref="D67:V67" si="54">(D23*$B$90)+$B$89</f>
+        <v>0.11419</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.30560199999999998</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.35959000000000008</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.26879200000000003</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.18044800000000005</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.33995800000000004</v>
+      </c>
+      <c r="J67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.36940600000000001</v>
+      </c>
+      <c r="K67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.26143</v>
+      </c>
+      <c r="L67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.34732000000000002</v>
+      </c>
+      <c r="M67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.24915999999999999</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5">
+        <f t="shared" si="54"/>
+        <v>8.9649999999999994E-2</v>
+      </c>
+      <c r="P67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.14854600000000001</v>
+      </c>
+      <c r="Q67" s="5">
+        <f t="shared" si="54"/>
+        <v>6.5110000000000015E-2</v>
+      </c>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5">
+        <f t="shared" si="54"/>
+        <v>8.4741999999999998E-2</v>
+      </c>
+      <c r="T67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.27860800000000002</v>
+      </c>
+      <c r="U67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.25406800000000002</v>
+      </c>
+      <c r="V67" s="5">
+        <f t="shared" si="54"/>
+        <v>0.27860800000000002</v>
+      </c>
+      <c r="W67" s="5">
+        <f t="shared" ref="W67:X67" si="55">(W23*$B$90)+$B$89</f>
+        <v>0.34977400000000003</v>
+      </c>
+      <c r="X67" s="5">
+        <f t="shared" si="55"/>
+        <v>0.2737</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="54">
+        <v>30</v>
+      </c>
+      <c r="C68" s="5">
+        <f>(C24*$C$90)+$C$89</f>
+        <v>0.25193300000000007</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" ref="D68:V68" si="56">(D24*$C$90)+$C$89</f>
+        <v>0.132107</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.38602400000000003</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="H68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.217697</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.36605299999999996</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.38317099999999993</v>
+      </c>
+      <c r="K68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="L68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.35749399999999998</v>
+      </c>
+      <c r="M68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5">
+        <f t="shared" si="56"/>
+        <v>7.5047000000000003E-2</v>
+      </c>
+      <c r="P68" s="5">
+        <f t="shared" si="56"/>
+        <v>9.2165000000000025E-2</v>
+      </c>
+      <c r="Q68" s="5">
+        <f t="shared" si="56"/>
+        <v>6.3634999999999969E-2</v>
+      </c>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5">
+        <f t="shared" si="56"/>
+        <v>5.2222999999999992E-2</v>
+      </c>
+      <c r="T68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.27761000000000002</v>
+      </c>
+      <c r="U68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.25763899999999995</v>
+      </c>
+      <c r="V68" s="5">
+        <f t="shared" si="56"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="W68" s="5">
+        <f t="shared" ref="W68:X68" si="57">(W24*$C$90)+$C$89</f>
+        <v>0.35749399999999998</v>
+      </c>
+      <c r="X68" s="5">
+        <f t="shared" si="57"/>
+        <v>0.29758099999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="59">
+        <v>10</v>
+      </c>
+      <c r="C69" s="78">
+        <f>(C25*$B$90)+$B$89</f>
+        <v>0.32278000000000001</v>
+      </c>
+      <c r="D69" s="78">
+        <f t="shared" ref="D69:V69" si="58">(D25*$B$90)+$B$89</f>
+        <v>0.29333200000000004</v>
+      </c>
+      <c r="E69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.35222800000000004</v>
+      </c>
+      <c r="F69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.37186000000000002</v>
+      </c>
+      <c r="G69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.34241200000000005</v>
+      </c>
+      <c r="H69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.28842400000000001</v>
+      </c>
+      <c r="I69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.35468200000000005</v>
+      </c>
+      <c r="J69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.38658400000000004</v>
+      </c>
+      <c r="K69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.32523400000000002</v>
+      </c>
+      <c r="L69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.36449800000000004</v>
+      </c>
+      <c r="M69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.308056</v>
+      </c>
+      <c r="N69" s="78"/>
+      <c r="O69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.19517200000000001</v>
+      </c>
+      <c r="P69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.23443600000000003</v>
+      </c>
+      <c r="Q69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.192718</v>
+      </c>
+      <c r="R69" s="78"/>
+      <c r="S69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.20989600000000003</v>
+      </c>
+      <c r="T69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.34732000000000002</v>
+      </c>
+      <c r="U69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.33014200000000005</v>
+      </c>
+      <c r="V69" s="78">
+        <f t="shared" si="58"/>
+        <v>0.34486600000000006</v>
+      </c>
+      <c r="W69" s="78">
+        <f t="shared" ref="W69:X69" si="59">(W25*$B$90)+$B$89</f>
+        <v>0.36449800000000004</v>
+      </c>
+      <c r="X69" s="78">
+        <f t="shared" si="59"/>
+        <v>0.35468200000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="59">
+        <v>30</v>
+      </c>
+      <c r="C70" s="78">
+        <f>(C26*$C$90)+$C$89</f>
+        <v>0.32611100000000004</v>
+      </c>
+      <c r="D70" s="78">
+        <f t="shared" ref="D70:V72" si="60">(D26*$C$90)+$C$89</f>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="E70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.32040499999999994</v>
+      </c>
+      <c r="F70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.3403759999999999</v>
+      </c>
+      <c r="G70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.33466999999999991</v>
+      </c>
+      <c r="H70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="I70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.32611100000000004</v>
+      </c>
+      <c r="J70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.3403759999999999</v>
+      </c>
+      <c r="K70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="L70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.32611100000000004</v>
+      </c>
+      <c r="M70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="N70" s="78"/>
+      <c r="O70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.22625599999999998</v>
+      </c>
+      <c r="P70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.20628499999999997</v>
+      </c>
+      <c r="Q70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.20913799999999996</v>
+      </c>
+      <c r="R70" s="78"/>
+      <c r="S70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.20343199999999997</v>
+      </c>
+      <c r="T70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="U70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="V70" s="78">
+        <f t="shared" si="60"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="W70" s="78">
+        <f t="shared" ref="W70:X70" si="61">(W26*$C$90)+$C$89</f>
+        <v>0.32896399999999992</v>
+      </c>
+      <c r="X70" s="78">
+        <f t="shared" si="61"/>
+        <v>0.32040499999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="59">
+        <v>50</v>
+      </c>
+      <c r="C71" s="78">
+        <f t="shared" ref="C71:Q72" si="62">(C27*$C$90)+$C$89</f>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="D71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="E71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="F71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="G71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="H71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="I71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="J71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="K71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="L71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="M71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="N71" s="78"/>
+      <c r="O71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.24337400000000001</v>
+      </c>
+      <c r="P71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.22340299999999999</v>
+      </c>
+      <c r="Q71" s="78">
+        <f t="shared" si="62"/>
+        <v>0.20913799999999996</v>
+      </c>
+      <c r="R71" s="78"/>
+      <c r="S71" s="78">
+        <f t="shared" si="60"/>
+        <v>0.20913799999999996</v>
+      </c>
+      <c r="T71" s="78">
+        <f t="shared" si="60"/>
+        <v>0.24052100000000001</v>
+      </c>
+      <c r="U71" s="78">
+        <f t="shared" si="60"/>
+        <v>0.246227</v>
+      </c>
+      <c r="V71" s="78">
+        <f t="shared" si="60"/>
+        <v>0.27475700000000003</v>
+      </c>
+      <c r="W71" s="78">
+        <f t="shared" ref="W71:X71" si="63">(W27*$C$90)+$C$89</f>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="X71" s="78">
+        <f t="shared" si="63"/>
+        <v>0.30328699999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="59">
+        <v>70</v>
+      </c>
+      <c r="C72" s="78">
+        <f t="shared" si="62"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="D72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="E72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="F72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="G72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="H72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="I72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="J72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.32040499999999994</v>
+      </c>
+      <c r="K72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="L72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="M72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="N72" s="78"/>
+      <c r="O72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.26905099999999993</v>
+      </c>
+      <c r="P72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.25478600000000007</v>
+      </c>
+      <c r="Q72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.23766800000000002</v>
+      </c>
+      <c r="R72" s="78"/>
+      <c r="S72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.23481500000000002</v>
+      </c>
+      <c r="T72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.25193300000000007</v>
+      </c>
+      <c r="U72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.246227</v>
+      </c>
+      <c r="V72" s="78">
+        <f t="shared" si="60"/>
+        <v>0.24908</v>
+      </c>
+      <c r="W72" s="78">
+        <f t="shared" ref="W72:X72" si="64">(W28*$C$90)+$C$89</f>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="X72" s="78">
+        <f t="shared" si="64"/>
+        <v>0.30899299999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="64">
+        <v>10</v>
+      </c>
+      <c r="C73" s="10">
+        <f>(C29*$B$90)+$B$89</f>
+        <v>0.31787199999999999</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" ref="D73:V73" si="65">(D29*$B$90)+$B$89</f>
+        <v>0.27124600000000004</v>
+      </c>
+      <c r="E73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.33014200000000005</v>
+      </c>
+      <c r="F73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.35713600000000006</v>
+      </c>
+      <c r="G73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.320326</v>
+      </c>
+      <c r="H73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.24915999999999999</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.33505000000000001</v>
+      </c>
+      <c r="J73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.37431400000000004</v>
+      </c>
+      <c r="K73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.31787199999999999</v>
+      </c>
+      <c r="L73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.34486600000000006</v>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.30314800000000003</v>
+      </c>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.204988</v>
+      </c>
+      <c r="P73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.28597000000000006</v>
+      </c>
+      <c r="Q73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.19026399999999999</v>
+      </c>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.204988</v>
+      </c>
+      <c r="T73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.332596</v>
+      </c>
+      <c r="U73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.33014200000000005</v>
+      </c>
+      <c r="V73" s="10">
+        <f t="shared" si="65"/>
+        <v>0.34241200000000005</v>
+      </c>
+      <c r="W73" s="10">
+        <f t="shared" ref="W73:X73" si="66">(W29*$B$90)+$B$89</f>
+        <v>0.35713600000000006</v>
+      </c>
+      <c r="X73" s="10">
+        <f t="shared" si="66"/>
+        <v>0.34241200000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="64">
+        <v>30</v>
+      </c>
+      <c r="C74" s="10">
+        <f>(C30*$C$90)+$C$89</f>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" ref="D74:V77" si="67">(D30*$C$90)+$C$89</f>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="E74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="F74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.346082</v>
+      </c>
+      <c r="G74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.32896399999999992</v>
+      </c>
+      <c r="H74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="I74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="J74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.3432289999999999</v>
+      </c>
+      <c r="K74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.32040499999999994</v>
+      </c>
+      <c r="L74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.33466999999999991</v>
+      </c>
+      <c r="M74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.21484400000000001</v>
+      </c>
+      <c r="P74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.25763899999999995</v>
+      </c>
+      <c r="Q74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.19772599999999999</v>
+      </c>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.20628499999999997</v>
+      </c>
+      <c r="T74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="U74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="V74" s="10">
+        <f t="shared" si="67"/>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="W74" s="10">
+        <f t="shared" ref="W74:X74" si="68">(W30*$C$90)+$C$89</f>
+        <v>0.346082</v>
+      </c>
+      <c r="X74" s="10">
+        <f t="shared" si="68"/>
+        <v>0.32611100000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="64">
+        <v>50</v>
+      </c>
+      <c r="C75" s="10">
+        <f t="shared" ref="C75:Q77" si="69">(C31*$C$90)+$C$89</f>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="D75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="E75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="F75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="G75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.32896399999999992</v>
+      </c>
+      <c r="H75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="I75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="J75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="K75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="L75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.32040499999999994</v>
+      </c>
+      <c r="M75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.25193300000000007</v>
+      </c>
+      <c r="P75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.246227</v>
+      </c>
+      <c r="Q75" s="10">
+        <f t="shared" si="69"/>
+        <v>0.22625599999999998</v>
+      </c>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10">
+        <f t="shared" si="67"/>
+        <v>0.21484400000000001</v>
+      </c>
+      <c r="T75" s="10">
+        <f t="shared" si="67"/>
+        <v>0.246227</v>
+      </c>
+      <c r="U75" s="10">
+        <f t="shared" si="67"/>
+        <v>0.246227</v>
+      </c>
+      <c r="V75" s="10">
+        <f t="shared" si="67"/>
+        <v>0.27475700000000003</v>
+      </c>
+      <c r="W75" s="10">
+        <f t="shared" ref="W75:X75" si="70">(W31*$C$90)+$C$89</f>
+        <v>0.31755199999999995</v>
+      </c>
+      <c r="X75" s="10">
+        <f t="shared" si="70"/>
+        <v>0.32325800000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="64">
+        <v>70</v>
+      </c>
+      <c r="C76" s="10">
+        <f t="shared" si="69"/>
+        <v>0.289022</v>
+      </c>
+      <c r="D76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.28046300000000002</v>
+      </c>
+      <c r="E76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.291875</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.291875</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.291875</v>
+      </c>
+      <c r="H76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.289022</v>
+      </c>
+      <c r="I76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.28046300000000002</v>
+      </c>
+      <c r="J76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="K76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="L76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="M76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.25478600000000007</v>
+      </c>
+      <c r="P76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.22910899999999998</v>
+      </c>
+      <c r="Q76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.22055</v>
+      </c>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.20913799999999996</v>
+      </c>
+      <c r="T76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.217697</v>
+      </c>
+      <c r="U76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.21484400000000001</v>
+      </c>
+      <c r="V76" s="10">
+        <f t="shared" si="67"/>
+        <v>0.22055</v>
+      </c>
+      <c r="W76" s="10">
+        <f t="shared" ref="W76:X76" si="71">(W32*$C$90)+$C$89</f>
+        <v>0.291875</v>
+      </c>
+      <c r="X76" s="10">
+        <f t="shared" si="71"/>
+        <v>0.29472799999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A77" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="64">
+        <v>90</v>
+      </c>
+      <c r="C77" s="10">
+        <f t="shared" si="69"/>
+        <v>0.28046300000000002</v>
+      </c>
+      <c r="D77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.27190399999999992</v>
+      </c>
+      <c r="E77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="F77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="G77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.32611100000000004</v>
+      </c>
+      <c r="H77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="I77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="J77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="K77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="L77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.32040499999999994</v>
+      </c>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="P77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="Q77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.26049199999999995</v>
+      </c>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.24908</v>
+      </c>
+      <c r="T77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.25193300000000007</v>
+      </c>
+      <c r="U77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.25193300000000007</v>
+      </c>
+      <c r="V77" s="10">
+        <f t="shared" si="67"/>
+        <v>0.25478600000000007</v>
+      </c>
+      <c r="W77" s="10">
+        <f t="shared" ref="W77:X77" si="72">(W33*$C$90)+$C$89</f>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="X77" s="10">
+        <f t="shared" si="72"/>
+        <v>0.30899299999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>-9.4399999999999998E-2</v>
+      </c>
+      <c r="C89">
+        <v>-0.2074</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="C90">
+        <v>0.2853</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A34:A38 C2:C33 C39:C44 C46:C59 C61:X67 C73:C79 C84:C1048576 D73:X77 D46:M46 O46:Q46 S46:V46 D47:X59" xr:uid="{C7DBAEFF-2D9E-4FD5-9381-A2ED13C25348}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270CB837-F31D-45DB-82E8-8ABF8457FEAC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,297 +6892,983 @@
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" s="97" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13">
+      <c r="B1" s="91"/>
+      <c r="D1" s="6">
         <v>30715</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="6">
         <v>30667</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="6">
         <v>30573</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
+      <c r="G1" s="6">
+        <v>30717</v>
+      </c>
+      <c r="H1" s="6">
+        <v>30816</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="84">
         <v>45163</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="84">
         <v>45175</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="84">
         <v>45189</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="G2" s="85">
+        <v>45203</v>
+      </c>
+      <c r="H2" s="85">
+        <v>45212</v>
+      </c>
+      <c r="I2" s="85">
+        <v>45217</v>
+      </c>
+      <c r="J2" s="85">
+        <v>45231</v>
+      </c>
+      <c r="K2" s="85">
+        <v>45246</v>
+      </c>
+      <c r="L2" s="85">
+        <v>45259</v>
+      </c>
+      <c r="M2" s="85">
+        <v>45321</v>
+      </c>
+      <c r="N2" s="93">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="13">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="14">
         <v>1.29</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="14">
         <v>1.04</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="15">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9" t="s">
+      <c r="G3" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15">
+        <v>0.87</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1.55</v>
+      </c>
+      <c r="K3" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="L3" s="15">
+        <v>1.51</v>
+      </c>
+      <c r="M3" s="15">
+        <v>1.63</v>
+      </c>
+      <c r="N3" s="94">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="13">
         <v>30</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="14">
         <v>1.57</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="14">
         <v>1.41</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="15">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9" t="s">
+      <c r="G4" s="15">
+        <v>1.17</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1.57</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="L4" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="15">
+        <v>1.71</v>
+      </c>
+      <c r="N4" s="94">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="88"/>
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="13">
         <v>50</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="14">
         <v>1.75</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="14">
         <v>1.7</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="15">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9" t="s">
+      <c r="G5" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15">
+        <v>1.41</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1.46</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="M5" s="15">
+        <v>1.78</v>
+      </c>
+      <c r="N5" s="94">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="88"/>
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="13">
         <v>70</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="14">
         <v>1.9</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="14">
         <v>1.86</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="15">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
+      <c r="G6" s="15">
+        <v>1.76</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15">
+        <v>1.66</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1.66</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1.67</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1.66</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1.89</v>
+      </c>
+      <c r="N6" s="94">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="88"/>
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="13">
         <v>90</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="14">
         <v>1.92</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="14">
         <v>1.92</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="15">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G7" s="15">
+        <v>1.83</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15">
+        <v>1.74</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1.72</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1.73</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1.69</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1.92</v>
+      </c>
+      <c r="N7" s="94">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <f>(D3*$D$28)+$D$27</f>
+        <v>0.22216600000000003</v>
+      </c>
+      <c r="E8" s="4">
+        <f>(E3*$D$28)+$D$27</f>
+        <v>0.16081600000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <f>(F3*$D$28)+$D$27</f>
+        <v>0.20744200000000002</v>
+      </c>
+      <c r="G8" s="4">
+        <f>(G3*$D$28)+$D$27</f>
+        <v>0.12646000000000002</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <f>(I3*$D$28)+$D$27</f>
+        <v>0.119098</v>
+      </c>
+      <c r="J8" s="4">
+        <f>(J3*$D$28)+$D$27</f>
+        <v>0.28597000000000006</v>
+      </c>
+      <c r="K8" s="4">
+        <f>(K3*$D$28)+$D$27</f>
+        <v>0.24915999999999999</v>
+      </c>
+      <c r="L8" s="4">
+        <f>(L3*$D$28)+$D$27</f>
+        <v>0.27615400000000001</v>
+      </c>
+      <c r="M8" s="4">
+        <f>(M3*$D$28)+$D$27</f>
+        <v>0.30560199999999998</v>
+      </c>
+      <c r="N8" s="4">
+        <f>(N3*$D$28)+$D$27</f>
+        <v>0.28351600000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:L12" si="0">(D4*$E$28)+$E$27</f>
+        <v>0.24052100000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19487299999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17490200000000003</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12640099999999996</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11213600000000004</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24052100000000001</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22055</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22055</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" ref="M9:N9" si="1">(M4*$E$28)+$E$27</f>
+        <v>0.28046300000000002</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.26334499999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="87"/>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4">
-        <f>(D3*D20)+D19</f>
-        <v>0.22216600000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.291875</v>
       </c>
       <c r="E10" s="4">
-        <f>(E3*D20)+D19</f>
-        <v>0.16081600000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.27761000000000002</v>
       </c>
       <c r="F10" s="4">
-        <f>(F3*D20)+D19</f>
-        <v>0.20744200000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+        <f t="shared" si="0"/>
+        <v>0.25478600000000007</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.217697</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19487299999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20628499999999997</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20913799999999996</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.217697</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" ref="M10:N10" si="2">(M5*$E$28)+$E$27</f>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.291875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="87"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D11" s="4">
-        <f>(D4*$D$20)+$D$19</f>
-        <v>0.29087800000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.33466999999999991</v>
       </c>
       <c r="E11" s="4">
-        <f>(E4*$E$20)+$E$19</f>
-        <v>0.19487299999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.32325800000000005</v>
       </c>
       <c r="F11" s="4">
-        <f>(F4*$E$20)+$E$19</f>
-        <v>0.17490200000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+        <f t="shared" si="0"/>
+        <v>0.32040499999999994</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <f t="shared" ref="I11:L11" si="3">(I6*$E$28)+$E$27</f>
+        <v>0.26619799999999993</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.26619799999999993</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.26905099999999993</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.26619799999999993</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" ref="M11:N11" si="4">(M6*$E$28)+$E$27</f>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.32896399999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="87"/>
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="5">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3403759999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3403759999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33466999999999991</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <f t="shared" ref="I12:L12" si="5">(I7*$E$28)+$E$27</f>
+        <v>0.289022</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="5"/>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="5"/>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="5"/>
+        <v>0.27475700000000003</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" ref="M12:N12" si="6">(M7*$E$28)+$E$27</f>
+        <v>0.3403759999999999</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="6"/>
+        <v>0.35464099999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="J13" s="16">
+        <v>1.61</v>
+      </c>
+      <c r="K13" s="16">
+        <v>1.54</v>
+      </c>
+      <c r="L13" s="16">
+        <v>1.62</v>
+      </c>
+      <c r="M13" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="N13" s="95">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="16">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I14" s="16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J14" s="16">
+        <v>1.66</v>
+      </c>
+      <c r="K14" s="16">
+        <v>1.57</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1.65</v>
+      </c>
+      <c r="M14" s="16">
+        <v>1.75</v>
+      </c>
+      <c r="N14" s="95">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="16">
         <v>50</v>
       </c>
-      <c r="D12" s="4">
-        <f>(D5*$D$20)+$D$19</f>
-        <v>0.33505000000000001</v>
-      </c>
-      <c r="E12" s="4">
-        <f>(E5*$E$20)+$E$19</f>
-        <v>0.27761000000000002</v>
-      </c>
-      <c r="F12" s="4">
-        <f>(F5*$E$20)+$E$19</f>
-        <v>0.25478600000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="16">
+        <v>1.31</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="16">
+        <v>1.52</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1.54</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1.59</v>
+      </c>
+      <c r="M15" s="16">
+        <v>1.81</v>
+      </c>
+      <c r="N15" s="95">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="89"/>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16">
         <v>70</v>
       </c>
-      <c r="D13" s="4">
-        <f>(D6*$D$20)+$D$19</f>
-        <v>0.37186000000000002</v>
-      </c>
-      <c r="E13" s="4">
-        <f>(E6*$E$20)+$E$19</f>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="16">
+        <v>1.59</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1.58</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1.57</v>
+      </c>
+      <c r="K16" s="16">
+        <v>1.63</v>
+      </c>
+      <c r="L16" s="16">
+        <v>1.59</v>
+      </c>
+      <c r="M16" s="16">
+        <v>1.86</v>
+      </c>
+      <c r="N16" s="95">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="89"/>
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="16">
+        <v>90</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="16">
+        <v>1.73</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1.76</v>
+      </c>
+      <c r="J17" s="16">
+        <v>1.72</v>
+      </c>
+      <c r="K17" s="16">
+        <v>1.75</v>
+      </c>
+      <c r="L17" s="16">
+        <v>1.21</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1.93</v>
+      </c>
+      <c r="N17" s="95">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17">
+        <f t="shared" ref="H18:M18" si="7">(H13*$D$28)+$D$27</f>
+        <v>0.16081600000000001</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="7"/>
+        <v>0.16081600000000001</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="7"/>
+        <v>0.30069400000000007</v>
+      </c>
+      <c r="K18" s="17">
+        <f t="shared" si="7"/>
+        <v>0.28351600000000005</v>
+      </c>
+      <c r="L18" s="17">
+        <f t="shared" si="7"/>
+        <v>0.30314800000000003</v>
+      </c>
+      <c r="M18" s="17">
+        <f t="shared" si="7"/>
+        <v>0.32523400000000002</v>
+      </c>
+      <c r="N18" s="17">
+        <f t="shared" ref="N18" si="8">(N13*$D$28)+$D$27</f>
+        <v>0.31051000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="90"/>
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="17">
+        <v>30</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17">
+        <f t="shared" ref="H19:K22" si="9">(H14*$E$28)+$E$27</f>
+        <v>0.11784199999999997</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="9"/>
+        <v>0.11498899999999998</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="9"/>
+        <v>0.26619799999999993</v>
+      </c>
+      <c r="K19" s="17">
+        <f t="shared" si="9"/>
+        <v>0.24052100000000001</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" ref="L19:M19" si="10">(L14*$E$28)+$E$27</f>
+        <v>0.26334499999999994</v>
+      </c>
+      <c r="M19" s="17">
+        <f t="shared" si="10"/>
+        <v>0.291875</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" ref="N19" si="11">(N14*$E$28)+$E$27</f>
+        <v>0.28046300000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="90"/>
+      <c r="B20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="17">
+        <v>50</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16634299999999999</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="9"/>
+        <v>0.16349</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="9"/>
+        <v>0.22625599999999998</v>
+      </c>
+      <c r="K20" s="17">
+        <f t="shared" si="9"/>
+        <v>0.23196200000000003</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" ref="L20:M20" si="12">(L15*$E$28)+$E$27</f>
+        <v>0.246227</v>
+      </c>
+      <c r="M20" s="17">
+        <f t="shared" si="12"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" ref="N20" si="13">(N15*$E$28)+$E$27</f>
+        <v>0.30328699999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="90"/>
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="17">
+        <v>70</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17">
+        <f t="shared" si="9"/>
+        <v>0.246227</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="9"/>
+        <v>0.24337400000000001</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" ref="J21:K21" si="14">(J16*$E$28)+$E$27</f>
+        <v>0.24052100000000001</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" si="14"/>
+        <v>0.25763899999999995</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" ref="L21:M21" si="15">(L16*$E$28)+$E$27</f>
+        <v>0.246227</v>
+      </c>
+      <c r="M21" s="17">
+        <f t="shared" si="15"/>
         <v>0.32325800000000005</v>
       </c>
-      <c r="F13" s="4">
-        <f>(F6*$E$20)+$E$19</f>
-        <v>0.32040499999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="N21" s="17">
+        <f t="shared" ref="N21" si="16">(N16*$E$28)+$E$27</f>
+        <v>0.32896399999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="90"/>
+      <c r="B22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17">
         <v>90</v>
       </c>
-      <c r="D14" s="4">
-        <f>(D7*$D$20)+$D$19</f>
-        <v>0.37676799999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <f>(E7*$E$20)+$E$19</f>
-        <v>0.3403759999999999</v>
-      </c>
-      <c r="F14" s="4">
-        <f>(F7*$E$20)+$E$19</f>
-        <v>0.33466999999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17">
+        <f t="shared" si="9"/>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="9"/>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" ref="J22:K22" si="17">(J17*$E$28)+$E$27</f>
+        <v>0.28331600000000001</v>
+      </c>
+      <c r="K22" s="17">
+        <f t="shared" si="17"/>
+        <v>0.291875</v>
+      </c>
+      <c r="L22" s="17">
+        <f t="shared" ref="L22:M22" si="18">(L17*$E$28)+$E$27</f>
+        <v>0.13781299999999999</v>
+      </c>
+      <c r="M22" s="17">
+        <f t="shared" si="18"/>
+        <v>0.3432289999999999</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" ref="N22" si="19">(N17*$E$28)+$E$27</f>
+        <v>0.346082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D27" s="1">
         <v>-9.4399999999999998E-2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E27" s="1">
         <v>-0.2074</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D28" s="1">
         <v>0.24540000000000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E28" s="1">
         <v>0.2853</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:A14"/>
+  <mergeCells count="5">
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B3:B7 B10:B14" xr:uid="{F82CBA22-E32B-4601-8617-F18722855524}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B3:B12" xr:uid="{F82CBA22-E32B-4601-8617-F18722855524}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD279D30-CBB9-4C8C-B925-D17A6A8CE29C}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
+++ b/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willbro\Dropbox (OSU Soil Physics)\NRCS testbed\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011C3EB2-FEC2-4EC3-8DCF-37DDD043792E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154F0FD-D89C-41A5-BB52-C76ECB4E5479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E93F8746-9E87-4457-9EA2-96B4DD1F63F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{E93F8746-9E87-4457-9EA2-96B4DD1F63F6}"/>
   </bookViews>
   <sheets>
     <sheet name="NPmeasurements_2023" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="36">
   <si>
     <t>Slope (CountRatio)</t>
   </si>
@@ -141,6 +141,12 @@
   <si>
     <t>30747 MARE        30420 STIL</t>
   </si>
+  <si>
+    <t>30-Apr_24</t>
+  </si>
+  <si>
+    <t>30761 MARE        30625 STIL</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +286,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -304,11 +316,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,6 +545,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,23 +569,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07D0316-E494-46A6-902F-D47D5FC607C9}">
   <dimension ref="A1:AF90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +929,7 @@
     <col min="22" max="22" width="14.28515625" style="1" customWidth="1"/>
     <col min="23" max="23" width="11.85546875" style="1" customWidth="1"/>
     <col min="24" max="24" width="11.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -970,7 +1003,9 @@
       <c r="X1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="20"/>
+      <c r="Y1" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="Z1" s="20"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="21"/>
@@ -1047,10 +1082,12 @@
       <c r="W2" s="26">
         <v>45321</v>
       </c>
-      <c r="X2" s="92">
+      <c r="X2" s="87">
         <v>45371</v>
       </c>
-      <c r="Y2" s="27"/>
+      <c r="Y2" s="95" t="s">
+        <v>34</v>
+      </c>
       <c r="Z2" s="27"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1126,7 +1163,9 @@
       <c r="X3" s="31">
         <v>1.86</v>
       </c>
-      <c r="Y3" s="32"/>
+      <c r="Y3" s="31">
+        <v>1.89</v>
+      </c>
       <c r="Z3" s="32"/>
       <c r="AA3" s="33"/>
       <c r="AB3" s="33"/>
@@ -1202,7 +1241,9 @@
       <c r="X4" s="31">
         <v>1.85</v>
       </c>
-      <c r="Y4" s="32"/>
+      <c r="Y4" s="31">
+        <v>1.86</v>
+      </c>
       <c r="Z4" s="32"/>
       <c r="AA4" s="33"/>
       <c r="AB4" s="33"/>
@@ -1278,7 +1319,9 @@
       <c r="X5" s="31">
         <v>1.72</v>
       </c>
-      <c r="Y5" s="32"/>
+      <c r="Y5" s="31">
+        <v>1.76</v>
+      </c>
       <c r="Z5" s="32"/>
       <c r="AA5" s="33"/>
       <c r="AB5" s="33"/>
@@ -1354,7 +1397,9 @@
       <c r="X6" s="31">
         <v>1.78</v>
       </c>
-      <c r="Y6" s="32"/>
+      <c r="Y6" s="31">
+        <v>1.82</v>
+      </c>
       <c r="Z6" s="32"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
@@ -1430,7 +1475,9 @@
       <c r="X7" s="36">
         <v>1.74</v>
       </c>
-      <c r="Y7" s="37"/>
+      <c r="Y7" s="36">
+        <v>1.8</v>
+      </c>
       <c r="Z7" s="37"/>
       <c r="AA7" s="38"/>
       <c r="AB7" s="38"/>
@@ -1506,7 +1553,9 @@
       <c r="X8" s="36">
         <v>1.82</v>
       </c>
-      <c r="Y8" s="37"/>
+      <c r="Y8" s="36">
+        <v>1.81</v>
+      </c>
       <c r="Z8" s="37"/>
       <c r="AA8" s="38"/>
       <c r="AB8" s="38"/>
@@ -1582,7 +1631,9 @@
       <c r="X9" s="36">
         <v>1.78</v>
       </c>
-      <c r="Y9" s="37"/>
+      <c r="Y9" s="36">
+        <v>1.8</v>
+      </c>
       <c r="Z9" s="37"/>
       <c r="AA9" s="38"/>
       <c r="AB9" s="38"/>
@@ -1658,7 +1709,9 @@
       <c r="X10" s="36">
         <v>1.78</v>
       </c>
-      <c r="Y10" s="37"/>
+      <c r="Y10" s="36">
+        <v>1.86</v>
+      </c>
       <c r="Z10" s="37"/>
       <c r="AA10" s="38"/>
       <c r="AB10" s="38"/>
@@ -1734,7 +1787,9 @@
       <c r="X11" s="41">
         <v>1.95</v>
       </c>
-      <c r="Y11" s="42"/>
+      <c r="Y11" s="41">
+        <v>2.02</v>
+      </c>
       <c r="Z11" s="42"/>
       <c r="AA11" s="43"/>
       <c r="AB11" s="43"/>
@@ -1810,7 +1865,9 @@
       <c r="X12" s="41">
         <v>1.97</v>
       </c>
-      <c r="Y12" s="42"/>
+      <c r="Y12" s="41">
+        <v>2.0099999999999998</v>
+      </c>
       <c r="Z12" s="42"/>
       <c r="AA12" s="43"/>
       <c r="AB12" s="43"/>
@@ -1886,7 +1943,9 @@
       <c r="X13" s="41">
         <v>1.93</v>
       </c>
-      <c r="Y13" s="42"/>
+      <c r="Y13" s="41">
+        <v>1.92</v>
+      </c>
       <c r="Z13" s="42"/>
       <c r="AA13" s="43"/>
       <c r="AB13" s="43"/>
@@ -1962,7 +2021,9 @@
       <c r="X14" s="41">
         <v>1.78</v>
       </c>
-      <c r="Y14" s="42"/>
+      <c r="Y14" s="41">
+        <v>1.79</v>
+      </c>
       <c r="Z14" s="42"/>
       <c r="AA14" s="43"/>
       <c r="AB14" s="43"/>
@@ -2038,7 +2099,9 @@
       <c r="X15" s="41">
         <v>1.79</v>
       </c>
-      <c r="Y15" s="42"/>
+      <c r="Y15" s="41">
+        <v>1.81</v>
+      </c>
       <c r="Z15" s="42"/>
       <c r="AA15" s="43"/>
       <c r="AB15" s="43"/>
@@ -2114,7 +2177,9 @@
       <c r="X16" s="46">
         <v>2</v>
       </c>
-      <c r="Y16" s="47"/>
+      <c r="Y16" s="46">
+        <v>2.0499999999999998</v>
+      </c>
       <c r="Z16" s="47"/>
       <c r="AA16" s="48"/>
       <c r="AB16" s="48"/>
@@ -2190,7 +2255,9 @@
       <c r="X17" s="46">
         <v>2.06</v>
       </c>
-      <c r="Y17" s="47"/>
+      <c r="Y17" s="46">
+        <v>2.0499999999999998</v>
+      </c>
       <c r="Z17" s="47"/>
       <c r="AA17" s="48"/>
       <c r="AB17" s="48"/>
@@ -2266,7 +2333,9 @@
       <c r="X18" s="46">
         <v>1.91</v>
       </c>
-      <c r="Y18" s="47"/>
+      <c r="Y18" s="46">
+        <v>1.92</v>
+      </c>
       <c r="Z18" s="47"/>
       <c r="AA18" s="48"/>
       <c r="AB18" s="48"/>
@@ -2342,7 +2411,9 @@
       <c r="X19" s="46">
         <v>1.75</v>
       </c>
-      <c r="Y19" s="47"/>
+      <c r="Y19" s="46">
+        <v>1.75</v>
+      </c>
       <c r="Z19" s="47"/>
       <c r="AA19" s="48"/>
       <c r="AB19" s="48"/>
@@ -2418,7 +2489,9 @@
       <c r="X20" s="46">
         <v>1.75</v>
       </c>
-      <c r="Y20" s="47"/>
+      <c r="Y20" s="46">
+        <v>1.74</v>
+      </c>
       <c r="Z20" s="47"/>
       <c r="AA20" s="48"/>
       <c r="AB20" s="48"/>
@@ -2494,7 +2567,9 @@
       <c r="X21" s="51">
         <v>1.52</v>
       </c>
-      <c r="Y21" s="52"/>
+      <c r="Y21" s="51">
+        <v>1.72</v>
+      </c>
       <c r="Z21" s="52"/>
       <c r="AA21" s="53"/>
       <c r="AB21" s="53"/>
@@ -2570,7 +2645,9 @@
       <c r="X22" s="51">
         <v>1.78</v>
       </c>
-      <c r="Y22" s="52"/>
+      <c r="Y22" s="51">
+        <v>1.94</v>
+      </c>
       <c r="Z22" s="52"/>
       <c r="AA22" s="53"/>
       <c r="AB22" s="53"/>
@@ -2646,7 +2723,9 @@
       <c r="X23" s="56">
         <v>1.5</v>
       </c>
-      <c r="Y23" s="57"/>
+      <c r="Y23" s="56">
+        <v>1.75</v>
+      </c>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
       <c r="AB23" s="58"/>
@@ -2722,7 +2801,9 @@
       <c r="X24" s="56">
         <v>1.77</v>
       </c>
-      <c r="Y24" s="57"/>
+      <c r="Y24" s="56">
+        <v>1.99</v>
+      </c>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="58"/>
@@ -2798,7 +2879,9 @@
       <c r="X25" s="61">
         <v>1.83</v>
       </c>
-      <c r="Y25" s="62"/>
+      <c r="Y25" s="61">
+        <v>1.89</v>
+      </c>
       <c r="Z25" s="62"/>
       <c r="AA25" s="63"/>
       <c r="AB25" s="63"/>
@@ -2874,7 +2957,9 @@
       <c r="X26" s="61">
         <v>1.85</v>
       </c>
-      <c r="Y26" s="62"/>
+      <c r="Y26" s="61">
+        <v>1.9</v>
+      </c>
       <c r="Z26" s="62"/>
       <c r="AA26" s="63"/>
       <c r="AB26" s="63"/>
@@ -2950,7 +3035,9 @@
       <c r="X27" s="61">
         <v>1.79</v>
       </c>
-      <c r="Y27" s="62"/>
+      <c r="Y27" s="61">
+        <v>1.96</v>
+      </c>
       <c r="Z27" s="62"/>
       <c r="AA27" s="63"/>
       <c r="AB27" s="63"/>
@@ -3026,7 +3113,9 @@
       <c r="X28" s="61">
         <v>1.81</v>
       </c>
-      <c r="Y28" s="62"/>
+      <c r="Y28" s="61">
+        <v>1.83</v>
+      </c>
       <c r="Z28" s="62"/>
       <c r="AA28" s="63"/>
       <c r="AB28" s="63"/>
@@ -3102,7 +3191,9 @@
       <c r="X29" s="66">
         <v>1.78</v>
       </c>
-      <c r="Y29" s="67"/>
+      <c r="Y29" s="66">
+        <v>1.84</v>
+      </c>
       <c r="Z29" s="67"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
@@ -3178,7 +3269,9 @@
       <c r="X30" s="66">
         <v>1.87</v>
       </c>
-      <c r="Y30" s="67"/>
+      <c r="Y30" s="66">
+        <v>1.94</v>
+      </c>
       <c r="Z30" s="67"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -3254,7 +3347,9 @@
       <c r="X31" s="66">
         <v>1.86</v>
       </c>
-      <c r="Y31" s="67"/>
+      <c r="Y31" s="66">
+        <v>1.87</v>
+      </c>
       <c r="Z31" s="67"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -3330,7 +3425,9 @@
       <c r="X32" s="66">
         <v>1.76</v>
       </c>
-      <c r="Y32" s="67"/>
+      <c r="Y32" s="66">
+        <v>1.78</v>
+      </c>
       <c r="Z32" s="67"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -3406,7 +3503,9 @@
       <c r="X33" s="66">
         <v>1.81</v>
       </c>
-      <c r="Y33" s="67"/>
+      <c r="Y33" s="66">
+        <v>1.8</v>
+      </c>
       <c r="Z33" s="67"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -3462,7 +3561,9 @@
       <c r="X34" s="71">
         <v>1.54</v>
       </c>
-      <c r="Y34" s="69"/>
+      <c r="Y34" s="71">
+        <v>1.65</v>
+      </c>
       <c r="Z34" s="69"/>
       <c r="AA34" s="72"/>
       <c r="AB34" s="72"/>
@@ -3520,7 +3621,9 @@
       <c r="X35" s="71">
         <v>1.65</v>
       </c>
-      <c r="Y35" s="69"/>
+      <c r="Y35" s="71">
+        <v>1.76</v>
+      </c>
       <c r="Z35" s="69"/>
       <c r="AA35" s="72"/>
       <c r="AB35" s="72"/>
@@ -3578,7 +3681,9 @@
       <c r="X36" s="71">
         <v>1.75</v>
       </c>
-      <c r="Y36" s="69"/>
+      <c r="Y36" s="71">
+        <v>1.86</v>
+      </c>
       <c r="Z36" s="69"/>
       <c r="AA36" s="72"/>
       <c r="AB36" s="72"/>
@@ -3636,7 +3741,9 @@
       <c r="X37" s="71">
         <v>1.88</v>
       </c>
-      <c r="Y37" s="69"/>
+      <c r="Y37" s="71">
+        <v>1.95</v>
+      </c>
       <c r="Z37" s="69"/>
       <c r="AA37" s="72"/>
       <c r="AB37" s="72"/>
@@ -3694,7 +3801,9 @@
       <c r="X38" s="71">
         <v>1.97</v>
       </c>
-      <c r="Y38" s="69"/>
+      <c r="Y38" s="71">
+        <v>1.99</v>
+      </c>
       <c r="Z38" s="69"/>
       <c r="AA38" s="72"/>
       <c r="AB38" s="72"/>
@@ -3746,7 +3855,9 @@
       <c r="X39" s="41">
         <v>1.65</v>
       </c>
-      <c r="Y39" s="42"/>
+      <c r="Y39" s="41">
+        <v>1.72</v>
+      </c>
       <c r="Z39" s="42"/>
       <c r="AA39" s="43"/>
       <c r="AB39" s="43"/>
@@ -3798,7 +3909,9 @@
       <c r="X40" s="41">
         <v>1.71</v>
       </c>
-      <c r="Y40" s="42"/>
+      <c r="Y40" s="41">
+        <v>1.74</v>
+      </c>
       <c r="Z40" s="42"/>
       <c r="AA40" s="43"/>
       <c r="AB40" s="43"/>
@@ -3850,7 +3963,9 @@
       <c r="X41" s="41">
         <v>1.79</v>
       </c>
-      <c r="Y41" s="42"/>
+      <c r="Y41" s="41">
+        <v>1.82</v>
+      </c>
       <c r="Z41" s="42"/>
       <c r="AA41" s="43"/>
       <c r="AB41" s="43"/>
@@ -3902,7 +4017,9 @@
       <c r="X42" s="41">
         <v>1.88</v>
       </c>
-      <c r="Y42" s="42"/>
+      <c r="Y42" s="41">
+        <v>1.88</v>
+      </c>
       <c r="Z42" s="42"/>
       <c r="AA42" s="43"/>
       <c r="AB42" s="43"/>
@@ -3954,7 +4071,9 @@
       <c r="X43" s="41">
         <v>1.94</v>
       </c>
-      <c r="Y43" s="42"/>
+      <c r="Y43" s="41">
+        <v>1.95</v>
+      </c>
       <c r="Z43" s="42"/>
       <c r="AA43" s="43"/>
       <c r="AB43" s="43"/>
@@ -6881,10 +7000,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6902,13 +7021,14 @@
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="97" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:15" s="89" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="94"/>
       <c r="D1" s="6">
         <v>30715</v>
       </c>
@@ -6936,14 +7056,17 @@
       <c r="L1" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="86" t="s">
+      <c r="M1" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="96" t="s">
+      <c r="N1" s="99" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
@@ -6977,12 +7100,15 @@
       <c r="M2" s="85">
         <v>45321</v>
       </c>
-      <c r="N2" s="93">
+      <c r="N2" s="88">
         <v>45371</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="O2" s="98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -7019,12 +7145,15 @@
       <c r="M3" s="15">
         <v>1.63</v>
       </c>
-      <c r="N3" s="94">
+      <c r="N3" s="15">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+      <c r="O3" s="96">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="91"/>
       <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
@@ -7059,12 +7188,15 @@
       <c r="M4" s="15">
         <v>1.71</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="15">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="O4" s="96">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
       <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
@@ -7099,12 +7231,15 @@
       <c r="M5" s="15">
         <v>1.78</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="15">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
+      <c r="O5" s="96">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="91"/>
       <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
@@ -7139,12 +7274,15 @@
       <c r="M6" s="15">
         <v>1.89</v>
       </c>
-      <c r="N6" s="94">
+      <c r="N6" s="15">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
+      <c r="O6" s="96">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="91"/>
       <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
@@ -7179,12 +7317,15 @@
       <c r="M7" s="15">
         <v>1.92</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="15">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="O7" s="96">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -7211,32 +7352,36 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4">
-        <f>(I3*$D$28)+$D$27</f>
+        <f t="shared" ref="I8:O8" si="0">(I3*$D$28)+$D$27</f>
         <v>0.119098</v>
       </c>
       <c r="J8" s="4">
-        <f>(J3*$D$28)+$D$27</f>
+        <f t="shared" si="0"/>
         <v>0.28597000000000006</v>
       </c>
       <c r="K8" s="4">
-        <f>(K3*$D$28)+$D$27</f>
+        <f t="shared" si="0"/>
         <v>0.24915999999999999</v>
       </c>
       <c r="L8" s="4">
-        <f>(L3*$D$28)+$D$27</f>
+        <f t="shared" si="0"/>
         <v>0.27615400000000001</v>
       </c>
       <c r="M8" s="4">
-        <f>(M3*$D$28)+$D$27</f>
+        <f t="shared" si="0"/>
         <v>0.30560199999999998</v>
       </c>
       <c r="N8" s="4">
-        <f>(N3*$D$28)+$D$27</f>
+        <f t="shared" si="0"/>
         <v>0.28351600000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
+      <c r="O8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31051000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="90"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -7244,49 +7389,53 @@
         <v>30</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:L12" si="0">(D4*$E$28)+$E$27</f>
+        <f t="shared" ref="D9:L12" si="1">(D4*$E$28)+$E$27</f>
         <v>0.24052100000000001</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19487299999999999</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17490200000000003</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12640099999999996</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11213600000000004</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24052100000000001</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22055</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22055</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" ref="M9:N9" si="1">(M4*$E$28)+$E$27</f>
+        <f t="shared" ref="M9:N9" si="2">(M4*$E$28)+$E$27</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26334499999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
+      <c r="O9" s="4">
+        <f t="shared" ref="O9" si="3">(O4*$E$28)+$E$27</f>
+        <v>0.29472799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="90"/>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -7294,49 +7443,53 @@
         <v>50</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.291875</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.217697</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19487299999999999</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20628499999999997</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.217697</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ref="M10:N10" si="2">(M5*$E$28)+$E$27</f>
+        <f t="shared" ref="M10:N10" si="4">(M5*$E$28)+$E$27</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.291875</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
+      <c r="O10" s="4">
+        <f t="shared" ref="O10" si="5">(O5*$E$28)+$E$27</f>
+        <v>0.32325800000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="90"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -7344,49 +7497,53 @@
         <v>70</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4">
-        <f t="shared" ref="I11:L11" si="3">(I6*$E$28)+$E$27</f>
+        <f t="shared" ref="I11:L11" si="6">(I6*$E$28)+$E$27</f>
         <v>0.26619799999999993</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" ref="M11:N11" si="4">(M6*$E$28)+$E$27</f>
+        <f t="shared" ref="M11:N11" si="7">(M6*$E$28)+$E$27</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.32896399999999992</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
+      <c r="O11" s="4">
+        <f t="shared" ref="O11" si="8">(O6*$E$28)+$E$27</f>
+        <v>0.348935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="90"/>
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -7394,49 +7551,53 @@
         <v>90</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
-        <f t="shared" ref="I12:L12" si="5">(I7*$E$28)+$E$27</f>
+        <f t="shared" ref="I12:L12" si="9">(I7*$E$28)+$E$27</f>
         <v>0.289022</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12:N12" si="6">(M7*$E$28)+$E$27</f>
+        <f t="shared" ref="M12:N12" si="10">(M7*$E$28)+$E$27</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.35464099999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="O12" s="4">
+        <f t="shared" ref="O12" si="11">(O7*$E$28)+$E$27</f>
+        <v>0.36034699999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="92" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -7467,12 +7628,15 @@
       <c r="M13" s="16">
         <v>1.71</v>
       </c>
-      <c r="N13" s="95">
+      <c r="N13" s="16">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
+      <c r="O13" s="97">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
@@ -7501,12 +7665,15 @@
       <c r="M14" s="16">
         <v>1.75</v>
       </c>
-      <c r="N14" s="95">
+      <c r="N14" s="16">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
+      <c r="O14" s="97">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -7535,12 +7702,15 @@
       <c r="M15" s="16">
         <v>1.81</v>
       </c>
-      <c r="N15" s="95">
+      <c r="N15" s="16">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
+      <c r="O15" s="97">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
@@ -7569,12 +7739,15 @@
       <c r="M16" s="16">
         <v>1.86</v>
       </c>
-      <c r="N16" s="95">
+      <c r="N16" s="16">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
+      <c r="O16" s="97">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
       <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
@@ -7603,12 +7776,15 @@
       <c r="M17" s="16">
         <v>1.93</v>
       </c>
-      <c r="N17" s="95">
+      <c r="N17" s="16">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="O17" s="97">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="93" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -7622,36 +7798,40 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="17">
-        <f t="shared" ref="H18:M18" si="7">(H13*$D$28)+$D$27</f>
+        <f t="shared" ref="H18:M18" si="12">(H13*$D$28)+$D$27</f>
         <v>0.16081600000000001</v>
       </c>
       <c r="I18" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.16081600000000001</v>
       </c>
       <c r="J18" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.30069400000000007</v>
       </c>
       <c r="K18" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.28351600000000005</v>
       </c>
       <c r="L18" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.30314800000000003</v>
       </c>
       <c r="M18" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.32523400000000002</v>
       </c>
       <c r="N18" s="17">
-        <f t="shared" ref="N18" si="8">(N13*$D$28)+$D$27</f>
+        <f t="shared" ref="N18:O18" si="13">(N13*$D$28)+$D$27</f>
         <v>0.31051000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
+      <c r="O18" s="17">
+        <f t="shared" si="13"/>
+        <v>0.32768800000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="93"/>
       <c r="B19" s="11" t="s">
         <v>10</v>
       </c>
@@ -7663,36 +7843,40 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="17">
-        <f t="shared" ref="H19:K22" si="9">(H14*$E$28)+$E$27</f>
+        <f t="shared" ref="H19:K22" si="14">(H14*$E$28)+$E$27</f>
         <v>0.11784199999999997</v>
       </c>
       <c r="I19" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.11498899999999998</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.24052100000000001</v>
       </c>
       <c r="L19" s="17">
-        <f t="shared" ref="L19:M19" si="10">(L14*$E$28)+$E$27</f>
+        <f t="shared" ref="L19:M19" si="15">(L14*$E$28)+$E$27</f>
         <v>0.26334499999999994</v>
       </c>
       <c r="M19" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.291875</v>
       </c>
       <c r="N19" s="17">
-        <f t="shared" ref="N19" si="11">(N14*$E$28)+$E$27</f>
+        <f t="shared" ref="N19:O19" si="16">(N14*$E$28)+$E$27</f>
         <v>0.28046300000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
+      <c r="O19" s="17">
+        <f t="shared" si="16"/>
+        <v>0.289022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="93"/>
       <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
@@ -7704,36 +7888,40 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.16634299999999999</v>
       </c>
       <c r="I20" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.16349</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.22625599999999998</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.23196200000000003</v>
       </c>
       <c r="L20" s="17">
-        <f t="shared" ref="L20:M20" si="12">(L15*$E$28)+$E$27</f>
+        <f t="shared" ref="L20:M20" si="17">(L15*$E$28)+$E$27</f>
         <v>0.246227</v>
       </c>
       <c r="M20" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" ref="N20" si="13">(N15*$E$28)+$E$27</f>
+        <f t="shared" ref="N20:O20" si="18">(N15*$E$28)+$E$27</f>
         <v>0.30328699999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
+      <c r="O20" s="17">
+        <f t="shared" si="18"/>
+        <v>0.31184599999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="93"/>
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
@@ -7745,36 +7933,40 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.246227</v>
       </c>
       <c r="I21" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="J21" s="17">
-        <f t="shared" ref="J21:K21" si="14">(J16*$E$28)+$E$27</f>
+        <f t="shared" ref="J21:K21" si="19">(J16*$E$28)+$E$27</f>
         <v>0.24052100000000001</v>
       </c>
       <c r="K21" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="L21" s="17">
-        <f t="shared" ref="L21:M21" si="15">(L16*$E$28)+$E$27</f>
+        <f t="shared" ref="L21:M21" si="20">(L16*$E$28)+$E$27</f>
         <v>0.246227</v>
       </c>
       <c r="M21" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="N21" s="17">
-        <f t="shared" ref="N21" si="16">(N16*$E$28)+$E$27</f>
+        <f t="shared" ref="N21:O21" si="21">(N16*$E$28)+$E$27</f>
         <v>0.32896399999999992</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
+      <c r="O21" s="17">
+        <f t="shared" si="21"/>
+        <v>0.32896399999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="93"/>
       <c r="B22" s="11" t="s">
         <v>10</v>
       </c>
@@ -7786,35 +7978,39 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="I22" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="J22" s="17">
-        <f t="shared" ref="J22:K22" si="17">(J17*$E$28)+$E$27</f>
+        <f t="shared" ref="J22:K22" si="22">(J17*$E$28)+$E$27</f>
         <v>0.28331600000000001</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.291875</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" ref="L22:M22" si="18">(L17*$E$28)+$E$27</f>
+        <f t="shared" ref="L22:M22" si="23">(L17*$E$28)+$E$27</f>
         <v>0.13781299999999999</v>
       </c>
       <c r="M22" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="N22" s="17">
-        <f t="shared" ref="N22" si="19">(N17*$E$28)+$E$27</f>
+        <f t="shared" ref="N22:O22" si="24">(N17*$E$28)+$E$27</f>
         <v>0.346082</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="17">
+        <f t="shared" si="24"/>
+        <v>0.348935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
@@ -7822,7 +8018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
@@ -7830,7 +8026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
@@ -7841,7 +8037,7 @@
         <v>-0.2074</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>

--- a/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
+++ b/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willbro\Dropbox (OSU Soil Physics)\NRCS testbed\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willbro\OSU Soil Physics Dropbox\William Brown Jr\Brown\PhD\Dissertation\NP_Marena_Sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154F0FD-D89C-41A5-BB52-C76ECB4E5479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E099B67-68AA-4070-B790-ACC94A80208D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{E93F8746-9E87-4457-9EA2-96B4DD1F63F6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="37">
   <si>
     <t>Slope (CountRatio)</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>30761 MARE        30625 STIL</t>
+  </si>
+  <si>
+    <t>30772 MARE        30602 STIL</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -316,22 +319,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,7 +378,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,7 +394,6 @@
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,7 +406,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,7 +416,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,7 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,7 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,7 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,7 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,7 +477,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,6 +537,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,23 +558,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,7 +884,7 @@
   <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z47" sqref="Z47"/>
+      <selection activeCell="AA47" sqref="AA47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,6 +910,7 @@
     <col min="23" max="23" width="11.85546875" style="1" customWidth="1"/>
     <col min="24" max="24" width="11.7109375" style="1" customWidth="1"/>
     <col min="25" max="25" width="12.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,4781 +987,4867 @@
       <c r="Y1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
+      <c r="Z1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>45022</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>45035</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>45049</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>45063</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <v>45077</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>45091</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="22">
         <v>45105</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>45119</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>45133</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <v>45147</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="22">
         <v>45161</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="22">
         <v>45163</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="22">
         <v>45175</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="22">
         <v>45189</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="23">
         <v>45203</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="22">
         <v>45212</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="22">
         <v>45217</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="22">
         <v>45231</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2" s="24">
         <v>45246</v>
       </c>
-      <c r="V2" s="26">
+      <c r="V2" s="25">
         <v>45259</v>
       </c>
-      <c r="W2" s="26">
+      <c r="W2" s="25">
         <v>45321</v>
       </c>
-      <c r="X2" s="87">
+      <c r="X2" s="78">
         <v>45371</v>
       </c>
-      <c r="Y2" s="95" t="s">
+      <c r="Y2" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="27"/>
+      <c r="Z2" s="78">
+        <v>45375</v>
+      </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>10</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>1.68</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <v>1.52</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <v>1.84</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <v>1.96</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="27">
         <v>1.8</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="27">
         <v>1.5</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="27">
         <v>1.55</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="27">
         <v>1.98</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="27">
         <v>1.62</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="27">
         <v>1.83</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="27">
         <v>1.59</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="27">
         <v>1.23</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="27">
         <v>1.32</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="29">
         <v>1.17</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="27">
         <v>1.21</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="27">
         <v>1.7</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3" s="27">
         <v>1.68</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="29">
         <v>1.8</v>
       </c>
-      <c r="W3" s="31">
+      <c r="W3" s="29">
         <v>1.91</v>
       </c>
-      <c r="X3" s="31">
+      <c r="X3" s="29">
         <v>1.86</v>
       </c>
-      <c r="Y3" s="31">
+      <c r="Y3" s="29">
         <v>1.89</v>
       </c>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
+      <c r="Z3" s="29">
+        <v>1.9</v>
+      </c>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>30</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>1.81</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>1.73</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="27">
         <v>1.84</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <v>1.91</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="27">
         <v>1.86</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="27">
         <v>1.67</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="27">
         <v>1.55</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="27">
         <v>1.85</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <v>1.72</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="27">
         <v>1.72</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="27">
         <v>1.66</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29">
+      <c r="N4" s="27"/>
+      <c r="O4" s="27">
         <v>1.35</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="27">
         <v>1.32</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="29">
         <v>1.28</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29">
+      <c r="R4" s="27"/>
+      <c r="S4" s="27">
         <v>1.26</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="27">
         <v>1.42</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="27">
         <v>1.38</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="29">
         <v>1.43</v>
       </c>
-      <c r="W4" s="31">
+      <c r="W4" s="29">
         <v>1.85</v>
       </c>
-      <c r="X4" s="31">
+      <c r="X4" s="29">
         <v>1.85</v>
       </c>
-      <c r="Y4" s="31">
+      <c r="Y4" s="29">
         <v>1.86</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
+      <c r="Z4" s="29">
+        <v>1.91</v>
+      </c>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
     </row>
     <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>50</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>1.62</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <v>1.62</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="27">
         <v>1.73</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <v>1.77</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="27">
         <v>1.77</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="27">
         <v>1.71</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="27">
         <v>1.56</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="27">
         <v>1.68</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <v>1.69</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="27">
         <v>1.46</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="27">
         <v>1.44</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27">
         <v>1.23</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="27">
         <v>1.22</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="27">
         <v>1.19</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29">
+      <c r="R5" s="27"/>
+      <c r="S5" s="27">
         <v>1.1599999999999999</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="27">
         <v>1.21</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="27">
         <v>1.21</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="29">
         <v>1.2</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="29">
         <v>1.74</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="29">
         <v>1.72</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="29">
         <v>1.76</v>
       </c>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
+      <c r="Z5" s="29">
+        <v>1.79</v>
+      </c>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>70</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <v>1.54</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <v>1.56</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="27">
         <v>1.77</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="27">
         <v>1.81</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="27">
         <v>1.81</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="27">
         <v>1.75</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="27">
         <v>1.7</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="27">
         <v>1.79</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="27">
         <v>1.78</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="27">
         <v>1.62</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="27">
         <v>1.64</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29">
+      <c r="N6" s="27"/>
+      <c r="O6" s="27">
         <v>1.42</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="27">
         <v>1.36</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="27">
         <v>1.29</v>
       </c>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29">
+      <c r="R6" s="27"/>
+      <c r="S6" s="27">
         <v>1.29</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="27">
         <v>1.28</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="27">
         <v>1.28</v>
       </c>
-      <c r="V6" s="31">
+      <c r="V6" s="29">
         <v>1.29</v>
       </c>
-      <c r="W6" s="31">
+      <c r="W6" s="29">
         <v>1.79</v>
       </c>
-      <c r="X6" s="31">
+      <c r="X6" s="29">
         <v>1.78</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="Y6" s="29">
         <v>1.82</v>
       </c>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
+      <c r="Z6" s="29">
+        <v>1.82</v>
+      </c>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="31">
         <v>10</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>1.57</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>1.36</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="32">
         <v>1.71</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>1.78</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="32">
         <v>1.65</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="32">
         <v>1.28</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="32">
         <v>1.64</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="32">
         <v>1.88</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="32">
         <v>1.6</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="32">
         <v>1.78</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="32">
         <v>1.46</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35">
+      <c r="N7" s="32"/>
+      <c r="O7" s="32">
         <v>1.05</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="32">
         <v>1.29</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="32">
         <v>1.01</v>
       </c>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35">
+      <c r="R7" s="32"/>
+      <c r="S7" s="32">
         <v>1.06</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="32">
         <v>1.7</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="32">
         <v>1.64</v>
       </c>
-      <c r="V7" s="36">
+      <c r="V7" s="33">
         <v>1.74</v>
       </c>
-      <c r="W7" s="36">
+      <c r="W7" s="33">
         <v>1.84</v>
       </c>
-      <c r="X7" s="36">
+      <c r="X7" s="33">
         <v>1.74</v>
       </c>
-      <c r="Y7" s="36">
+      <c r="Y7" s="33">
         <v>1.8</v>
       </c>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
+      <c r="Z7" s="33">
+        <v>1.8</v>
+      </c>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="31">
         <v>30</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <v>1.8</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="32">
         <v>1.72</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="32">
         <v>1.84</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="32">
         <v>1.87</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="32">
         <v>1.83</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="32">
         <v>1.61</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="32">
         <v>1.7</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="32">
         <v>1.87</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="32">
         <v>1.79</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="32">
         <v>1.79</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="32">
         <v>1.73</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35">
+      <c r="N8" s="32"/>
+      <c r="O8" s="32">
         <v>1.35</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="32">
         <v>1.31</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="32">
         <v>1.26</v>
       </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35">
+      <c r="R8" s="32"/>
+      <c r="S8" s="32">
         <v>1.23</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="32">
         <v>1.47</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="32">
         <v>1.47</v>
       </c>
-      <c r="V8" s="36">
+      <c r="V8" s="33">
         <v>1.6</v>
       </c>
-      <c r="W8" s="36">
+      <c r="W8" s="33">
         <v>1.83</v>
       </c>
-      <c r="X8" s="36">
+      <c r="X8" s="33">
         <v>1.82</v>
       </c>
-      <c r="Y8" s="36">
+      <c r="Y8" s="33">
         <v>1.81</v>
       </c>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
+      <c r="Z8" s="33">
+        <v>1.84</v>
+      </c>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
     </row>
     <row r="9" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="31">
         <v>50</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="31">
         <v>1.77</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="32">
         <v>1.75</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="32">
         <v>1.79</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="32">
         <v>1.83</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="32">
         <v>1.81</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="32">
         <v>1.72</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="32">
         <v>1.7</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="32">
         <v>1.83</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="32">
         <v>1.79</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="32">
         <v>1.69</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="32">
         <v>1.72</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35">
+      <c r="N9" s="32"/>
+      <c r="O9" s="32">
         <v>1.47</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="32">
         <v>1.37</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="32">
         <v>1.27</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="35">
+      <c r="R9" s="33"/>
+      <c r="S9" s="32">
         <v>1.29</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="32">
         <v>1.28</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="32">
         <v>1.26</v>
       </c>
-      <c r="V9" s="36">
+      <c r="V9" s="33">
         <v>1.28</v>
       </c>
-      <c r="W9" s="36">
+      <c r="W9" s="33">
         <v>1.77</v>
       </c>
-      <c r="X9" s="36">
+      <c r="X9" s="33">
         <v>1.78</v>
       </c>
-      <c r="Y9" s="36">
+      <c r="Y9" s="33">
         <v>1.8</v>
       </c>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
+      <c r="Z9" s="33">
+        <v>1.85</v>
+      </c>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
     </row>
     <row r="10" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="31">
         <v>70</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <v>1.76</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="32">
         <v>1.74</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="32">
         <v>1.79</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="32">
         <v>1.83</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="32">
         <v>1.86</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="32">
         <v>1.82</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="32">
         <v>1.75</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="32">
         <v>1.86</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="32">
         <v>1.81</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="32">
         <v>1.75</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="32">
         <v>1.83</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35">
+      <c r="N10" s="32"/>
+      <c r="O10" s="32">
         <v>1.71</v>
       </c>
-      <c r="P10" s="35">
+      <c r="P10" s="32">
         <v>1.6</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10" s="32">
         <v>1.51</v>
       </c>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35">
+      <c r="R10" s="32"/>
+      <c r="S10" s="32">
         <v>1.51</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T10" s="32">
         <v>1.46</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U10" s="32">
         <v>1.49</v>
       </c>
-      <c r="V10" s="36">
+      <c r="V10" s="33">
         <v>1.5</v>
       </c>
-      <c r="W10" s="36">
+      <c r="W10" s="33">
         <v>1.83</v>
       </c>
-      <c r="X10" s="36">
+      <c r="X10" s="33">
         <v>1.78</v>
       </c>
-      <c r="Y10" s="36">
+      <c r="Y10" s="33">
         <v>1.86</v>
       </c>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
+      <c r="Z10" s="33">
+        <v>1.88</v>
+      </c>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="35">
         <v>10</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="35">
         <v>1.83</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="36">
         <v>1.68</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="36">
         <v>1.95</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="36">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="36">
         <v>1.9</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="36">
         <v>1.65</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="36">
         <v>1.96</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="36">
         <v>2.09</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="36">
         <v>1.83</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="36">
         <v>1.99</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="36">
         <v>1.72</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40">
+      <c r="N11" s="36"/>
+      <c r="O11" s="36">
         <v>1.42</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="36">
         <v>1.53</v>
       </c>
-      <c r="Q11" s="40">
+      <c r="Q11" s="36">
         <v>1.36</v>
       </c>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40">
+      <c r="R11" s="36"/>
+      <c r="S11" s="36">
         <v>1.39</v>
       </c>
-      <c r="T11" s="40">
+      <c r="T11" s="36">
         <v>1.88</v>
       </c>
-      <c r="U11" s="40">
+      <c r="U11" s="36">
         <v>1.8</v>
       </c>
-      <c r="V11" s="41">
+      <c r="V11" s="37">
         <v>1.9</v>
       </c>
-      <c r="W11" s="41">
+      <c r="W11" s="37">
         <v>2.0499999999999998</v>
       </c>
-      <c r="X11" s="41">
+      <c r="X11" s="37">
         <v>1.95</v>
       </c>
-      <c r="Y11" s="41">
+      <c r="Y11" s="37">
         <v>2.02</v>
       </c>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
+      <c r="Z11" s="37">
+        <v>2.02</v>
+      </c>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="35">
         <v>30</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="35">
         <v>1.99</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="36">
         <v>1.95</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="36">
         <v>1.99</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="36">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="36">
         <v>2</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="36">
         <v>1.89</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="36">
         <v>1.95</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="36">
         <v>1.99</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="36">
         <v>1.94</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="36">
         <v>1.96</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="36">
         <v>1.9</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40">
+      <c r="N12" s="36"/>
+      <c r="O12" s="36">
         <v>1.69</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="36">
         <v>1.67</v>
       </c>
-      <c r="Q12" s="40">
+      <c r="Q12" s="36">
         <v>1.61</v>
       </c>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40">
+      <c r="R12" s="36"/>
+      <c r="S12" s="36">
         <v>1.6</v>
       </c>
-      <c r="T12" s="40">
+      <c r="T12" s="36">
         <v>1.71</v>
       </c>
-      <c r="U12" s="40">
+      <c r="U12" s="36">
         <v>1.72</v>
       </c>
-      <c r="V12" s="41">
+      <c r="V12" s="37">
         <v>1.74</v>
       </c>
-      <c r="W12" s="41">
+      <c r="W12" s="37">
         <v>2.0499999999999998</v>
       </c>
-      <c r="X12" s="41">
+      <c r="X12" s="37">
         <v>1.97</v>
       </c>
-      <c r="Y12" s="41">
+      <c r="Y12" s="37">
         <v>2.0099999999999998</v>
       </c>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
+      <c r="Z12" s="37">
+        <v>1.99</v>
+      </c>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="35">
         <v>50</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="35">
         <v>1.93</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="36">
         <v>1.89</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="36">
         <v>1.92</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="36">
         <v>1.93</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="36">
         <v>1.96</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="36">
         <v>1.9</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="36">
         <v>1.89</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="36">
         <v>1.93</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="36">
         <v>1.86</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="36">
         <v>1.93</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="36">
         <v>1.86</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40">
+      <c r="N13" s="36"/>
+      <c r="O13" s="36">
         <v>1.71</v>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="36">
         <v>1.66</v>
       </c>
-      <c r="Q13" s="40">
+      <c r="Q13" s="36">
         <v>1.64</v>
       </c>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40">
+      <c r="R13" s="36"/>
+      <c r="S13" s="36">
         <v>1.61</v>
       </c>
-      <c r="T13" s="40">
+      <c r="T13" s="36">
         <v>1.63</v>
       </c>
-      <c r="U13" s="40">
+      <c r="U13" s="36">
         <v>1.67</v>
       </c>
-      <c r="V13" s="41">
+      <c r="V13" s="37">
         <v>1.68</v>
       </c>
-      <c r="W13" s="41">
+      <c r="W13" s="37">
         <v>1.89</v>
       </c>
-      <c r="X13" s="41">
+      <c r="X13" s="37">
         <v>1.93</v>
       </c>
-      <c r="Y13" s="41">
+      <c r="Y13" s="37">
         <v>1.92</v>
       </c>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
+      <c r="Z13" s="37">
+        <v>1.92</v>
+      </c>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="35">
         <v>70</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="35">
         <v>1.8</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="36">
         <v>1.77</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="36">
         <v>1.8</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="36">
         <v>1.83</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="36">
         <v>1.83</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="36">
         <v>1.8</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="36">
         <v>1.77</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="36">
         <v>1.79</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="36">
         <v>1.78</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="36">
         <v>1.82</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="36">
         <v>1.75</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40">
+      <c r="N14" s="36"/>
+      <c r="O14" s="36">
         <v>1.68</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="36">
         <v>1.64</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="Q14" s="36">
         <v>1.61</v>
       </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40">
+      <c r="R14" s="36"/>
+      <c r="S14" s="36">
         <v>1.58</v>
       </c>
-      <c r="T14" s="40">
+      <c r="T14" s="36">
         <v>1.56</v>
       </c>
-      <c r="U14" s="40">
+      <c r="U14" s="36">
         <v>1.61</v>
       </c>
-      <c r="V14" s="41">
+      <c r="V14" s="37">
         <v>1.59</v>
       </c>
-      <c r="W14" s="41">
+      <c r="W14" s="37">
         <v>1.74</v>
       </c>
-      <c r="X14" s="41">
+      <c r="X14" s="37">
         <v>1.78</v>
       </c>
-      <c r="Y14" s="41">
+      <c r="Y14" s="37">
         <v>1.79</v>
       </c>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
+      <c r="Z14" s="37">
+        <v>1.79</v>
+      </c>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="35">
         <v>90</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="35">
         <v>1.8</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="36">
         <v>1.77</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="36">
         <v>1.8</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="36">
         <v>1.82</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="36">
         <v>1.82</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="36">
         <v>1.83</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="36">
         <v>1.83</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="36">
         <v>1.84</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="36">
         <v>1.83</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="36">
         <v>1.82</v>
       </c>
-      <c r="M15" s="40">
+      <c r="M15" s="36">
         <v>1.8</v>
       </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40">
+      <c r="N15" s="36"/>
+      <c r="O15" s="36">
         <v>1.8</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="36">
         <v>1.74</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="36">
         <v>1.73</v>
       </c>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40">
+      <c r="R15" s="36"/>
+      <c r="S15" s="36">
         <v>1.7</v>
       </c>
-      <c r="T15" s="40">
+      <c r="T15" s="36">
         <v>1.66</v>
       </c>
-      <c r="U15" s="40">
+      <c r="U15" s="36">
         <v>1.67</v>
       </c>
-      <c r="V15" s="41">
+      <c r="V15" s="37">
         <v>1.69</v>
       </c>
-      <c r="W15" s="41">
+      <c r="W15" s="37">
         <v>1.69</v>
       </c>
-      <c r="X15" s="41">
+      <c r="X15" s="37">
         <v>1.79</v>
       </c>
-      <c r="Y15" s="41">
+      <c r="Y15" s="37">
         <v>1.81</v>
       </c>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="43"/>
+      <c r="Z15" s="37">
+        <v>1.81</v>
+      </c>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="40">
         <v>10</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="40">
         <v>1.89</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="41">
         <v>1.7</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="41">
         <v>2.02</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="41">
         <v>2.08</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="41">
         <v>1.93</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="41">
         <v>1.72</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="41">
         <v>1.96</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="41">
         <v>2.1</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="41">
         <v>1.89</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="41">
         <v>1.98</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="41">
         <v>1.74</v>
       </c>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45">
+      <c r="N16" s="41"/>
+      <c r="O16" s="41">
         <v>1.46</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="41">
         <v>1.64</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="41">
         <v>1.45</v>
       </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45">
+      <c r="R16" s="41"/>
+      <c r="S16" s="41">
         <v>1.46</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="41">
         <v>1.9</v>
       </c>
-      <c r="U16" s="45">
+      <c r="U16" s="41">
         <v>1.87</v>
       </c>
-      <c r="V16" s="46">
+      <c r="V16" s="42">
         <v>1.94</v>
       </c>
-      <c r="W16" s="46">
+      <c r="W16" s="42">
         <v>2.02</v>
       </c>
-      <c r="X16" s="46">
+      <c r="X16" s="42">
         <v>2</v>
       </c>
-      <c r="Y16" s="46">
+      <c r="Y16" s="42">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
+      <c r="Z16" s="42">
+        <v>2.09</v>
+      </c>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
     </row>
     <row r="17" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="40">
         <v>30</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="40">
         <v>2.02</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="41">
         <v>1.99</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="41">
         <v>2.04</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="41">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="41">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="41">
         <v>1.96</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="41">
         <v>2.02</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="41">
         <v>2.09</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="41">
         <v>2.02</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="41">
         <v>2.04</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="41">
         <v>1.97</v>
       </c>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45">
+      <c r="N17" s="41"/>
+      <c r="O17" s="41">
         <v>1.75</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="41">
         <v>1.7</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="41">
         <v>1.69</v>
       </c>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45">
+      <c r="R17" s="41"/>
+      <c r="S17" s="41">
         <v>1.69</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="41">
         <v>1.82</v>
       </c>
-      <c r="U17" s="45">
+      <c r="U17" s="41">
         <v>1.81</v>
       </c>
-      <c r="V17" s="46">
+      <c r="V17" s="42">
         <v>1.82</v>
       </c>
-      <c r="W17" s="46">
+      <c r="W17" s="42">
         <v>1.98</v>
       </c>
-      <c r="X17" s="46">
+      <c r="X17" s="42">
         <v>2.06</v>
       </c>
-      <c r="Y17" s="46">
+      <c r="Y17" s="42">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
+      <c r="Z17" s="42">
+        <v>2.06</v>
+      </c>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
     </row>
     <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="40">
         <v>50</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="40">
         <v>1.92</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="41">
         <v>1.91</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="41">
         <v>1.91</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="41">
         <v>1.91</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="41">
         <v>1.96</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="41">
         <v>1.93</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="41">
         <v>1.89</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="41">
         <v>1.85</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="41">
         <v>1.88</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="41">
         <v>1.9</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="41">
         <v>1.84</v>
       </c>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45">
+      <c r="N18" s="41"/>
+      <c r="O18" s="41">
         <v>1.73</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="41">
         <v>1.64</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="41">
         <v>1.65</v>
       </c>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45">
+      <c r="R18" s="41"/>
+      <c r="S18" s="41">
         <v>1.6</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="41">
         <v>1.63</v>
       </c>
-      <c r="U18" s="45">
+      <c r="U18" s="41">
         <v>1.63</v>
       </c>
-      <c r="V18" s="46">
+      <c r="V18" s="42">
         <v>1.63</v>
       </c>
-      <c r="W18" s="46">
+      <c r="W18" s="42">
         <v>1.92</v>
       </c>
-      <c r="X18" s="46">
+      <c r="X18" s="42">
         <v>1.91</v>
       </c>
-      <c r="Y18" s="46">
+      <c r="Y18" s="42">
         <v>1.92</v>
       </c>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
+      <c r="Z18" s="42">
+        <v>1.9</v>
+      </c>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="40">
         <v>70</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="40">
         <v>1.77</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="41">
         <v>1.74</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="41">
         <v>1.77</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="41">
         <v>1.76</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="41">
         <v>1.79</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="41">
         <v>1.81</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="41">
         <v>1.76</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="41">
         <v>1.77</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="41">
         <v>1.78</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="41">
         <v>1.73</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="41">
         <v>1.73</v>
       </c>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45">
+      <c r="N19" s="41"/>
+      <c r="O19" s="41">
         <v>1.71</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="41">
         <v>1.65</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="41">
         <v>1.62</v>
       </c>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45">
+      <c r="R19" s="41"/>
+      <c r="S19" s="41">
         <v>1.59</v>
       </c>
-      <c r="T19" s="45">
+      <c r="T19" s="41">
         <v>1.55</v>
       </c>
-      <c r="U19" s="45">
+      <c r="U19" s="41">
         <v>1.56</v>
       </c>
-      <c r="V19" s="46">
+      <c r="V19" s="42">
         <v>1.58</v>
       </c>
-      <c r="W19" s="46">
+      <c r="W19" s="42">
         <v>1.77</v>
       </c>
-      <c r="X19" s="46">
+      <c r="X19" s="42">
         <v>1.75</v>
       </c>
-      <c r="Y19" s="46">
+      <c r="Y19" s="42">
         <v>1.75</v>
       </c>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
+      <c r="Z19" s="42">
+        <v>1.77</v>
+      </c>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="40">
         <v>90</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="40">
         <v>1.71</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="41">
         <v>1.71</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="41">
         <v>1.72</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="41">
         <v>1.75</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="41">
         <v>1.77</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="41">
         <v>1.79</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="41">
         <v>1.77</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="41">
         <v>1.77</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="41">
         <v>1.8</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="41">
         <v>1.78</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="41">
         <v>1.76</v>
       </c>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45">
+      <c r="N20" s="41"/>
+      <c r="O20" s="41">
         <v>1.73</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="41">
         <v>1.72</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q20" s="41">
         <v>1.74</v>
       </c>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45">
+      <c r="R20" s="41"/>
+      <c r="S20" s="41">
         <v>1.7</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="41">
         <v>1.72</v>
       </c>
-      <c r="U20" s="45">
+      <c r="U20" s="41">
         <v>1.68</v>
       </c>
-      <c r="V20" s="46">
+      <c r="V20" s="42">
         <v>1.72</v>
       </c>
-      <c r="W20" s="46">
+      <c r="W20" s="42">
         <v>1.73</v>
       </c>
-      <c r="X20" s="46">
+      <c r="X20" s="42">
         <v>1.75</v>
       </c>
-      <c r="Y20" s="46">
+      <c r="Y20" s="42">
         <v>1.74</v>
       </c>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
+      <c r="Z20" s="42">
+        <v>1.76</v>
+      </c>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="44">
         <v>10</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="44">
         <v>1.27</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="45">
         <v>1.02</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="45">
         <v>1.58</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="45">
         <v>1.82</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="45">
         <v>1.51</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="45">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="45">
         <v>1.76</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="45">
         <v>1.89</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K21" s="45">
         <v>1.45</v>
       </c>
-      <c r="L21" s="50">
+      <c r="L21" s="45">
         <v>1.76</v>
       </c>
-      <c r="M21" s="50">
+      <c r="M21" s="45">
         <v>1.48</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50">
+      <c r="N21" s="45"/>
+      <c r="O21" s="45">
         <v>0.84</v>
       </c>
-      <c r="P21" s="50">
+      <c r="P21" s="45">
         <v>1.1100000000000001</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="Q21" s="45">
         <v>0.7</v>
       </c>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50">
+      <c r="R21" s="45"/>
+      <c r="S21" s="45">
         <v>0.75</v>
       </c>
-      <c r="T21" s="50">
+      <c r="T21" s="45">
         <v>1.43</v>
       </c>
-      <c r="U21" s="50">
+      <c r="U21" s="45">
         <v>1.35</v>
       </c>
-      <c r="V21" s="51">
+      <c r="V21" s="46">
         <v>1.45</v>
       </c>
-      <c r="W21" s="51">
+      <c r="W21" s="46">
         <v>1.79</v>
       </c>
-      <c r="X21" s="51">
+      <c r="X21" s="46">
         <v>1.52</v>
       </c>
-      <c r="Y21" s="51">
+      <c r="Y21" s="46">
         <v>1.72</v>
       </c>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
+      <c r="Z21" s="46">
+        <v>1.71</v>
+      </c>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="44">
         <v>30</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="44">
         <v>1.68</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="45">
         <v>1.46</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="45">
         <v>1.9</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="45">
         <v>2.0699999999999998</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="45">
         <v>1.82</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="45">
         <v>1.44</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="45">
         <v>1.99</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="45">
         <v>2.11</v>
       </c>
-      <c r="K22" s="50">
+      <c r="K22" s="45">
         <v>1.77</v>
       </c>
-      <c r="L22" s="50">
+      <c r="L22" s="45">
         <v>2</v>
       </c>
-      <c r="M22" s="50">
+      <c r="M22" s="45">
         <v>1.78</v>
       </c>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50">
+      <c r="N22" s="45"/>
+      <c r="O22" s="45">
         <v>1.17</v>
       </c>
-      <c r="P22" s="50">
+      <c r="P22" s="45">
         <v>1.1100000000000001</v>
       </c>
-      <c r="Q22" s="50">
+      <c r="Q22" s="45">
         <v>0.99</v>
       </c>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50">
+      <c r="R22" s="45"/>
+      <c r="S22" s="45">
         <v>0.96</v>
       </c>
-      <c r="T22" s="50">
+      <c r="T22" s="45">
         <v>1.21</v>
       </c>
-      <c r="U22" s="50">
+      <c r="U22" s="45">
         <v>1.39</v>
       </c>
-      <c r="V22" s="51">
+      <c r="V22" s="46">
         <v>1.53</v>
       </c>
-      <c r="W22" s="51">
+      <c r="W22" s="46">
         <v>2</v>
       </c>
-      <c r="X22" s="51">
+      <c r="X22" s="46">
         <v>1.78</v>
       </c>
-      <c r="Y22" s="51">
+      <c r="Y22" s="46">
         <v>1.94</v>
       </c>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
+      <c r="Z22" s="46">
+        <v>1.94</v>
+      </c>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
     </row>
     <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="48">
         <v>10</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="48">
         <v>1.19</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="49">
         <v>0.85</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="49">
         <v>1.63</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="49">
         <v>1.85</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="49">
         <v>1.48</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="49">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="49">
         <v>1.77</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="49">
         <v>1.89</v>
       </c>
-      <c r="K23" s="55">
+      <c r="K23" s="49">
         <v>1.45</v>
       </c>
-      <c r="L23" s="55">
+      <c r="L23" s="49">
         <v>1.8</v>
       </c>
-      <c r="M23" s="55">
+      <c r="M23" s="49">
         <v>1.4</v>
       </c>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55">
+      <c r="N23" s="49"/>
+      <c r="O23" s="49">
         <v>0.75</v>
       </c>
-      <c r="P23" s="55">
+      <c r="P23" s="49">
         <v>0.99</v>
       </c>
-      <c r="Q23" s="55">
+      <c r="Q23" s="49">
         <v>0.65</v>
       </c>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55">
+      <c r="R23" s="49"/>
+      <c r="S23" s="49">
         <v>0.73</v>
       </c>
-      <c r="T23" s="55">
+      <c r="T23" s="49">
         <v>1.52</v>
       </c>
-      <c r="U23" s="55">
+      <c r="U23" s="49">
         <v>1.42</v>
       </c>
-      <c r="V23" s="56">
+      <c r="V23" s="50">
         <v>1.52</v>
       </c>
-      <c r="W23" s="56">
+      <c r="W23" s="50">
         <v>1.81</v>
       </c>
-      <c r="X23" s="56">
+      <c r="X23" s="50">
         <v>1.5</v>
       </c>
-      <c r="Y23" s="56">
+      <c r="Y23" s="50">
         <v>1.75</v>
       </c>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
+      <c r="Z23" s="50">
+        <v>1.72</v>
+      </c>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
     </row>
     <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="48">
         <v>30</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="48">
         <v>1.61</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="49">
         <v>1.19</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="49">
         <v>1.84</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="49">
         <v>2.08</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="49">
         <v>1.81</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="49">
         <v>1.49</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="49">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="49">
         <v>2.0699999999999998</v>
       </c>
-      <c r="K24" s="55">
+      <c r="K24" s="49">
         <v>1.82</v>
       </c>
-      <c r="L24" s="55">
+      <c r="L24" s="49">
         <v>1.98</v>
       </c>
-      <c r="M24" s="55">
+      <c r="M24" s="49">
         <v>1.78</v>
       </c>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55">
+      <c r="N24" s="49"/>
+      <c r="O24" s="49">
         <v>0.99</v>
       </c>
-      <c r="P24" s="55">
+      <c r="P24" s="49">
         <v>1.05</v>
       </c>
-      <c r="Q24" s="55">
+      <c r="Q24" s="49">
         <v>0.95</v>
       </c>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55">
+      <c r="R24" s="49"/>
+      <c r="S24" s="49">
         <v>0.91</v>
       </c>
-      <c r="T24" s="55">
+      <c r="T24" s="49">
         <v>1.7</v>
       </c>
-      <c r="U24" s="55">
+      <c r="U24" s="49">
         <v>1.63</v>
       </c>
-      <c r="V24" s="56">
+      <c r="V24" s="50">
         <v>1.72</v>
       </c>
-      <c r="W24" s="56">
+      <c r="W24" s="50">
         <v>1.98</v>
       </c>
-      <c r="X24" s="56">
+      <c r="X24" s="50">
         <v>1.77</v>
       </c>
-      <c r="Y24" s="56">
+      <c r="Y24" s="50">
         <v>1.99</v>
       </c>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
+      <c r="Z24" s="50">
+        <v>1.96</v>
+      </c>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
     </row>
     <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="52">
         <v>10</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="52">
         <v>1.7</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="53">
         <v>1.58</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="53">
         <v>1.82</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="53">
         <v>1.9</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="53">
         <v>1.78</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="53">
         <v>1.56</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="53">
         <v>1.83</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="53">
         <v>1.96</v>
       </c>
-      <c r="K25" s="60">
+      <c r="K25" s="53">
         <v>1.71</v>
       </c>
-      <c r="L25" s="60">
+      <c r="L25" s="53">
         <v>1.87</v>
       </c>
-      <c r="M25" s="60">
+      <c r="M25" s="53">
         <v>1.64</v>
       </c>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60">
+      <c r="N25" s="53"/>
+      <c r="O25" s="53">
         <v>1.18</v>
       </c>
-      <c r="P25" s="60">
+      <c r="P25" s="53">
         <v>1.34</v>
       </c>
-      <c r="Q25" s="60">
+      <c r="Q25" s="53">
         <v>1.17</v>
       </c>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60">
+      <c r="R25" s="53"/>
+      <c r="S25" s="53">
         <v>1.24</v>
       </c>
-      <c r="T25" s="60">
+      <c r="T25" s="53">
         <v>1.8</v>
       </c>
-      <c r="U25" s="60">
+      <c r="U25" s="53">
         <v>1.73</v>
       </c>
-      <c r="V25" s="61">
+      <c r="V25" s="54">
         <v>1.79</v>
       </c>
-      <c r="W25" s="61">
+      <c r="W25" s="54">
         <v>1.87</v>
       </c>
-      <c r="X25" s="61">
+      <c r="X25" s="54">
         <v>1.83</v>
       </c>
-      <c r="Y25" s="61">
+      <c r="Y25" s="54">
         <v>1.89</v>
       </c>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
+      <c r="Z25" s="54">
+        <v>1.9</v>
+      </c>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
     </row>
     <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="52">
         <v>30</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="52">
         <v>1.87</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="53">
         <v>1.83</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="53">
         <v>1.85</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="53">
         <v>1.92</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="53">
         <v>1.9</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="53">
         <v>1.76</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="53">
         <v>1.87</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="53">
         <v>1.92</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="53">
         <v>1.84</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26" s="53">
         <v>1.87</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26" s="53">
         <v>1.81</v>
       </c>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60">
+      <c r="N26" s="53"/>
+      <c r="O26" s="53">
         <v>1.52</v>
       </c>
-      <c r="P26" s="60">
+      <c r="P26" s="53">
         <v>1.45</v>
       </c>
-      <c r="Q26" s="60">
+      <c r="Q26" s="53">
         <v>1.46</v>
       </c>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60">
+      <c r="R26" s="53"/>
+      <c r="S26" s="53">
         <v>1.44</v>
       </c>
-      <c r="T26" s="60">
+      <c r="T26" s="53">
         <v>1.77</v>
       </c>
-      <c r="U26" s="60">
+      <c r="U26" s="53">
         <v>1.73</v>
       </c>
-      <c r="V26" s="61">
+      <c r="V26" s="54">
         <v>1.83</v>
       </c>
-      <c r="W26" s="61">
+      <c r="W26" s="54">
         <v>1.88</v>
       </c>
-      <c r="X26" s="61">
+      <c r="X26" s="54">
         <v>1.85</v>
       </c>
-      <c r="Y26" s="61">
+      <c r="Y26" s="54">
         <v>1.9</v>
       </c>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="63"/>
-      <c r="AD26" s="63"/>
+      <c r="Z26" s="54">
+        <v>1.89</v>
+      </c>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="52">
         <v>50</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="52">
         <v>1.82</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="53">
         <v>1.77</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="53">
         <v>1.81</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="53">
         <v>1.82</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="53">
         <v>1.84</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="53">
         <v>1.79</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="53">
         <v>1.82</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="53">
         <v>1.86</v>
       </c>
-      <c r="K27" s="60">
+      <c r="K27" s="53">
         <v>1.84</v>
       </c>
-      <c r="L27" s="60">
+      <c r="L27" s="53">
         <v>1.79</v>
       </c>
-      <c r="M27" s="60">
+      <c r="M27" s="53">
         <v>1.79</v>
       </c>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60">
+      <c r="N27" s="53"/>
+      <c r="O27" s="53">
         <v>1.58</v>
       </c>
-      <c r="P27" s="60">
+      <c r="P27" s="53">
         <v>1.51</v>
       </c>
-      <c r="Q27" s="60">
+      <c r="Q27" s="53">
         <v>1.46</v>
       </c>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60">
+      <c r="R27" s="53"/>
+      <c r="S27" s="53">
         <v>1.46</v>
       </c>
-      <c r="T27" s="60">
+      <c r="T27" s="53">
         <v>1.57</v>
       </c>
-      <c r="U27" s="60">
+      <c r="U27" s="53">
         <v>1.59</v>
       </c>
-      <c r="V27" s="61">
+      <c r="V27" s="54">
         <v>1.69</v>
       </c>
-      <c r="W27" s="61">
+      <c r="W27" s="54">
         <v>1.83</v>
       </c>
-      <c r="X27" s="61">
+      <c r="X27" s="54">
         <v>1.79</v>
       </c>
-      <c r="Y27" s="61">
+      <c r="Y27" s="54">
         <v>1.96</v>
       </c>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
+      <c r="Z27" s="54">
+        <v>1.84</v>
+      </c>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="52">
         <v>70</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="52">
         <v>1.79</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="53">
         <v>1.79</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="53">
         <v>1.78</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="53">
         <v>1.82</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="53">
         <v>1.83</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="53">
         <v>1.81</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="53">
         <v>1.82</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="53">
         <v>1.85</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="53">
         <v>1.84</v>
       </c>
-      <c r="L28" s="60">
+      <c r="L28" s="53">
         <v>1.79</v>
       </c>
-      <c r="M28" s="60">
+      <c r="M28" s="53">
         <v>1.81</v>
       </c>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60">
+      <c r="N28" s="53"/>
+      <c r="O28" s="53">
         <v>1.67</v>
       </c>
-      <c r="P28" s="60">
+      <c r="P28" s="53">
         <v>1.62</v>
       </c>
-      <c r="Q28" s="60">
+      <c r="Q28" s="53">
         <v>1.56</v>
       </c>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60">
+      <c r="R28" s="53"/>
+      <c r="S28" s="53">
         <v>1.55</v>
       </c>
-      <c r="T28" s="60">
+      <c r="T28" s="53">
         <v>1.61</v>
       </c>
-      <c r="U28" s="60">
+      <c r="U28" s="53">
         <v>1.59</v>
       </c>
-      <c r="V28" s="61">
+      <c r="V28" s="54">
         <v>1.6</v>
       </c>
-      <c r="W28" s="61">
+      <c r="W28" s="54">
         <v>1.78</v>
       </c>
-      <c r="X28" s="61">
+      <c r="X28" s="54">
         <v>1.81</v>
       </c>
-      <c r="Y28" s="61">
+      <c r="Y28" s="54">
         <v>1.83</v>
       </c>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="63"/>
+      <c r="Z28" s="54">
+        <v>1.82</v>
+      </c>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="55"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="64">
+      <c r="B29" s="56">
         <v>10</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="56">
         <v>1.68</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="57">
         <v>1.49</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="57">
         <v>1.73</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="57">
         <v>1.84</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="57">
         <v>1.69</v>
       </c>
-      <c r="H29" s="65">
+      <c r="H29" s="57">
         <v>1.4</v>
       </c>
-      <c r="I29" s="65">
+      <c r="I29" s="57">
         <v>1.75</v>
       </c>
-      <c r="J29" s="65">
+      <c r="J29" s="57">
         <v>1.91</v>
       </c>
-      <c r="K29" s="65">
+      <c r="K29" s="57">
         <v>1.68</v>
       </c>
-      <c r="L29" s="65">
+      <c r="L29" s="57">
         <v>1.79</v>
       </c>
-      <c r="M29" s="65">
+      <c r="M29" s="57">
         <v>1.62</v>
       </c>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65">
+      <c r="N29" s="57"/>
+      <c r="O29" s="57">
         <v>1.22</v>
       </c>
-      <c r="P29" s="65">
+      <c r="P29" s="57">
         <v>1.55</v>
       </c>
-      <c r="Q29" s="65">
+      <c r="Q29" s="57">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65">
+      <c r="R29" s="57"/>
+      <c r="S29" s="57">
         <v>1.22</v>
       </c>
-      <c r="T29" s="65">
+      <c r="T29" s="57">
         <v>1.74</v>
       </c>
-      <c r="U29" s="65">
+      <c r="U29" s="57">
         <v>1.73</v>
       </c>
-      <c r="V29" s="66">
+      <c r="V29" s="58">
         <v>1.78</v>
       </c>
-      <c r="W29" s="66">
+      <c r="W29" s="58">
         <v>1.84</v>
       </c>
-      <c r="X29" s="66">
+      <c r="X29" s="58">
         <v>1.78</v>
       </c>
-      <c r="Y29" s="66">
+      <c r="Y29" s="58">
         <v>1.84</v>
       </c>
-      <c r="Z29" s="67"/>
+      <c r="Z29" s="58">
+        <v>1.88</v>
+      </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="64">
+      <c r="B30" s="56">
         <v>30</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="56">
         <v>1.89</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="57">
         <v>1.78</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="57">
         <v>1.89</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="57">
         <v>1.94</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="57">
         <v>1.88</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="57">
         <v>1.72</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="57">
         <v>1.84</v>
       </c>
-      <c r="J30" s="65">
+      <c r="J30" s="57">
         <v>1.93</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="57">
         <v>1.85</v>
       </c>
-      <c r="L30" s="65">
+      <c r="L30" s="57">
         <v>1.9</v>
       </c>
-      <c r="M30" s="65">
+      <c r="M30" s="57">
         <v>1.81</v>
       </c>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65">
+      <c r="N30" s="57"/>
+      <c r="O30" s="57">
         <v>1.48</v>
       </c>
-      <c r="P30" s="65">
+      <c r="P30" s="57">
         <v>1.63</v>
       </c>
-      <c r="Q30" s="65">
+      <c r="Q30" s="57">
         <v>1.42</v>
       </c>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65">
+      <c r="R30" s="57"/>
+      <c r="S30" s="57">
         <v>1.45</v>
       </c>
-      <c r="T30" s="65">
+      <c r="T30" s="57">
         <v>1.77</v>
       </c>
-      <c r="U30" s="65">
+      <c r="U30" s="57">
         <v>1.77</v>
       </c>
-      <c r="V30" s="66">
+      <c r="V30" s="58">
         <v>1.86</v>
       </c>
-      <c r="W30" s="66">
+      <c r="W30" s="58">
         <v>1.94</v>
       </c>
-      <c r="X30" s="66">
+      <c r="X30" s="58">
         <v>1.87</v>
       </c>
-      <c r="Y30" s="66">
+      <c r="Y30" s="58">
         <v>1.94</v>
       </c>
-      <c r="Z30" s="67"/>
+      <c r="Z30" s="58">
+        <v>1.95</v>
+      </c>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="64">
+      <c r="B31" s="56">
         <v>50</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="56">
         <v>1.84</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="57">
         <v>1.83</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="57">
         <v>1.83</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="57">
         <v>1.86</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="57">
         <v>1.88</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="57">
         <v>1.81</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="57">
         <v>1.81</v>
       </c>
-      <c r="J31" s="65">
+      <c r="J31" s="57">
         <v>1.89</v>
       </c>
-      <c r="K31" s="65">
+      <c r="K31" s="57">
         <v>1.89</v>
       </c>
-      <c r="L31" s="65">
+      <c r="L31" s="57">
         <v>1.85</v>
       </c>
-      <c r="M31" s="65">
+      <c r="M31" s="57">
         <v>1.83</v>
       </c>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65">
+      <c r="N31" s="57"/>
+      <c r="O31" s="57">
         <v>1.61</v>
       </c>
-      <c r="P31" s="65">
+      <c r="P31" s="57">
         <v>1.59</v>
       </c>
-      <c r="Q31" s="65">
+      <c r="Q31" s="57">
         <v>1.52</v>
       </c>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65">
+      <c r="R31" s="57"/>
+      <c r="S31" s="57">
         <v>1.48</v>
       </c>
-      <c r="T31" s="65">
+      <c r="T31" s="57">
         <v>1.59</v>
       </c>
-      <c r="U31" s="65">
+      <c r="U31" s="57">
         <v>1.59</v>
       </c>
-      <c r="V31" s="66">
+      <c r="V31" s="58">
         <v>1.69</v>
       </c>
-      <c r="W31" s="66">
+      <c r="W31" s="58">
         <v>1.84</v>
       </c>
-      <c r="X31" s="66">
+      <c r="X31" s="58">
         <v>1.86</v>
       </c>
-      <c r="Y31" s="66">
+      <c r="Y31" s="58">
         <v>1.87</v>
       </c>
-      <c r="Z31" s="67"/>
+      <c r="Z31" s="58">
+        <v>1.88</v>
+      </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="64">
+      <c r="B32" s="56">
         <v>70</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="56">
         <v>1.74</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="57">
         <v>1.71</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="57">
         <v>1.75</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="57">
         <v>1.75</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="57">
         <v>1.75</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="57">
         <v>1.74</v>
       </c>
-      <c r="I32" s="65">
+      <c r="I32" s="57">
         <v>1.71</v>
       </c>
-      <c r="J32" s="65">
+      <c r="J32" s="57">
         <v>1.77</v>
       </c>
-      <c r="K32" s="65">
+      <c r="K32" s="57">
         <v>1.76</v>
       </c>
-      <c r="L32" s="65">
+      <c r="L32" s="57">
         <v>1.72</v>
       </c>
-      <c r="M32" s="65">
+      <c r="M32" s="57">
         <v>1.76</v>
       </c>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65">
+      <c r="N32" s="57"/>
+      <c r="O32" s="57">
         <v>1.62</v>
       </c>
-      <c r="P32" s="65">
+      <c r="P32" s="57">
         <v>1.53</v>
       </c>
-      <c r="Q32" s="65">
+      <c r="Q32" s="57">
         <v>1.5</v>
       </c>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65">
+      <c r="R32" s="57"/>
+      <c r="S32" s="57">
         <v>1.46</v>
       </c>
-      <c r="T32" s="65">
+      <c r="T32" s="57">
         <v>1.49</v>
       </c>
-      <c r="U32" s="65">
+      <c r="U32" s="57">
         <v>1.48</v>
       </c>
-      <c r="V32" s="66">
+      <c r="V32" s="58">
         <v>1.5</v>
       </c>
-      <c r="W32" s="66">
+      <c r="W32" s="58">
         <v>1.75</v>
       </c>
-      <c r="X32" s="66">
+      <c r="X32" s="58">
         <v>1.76</v>
       </c>
-      <c r="Y32" s="66">
+      <c r="Y32" s="58">
         <v>1.78</v>
       </c>
-      <c r="Z32" s="67"/>
+      <c r="Z32" s="58">
+        <v>1.78</v>
+      </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
     </row>
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33" s="56">
         <v>90</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="56">
         <v>1.71</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="57">
         <v>1.68</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="57">
         <v>1.76</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="57">
         <v>1.8</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="57">
         <v>1.87</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="57">
         <v>1.83</v>
       </c>
-      <c r="I33" s="65">
+      <c r="I33" s="57">
         <v>1.8</v>
       </c>
-      <c r="J33" s="65">
+      <c r="J33" s="57">
         <v>1.86</v>
       </c>
-      <c r="K33" s="65">
+      <c r="K33" s="57">
         <v>1.81</v>
       </c>
-      <c r="L33" s="65">
+      <c r="L33" s="57">
         <v>1.8</v>
       </c>
-      <c r="M33" s="65">
+      <c r="M33" s="57">
         <v>1.85</v>
       </c>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65">
+      <c r="N33" s="57"/>
+      <c r="O33" s="57">
         <v>1.76</v>
       </c>
-      <c r="P33" s="65">
+      <c r="P33" s="57">
         <v>1.72</v>
       </c>
-      <c r="Q33" s="65">
+      <c r="Q33" s="57">
         <v>1.64</v>
       </c>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65">
+      <c r="R33" s="57"/>
+      <c r="S33" s="57">
         <v>1.6</v>
       </c>
-      <c r="T33" s="65">
+      <c r="T33" s="57">
         <v>1.61</v>
       </c>
-      <c r="U33" s="65">
+      <c r="U33" s="57">
         <v>1.61</v>
       </c>
-      <c r="V33" s="66">
+      <c r="V33" s="58">
         <v>1.62</v>
       </c>
-      <c r="W33" s="66">
+      <c r="W33" s="58">
         <v>1.81</v>
       </c>
-      <c r="X33" s="66">
+      <c r="X33" s="58">
         <v>1.81</v>
       </c>
-      <c r="Y33" s="66">
+      <c r="Y33" s="58">
         <v>1.8</v>
       </c>
-      <c r="Z33" s="67"/>
+      <c r="Z33" s="58">
+        <v>1.81</v>
+      </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
     </row>
     <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="68">
+      <c r="B34" s="59">
         <v>10</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="70">
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="61">
         <v>1.29</v>
       </c>
-      <c r="O34" s="70">
+      <c r="O34" s="61">
         <v>1.04</v>
       </c>
-      <c r="P34" s="71">
+      <c r="P34" s="62">
         <v>1.23</v>
       </c>
-      <c r="Q34" s="71">
+      <c r="Q34" s="62">
         <v>0.9</v>
       </c>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71">
+      <c r="R34" s="62"/>
+      <c r="S34" s="62">
         <v>0.87</v>
       </c>
-      <c r="T34" s="71">
+      <c r="T34" s="62">
         <v>1.55</v>
       </c>
-      <c r="U34" s="71">
+      <c r="U34" s="62">
         <v>1.4</v>
       </c>
-      <c r="V34" s="71">
+      <c r="V34" s="62">
         <v>1.51</v>
       </c>
-      <c r="W34" s="71">
+      <c r="W34" s="62">
         <v>1.63</v>
       </c>
-      <c r="X34" s="71">
+      <c r="X34" s="62">
         <v>1.54</v>
       </c>
-      <c r="Y34" s="71">
+      <c r="Y34" s="62">
         <v>1.65</v>
       </c>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
+      <c r="Z34" s="62">
+        <v>1.65</v>
+      </c>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
     </row>
     <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="68">
+      <c r="B35" s="59">
         <v>30</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="70">
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="61">
         <v>1.57</v>
       </c>
-      <c r="O35" s="70">
+      <c r="O35" s="61">
         <v>1.41</v>
       </c>
-      <c r="P35" s="71">
+      <c r="P35" s="62">
         <v>1.34</v>
       </c>
-      <c r="Q35" s="71">
+      <c r="Q35" s="62">
         <v>1.17</v>
       </c>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71">
+      <c r="R35" s="62"/>
+      <c r="S35" s="62">
         <v>1.1200000000000001</v>
       </c>
-      <c r="T35" s="71">
+      <c r="T35" s="62">
         <v>1.57</v>
       </c>
-      <c r="U35" s="71">
+      <c r="U35" s="62">
         <v>1.5</v>
       </c>
-      <c r="V35" s="71">
+      <c r="V35" s="62">
         <v>1.5</v>
       </c>
-      <c r="W35" s="71">
+      <c r="W35" s="62">
         <v>1.71</v>
       </c>
-      <c r="X35" s="71">
+      <c r="X35" s="62">
         <v>1.65</v>
       </c>
-      <c r="Y35" s="71">
+      <c r="Y35" s="62">
         <v>1.76</v>
       </c>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
+      <c r="Z35" s="62">
+        <v>1.73</v>
+      </c>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
     </row>
     <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="59">
         <v>50</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="70">
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="61">
         <v>1.75</v>
       </c>
-      <c r="O36" s="70">
+      <c r="O36" s="61">
         <v>1.7</v>
       </c>
-      <c r="P36" s="71">
+      <c r="P36" s="62">
         <v>1.62</v>
       </c>
-      <c r="Q36" s="71">
+      <c r="Q36" s="62">
         <v>1.49</v>
       </c>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71">
+      <c r="R36" s="62"/>
+      <c r="S36" s="62">
         <v>1.41</v>
       </c>
-      <c r="T36" s="71">
+      <c r="T36" s="62">
         <v>1.45</v>
       </c>
-      <c r="U36" s="71">
+      <c r="U36" s="62">
         <v>1.46</v>
       </c>
-      <c r="V36" s="71">
+      <c r="V36" s="62">
         <v>1.49</v>
       </c>
-      <c r="W36" s="71">
+      <c r="W36" s="62">
         <v>1.78</v>
       </c>
-      <c r="X36" s="71">
+      <c r="X36" s="62">
         <v>1.75</v>
       </c>
-      <c r="Y36" s="71">
+      <c r="Y36" s="62">
         <v>1.86</v>
       </c>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
+      <c r="Z36" s="62">
+        <v>1.83</v>
+      </c>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="63"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
     </row>
     <row r="37" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="68">
+      <c r="B37" s="59">
         <v>70</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="70">
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="61">
         <v>1.9</v>
       </c>
-      <c r="O37" s="70">
+      <c r="O37" s="61">
         <v>1.86</v>
       </c>
-      <c r="P37" s="71">
+      <c r="P37" s="62">
         <v>1.85</v>
       </c>
-      <c r="Q37" s="71">
+      <c r="Q37" s="62">
         <v>1.76</v>
       </c>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71">
+      <c r="R37" s="62"/>
+      <c r="S37" s="62">
         <v>1.66</v>
       </c>
-      <c r="T37" s="71">
+      <c r="T37" s="62">
         <v>1.66</v>
       </c>
-      <c r="U37" s="71">
+      <c r="U37" s="62">
         <v>1.67</v>
       </c>
-      <c r="V37" s="71">
+      <c r="V37" s="62">
         <v>1.66</v>
       </c>
-      <c r="W37" s="71">
+      <c r="W37" s="62">
         <v>1.89</v>
       </c>
-      <c r="X37" s="71">
+      <c r="X37" s="62">
         <v>1.88</v>
       </c>
-      <c r="Y37" s="71">
+      <c r="Y37" s="62">
         <v>1.95</v>
       </c>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="72"/>
-      <c r="AD37" s="72"/>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
+      <c r="Z37" s="62">
+        <v>1.94</v>
+      </c>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
+      <c r="AC37" s="63"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
     </row>
     <row r="38" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="68">
+      <c r="B38" s="59">
         <v>90</v>
       </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="70">
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="61">
         <v>1.92</v>
       </c>
-      <c r="O38" s="70">
+      <c r="O38" s="61">
         <v>1.92</v>
       </c>
-      <c r="P38" s="71">
+      <c r="P38" s="62">
         <v>1.9</v>
       </c>
-      <c r="Q38" s="71">
+      <c r="Q38" s="62">
         <v>1.83</v>
       </c>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71">
+      <c r="R38" s="62"/>
+      <c r="S38" s="62">
         <v>1.74</v>
       </c>
-      <c r="T38" s="71">
+      <c r="T38" s="62">
         <v>1.72</v>
       </c>
-      <c r="U38" s="71">
+      <c r="U38" s="62">
         <v>1.73</v>
       </c>
-      <c r="V38" s="71">
+      <c r="V38" s="62">
         <v>1.69</v>
       </c>
-      <c r="W38" s="71">
+      <c r="W38" s="62">
         <v>1.92</v>
       </c>
-      <c r="X38" s="71">
+      <c r="X38" s="62">
         <v>1.97</v>
       </c>
-      <c r="Y38" s="71">
+      <c r="Y38" s="62">
         <v>1.99</v>
       </c>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="72"/>
-      <c r="AF38" s="72"/>
+      <c r="Z38" s="62">
+        <v>1.99</v>
+      </c>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
+      <c r="AD38" s="63"/>
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="63"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="39">
+      <c r="B39" s="35">
         <v>10</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41">
+      <c r="C39" s="35"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37">
         <v>1.04</v>
       </c>
-      <c r="S39" s="41">
+      <c r="S39" s="37">
         <v>1.04</v>
       </c>
-      <c r="T39" s="41">
+      <c r="T39" s="37">
         <v>1.61</v>
       </c>
-      <c r="U39" s="41">
+      <c r="U39" s="37">
         <v>1.54</v>
       </c>
-      <c r="V39" s="41">
+      <c r="V39" s="37">
         <v>1.62</v>
       </c>
-      <c r="W39" s="41">
+      <c r="W39" s="37">
         <v>1.71</v>
       </c>
-      <c r="X39" s="41">
+      <c r="X39" s="37">
         <v>1.65</v>
       </c>
-      <c r="Y39" s="41">
+      <c r="Y39" s="37">
         <v>1.72</v>
       </c>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
+      <c r="Z39" s="37">
+        <v>1.7</v>
+      </c>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="39">
+      <c r="B40" s="35">
         <v>30</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41">
+      <c r="C40" s="35"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37">
         <v>1.1399999999999999</v>
       </c>
-      <c r="S40" s="41">
+      <c r="S40" s="37">
         <v>1.1299999999999999</v>
       </c>
-      <c r="T40" s="41">
+      <c r="T40" s="37">
         <v>1.66</v>
       </c>
-      <c r="U40" s="41">
+      <c r="U40" s="37">
         <v>1.57</v>
       </c>
-      <c r="V40" s="41">
+      <c r="V40" s="37">
         <v>1.65</v>
       </c>
-      <c r="W40" s="41">
+      <c r="W40" s="37">
         <v>1.75</v>
       </c>
-      <c r="X40" s="41">
+      <c r="X40" s="37">
         <v>1.71</v>
       </c>
-      <c r="Y40" s="41">
+      <c r="Y40" s="37">
         <v>1.74</v>
       </c>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="43"/>
-      <c r="AC40" s="43"/>
-      <c r="AD40" s="43"/>
-      <c r="AE40" s="43"/>
-      <c r="AF40" s="43"/>
+      <c r="Z40" s="37">
+        <v>1.77</v>
+      </c>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="39">
+      <c r="B41" s="35">
         <v>50</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41">
+      <c r="C41" s="35"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37">
         <v>1.31</v>
       </c>
-      <c r="S41" s="41">
+      <c r="S41" s="37">
         <v>1.3</v>
       </c>
-      <c r="T41" s="41">
+      <c r="T41" s="37">
         <v>1.52</v>
       </c>
-      <c r="U41" s="41">
+      <c r="U41" s="37">
         <v>1.54</v>
       </c>
-      <c r="V41" s="41">
+      <c r="V41" s="37">
         <v>1.59</v>
       </c>
-      <c r="W41" s="41">
+      <c r="W41" s="37">
         <v>1.81</v>
       </c>
-      <c r="X41" s="41">
+      <c r="X41" s="37">
         <v>1.79</v>
       </c>
-      <c r="Y41" s="41">
+      <c r="Y41" s="37">
         <v>1.82</v>
       </c>
-      <c r="Z41" s="42"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
+      <c r="Z41" s="37">
+        <v>1.85</v>
+      </c>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="39">
+      <c r="B42" s="35">
         <v>70</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41">
+      <c r="C42" s="35"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37">
         <v>1.59</v>
       </c>
-      <c r="S42" s="41">
+      <c r="S42" s="37">
         <v>1.58</v>
       </c>
-      <c r="T42" s="41">
+      <c r="T42" s="37">
         <v>1.57</v>
       </c>
-      <c r="U42" s="41">
+      <c r="U42" s="37">
         <v>1.63</v>
       </c>
-      <c r="V42" s="41">
+      <c r="V42" s="37">
         <v>1.59</v>
       </c>
-      <c r="W42" s="41">
+      <c r="W42" s="37">
         <v>1.86</v>
       </c>
-      <c r="X42" s="41">
+      <c r="X42" s="37">
         <v>1.88</v>
       </c>
-      <c r="Y42" s="41">
+      <c r="Y42" s="37">
         <v>1.88</v>
       </c>
-      <c r="Z42" s="42"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="43"/>
+      <c r="Z42" s="37">
+        <v>1.92</v>
+      </c>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="39"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="39">
+      <c r="B43" s="35">
         <v>90</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41">
+      <c r="C43" s="35"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37">
         <v>1.73</v>
       </c>
-      <c r="S43" s="41">
+      <c r="S43" s="37">
         <v>1.76</v>
       </c>
-      <c r="T43" s="41">
+      <c r="T43" s="37">
         <v>1.72</v>
       </c>
-      <c r="U43" s="41">
+      <c r="U43" s="37">
         <v>1.75</v>
       </c>
-      <c r="V43" s="41">
+      <c r="V43" s="37">
         <v>1.71</v>
       </c>
-      <c r="W43" s="41">
+      <c r="W43" s="37">
         <v>1.93</v>
       </c>
-      <c r="X43" s="41">
+      <c r="X43" s="37">
         <v>1.94</v>
       </c>
-      <c r="Y43" s="41">
+      <c r="Y43" s="37">
         <v>1.95</v>
       </c>
-      <c r="Z43" s="42"/>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="43"/>
-      <c r="AC43" s="43"/>
-      <c r="AD43" s="43"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="43"/>
+      <c r="Z43" s="37">
+        <v>1.95</v>
+      </c>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="64" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="81" t="s">
+      <c r="D46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="81" t="s">
+      <c r="F46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="81" t="s">
+      <c r="G46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="I46" s="81" t="s">
+      <c r="I46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="J46" s="81" t="s">
+      <c r="J46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="K46" s="81" t="s">
+      <c r="K46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="L46" s="81" t="s">
+      <c r="L46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M46" s="81" t="s">
+      <c r="M46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="N46" s="82"/>
-      <c r="O46" s="81" t="s">
+      <c r="N46" s="73"/>
+      <c r="O46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="P46" s="81" t="s">
+      <c r="P46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="81" t="s">
+      <c r="Q46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="R46" s="83"/>
-      <c r="S46" s="81" t="s">
+      <c r="R46" s="74"/>
+      <c r="S46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="T46" s="81" t="s">
+      <c r="T46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="U46" s="81" t="s">
+      <c r="U46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="V46" s="81" t="s">
+      <c r="V46" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="W46" s="83" t="s">
+      <c r="W46" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="X46" s="83" t="s">
+      <c r="X46" s="74" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="75">
+      <c r="B47" s="66">
         <v>10</v>
       </c>
-      <c r="C47" s="76">
+      <c r="C47" s="67">
         <f t="shared" ref="C47" si="0">(C3*$B$90)+$B$89</f>
         <v>0.31787199999999999</v>
       </c>
-      <c r="D47" s="76">
+      <c r="D47" s="67">
         <f t="shared" ref="D47:W47" si="1">(D3*$B$90)+$B$89</f>
         <v>0.27860800000000002</v>
       </c>
-      <c r="E47" s="76">
+      <c r="E47" s="67">
         <f t="shared" si="1"/>
         <v>0.35713600000000006</v>
       </c>
-      <c r="F47" s="76">
+      <c r="F47" s="67">
         <f t="shared" si="1"/>
         <v>0.38658400000000004</v>
       </c>
-      <c r="G47" s="76">
+      <c r="G47" s="67">
         <f t="shared" si="1"/>
         <v>0.34732000000000002</v>
       </c>
-      <c r="H47" s="76">
+      <c r="H47" s="67">
         <f t="shared" si="1"/>
         <v>0.2737</v>
       </c>
-      <c r="I47" s="76">
+      <c r="I47" s="67">
         <f t="shared" si="1"/>
         <v>0.28597000000000006</v>
       </c>
-      <c r="J47" s="76">
+      <c r="J47" s="67">
         <f t="shared" si="1"/>
         <v>0.39149200000000001</v>
       </c>
-      <c r="K47" s="76">
+      <c r="K47" s="67">
         <f t="shared" si="1"/>
         <v>0.30314800000000003</v>
       </c>
-      <c r="L47" s="76">
+      <c r="L47" s="67">
         <f t="shared" si="1"/>
         <v>0.35468200000000005</v>
       </c>
-      <c r="M47" s="76">
+      <c r="M47" s="67">
         <f t="shared" si="1"/>
         <v>0.29578600000000005</v>
       </c>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76">
+      <c r="N47" s="67"/>
+      <c r="O47" s="67">
         <f t="shared" si="1"/>
         <v>0.20744200000000002</v>
       </c>
-      <c r="P47" s="76">
+      <c r="P47" s="67">
         <f t="shared" si="1"/>
         <v>0.22952800000000007</v>
       </c>
-      <c r="Q47" s="76">
+      <c r="Q47" s="67">
         <f t="shared" si="1"/>
         <v>0.192718</v>
       </c>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76">
+      <c r="R47" s="67"/>
+      <c r="S47" s="67">
         <f t="shared" si="1"/>
         <v>0.20253399999999999</v>
       </c>
-      <c r="T47" s="76">
+      <c r="T47" s="67">
         <f t="shared" si="1"/>
         <v>0.32278000000000001</v>
       </c>
-      <c r="U47" s="76">
+      <c r="U47" s="67">
         <f t="shared" si="1"/>
         <v>0.31787199999999999</v>
       </c>
-      <c r="V47" s="76">
+      <c r="V47" s="67">
         <f t="shared" si="1"/>
         <v>0.34732000000000002</v>
       </c>
-      <c r="W47" s="76">
+      <c r="W47" s="67">
         <f t="shared" si="1"/>
         <v>0.37431400000000004</v>
       </c>
-      <c r="X47" s="76">
+      <c r="X47" s="67">
         <f t="shared" ref="X47" si="2">(X3*$B$90)+$B$89</f>
         <v>0.36204400000000003</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="75">
+      <c r="B48" s="66">
         <v>30</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="67">
         <f t="shared" ref="C48" si="3">(C4*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
-      <c r="D48" s="76">
+      <c r="D48" s="67">
         <f t="shared" ref="D48:V48" si="4">(D4*$C$90)+$C$89</f>
         <v>0.28616900000000001</v>
       </c>
-      <c r="E48" s="76">
+      <c r="E48" s="67">
         <f t="shared" si="4"/>
         <v>0.31755199999999995</v>
       </c>
-      <c r="F48" s="76">
+      <c r="F48" s="67">
         <f t="shared" si="4"/>
         <v>0.33752299999999991</v>
       </c>
-      <c r="G48" s="76">
+      <c r="G48" s="67">
         <f t="shared" si="4"/>
         <v>0.32325800000000005</v>
       </c>
-      <c r="H48" s="76">
+      <c r="H48" s="67">
         <f t="shared" si="4"/>
         <v>0.26905099999999993</v>
       </c>
-      <c r="I48" s="76">
+      <c r="I48" s="67">
         <f t="shared" si="4"/>
         <v>0.23481500000000002</v>
       </c>
-      <c r="J48" s="76">
+      <c r="J48" s="67">
         <f t="shared" si="4"/>
         <v>0.32040499999999994</v>
       </c>
-      <c r="K48" s="76">
+      <c r="K48" s="67">
         <f t="shared" si="4"/>
         <v>0.28331600000000001</v>
       </c>
-      <c r="L48" s="76">
+      <c r="L48" s="67">
         <f t="shared" si="4"/>
         <v>0.28331600000000001</v>
       </c>
-      <c r="M48" s="76">
+      <c r="M48" s="67">
         <f t="shared" si="4"/>
         <v>0.26619799999999993</v>
       </c>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76">
+      <c r="N48" s="67"/>
+      <c r="O48" s="67">
         <f t="shared" si="4"/>
         <v>0.17775500000000002</v>
       </c>
-      <c r="P48" s="76">
+      <c r="P48" s="67">
         <f t="shared" si="4"/>
         <v>0.16919600000000004</v>
       </c>
-      <c r="Q48" s="76">
+      <c r="Q48" s="67">
         <f t="shared" si="4"/>
         <v>0.15778400000000001</v>
       </c>
-      <c r="R48" s="76"/>
-      <c r="S48" s="76">
+      <c r="R48" s="67"/>
+      <c r="S48" s="67">
         <f t="shared" si="4"/>
         <v>0.15207800000000002</v>
       </c>
-      <c r="T48" s="76">
+      <c r="T48" s="67">
         <f t="shared" si="4"/>
         <v>0.19772599999999999</v>
       </c>
-      <c r="U48" s="76">
+      <c r="U48" s="67">
         <f t="shared" si="4"/>
         <v>0.18631399999999995</v>
       </c>
-      <c r="V48" s="76">
+      <c r="V48" s="67">
         <f t="shared" si="4"/>
         <v>0.20057899999999998</v>
       </c>
-      <c r="W48" s="76">
+      <c r="W48" s="67">
         <f t="shared" ref="W48:X48" si="5">(W4*$C$90)+$C$89</f>
         <v>0.32040499999999994</v>
       </c>
-      <c r="X48" s="76">
+      <c r="X48" s="67">
         <f t="shared" si="5"/>
         <v>0.32040499999999994</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="75">
+      <c r="B49" s="66">
         <v>50</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="67">
         <f t="shared" ref="C49" si="6">(C5*$C$90)+$C$89</f>
         <v>0.25478600000000007</v>
       </c>
-      <c r="D49" s="76">
+      <c r="D49" s="67">
         <f t="shared" ref="D49:V49" si="7">(D5*$C$90)+$C$89</f>
         <v>0.25478600000000007</v>
       </c>
-      <c r="E49" s="76">
+      <c r="E49" s="67">
         <f t="shared" si="7"/>
         <v>0.28616900000000001</v>
       </c>
-      <c r="F49" s="76">
+      <c r="F49" s="67">
         <f t="shared" si="7"/>
         <v>0.29758099999999998</v>
       </c>
-      <c r="G49" s="76">
+      <c r="G49" s="67">
         <f t="shared" si="7"/>
         <v>0.29758099999999998</v>
       </c>
-      <c r="H49" s="76">
+      <c r="H49" s="67">
         <f t="shared" si="7"/>
         <v>0.28046300000000002</v>
       </c>
-      <c r="I49" s="76">
+      <c r="I49" s="67">
         <f t="shared" si="7"/>
         <v>0.23766800000000002</v>
       </c>
-      <c r="J49" s="76">
+      <c r="J49" s="67">
         <f t="shared" si="7"/>
         <v>0.27190399999999992</v>
       </c>
-      <c r="K49" s="76">
+      <c r="K49" s="67">
         <f t="shared" si="7"/>
         <v>0.27475700000000003</v>
       </c>
-      <c r="L49" s="76">
+      <c r="L49" s="67">
         <f t="shared" si="7"/>
         <v>0.20913799999999996</v>
       </c>
-      <c r="M49" s="76">
+      <c r="M49" s="67">
         <f t="shared" si="7"/>
         <v>0.20343199999999997</v>
       </c>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76">
+      <c r="N49" s="67"/>
+      <c r="O49" s="67">
         <f t="shared" si="7"/>
         <v>0.14351899999999998</v>
       </c>
-      <c r="P49" s="76">
+      <c r="P49" s="67">
         <f t="shared" si="7"/>
         <v>0.14066599999999999</v>
       </c>
-      <c r="Q49" s="76">
+      <c r="Q49" s="67">
         <f t="shared" si="7"/>
         <v>0.132107</v>
       </c>
-      <c r="R49" s="76"/>
-      <c r="S49" s="76">
+      <c r="R49" s="67"/>
+      <c r="S49" s="67">
         <f t="shared" si="7"/>
         <v>0.12354799999999996</v>
       </c>
-      <c r="T49" s="76">
+      <c r="T49" s="67">
         <f t="shared" si="7"/>
         <v>0.13781299999999999</v>
       </c>
-      <c r="U49" s="76">
+      <c r="U49" s="67">
         <f t="shared" si="7"/>
         <v>0.13781299999999999</v>
       </c>
-      <c r="V49" s="76">
+      <c r="V49" s="67">
         <f t="shared" si="7"/>
         <v>0.13496</v>
       </c>
-      <c r="W49" s="76">
+      <c r="W49" s="67">
         <f t="shared" ref="W49:X49" si="8">(W5*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
-      <c r="X49" s="76">
+      <c r="X49" s="67">
         <f t="shared" si="8"/>
         <v>0.28331600000000001</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="75">
+      <c r="B50" s="66">
         <v>70</v>
       </c>
-      <c r="C50" s="76">
+      <c r="C50" s="67">
         <f t="shared" ref="C50" si="9">(C6*$C$90)+$C$89</f>
         <v>0.23196200000000003</v>
       </c>
-      <c r="D50" s="76">
+      <c r="D50" s="67">
         <f t="shared" ref="D50:V50" si="10">(D6*$C$90)+$C$89</f>
         <v>0.23766800000000002</v>
       </c>
-      <c r="E50" s="76">
+      <c r="E50" s="67">
         <f t="shared" si="10"/>
         <v>0.29758099999999998</v>
       </c>
-      <c r="F50" s="76">
+      <c r="F50" s="67">
         <f t="shared" si="10"/>
         <v>0.30899299999999996</v>
       </c>
-      <c r="G50" s="76">
+      <c r="G50" s="67">
         <f t="shared" si="10"/>
         <v>0.30899299999999996</v>
       </c>
-      <c r="H50" s="76">
+      <c r="H50" s="67">
         <f t="shared" si="10"/>
         <v>0.291875</v>
       </c>
-      <c r="I50" s="76">
+      <c r="I50" s="67">
         <f t="shared" si="10"/>
         <v>0.27761000000000002</v>
       </c>
-      <c r="J50" s="76">
+      <c r="J50" s="67">
         <f t="shared" si="10"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="K50" s="76">
+      <c r="K50" s="67">
         <f t="shared" si="10"/>
         <v>0.30043399999999998</v>
       </c>
-      <c r="L50" s="76">
+      <c r="L50" s="67">
         <f t="shared" si="10"/>
         <v>0.25478600000000007</v>
       </c>
-      <c r="M50" s="76">
+      <c r="M50" s="67">
         <f t="shared" si="10"/>
         <v>0.26049199999999995</v>
       </c>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76">
+      <c r="N50" s="67"/>
+      <c r="O50" s="67">
         <f t="shared" si="10"/>
         <v>0.19772599999999999</v>
       </c>
-      <c r="P50" s="76">
+      <c r="P50" s="67">
         <f t="shared" si="10"/>
         <v>0.18060800000000002</v>
       </c>
-      <c r="Q50" s="76">
+      <c r="Q50" s="67">
         <f t="shared" si="10"/>
         <v>0.160637</v>
       </c>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76">
+      <c r="R50" s="67"/>
+      <c r="S50" s="67">
         <f t="shared" si="10"/>
         <v>0.160637</v>
       </c>
-      <c r="T50" s="76">
+      <c r="T50" s="67">
         <f t="shared" si="10"/>
         <v>0.15778400000000001</v>
       </c>
-      <c r="U50" s="76">
+      <c r="U50" s="67">
         <f t="shared" si="10"/>
         <v>0.15778400000000001</v>
       </c>
-      <c r="V50" s="76">
+      <c r="V50" s="67">
         <f t="shared" si="10"/>
         <v>0.160637</v>
       </c>
-      <c r="W50" s="76">
+      <c r="W50" s="67">
         <f t="shared" ref="W50:X50" si="11">(W6*$C$90)+$C$89</f>
         <v>0.30328699999999997</v>
       </c>
-      <c r="X50" s="76">
+      <c r="X50" s="67">
         <f t="shared" si="11"/>
         <v>0.30043399999999998</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="34">
+      <c r="B51" s="31">
         <v>10</v>
       </c>
-      <c r="C51" s="77">
+      <c r="C51" s="68">
         <f t="shared" ref="C51" si="12">(C7*$B$90)+$B$89</f>
         <v>0.29087800000000003</v>
       </c>
-      <c r="D51" s="77">
+      <c r="D51" s="68">
         <f t="shared" ref="D51:V51" si="13">(D7*$B$90)+$B$89</f>
         <v>0.23934400000000006</v>
       </c>
-      <c r="E51" s="77">
+      <c r="E51" s="68">
         <f t="shared" si="13"/>
         <v>0.32523400000000002</v>
       </c>
-      <c r="F51" s="77">
+      <c r="F51" s="68">
         <f t="shared" si="13"/>
         <v>0.34241200000000005</v>
       </c>
-      <c r="G51" s="77">
+      <c r="G51" s="68">
         <f t="shared" si="13"/>
         <v>0.31051000000000001</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H51" s="68">
         <f t="shared" si="13"/>
         <v>0.21971200000000002</v>
       </c>
-      <c r="I51" s="77">
+      <c r="I51" s="68">
         <f t="shared" si="13"/>
         <v>0.308056</v>
       </c>
-      <c r="J51" s="77">
+      <c r="J51" s="68">
         <f t="shared" si="13"/>
         <v>0.366952</v>
       </c>
-      <c r="K51" s="77">
+      <c r="K51" s="68">
         <f t="shared" si="13"/>
         <v>0.29824000000000006</v>
       </c>
-      <c r="L51" s="77">
+      <c r="L51" s="68">
         <f t="shared" si="13"/>
         <v>0.34241200000000005</v>
       </c>
-      <c r="M51" s="77">
+      <c r="M51" s="68">
         <f t="shared" si="13"/>
         <v>0.26388400000000001</v>
       </c>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77">
+      <c r="N51" s="68"/>
+      <c r="O51" s="68">
         <f t="shared" si="13"/>
         <v>0.16327000000000003</v>
       </c>
-      <c r="P51" s="77">
+      <c r="P51" s="68">
         <f t="shared" si="13"/>
         <v>0.22216600000000003</v>
       </c>
-      <c r="Q51" s="77">
+      <c r="Q51" s="68">
         <f t="shared" si="13"/>
         <v>0.15345400000000003</v>
       </c>
-      <c r="R51" s="77"/>
-      <c r="S51" s="77">
+      <c r="R51" s="68"/>
+      <c r="S51" s="68">
         <f t="shared" si="13"/>
         <v>0.16572400000000004</v>
       </c>
-      <c r="T51" s="77">
+      <c r="T51" s="68">
         <f t="shared" si="13"/>
         <v>0.32278000000000001</v>
       </c>
-      <c r="U51" s="77">
+      <c r="U51" s="68">
         <f t="shared" si="13"/>
         <v>0.308056</v>
       </c>
-      <c r="V51" s="77">
+      <c r="V51" s="68">
         <f t="shared" si="13"/>
         <v>0.332596</v>
       </c>
-      <c r="W51" s="77">
+      <c r="W51" s="68">
         <f t="shared" ref="W51:X51" si="14">(W7*$B$90)+$B$89</f>
         <v>0.35713600000000006</v>
       </c>
-      <c r="X51" s="77">
+      <c r="X51" s="68">
         <f t="shared" si="14"/>
         <v>0.332596</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="31">
         <v>30</v>
       </c>
-      <c r="C52" s="77">
+      <c r="C52" s="68">
         <f t="shared" ref="C52" si="15">(C8*$C$90)+$C$89</f>
         <v>0.30613999999999997</v>
       </c>
-      <c r="D52" s="77">
+      <c r="D52" s="68">
         <f t="shared" ref="D52:V52" si="16">(D8*$C$90)+$C$89</f>
         <v>0.28331600000000001</v>
       </c>
-      <c r="E52" s="77">
+      <c r="E52" s="68">
         <f t="shared" si="16"/>
         <v>0.31755199999999995</v>
       </c>
-      <c r="F52" s="77">
+      <c r="F52" s="68">
         <f t="shared" si="16"/>
         <v>0.32611100000000004</v>
       </c>
-      <c r="G52" s="77">
+      <c r="G52" s="68">
         <f t="shared" si="16"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="H52" s="77">
+      <c r="H52" s="68">
         <f t="shared" si="16"/>
         <v>0.25193300000000007</v>
       </c>
-      <c r="I52" s="77">
+      <c r="I52" s="68">
         <f t="shared" si="16"/>
         <v>0.27761000000000002</v>
       </c>
-      <c r="J52" s="77">
+      <c r="J52" s="68">
         <f t="shared" si="16"/>
         <v>0.32611100000000004</v>
       </c>
-      <c r="K52" s="77">
+      <c r="K52" s="68">
         <f t="shared" si="16"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="L52" s="77">
+      <c r="L52" s="68">
         <f t="shared" si="16"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="M52" s="77">
+      <c r="M52" s="68">
         <f t="shared" si="16"/>
         <v>0.28616900000000001</v>
       </c>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77">
+      <c r="N52" s="68"/>
+      <c r="O52" s="68">
         <f t="shared" si="16"/>
         <v>0.17775500000000002</v>
       </c>
-      <c r="P52" s="77">
+      <c r="P52" s="68">
         <f t="shared" si="16"/>
         <v>0.16634299999999999</v>
       </c>
-      <c r="Q52" s="77">
+      <c r="Q52" s="68">
         <f t="shared" si="16"/>
         <v>0.15207800000000002</v>
       </c>
-      <c r="R52" s="77"/>
-      <c r="S52" s="77">
+      <c r="R52" s="68"/>
+      <c r="S52" s="68">
         <f t="shared" si="16"/>
         <v>0.14351899999999998</v>
       </c>
-      <c r="T52" s="77">
+      <c r="T52" s="68">
         <f t="shared" si="16"/>
         <v>0.21199100000000001</v>
       </c>
-      <c r="U52" s="77">
+      <c r="U52" s="68">
         <f t="shared" si="16"/>
         <v>0.21199100000000001</v>
       </c>
-      <c r="V52" s="77">
+      <c r="V52" s="68">
         <f t="shared" si="16"/>
         <v>0.24908</v>
       </c>
-      <c r="W52" s="77">
+      <c r="W52" s="68">
         <f t="shared" ref="W52:X52" si="17">(W8*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
-      <c r="X52" s="77">
+      <c r="X52" s="68">
         <f t="shared" si="17"/>
         <v>0.31184599999999996</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="34">
+      <c r="B53" s="31">
         <v>50</v>
       </c>
-      <c r="C53" s="77">
+      <c r="C53" s="68">
         <f t="shared" ref="C53" si="18">(C9*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
-      <c r="D53" s="77">
+      <c r="D53" s="68">
         <f t="shared" ref="D53:V53" si="19">(D9*$C$90)+$C$89</f>
         <v>0.291875</v>
       </c>
-      <c r="E53" s="77">
+      <c r="E53" s="68">
         <f t="shared" si="19"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="F53" s="77">
+      <c r="F53" s="68">
         <f t="shared" si="19"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="G53" s="77">
+      <c r="G53" s="68">
         <f t="shared" si="19"/>
         <v>0.30899299999999996</v>
       </c>
-      <c r="H53" s="77">
+      <c r="H53" s="68">
         <f t="shared" si="19"/>
         <v>0.28331600000000001</v>
       </c>
-      <c r="I53" s="77">
+      <c r="I53" s="68">
         <f t="shared" si="19"/>
         <v>0.27761000000000002</v>
       </c>
-      <c r="J53" s="77">
+      <c r="J53" s="68">
         <f t="shared" si="19"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="K53" s="77">
+      <c r="K53" s="68">
         <f t="shared" si="19"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="L53" s="77">
+      <c r="L53" s="68">
         <f t="shared" si="19"/>
         <v>0.27475700000000003</v>
       </c>
-      <c r="M53" s="77">
+      <c r="M53" s="68">
         <f t="shared" si="19"/>
         <v>0.28331600000000001</v>
       </c>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77">
+      <c r="N53" s="68"/>
+      <c r="O53" s="68">
         <f t="shared" si="19"/>
         <v>0.21199100000000001</v>
       </c>
-      <c r="P53" s="77">
+      <c r="P53" s="68">
         <f t="shared" si="19"/>
         <v>0.18346100000000001</v>
       </c>
-      <c r="Q53" s="77">
+      <c r="Q53" s="68">
         <f t="shared" si="19"/>
         <v>0.15493100000000001</v>
       </c>
-      <c r="R53" s="77"/>
-      <c r="S53" s="77">
+      <c r="R53" s="68"/>
+      <c r="S53" s="68">
         <f t="shared" si="19"/>
         <v>0.160637</v>
       </c>
-      <c r="T53" s="77">
+      <c r="T53" s="68">
         <f t="shared" si="19"/>
         <v>0.15778400000000001</v>
       </c>
-      <c r="U53" s="77">
+      <c r="U53" s="68">
         <f t="shared" si="19"/>
         <v>0.15207800000000002</v>
       </c>
-      <c r="V53" s="77">
+      <c r="V53" s="68">
         <f t="shared" si="19"/>
         <v>0.15778400000000001</v>
       </c>
-      <c r="W53" s="77">
+      <c r="W53" s="68">
         <f t="shared" ref="W53:X53" si="20">(W9*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
-      <c r="X53" s="77">
+      <c r="X53" s="68">
         <f t="shared" si="20"/>
         <v>0.30043399999999998</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="34">
+      <c r="B54" s="31">
         <v>70</v>
       </c>
-      <c r="C54" s="77">
+      <c r="C54" s="68">
         <f t="shared" ref="C54" si="21">(C10*$C$90)+$C$89</f>
         <v>0.29472799999999999</v>
       </c>
-      <c r="D54" s="77">
+      <c r="D54" s="68">
         <f t="shared" ref="D54:V54" si="22">(D10*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
-      <c r="E54" s="77">
+      <c r="E54" s="68">
         <f t="shared" si="22"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="F54" s="77">
+      <c r="F54" s="68">
         <f t="shared" si="22"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="G54" s="77">
+      <c r="G54" s="68">
         <f t="shared" si="22"/>
         <v>0.32325800000000005</v>
       </c>
-      <c r="H54" s="77">
+      <c r="H54" s="68">
         <f t="shared" si="22"/>
         <v>0.31184599999999996</v>
       </c>
-      <c r="I54" s="77">
+      <c r="I54" s="68">
         <f t="shared" si="22"/>
         <v>0.291875</v>
       </c>
-      <c r="J54" s="77">
+      <c r="J54" s="68">
         <f t="shared" si="22"/>
         <v>0.32325800000000005</v>
       </c>
-      <c r="K54" s="77">
+      <c r="K54" s="68">
         <f t="shared" si="22"/>
         <v>0.30899299999999996</v>
       </c>
-      <c r="L54" s="77">
+      <c r="L54" s="68">
         <f t="shared" si="22"/>
         <v>0.291875</v>
       </c>
-      <c r="M54" s="77">
+      <c r="M54" s="68">
         <f t="shared" si="22"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77">
+      <c r="N54" s="68"/>
+      <c r="O54" s="68">
         <f t="shared" si="22"/>
         <v>0.28046300000000002</v>
       </c>
-      <c r="P54" s="77">
+      <c r="P54" s="68">
         <f t="shared" si="22"/>
         <v>0.24908</v>
       </c>
-      <c r="Q54" s="77">
+      <c r="Q54" s="68">
         <f t="shared" si="22"/>
         <v>0.22340299999999999</v>
       </c>
-      <c r="R54" s="77"/>
-      <c r="S54" s="77">
+      <c r="R54" s="68"/>
+      <c r="S54" s="68">
         <f t="shared" si="22"/>
         <v>0.22340299999999999</v>
       </c>
-      <c r="T54" s="77">
+      <c r="T54" s="68">
         <f t="shared" si="22"/>
         <v>0.20913799999999996</v>
       </c>
-      <c r="U54" s="77">
+      <c r="U54" s="68">
         <f t="shared" si="22"/>
         <v>0.217697</v>
       </c>
-      <c r="V54" s="77">
+      <c r="V54" s="68">
         <f t="shared" si="22"/>
         <v>0.22055</v>
       </c>
-      <c r="W54" s="77">
+      <c r="W54" s="68">
         <f t="shared" ref="W54:X54" si="23">(W10*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
-      <c r="X54" s="77">
+      <c r="X54" s="68">
         <f t="shared" si="23"/>
         <v>0.30043399999999998</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="39">
+      <c r="B55" s="35">
         <v>10</v>
       </c>
-      <c r="C55" s="79">
+      <c r="C55" s="70">
         <f t="shared" ref="C55" si="24">(C11*$B$90)+$B$89</f>
         <v>0.35468200000000005</v>
       </c>
-      <c r="D55" s="79">
+      <c r="D55" s="70">
         <f t="shared" ref="D55:V55" si="25">(D11*$B$90)+$B$89</f>
         <v>0.31787199999999999</v>
       </c>
-      <c r="E55" s="79">
+      <c r="E55" s="70">
         <f t="shared" si="25"/>
         <v>0.38413000000000003</v>
       </c>
-      <c r="F55" s="79">
+      <c r="F55" s="70">
         <f t="shared" si="25"/>
         <v>0.39885399999999999</v>
       </c>
-      <c r="G55" s="79">
+      <c r="G55" s="70">
         <f t="shared" si="25"/>
         <v>0.37186000000000002</v>
       </c>
-      <c r="H55" s="79">
+      <c r="H55" s="70">
         <f t="shared" si="25"/>
         <v>0.31051000000000001</v>
       </c>
-      <c r="I55" s="79">
+      <c r="I55" s="70">
         <f t="shared" si="25"/>
         <v>0.38658400000000004</v>
       </c>
-      <c r="J55" s="79">
+      <c r="J55" s="70">
         <f t="shared" si="25"/>
         <v>0.41848599999999997</v>
       </c>
-      <c r="K55" s="79">
+      <c r="K55" s="70">
         <f t="shared" si="25"/>
         <v>0.35468200000000005</v>
       </c>
-      <c r="L55" s="79">
+      <c r="L55" s="70">
         <f t="shared" si="25"/>
         <v>0.39394600000000002</v>
       </c>
-      <c r="M55" s="79">
+      <c r="M55" s="70">
         <f t="shared" si="25"/>
         <v>0.32768800000000003</v>
       </c>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79">
+      <c r="N55" s="70"/>
+      <c r="O55" s="70">
         <f t="shared" si="25"/>
         <v>0.25406800000000002</v>
       </c>
-      <c r="P55" s="79">
+      <c r="P55" s="70">
         <f t="shared" si="25"/>
         <v>0.28106200000000003</v>
       </c>
-      <c r="Q55" s="79">
+      <c r="Q55" s="70">
         <f t="shared" si="25"/>
         <v>0.23934400000000006</v>
       </c>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79">
+      <c r="R55" s="70"/>
+      <c r="S55" s="70">
         <f t="shared" si="25"/>
         <v>0.24670599999999998</v>
       </c>
-      <c r="T55" s="79">
+      <c r="T55" s="70">
         <f t="shared" si="25"/>
         <v>0.366952</v>
       </c>
-      <c r="U55" s="79">
+      <c r="U55" s="70">
         <f t="shared" si="25"/>
         <v>0.34732000000000002</v>
       </c>
-      <c r="V55" s="79">
+      <c r="V55" s="70">
         <f t="shared" si="25"/>
         <v>0.37186000000000002</v>
       </c>
-      <c r="W55" s="79">
+      <c r="W55" s="70">
         <f t="shared" ref="W55:X55" si="26">(W11*$B$90)+$B$89</f>
         <v>0.40867000000000003</v>
       </c>
-      <c r="X55" s="79">
+      <c r="X55" s="70">
         <f t="shared" si="26"/>
         <v>0.38413000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="39">
+      <c r="B56" s="35">
         <v>30</v>
       </c>
-      <c r="C56" s="79">
+      <c r="C56" s="70">
         <f>(C12*$C$90)+$C$89</f>
         <v>0.36034699999999997</v>
       </c>
-      <c r="D56" s="79">
+      <c r="D56" s="70">
         <f t="shared" ref="D56:V56" si="27">(D12*$C$90)+$C$89</f>
         <v>0.348935</v>
       </c>
-      <c r="E56" s="79">
+      <c r="E56" s="70">
         <f t="shared" si="27"/>
         <v>0.36034699999999997</v>
       </c>
-      <c r="F56" s="79">
+      <c r="F56" s="70">
         <f t="shared" si="27"/>
         <v>0.36605299999999996</v>
       </c>
-      <c r="G56" s="79">
+      <c r="G56" s="70">
         <f t="shared" si="27"/>
         <v>0.36319999999999997</v>
       </c>
-      <c r="H56" s="79">
+      <c r="H56" s="70">
         <f t="shared" si="27"/>
         <v>0.33181699999999992</v>
       </c>
-      <c r="I56" s="79">
+      <c r="I56" s="70">
         <f t="shared" si="27"/>
         <v>0.348935</v>
       </c>
-      <c r="J56" s="79">
+      <c r="J56" s="70">
         <f t="shared" si="27"/>
         <v>0.36034699999999997</v>
       </c>
-      <c r="K56" s="79">
+      <c r="K56" s="70">
         <f t="shared" si="27"/>
         <v>0.346082</v>
       </c>
-      <c r="L56" s="79">
+      <c r="L56" s="70">
         <f t="shared" si="27"/>
         <v>0.35178799999999999</v>
       </c>
-      <c r="M56" s="79">
+      <c r="M56" s="70">
         <f t="shared" si="27"/>
         <v>0.33466999999999991</v>
       </c>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79">
+      <c r="N56" s="70"/>
+      <c r="O56" s="70">
         <f t="shared" si="27"/>
         <v>0.27475700000000003</v>
       </c>
-      <c r="P56" s="79">
+      <c r="P56" s="70">
         <f t="shared" si="27"/>
         <v>0.26905099999999993</v>
       </c>
-      <c r="Q56" s="79">
+      <c r="Q56" s="70">
         <f t="shared" si="27"/>
         <v>0.25193300000000007</v>
       </c>
-      <c r="R56" s="79"/>
-      <c r="S56" s="79">
+      <c r="R56" s="70"/>
+      <c r="S56" s="70">
         <f t="shared" si="27"/>
         <v>0.24908</v>
       </c>
-      <c r="T56" s="79">
+      <c r="T56" s="70">
         <f t="shared" si="27"/>
         <v>0.28046300000000002</v>
       </c>
-      <c r="U56" s="79">
+      <c r="U56" s="70">
         <f t="shared" si="27"/>
         <v>0.28331600000000001</v>
       </c>
-      <c r="V56" s="79">
+      <c r="V56" s="70">
         <f t="shared" si="27"/>
         <v>0.289022</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="70">
         <f t="shared" ref="W56:X56" si="28">(W12*$C$90)+$C$89</f>
         <v>0.37746499999999994</v>
       </c>
-      <c r="X56" s="79">
+      <c r="X56" s="70">
         <f t="shared" si="28"/>
         <v>0.35464099999999998</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="39">
+      <c r="B57" s="35">
         <v>50</v>
       </c>
-      <c r="C57" s="79">
+      <c r="C57" s="70">
         <f>(C13*$C$90)+$C$89</f>
         <v>0.3432289999999999</v>
       </c>
-      <c r="D57" s="79">
+      <c r="D57" s="70">
         <f t="shared" ref="D57:V57" si="29">(D13*$C$90)+$C$89</f>
         <v>0.33181699999999992</v>
       </c>
-      <c r="E57" s="79">
+      <c r="E57" s="70">
         <f t="shared" si="29"/>
         <v>0.3403759999999999</v>
       </c>
-      <c r="F57" s="79">
+      <c r="F57" s="70">
         <f t="shared" si="29"/>
         <v>0.3432289999999999</v>
       </c>
-      <c r="G57" s="79">
+      <c r="G57" s="70">
         <f t="shared" si="29"/>
         <v>0.35178799999999999</v>
       </c>
-      <c r="H57" s="79">
+      <c r="H57" s="70">
         <f t="shared" si="29"/>
         <v>0.33466999999999991</v>
       </c>
-      <c r="I57" s="79">
+      <c r="I57" s="70">
         <f t="shared" si="29"/>
         <v>0.33181699999999992</v>
       </c>
-      <c r="J57" s="79">
+      <c r="J57" s="70">
         <f t="shared" si="29"/>
         <v>0.3432289999999999</v>
       </c>
-      <c r="K57" s="79">
+      <c r="K57" s="70">
         <f t="shared" si="29"/>
         <v>0.32325800000000005</v>
       </c>
-      <c r="L57" s="79">
+      <c r="L57" s="70">
         <f t="shared" si="29"/>
         <v>0.3432289999999999</v>
       </c>
-      <c r="M57" s="79">
+      <c r="M57" s="70">
         <f t="shared" si="29"/>
         <v>0.32325800000000005</v>
       </c>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79">
+      <c r="N57" s="70"/>
+      <c r="O57" s="70">
         <f t="shared" si="29"/>
         <v>0.28046300000000002</v>
       </c>
-      <c r="P57" s="79">
+      <c r="P57" s="70">
         <f t="shared" si="29"/>
         <v>0.26619799999999993</v>
       </c>
-      <c r="Q57" s="79">
+      <c r="Q57" s="70">
         <f t="shared" si="29"/>
         <v>0.26049199999999995</v>
       </c>
-      <c r="R57" s="79"/>
-      <c r="S57" s="79">
+      <c r="R57" s="70"/>
+      <c r="S57" s="70">
         <f t="shared" si="29"/>
         <v>0.25193300000000007</v>
       </c>
-      <c r="T57" s="79">
+      <c r="T57" s="70">
         <f t="shared" si="29"/>
         <v>0.25763899999999995</v>
       </c>
-      <c r="U57" s="79">
+      <c r="U57" s="70">
         <f t="shared" si="29"/>
         <v>0.26905099999999993</v>
       </c>
-      <c r="V57" s="79">
+      <c r="V57" s="70">
         <f t="shared" si="29"/>
         <v>0.27190399999999992</v>
       </c>
-      <c r="W57" s="79">
+      <c r="W57" s="70">
         <f t="shared" ref="W57:X57" si="30">(W13*$C$90)+$C$89</f>
         <v>0.33181699999999992</v>
       </c>
-      <c r="X57" s="79">
+      <c r="X57" s="70">
         <f t="shared" si="30"/>
         <v>0.3432289999999999</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="39">
+      <c r="B58" s="35">
         <v>70</v>
       </c>
-      <c r="C58" s="79">
+      <c r="C58" s="70">
         <f>(C14*$C$90)+$C$89</f>
         <v>0.30613999999999997</v>
       </c>
-      <c r="D58" s="79">
+      <c r="D58" s="70">
         <f t="shared" ref="D58:V58" si="31">(D14*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
-      <c r="E58" s="79">
+      <c r="E58" s="70">
         <f t="shared" si="31"/>
         <v>0.30613999999999997</v>
       </c>
-      <c r="F58" s="79">
+      <c r="F58" s="70">
         <f t="shared" si="31"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="G58" s="79">
+      <c r="G58" s="70">
         <f t="shared" si="31"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="H58" s="79">
+      <c r="H58" s="70">
         <f t="shared" si="31"/>
         <v>0.30613999999999997</v>
       </c>
-      <c r="I58" s="79">
+      <c r="I58" s="70">
         <f t="shared" si="31"/>
         <v>0.29758099999999998</v>
       </c>
-      <c r="J58" s="79">
+      <c r="J58" s="70">
         <f t="shared" si="31"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="K58" s="79">
+      <c r="K58" s="70">
         <f t="shared" si="31"/>
         <v>0.30043399999999998</v>
       </c>
-      <c r="L58" s="79">
+      <c r="L58" s="70">
         <f t="shared" si="31"/>
         <v>0.31184599999999996</v>
       </c>
-      <c r="M58" s="79">
+      <c r="M58" s="70">
         <f t="shared" si="31"/>
         <v>0.291875</v>
       </c>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79">
+      <c r="N58" s="70"/>
+      <c r="O58" s="70">
         <f t="shared" si="31"/>
         <v>0.27190399999999992</v>
       </c>
-      <c r="P58" s="79">
+      <c r="P58" s="70">
         <f t="shared" si="31"/>
         <v>0.26049199999999995</v>
       </c>
-      <c r="Q58" s="79">
+      <c r="Q58" s="70">
         <f t="shared" si="31"/>
         <v>0.25193300000000007</v>
       </c>
-      <c r="R58" s="79"/>
-      <c r="S58" s="79">
+      <c r="R58" s="70"/>
+      <c r="S58" s="70">
         <f t="shared" si="31"/>
         <v>0.24337400000000001</v>
       </c>
-      <c r="T58" s="79">
+      <c r="T58" s="70">
         <f t="shared" si="31"/>
         <v>0.23766800000000002</v>
       </c>
-      <c r="U58" s="79">
+      <c r="U58" s="70">
         <f t="shared" si="31"/>
         <v>0.25193300000000007</v>
       </c>
-      <c r="V58" s="79">
+      <c r="V58" s="70">
         <f t="shared" si="31"/>
         <v>0.246227</v>
       </c>
-      <c r="W58" s="79">
+      <c r="W58" s="70">
         <f t="shared" ref="W58:X58" si="32">(W14*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
-      <c r="X58" s="79">
+      <c r="X58" s="70">
         <f t="shared" si="32"/>
         <v>0.30043399999999998</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="39">
+      <c r="B59" s="35">
         <v>90</v>
       </c>
-      <c r="C59" s="79">
+      <c r="C59" s="70">
         <f>(C15*$C$90)+$C$89</f>
         <v>0.30613999999999997</v>
       </c>
-      <c r="D59" s="79">
+      <c r="D59" s="70">
         <f t="shared" ref="D59:V59" si="33">(D15*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
-      <c r="E59" s="79">
+      <c r="E59" s="70">
         <f t="shared" si="33"/>
         <v>0.30613999999999997</v>
       </c>
-      <c r="F59" s="79">
+      <c r="F59" s="70">
         <f t="shared" si="33"/>
         <v>0.31184599999999996</v>
       </c>
-      <c r="G59" s="79">
+      <c r="G59" s="70">
         <f t="shared" si="33"/>
         <v>0.31184599999999996</v>
       </c>
-      <c r="H59" s="79">
+      <c r="H59" s="70">
         <f t="shared" si="33"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="I59" s="79">
+      <c r="I59" s="70">
         <f t="shared" si="33"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="J59" s="79">
+      <c r="J59" s="70">
         <f t="shared" si="33"/>
         <v>0.31755199999999995</v>
       </c>
-      <c r="K59" s="79">
+      <c r="K59" s="70">
         <f t="shared" si="33"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="L59" s="79">
+      <c r="L59" s="70">
         <f t="shared" si="33"/>
         <v>0.31184599999999996</v>
       </c>
-      <c r="M59" s="79">
+      <c r="M59" s="70">
         <f t="shared" si="33"/>
         <v>0.30613999999999997</v>
       </c>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79">
+      <c r="N59" s="70"/>
+      <c r="O59" s="70">
         <f t="shared" si="33"/>
         <v>0.30613999999999997</v>
       </c>
-      <c r="P59" s="79">
+      <c r="P59" s="70">
         <f t="shared" si="33"/>
         <v>0.289022</v>
       </c>
-      <c r="Q59" s="79">
+      <c r="Q59" s="70">
         <f t="shared" si="33"/>
         <v>0.28616900000000001</v>
       </c>
-      <c r="R59" s="79"/>
-      <c r="S59" s="79">
+      <c r="R59" s="70"/>
+      <c r="S59" s="70">
         <f t="shared" si="33"/>
         <v>0.27761000000000002</v>
       </c>
-      <c r="T59" s="79">
+      <c r="T59" s="70">
         <f t="shared" si="33"/>
         <v>0.26619799999999993</v>
       </c>
-      <c r="U59" s="79">
+      <c r="U59" s="70">
         <f t="shared" si="33"/>
         <v>0.26905099999999993</v>
       </c>
-      <c r="V59" s="79">
+      <c r="V59" s="70">
         <f t="shared" si="33"/>
         <v>0.27475700000000003</v>
       </c>
-      <c r="W59" s="79">
+      <c r="W59" s="70">
         <f t="shared" ref="W59:X59" si="34">(W15*$C$90)+$C$89</f>
         <v>0.27475700000000003</v>
       </c>
-      <c r="X59" s="79">
+      <c r="X59" s="70">
         <f t="shared" si="34"/>
         <v>0.30328699999999997</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="44">
+      <c r="B60" s="40">
         <v>10</v>
       </c>
-      <c r="C60" s="80">
+      <c r="C60" s="71">
         <f t="shared" ref="C60" si="35">(C16*$B$90)+$B$89</f>
         <v>0.36940600000000001</v>
       </c>
-      <c r="D60" s="80">
+      <c r="D60" s="71">
         <f t="shared" ref="D60:V60" si="36">(D16*$B$90)+$B$89</f>
         <v>0.32278000000000001</v>
       </c>
-      <c r="E60" s="80">
+      <c r="E60" s="71">
         <f t="shared" si="36"/>
         <v>0.40130800000000005</v>
       </c>
-      <c r="F60" s="80">
+      <c r="F60" s="71">
         <f t="shared" si="36"/>
         <v>0.41603200000000001</v>
       </c>
-      <c r="G60" s="80">
+      <c r="G60" s="71">
         <f t="shared" si="36"/>
         <v>0.379222</v>
       </c>
-      <c r="H60" s="80">
+      <c r="H60" s="71">
         <f t="shared" si="36"/>
         <v>0.32768800000000003</v>
       </c>
-      <c r="I60" s="80">
+      <c r="I60" s="71">
         <f t="shared" si="36"/>
         <v>0.38658400000000004</v>
       </c>
-      <c r="J60" s="80">
+      <c r="J60" s="71">
         <f t="shared" si="36"/>
         <v>0.42094000000000004</v>
       </c>
-      <c r="K60" s="80">
+      <c r="K60" s="71">
         <f t="shared" si="36"/>
         <v>0.36940600000000001</v>
       </c>
-      <c r="L60" s="80">
+      <c r="L60" s="71">
         <f t="shared" si="36"/>
         <v>0.39149200000000001</v>
       </c>
-      <c r="M60" s="80">
+      <c r="M60" s="71">
         <f t="shared" si="36"/>
         <v>0.332596</v>
       </c>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80">
+      <c r="N60" s="71"/>
+      <c r="O60" s="71">
         <f t="shared" si="36"/>
         <v>0.26388400000000001</v>
       </c>
-      <c r="P60" s="80">
+      <c r="P60" s="71">
         <f t="shared" si="36"/>
         <v>0.308056</v>
       </c>
-      <c r="Q60" s="80">
+      <c r="Q60" s="71">
         <f t="shared" si="36"/>
         <v>0.26143</v>
       </c>
-      <c r="R60" s="80"/>
-      <c r="S60" s="80">
+      <c r="R60" s="71"/>
+      <c r="S60" s="71">
         <f t="shared" si="36"/>
         <v>0.26388400000000001</v>
       </c>
-      <c r="T60" s="80">
+      <c r="T60" s="71">
         <f t="shared" si="36"/>
         <v>0.37186000000000002</v>
       </c>
-      <c r="U60" s="80">
+      <c r="U60" s="71">
         <f t="shared" si="36"/>
         <v>0.36449800000000004</v>
       </c>
-      <c r="V60" s="80">
+      <c r="V60" s="71">
         <f t="shared" si="36"/>
         <v>0.38167600000000002</v>
       </c>
-      <c r="W60" s="80">
+      <c r="W60" s="71">
         <f t="shared" ref="W60:X60" si="37">(W16*$B$90)+$B$89</f>
         <v>0.40130800000000005</v>
       </c>
-      <c r="X60" s="80">
+      <c r="X60" s="71">
         <f t="shared" si="37"/>
         <v>0.39640000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="44">
+      <c r="B61" s="40">
         <v>30</v>
       </c>
-      <c r="C61" s="80">
+      <c r="C61" s="71">
         <f t="shared" ref="C61" si="38">(C17*$C$90)+$C$89</f>
         <v>0.36890599999999996</v>
       </c>
-      <c r="D61" s="80">
+      <c r="D61" s="71">
         <f t="shared" ref="D61:V61" si="39">(D17*$C$90)+$C$89</f>
         <v>0.36034699999999997</v>
       </c>
-      <c r="E61" s="80">
+      <c r="E61" s="71">
         <f t="shared" si="39"/>
         <v>0.37461199999999995</v>
       </c>
-      <c r="F61" s="80">
+      <c r="F61" s="71">
         <f t="shared" si="39"/>
         <v>0.37746499999999994</v>
       </c>
-      <c r="G61" s="80">
+      <c r="G61" s="71">
         <f t="shared" si="39"/>
         <v>0.38317099999999993</v>
       </c>
-      <c r="H61" s="80">
+      <c r="H61" s="71">
         <f t="shared" si="39"/>
         <v>0.35178799999999999</v>
       </c>
-      <c r="I61" s="80">
+      <c r="I61" s="71">
         <f t="shared" si="39"/>
         <v>0.36890599999999996</v>
       </c>
-      <c r="J61" s="80">
+      <c r="J61" s="71">
         <f t="shared" si="39"/>
         <v>0.38887699999999992</v>
       </c>
-      <c r="K61" s="80">
+      <c r="K61" s="71">
         <f t="shared" si="39"/>
         <v>0.36890599999999996</v>
       </c>
-      <c r="L61" s="80">
+      <c r="L61" s="71">
         <f t="shared" si="39"/>
         <v>0.37461199999999995</v>
       </c>
-      <c r="M61" s="80">
+      <c r="M61" s="71">
         <f t="shared" si="39"/>
         <v>0.35464099999999998</v>
       </c>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80">
+      <c r="N61" s="71"/>
+      <c r="O61" s="71">
         <f t="shared" si="39"/>
         <v>0.291875</v>
       </c>
-      <c r="P61" s="80">
+      <c r="P61" s="71">
         <f t="shared" si="39"/>
         <v>0.27761000000000002</v>
       </c>
-      <c r="Q61" s="80">
+      <c r="Q61" s="71">
         <f t="shared" si="39"/>
         <v>0.27475700000000003</v>
       </c>
-      <c r="R61" s="80"/>
-      <c r="S61" s="80">
+      <c r="R61" s="71"/>
+      <c r="S61" s="71">
         <f t="shared" si="39"/>
         <v>0.27475700000000003</v>
       </c>
-      <c r="T61" s="80">
+      <c r="T61" s="71">
         <f t="shared" si="39"/>
         <v>0.31184599999999996</v>
       </c>
-      <c r="U61" s="80">
+      <c r="U61" s="71">
         <f t="shared" si="39"/>
         <v>0.30899299999999996</v>
       </c>
-      <c r="V61" s="80">
+      <c r="V61" s="71">
         <f t="shared" si="39"/>
         <v>0.31184599999999996</v>
       </c>
-      <c r="W61" s="80">
+      <c r="W61" s="71">
         <f t="shared" ref="W61:X61" si="40">(W17*$C$90)+$C$89</f>
         <v>0.35749399999999998</v>
       </c>
-      <c r="X61" s="80">
+      <c r="X61" s="71">
         <f t="shared" si="40"/>
         <v>0.38031799999999993</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="44">
+      <c r="B62" s="40">
         <v>50</v>
       </c>
-      <c r="C62" s="80">
+      <c r="C62" s="71">
         <f t="shared" ref="C62" si="41">(C18*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
-      <c r="D62" s="80">
+      <c r="D62" s="71">
         <f t="shared" ref="D62:V62" si="42">(D18*$C$90)+$C$89</f>
         <v>0.33752299999999991</v>
       </c>
-      <c r="E62" s="80">
+      <c r="E62" s="71">
         <f t="shared" si="42"/>
         <v>0.33752299999999991</v>
       </c>
-      <c r="F62" s="80">
+      <c r="F62" s="71">
         <f t="shared" si="42"/>
         <v>0.33752299999999991</v>
       </c>
-      <c r="G62" s="80">
+      <c r="G62" s="71">
         <f t="shared" si="42"/>
         <v>0.35178799999999999</v>
       </c>
-      <c r="H62" s="80">
+      <c r="H62" s="71">
         <f t="shared" si="42"/>
         <v>0.3432289999999999</v>
       </c>
-      <c r="I62" s="80">
+      <c r="I62" s="71">
         <f t="shared" si="42"/>
         <v>0.33181699999999992</v>
       </c>
-      <c r="J62" s="80">
+      <c r="J62" s="71">
         <f t="shared" si="42"/>
         <v>0.32040499999999994</v>
       </c>
-      <c r="K62" s="80">
+      <c r="K62" s="71">
         <f t="shared" si="42"/>
         <v>0.32896399999999992</v>
       </c>
-      <c r="L62" s="80">
+      <c r="L62" s="71">
         <f t="shared" si="42"/>
         <v>0.33466999999999991</v>
       </c>
-      <c r="M62" s="80">
+      <c r="M62" s="71">
         <f t="shared" si="42"/>
         <v>0.31755199999999995</v>
       </c>
-      <c r="N62" s="80"/>
-      <c r="O62" s="80">
+      <c r="N62" s="71"/>
+      <c r="O62" s="71">
         <f t="shared" si="42"/>
         <v>0.28616900000000001</v>
       </c>
-      <c r="P62" s="80">
+      <c r="P62" s="71">
         <f t="shared" si="42"/>
         <v>0.26049199999999995</v>
       </c>
-      <c r="Q62" s="80">
+      <c r="Q62" s="71">
         <f t="shared" si="42"/>
         <v>0.26334499999999994</v>
       </c>
-      <c r="R62" s="80"/>
-      <c r="S62" s="80">
+      <c r="R62" s="71"/>
+      <c r="S62" s="71">
         <f t="shared" si="42"/>
         <v>0.24908</v>
       </c>
-      <c r="T62" s="80">
+      <c r="T62" s="71">
         <f t="shared" si="42"/>
         <v>0.25763899999999995</v>
       </c>
-      <c r="U62" s="80">
+      <c r="U62" s="71">
         <f t="shared" si="42"/>
         <v>0.25763899999999995</v>
       </c>
-      <c r="V62" s="80">
+      <c r="V62" s="71">
         <f t="shared" si="42"/>
         <v>0.25763899999999995</v>
       </c>
-      <c r="W62" s="80">
+      <c r="W62" s="71">
         <f t="shared" ref="W62:X62" si="43">(W18*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
-      <c r="X62" s="80">
+      <c r="X62" s="71">
         <f t="shared" si="43"/>
         <v>0.33752299999999991</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="44">
+      <c r="B63" s="40">
         <v>70</v>
       </c>
-      <c r="C63" s="80">
+      <c r="C63" s="71">
         <f t="shared" ref="C63" si="44">(C19*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
-      <c r="D63" s="80">
+      <c r="D63" s="71">
         <f t="shared" ref="D63:V63" si="45">(D19*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
-      <c r="E63" s="80">
+      <c r="E63" s="71">
         <f t="shared" si="45"/>
         <v>0.29758099999999998</v>
       </c>
-      <c r="F63" s="80">
+      <c r="F63" s="71">
         <f t="shared" si="45"/>
         <v>0.29472799999999999</v>
       </c>
-      <c r="G63" s="80">
+      <c r="G63" s="71">
         <f t="shared" si="45"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="H63" s="80">
+      <c r="H63" s="71">
         <f t="shared" si="45"/>
         <v>0.30899299999999996</v>
       </c>
-      <c r="I63" s="80">
+      <c r="I63" s="71">
         <f t="shared" si="45"/>
         <v>0.29472799999999999</v>
       </c>
-      <c r="J63" s="80">
+      <c r="J63" s="71">
         <f t="shared" si="45"/>
         <v>0.29758099999999998</v>
       </c>
-      <c r="K63" s="80">
+      <c r="K63" s="71">
         <f t="shared" si="45"/>
         <v>0.30043399999999998</v>
       </c>
-      <c r="L63" s="80">
+      <c r="L63" s="71">
         <f t="shared" si="45"/>
         <v>0.28616900000000001</v>
       </c>
-      <c r="M63" s="80">
+      <c r="M63" s="71">
         <f t="shared" si="45"/>
         <v>0.28616900000000001</v>
       </c>
-      <c r="N63" s="80"/>
-      <c r="O63" s="80">
+      <c r="N63" s="71"/>
+      <c r="O63" s="71">
         <f t="shared" si="45"/>
         <v>0.28046300000000002</v>
       </c>
-      <c r="P63" s="80">
+      <c r="P63" s="71">
         <f t="shared" si="45"/>
         <v>0.26334499999999994</v>
       </c>
-      <c r="Q63" s="80">
+      <c r="Q63" s="71">
         <f t="shared" si="45"/>
         <v>0.25478600000000007</v>
       </c>
-      <c r="R63" s="80"/>
-      <c r="S63" s="80">
+      <c r="R63" s="71"/>
+      <c r="S63" s="71">
         <f t="shared" si="45"/>
         <v>0.246227</v>
       </c>
-      <c r="T63" s="80">
+      <c r="T63" s="71">
         <f t="shared" si="45"/>
         <v>0.23481500000000002</v>
       </c>
-      <c r="U63" s="80">
+      <c r="U63" s="71">
         <f t="shared" si="45"/>
         <v>0.23766800000000002</v>
       </c>
-      <c r="V63" s="80">
+      <c r="V63" s="71">
         <f t="shared" si="45"/>
         <v>0.24337400000000001</v>
       </c>
-      <c r="W63" s="80">
+      <c r="W63" s="71">
         <f t="shared" ref="W63:X63" si="46">(W19*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
-      <c r="X63" s="80">
+      <c r="X63" s="71">
         <f t="shared" si="46"/>
         <v>0.291875</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="44">
+      <c r="B64" s="40">
         <v>90</v>
       </c>
-      <c r="C64" s="80">
+      <c r="C64" s="71">
         <f t="shared" ref="C64" si="47">(C20*$C$90)+$C$89</f>
         <v>0.28046300000000002</v>
       </c>
-      <c r="D64" s="80">
+      <c r="D64" s="71">
         <f t="shared" ref="D64:V64" si="48">(D20*$C$90)+$C$89</f>
         <v>0.28046300000000002</v>
       </c>
-      <c r="E64" s="80">
+      <c r="E64" s="71">
         <f t="shared" si="48"/>
         <v>0.28331600000000001</v>
       </c>
-      <c r="F64" s="80">
+      <c r="F64" s="71">
         <f t="shared" si="48"/>
         <v>0.291875</v>
       </c>
-      <c r="G64" s="80">
+      <c r="G64" s="71">
         <f t="shared" si="48"/>
         <v>0.29758099999999998</v>
       </c>
-      <c r="H64" s="80">
+      <c r="H64" s="71">
         <f t="shared" si="48"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="I64" s="80">
+      <c r="I64" s="71">
         <f t="shared" si="48"/>
         <v>0.29758099999999998</v>
       </c>
-      <c r="J64" s="80">
+      <c r="J64" s="71">
         <f t="shared" si="48"/>
         <v>0.29758099999999998</v>
       </c>
-      <c r="K64" s="80">
+      <c r="K64" s="71">
         <f t="shared" si="48"/>
         <v>0.30613999999999997</v>
       </c>
-      <c r="L64" s="80">
+      <c r="L64" s="71">
         <f t="shared" si="48"/>
         <v>0.30043399999999998</v>
       </c>
-      <c r="M64" s="80">
+      <c r="M64" s="71">
         <f t="shared" si="48"/>
         <v>0.29472799999999999</v>
       </c>
-      <c r="N64" s="80"/>
-      <c r="O64" s="80">
+      <c r="N64" s="71"/>
+      <c r="O64" s="71">
         <f t="shared" si="48"/>
         <v>0.28616900000000001</v>
       </c>
-      <c r="P64" s="80">
+      <c r="P64" s="71">
         <f t="shared" si="48"/>
         <v>0.28331600000000001</v>
       </c>
-      <c r="Q64" s="80">
+      <c r="Q64" s="71">
         <f t="shared" si="48"/>
         <v>0.289022</v>
       </c>
-      <c r="R64" s="80"/>
-      <c r="S64" s="80">
+      <c r="R64" s="71"/>
+      <c r="S64" s="71">
         <f t="shared" si="48"/>
         <v>0.27761000000000002</v>
       </c>
-      <c r="T64" s="80">
+      <c r="T64" s="71">
         <f t="shared" si="48"/>
         <v>0.28331600000000001</v>
       </c>
-      <c r="U64" s="80">
+      <c r="U64" s="71">
         <f t="shared" si="48"/>
         <v>0.27190399999999992</v>
       </c>
-      <c r="V64" s="80">
+      <c r="V64" s="71">
         <f t="shared" si="48"/>
         <v>0.28331600000000001</v>
       </c>
-      <c r="W64" s="80">
+      <c r="W64" s="71">
         <f t="shared" ref="W64:X64" si="49">(W20*$C$90)+$C$89</f>
         <v>0.28616900000000001</v>
       </c>
-      <c r="X64" s="80">
+      <c r="X64" s="71">
         <f t="shared" si="49"/>
         <v>0.291875</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="49">
+      <c r="B65" s="44">
         <v>10</v>
       </c>
       <c r="C65" s="13">
@@ -5867,10 +5934,10 @@
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="44">
         <v>30</v>
       </c>
       <c r="C66" s="13">
@@ -5957,10 +6024,10 @@
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="54">
+      <c r="B67" s="48">
         <v>10</v>
       </c>
       <c r="C67" s="5">
@@ -6047,10 +6114,10 @@
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="54">
+      <c r="B68" s="48">
         <v>30</v>
       </c>
       <c r="C68" s="5">
@@ -6137,370 +6204,370 @@
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="59" t="s">
+      <c r="A69" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="59">
+      <c r="B69" s="52">
         <v>10</v>
       </c>
-      <c r="C69" s="78">
+      <c r="C69" s="69">
         <f>(C25*$B$90)+$B$89</f>
         <v>0.32278000000000001</v>
       </c>
-      <c r="D69" s="78">
+      <c r="D69" s="69">
         <f t="shared" ref="D69:V69" si="58">(D25*$B$90)+$B$89</f>
         <v>0.29333200000000004</v>
       </c>
-      <c r="E69" s="78">
+      <c r="E69" s="69">
         <f t="shared" si="58"/>
         <v>0.35222800000000004</v>
       </c>
-      <c r="F69" s="78">
+      <c r="F69" s="69">
         <f t="shared" si="58"/>
         <v>0.37186000000000002</v>
       </c>
-      <c r="G69" s="78">
+      <c r="G69" s="69">
         <f t="shared" si="58"/>
         <v>0.34241200000000005</v>
       </c>
-      <c r="H69" s="78">
+      <c r="H69" s="69">
         <f t="shared" si="58"/>
         <v>0.28842400000000001</v>
       </c>
-      <c r="I69" s="78">
+      <c r="I69" s="69">
         <f t="shared" si="58"/>
         <v>0.35468200000000005</v>
       </c>
-      <c r="J69" s="78">
+      <c r="J69" s="69">
         <f t="shared" si="58"/>
         <v>0.38658400000000004</v>
       </c>
-      <c r="K69" s="78">
+      <c r="K69" s="69">
         <f t="shared" si="58"/>
         <v>0.32523400000000002</v>
       </c>
-      <c r="L69" s="78">
+      <c r="L69" s="69">
         <f t="shared" si="58"/>
         <v>0.36449800000000004</v>
       </c>
-      <c r="M69" s="78">
+      <c r="M69" s="69">
         <f t="shared" si="58"/>
         <v>0.308056</v>
       </c>
-      <c r="N69" s="78"/>
-      <c r="O69" s="78">
+      <c r="N69" s="69"/>
+      <c r="O69" s="69">
         <f t="shared" si="58"/>
         <v>0.19517200000000001</v>
       </c>
-      <c r="P69" s="78">
+      <c r="P69" s="69">
         <f t="shared" si="58"/>
         <v>0.23443600000000003</v>
       </c>
-      <c r="Q69" s="78">
+      <c r="Q69" s="69">
         <f t="shared" si="58"/>
         <v>0.192718</v>
       </c>
-      <c r="R69" s="78"/>
-      <c r="S69" s="78">
+      <c r="R69" s="69"/>
+      <c r="S69" s="69">
         <f t="shared" si="58"/>
         <v>0.20989600000000003</v>
       </c>
-      <c r="T69" s="78">
+      <c r="T69" s="69">
         <f t="shared" si="58"/>
         <v>0.34732000000000002</v>
       </c>
-      <c r="U69" s="78">
+      <c r="U69" s="69">
         <f t="shared" si="58"/>
         <v>0.33014200000000005</v>
       </c>
-      <c r="V69" s="78">
+      <c r="V69" s="69">
         <f t="shared" si="58"/>
         <v>0.34486600000000006</v>
       </c>
-      <c r="W69" s="78">
+      <c r="W69" s="69">
         <f t="shared" ref="W69:X69" si="59">(W25*$B$90)+$B$89</f>
         <v>0.36449800000000004</v>
       </c>
-      <c r="X69" s="78">
+      <c r="X69" s="69">
         <f t="shared" si="59"/>
         <v>0.35468200000000005</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" s="59" t="s">
+      <c r="A70" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="59">
+      <c r="B70" s="52">
         <v>30</v>
       </c>
-      <c r="C70" s="78">
+      <c r="C70" s="69">
         <f>(C26*$C$90)+$C$89</f>
         <v>0.32611100000000004</v>
       </c>
-      <c r="D70" s="78">
+      <c r="D70" s="69">
         <f t="shared" ref="D70:V72" si="60">(D26*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
-      <c r="E70" s="78">
+      <c r="E70" s="69">
         <f t="shared" si="60"/>
         <v>0.32040499999999994</v>
       </c>
-      <c r="F70" s="78">
+      <c r="F70" s="69">
         <f t="shared" si="60"/>
         <v>0.3403759999999999</v>
       </c>
-      <c r="G70" s="78">
+      <c r="G70" s="69">
         <f t="shared" si="60"/>
         <v>0.33466999999999991</v>
       </c>
-      <c r="H70" s="78">
+      <c r="H70" s="69">
         <f t="shared" si="60"/>
         <v>0.29472799999999999</v>
       </c>
-      <c r="I70" s="78">
+      <c r="I70" s="69">
         <f t="shared" si="60"/>
         <v>0.32611100000000004</v>
       </c>
-      <c r="J70" s="78">
+      <c r="J70" s="69">
         <f t="shared" si="60"/>
         <v>0.3403759999999999</v>
       </c>
-      <c r="K70" s="78">
+      <c r="K70" s="69">
         <f t="shared" si="60"/>
         <v>0.31755199999999995</v>
       </c>
-      <c r="L70" s="78">
+      <c r="L70" s="69">
         <f t="shared" si="60"/>
         <v>0.32611100000000004</v>
       </c>
-      <c r="M70" s="78">
+      <c r="M70" s="69">
         <f t="shared" si="60"/>
         <v>0.30899299999999996</v>
       </c>
-      <c r="N70" s="78"/>
-      <c r="O70" s="78">
+      <c r="N70" s="69"/>
+      <c r="O70" s="69">
         <f t="shared" si="60"/>
         <v>0.22625599999999998</v>
       </c>
-      <c r="P70" s="78">
+      <c r="P70" s="69">
         <f t="shared" si="60"/>
         <v>0.20628499999999997</v>
       </c>
-      <c r="Q70" s="78">
+      <c r="Q70" s="69">
         <f t="shared" si="60"/>
         <v>0.20913799999999996</v>
       </c>
-      <c r="R70" s="78"/>
-      <c r="S70" s="78">
+      <c r="R70" s="69"/>
+      <c r="S70" s="69">
         <f t="shared" si="60"/>
         <v>0.20343199999999997</v>
       </c>
-      <c r="T70" s="78">
+      <c r="T70" s="69">
         <f t="shared" si="60"/>
         <v>0.29758099999999998</v>
       </c>
-      <c r="U70" s="78">
+      <c r="U70" s="69">
         <f t="shared" si="60"/>
         <v>0.28616900000000001</v>
       </c>
-      <c r="V70" s="78">
+      <c r="V70" s="69">
         <f t="shared" si="60"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="W70" s="78">
+      <c r="W70" s="69">
         <f t="shared" ref="W70:X70" si="61">(W26*$C$90)+$C$89</f>
         <v>0.32896399999999992</v>
       </c>
-      <c r="X70" s="78">
+      <c r="X70" s="69">
         <f t="shared" si="61"/>
         <v>0.32040499999999994</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="59" t="s">
+      <c r="A71" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="59">
+      <c r="B71" s="52">
         <v>50</v>
       </c>
-      <c r="C71" s="78">
+      <c r="C71" s="69">
         <f t="shared" ref="C71:Q72" si="62">(C27*$C$90)+$C$89</f>
         <v>0.31184599999999996</v>
       </c>
-      <c r="D71" s="78">
+      <c r="D71" s="69">
         <f t="shared" si="62"/>
         <v>0.29758099999999998</v>
       </c>
-      <c r="E71" s="78">
+      <c r="E71" s="69">
         <f t="shared" si="62"/>
         <v>0.30899299999999996</v>
       </c>
-      <c r="F71" s="78">
+      <c r="F71" s="69">
         <f t="shared" si="62"/>
         <v>0.31184599999999996</v>
       </c>
-      <c r="G71" s="78">
+      <c r="G71" s="69">
         <f t="shared" si="62"/>
         <v>0.31755199999999995</v>
       </c>
-      <c r="H71" s="78">
+      <c r="H71" s="69">
         <f t="shared" si="62"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="I71" s="78">
+      <c r="I71" s="69">
         <f t="shared" si="62"/>
         <v>0.31184599999999996</v>
       </c>
-      <c r="J71" s="78">
+      <c r="J71" s="69">
         <f t="shared" si="62"/>
         <v>0.32325800000000005</v>
       </c>
-      <c r="K71" s="78">
+      <c r="K71" s="69">
         <f t="shared" si="62"/>
         <v>0.31755199999999995</v>
       </c>
-      <c r="L71" s="78">
+      <c r="L71" s="69">
         <f t="shared" si="62"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="M71" s="78">
+      <c r="M71" s="69">
         <f t="shared" si="62"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78">
+      <c r="N71" s="69"/>
+      <c r="O71" s="69">
         <f t="shared" si="62"/>
         <v>0.24337400000000001</v>
       </c>
-      <c r="P71" s="78">
+      <c r="P71" s="69">
         <f t="shared" si="62"/>
         <v>0.22340299999999999</v>
       </c>
-      <c r="Q71" s="78">
+      <c r="Q71" s="69">
         <f t="shared" si="62"/>
         <v>0.20913799999999996</v>
       </c>
-      <c r="R71" s="78"/>
-      <c r="S71" s="78">
+      <c r="R71" s="69"/>
+      <c r="S71" s="69">
         <f t="shared" si="60"/>
         <v>0.20913799999999996</v>
       </c>
-      <c r="T71" s="78">
+      <c r="T71" s="69">
         <f t="shared" si="60"/>
         <v>0.24052100000000001</v>
       </c>
-      <c r="U71" s="78">
+      <c r="U71" s="69">
         <f t="shared" si="60"/>
         <v>0.246227</v>
       </c>
-      <c r="V71" s="78">
+      <c r="V71" s="69">
         <f t="shared" si="60"/>
         <v>0.27475700000000003</v>
       </c>
-      <c r="W71" s="78">
+      <c r="W71" s="69">
         <f t="shared" ref="W71:X71" si="63">(W27*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
-      <c r="X71" s="78">
+      <c r="X71" s="69">
         <f t="shared" si="63"/>
         <v>0.30328699999999997</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="59">
+      <c r="B72" s="52">
         <v>70</v>
       </c>
-      <c r="C72" s="78">
+      <c r="C72" s="69">
         <f t="shared" si="62"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="D72" s="78">
+      <c r="D72" s="69">
         <f t="shared" si="60"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="E72" s="78">
+      <c r="E72" s="69">
         <f t="shared" si="60"/>
         <v>0.30043399999999998</v>
       </c>
-      <c r="F72" s="78">
+      <c r="F72" s="69">
         <f t="shared" si="60"/>
         <v>0.31184599999999996</v>
       </c>
-      <c r="G72" s="78">
+      <c r="G72" s="69">
         <f t="shared" si="60"/>
         <v>0.31469899999999995</v>
       </c>
-      <c r="H72" s="78">
+      <c r="H72" s="69">
         <f t="shared" si="60"/>
         <v>0.30899299999999996</v>
       </c>
-      <c r="I72" s="78">
+      <c r="I72" s="69">
         <f t="shared" si="60"/>
         <v>0.31184599999999996</v>
       </c>
-      <c r="J72" s="78">
+      <c r="J72" s="69">
         <f t="shared" si="60"/>
         <v>0.32040499999999994</v>
       </c>
-      <c r="K72" s="78">
+      <c r="K72" s="69">
         <f t="shared" si="60"/>
         <v>0.31755199999999995</v>
       </c>
-      <c r="L72" s="78">
+      <c r="L72" s="69">
         <f t="shared" si="60"/>
         <v>0.30328699999999997</v>
       </c>
-      <c r="M72" s="78">
+      <c r="M72" s="69">
         <f t="shared" si="60"/>
         <v>0.30899299999999996</v>
       </c>
-      <c r="N72" s="78"/>
-      <c r="O72" s="78">
+      <c r="N72" s="69"/>
+      <c r="O72" s="69">
         <f t="shared" si="60"/>
         <v>0.26905099999999993</v>
       </c>
-      <c r="P72" s="78">
+      <c r="P72" s="69">
         <f t="shared" si="60"/>
         <v>0.25478600000000007</v>
       </c>
-      <c r="Q72" s="78">
+      <c r="Q72" s="69">
         <f t="shared" si="60"/>
         <v>0.23766800000000002</v>
       </c>
-      <c r="R72" s="78"/>
-      <c r="S72" s="78">
+      <c r="R72" s="69"/>
+      <c r="S72" s="69">
         <f t="shared" si="60"/>
         <v>0.23481500000000002</v>
       </c>
-      <c r="T72" s="78">
+      <c r="T72" s="69">
         <f t="shared" si="60"/>
         <v>0.25193300000000007</v>
       </c>
-      <c r="U72" s="78">
+      <c r="U72" s="69">
         <f t="shared" si="60"/>
         <v>0.246227</v>
       </c>
-      <c r="V72" s="78">
+      <c r="V72" s="69">
         <f t="shared" si="60"/>
         <v>0.24908</v>
       </c>
-      <c r="W72" s="78">
+      <c r="W72" s="69">
         <f t="shared" ref="W72:X72" si="64">(W28*$C$90)+$C$89</f>
         <v>0.30043399999999998</v>
       </c>
-      <c r="X72" s="78">
+      <c r="X72" s="69">
         <f t="shared" si="64"/>
         <v>0.30899299999999996</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="64" t="s">
+      <c r="A73" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="64">
+      <c r="B73" s="56">
         <v>10</v>
       </c>
       <c r="C73" s="10">
@@ -6587,10 +6654,10 @@
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="64">
+      <c r="B74" s="56">
         <v>30</v>
       </c>
       <c r="C74" s="10">
@@ -6677,10 +6744,10 @@
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="64">
+      <c r="B75" s="56">
         <v>50</v>
       </c>
       <c r="C75" s="10">
@@ -6767,10 +6834,10 @@
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="64">
+      <c r="B76" s="56">
         <v>70</v>
       </c>
       <c r="C76" s="10">
@@ -6857,10 +6924,10 @@
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A77" s="64" t="s">
+      <c r="A77" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="64">
+      <c r="B77" s="56">
         <v>90</v>
       </c>
       <c r="C77" s="10">
@@ -6976,7 +7043,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="74" t="s">
+      <c r="A90" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B90">
@@ -7000,10 +7067,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7022,13 +7089,14 @@
     <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="89" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:16" s="80" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="87"/>
       <c r="D1" s="6">
         <v>30715</v>
       </c>
@@ -7044,71 +7112,77 @@
       <c r="H1" s="6">
         <v>30816</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="99" t="s">
+      <c r="M1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="99" t="s">
+      <c r="N1" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="100" t="s">
+      <c r="O1" s="77" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="75">
         <v>45163</v>
       </c>
-      <c r="E2" s="84">
+      <c r="E2" s="75">
         <v>45175</v>
       </c>
-      <c r="F2" s="84">
+      <c r="F2" s="75">
         <v>45189</v>
       </c>
-      <c r="G2" s="85">
+      <c r="G2" s="76">
         <v>45203</v>
       </c>
-      <c r="H2" s="85">
+      <c r="H2" s="76">
         <v>45212</v>
       </c>
-      <c r="I2" s="85">
+      <c r="I2" s="76">
         <v>45217</v>
       </c>
-      <c r="J2" s="85">
+      <c r="J2" s="76">
         <v>45231</v>
       </c>
-      <c r="K2" s="85">
+      <c r="K2" s="76">
         <v>45246</v>
       </c>
-      <c r="L2" s="85">
+      <c r="L2" s="76">
         <v>45259</v>
       </c>
-      <c r="M2" s="85">
+      <c r="M2" s="76">
         <v>45321</v>
       </c>
-      <c r="N2" s="88">
+      <c r="N2" s="79">
         <v>45371</v>
       </c>
-      <c r="O2" s="98" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="O2" s="90">
+        <v>45412</v>
+      </c>
+      <c r="P2" s="89">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -7148,12 +7222,15 @@
       <c r="N3" s="15">
         <v>1.54</v>
       </c>
-      <c r="O3" s="96">
+      <c r="O3" s="15">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
+      <c r="P3" s="15">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="84"/>
       <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
@@ -7191,12 +7268,15 @@
       <c r="N4" s="15">
         <v>1.65</v>
       </c>
-      <c r="O4" s="96">
+      <c r="O4" s="15">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="P4" s="15">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
       <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
@@ -7234,12 +7314,15 @@
       <c r="N5" s="15">
         <v>1.75</v>
       </c>
-      <c r="O5" s="96">
+      <c r="O5" s="15">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+      <c r="P5" s="15">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
       <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
@@ -7277,12 +7360,15 @@
       <c r="N6" s="15">
         <v>1.88</v>
       </c>
-      <c r="O6" s="96">
+      <c r="O6" s="15">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
+      <c r="P6" s="15">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
       <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
@@ -7320,12 +7406,15 @@
       <c r="N7" s="15">
         <v>1.97</v>
       </c>
-      <c r="O7" s="96">
+      <c r="O7" s="15">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="P7" s="15">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -7379,9 +7468,13 @@
         <f t="shared" si="0"/>
         <v>0.31051000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="P8" s="4">
+        <f t="shared" ref="P8" si="1">(P3*$D$28)+$D$27</f>
+        <v>0.31051000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -7389,53 +7482,57 @@
         <v>30</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:L12" si="1">(D4*$E$28)+$E$27</f>
+        <f t="shared" ref="D9:L12" si="2">(D4*$E$28)+$E$27</f>
         <v>0.24052100000000001</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19487299999999999</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17490200000000003</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12640099999999996</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11213600000000004</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24052100000000001</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22055</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22055</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" ref="M9:N9" si="2">(M4*$E$28)+$E$27</f>
+        <f t="shared" ref="M9:N9" si="3">(M4*$E$28)+$E$27</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26334499999999994</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" ref="O9" si="3">(O4*$E$28)+$E$27</f>
+        <f t="shared" ref="O9:P9" si="4">(O4*$E$28)+$E$27</f>
         <v>0.29472799999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
+      <c r="P9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.28616900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -7443,53 +7540,57 @@
         <v>50</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.291875</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.217697</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19487299999999999</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20628499999999997</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.217697</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ref="M10:N10" si="4">(M5*$E$28)+$E$27</f>
+        <f t="shared" ref="M10:N10" si="5">(M5*$E$28)+$E$27</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.291875</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" ref="O10" si="5">(O5*$E$28)+$E$27</f>
+        <f t="shared" ref="O10:P10" si="6">(O5*$E$28)+$E$27</f>
         <v>0.32325800000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
+      <c r="P10" s="4">
+        <f t="shared" si="6"/>
+        <v>0.31469899999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -7497,53 +7598,57 @@
         <v>70</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4">
-        <f t="shared" ref="I11:L11" si="6">(I6*$E$28)+$E$27</f>
+        <f t="shared" ref="I11:L11" si="7">(I6*$E$28)+$E$27</f>
         <v>0.26619799999999993</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" ref="M11:N11" si="7">(M6*$E$28)+$E$27</f>
+        <f t="shared" ref="M11:N11" si="8">(M6*$E$28)+$E$27</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" ref="O11" si="8">(O6*$E$28)+$E$27</f>
+        <f t="shared" ref="O11:P11" si="9">(O6*$E$28)+$E$27</f>
         <v>0.348935</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
+      <c r="P11" s="4">
+        <f t="shared" si="9"/>
+        <v>0.346082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -7551,53 +7656,57 @@
         <v>90</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
-        <f t="shared" ref="I12:L12" si="9">(I7*$E$28)+$E$27</f>
+        <f t="shared" ref="I12:L12" si="10">(I7*$E$28)+$E$27</f>
         <v>0.289022</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12:N12" si="10">(M7*$E$28)+$E$27</f>
+        <f t="shared" ref="M12:N12" si="11">(M7*$E$28)+$E$27</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.35464099999999998</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" ref="O12" si="11">(O7*$E$28)+$E$27</f>
+        <f t="shared" ref="O12:P12" si="12">(O7*$E$28)+$E$27</f>
         <v>0.36034699999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="P12" s="4">
+        <f t="shared" si="12"/>
+        <v>0.36034699999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -7631,12 +7740,15 @@
       <c r="N13" s="16">
         <v>1.65</v>
       </c>
-      <c r="O13" s="97">
+      <c r="O13" s="82">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
+      <c r="P13" s="16">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
@@ -7668,12 +7780,15 @@
       <c r="N14" s="16">
         <v>1.71</v>
       </c>
-      <c r="O14" s="97">
+      <c r="O14" s="82">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="P14" s="16">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="85"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -7705,12 +7820,15 @@
       <c r="N15" s="16">
         <v>1.79</v>
       </c>
-      <c r="O15" s="97">
+      <c r="O15" s="82">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
+      <c r="P15" s="16">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="85"/>
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
@@ -7742,12 +7860,15 @@
       <c r="N16" s="16">
         <v>1.88</v>
       </c>
-      <c r="O16" s="97">
+      <c r="O16" s="82">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+      <c r="P16" s="16">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
       <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
@@ -7779,12 +7900,15 @@
       <c r="N17" s="16">
         <v>1.94</v>
       </c>
-      <c r="O17" s="97">
+      <c r="O17" s="82">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="93" t="s">
+      <c r="P17" s="16">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="86" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -7798,40 +7922,44 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="17">
-        <f t="shared" ref="H18:M18" si="12">(H13*$D$28)+$D$27</f>
+        <f t="shared" ref="H18:M18" si="13">(H13*$D$28)+$D$27</f>
         <v>0.16081600000000001</v>
       </c>
       <c r="I18" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.16081600000000001</v>
       </c>
       <c r="J18" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.30069400000000007</v>
       </c>
       <c r="K18" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.28351600000000005</v>
       </c>
       <c r="L18" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.30314800000000003</v>
       </c>
       <c r="M18" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32523400000000002</v>
       </c>
       <c r="N18" s="17">
-        <f t="shared" ref="N18:O18" si="13">(N13*$D$28)+$D$27</f>
+        <f t="shared" ref="N18:O18" si="14">(N13*$D$28)+$D$27</f>
         <v>0.31051000000000001</v>
       </c>
       <c r="O18" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.32768800000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
+      <c r="P18" s="17">
+        <f t="shared" ref="P18" si="15">(P13*$D$28)+$D$27</f>
+        <v>0.32278000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
       <c r="B19" s="11" t="s">
         <v>10</v>
       </c>
@@ -7843,40 +7971,44 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="17">
-        <f t="shared" ref="H19:K22" si="14">(H14*$E$28)+$E$27</f>
+        <f t="shared" ref="H19:K22" si="16">(H14*$E$28)+$E$27</f>
         <v>0.11784199999999997</v>
       </c>
       <c r="I19" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.11498899999999998</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.24052100000000001</v>
       </c>
       <c r="L19" s="17">
-        <f t="shared" ref="L19:M19" si="15">(L14*$E$28)+$E$27</f>
+        <f t="shared" ref="L19:M19" si="17">(L14*$E$28)+$E$27</f>
         <v>0.26334499999999994</v>
       </c>
       <c r="M19" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.291875</v>
       </c>
       <c r="N19" s="17">
-        <f t="shared" ref="N19:O19" si="16">(N14*$E$28)+$E$27</f>
+        <f t="shared" ref="N19:O19" si="18">(N14*$E$28)+$E$27</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="O19" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.289022</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
+      <c r="P19" s="17">
+        <f t="shared" ref="P19" si="19">(P14*$E$28)+$E$27</f>
+        <v>0.29758099999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="86"/>
       <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
@@ -7888,40 +8020,44 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.16634299999999999</v>
       </c>
       <c r="I20" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.16349</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.22625599999999998</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.23196200000000003</v>
       </c>
       <c r="L20" s="17">
-        <f t="shared" ref="L20:M20" si="17">(L15*$E$28)+$E$27</f>
+        <f t="shared" ref="L20:M20" si="20">(L15*$E$28)+$E$27</f>
         <v>0.246227</v>
       </c>
       <c r="M20" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" ref="N20:O20" si="18">(N15*$E$28)+$E$27</f>
+        <f t="shared" ref="N20:O20" si="21">(N15*$E$28)+$E$27</f>
         <v>0.30328699999999997</v>
       </c>
       <c r="O20" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.31184599999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
+      <c r="P20" s="17">
+        <f t="shared" ref="P20" si="22">(P15*$E$28)+$E$27</f>
+        <v>0.32040499999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="86"/>
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
@@ -7933,40 +8069,44 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.246227</v>
       </c>
       <c r="I21" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="J21" s="17">
-        <f t="shared" ref="J21:K21" si="19">(J16*$E$28)+$E$27</f>
+        <f t="shared" ref="J21:K21" si="23">(J16*$E$28)+$E$27</f>
         <v>0.24052100000000001</v>
       </c>
       <c r="K21" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="L21" s="17">
-        <f t="shared" ref="L21:M21" si="20">(L16*$E$28)+$E$27</f>
+        <f t="shared" ref="L21:M21" si="24">(L16*$E$28)+$E$27</f>
         <v>0.246227</v>
       </c>
       <c r="M21" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="N21" s="17">
-        <f t="shared" ref="N21:O21" si="21">(N16*$E$28)+$E$27</f>
+        <f t="shared" ref="N21:O21" si="25">(N16*$E$28)+$E$27</f>
         <v>0.32896399999999992</v>
       </c>
       <c r="O21" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.32896399999999992</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
+      <c r="P21" s="17">
+        <f t="shared" ref="P21" si="26">(P16*$E$28)+$E$27</f>
+        <v>0.3403759999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="86"/>
       <c r="B22" s="11" t="s">
         <v>10</v>
       </c>
@@ -7978,39 +8118,43 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="I22" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="J22" s="17">
-        <f t="shared" ref="J22:K22" si="22">(J17*$E$28)+$E$27</f>
+        <f t="shared" ref="J22:K22" si="27">(J17*$E$28)+$E$27</f>
         <v>0.28331600000000001</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.291875</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" ref="L22:M22" si="23">(L17*$E$28)+$E$27</f>
+        <f t="shared" ref="L22:M22" si="28">(L17*$E$28)+$E$27</f>
         <v>0.13781299999999999</v>
       </c>
       <c r="M22" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="N22" s="17">
-        <f t="shared" ref="N22:O22" si="24">(N17*$E$28)+$E$27</f>
+        <f t="shared" ref="N22:O22" si="29">(N17*$E$28)+$E$27</f>
         <v>0.346082</v>
       </c>
       <c r="O22" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.348935</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="17">
+        <f t="shared" ref="P22" si="30">(P17*$E$28)+$E$27</f>
+        <v>0.348935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
@@ -8018,7 +8162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
@@ -8026,7 +8170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
@@ -8037,7 +8181,7 @@
         <v>-0.2074</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>

--- a/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
+++ b/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willbro\OSU Soil Physics Dropbox\William Brown Jr\Brown\PhD\Dissertation\NP_Marena_Sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E099B67-68AA-4070-B790-ACC94A80208D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116B38D-A821-42AD-9ACB-6FB7AEDE40BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{E93F8746-9E87-4457-9EA2-96B4DD1F63F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E93F8746-9E87-4457-9EA2-96B4DD1F63F6}"/>
   </bookViews>
   <sheets>
     <sheet name="NPmeasurements_2023" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
   <si>
     <t>Slope (CountRatio)</t>
   </si>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,15 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07D0316-E494-46A6-902F-D47D5FC607C9}">
   <dimension ref="A1:AF90"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA47" sqref="AA47"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4222,6 +4213,12 @@
       <c r="X46" s="74" t="s">
         <v>32</v>
       </c>
+      <c r="Y46" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z46" s="74" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="66" t="s">
@@ -4309,8 +4306,16 @@
         <v>0.37431400000000004</v>
       </c>
       <c r="X47" s="67">
-        <f t="shared" ref="X47" si="2">(X3*$B$90)+$B$89</f>
+        <f t="shared" ref="X47:Z47" si="2">(X3*$B$90)+$B$89</f>
         <v>0.36204400000000003</v>
+      </c>
+      <c r="Y47" s="67">
+        <f t="shared" si="2"/>
+        <v>0.36940600000000001</v>
+      </c>
+      <c r="Z47" s="67">
+        <f t="shared" si="2"/>
+        <v>0.37186000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -4402,8 +4407,16 @@
         <f t="shared" si="5"/>
         <v>0.32040499999999994</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48" s="67">
+        <f t="shared" ref="Y48:Z48" si="6">(Y4*$C$90)+$C$89</f>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="Z48" s="67">
+        <f t="shared" si="6"/>
+        <v>0.33752299999999991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="66" t="s">
         <v>21</v>
       </c>
@@ -4411,89 +4424,97 @@
         <v>50</v>
       </c>
       <c r="C49" s="67">
-        <f t="shared" ref="C49" si="6">(C5*$C$90)+$C$89</f>
+        <f t="shared" ref="C49" si="7">(C5*$C$90)+$C$89</f>
         <v>0.25478600000000007</v>
       </c>
       <c r="D49" s="67">
-        <f t="shared" ref="D49:V49" si="7">(D5*$C$90)+$C$89</f>
+        <f t="shared" ref="D49:V49" si="8">(D5*$C$90)+$C$89</f>
         <v>0.25478600000000007</v>
       </c>
       <c r="E49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="F49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="G49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="H49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="I49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="J49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="K49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="L49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="M49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.20343199999999997</v>
       </c>
       <c r="N49" s="67"/>
       <c r="O49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14351899999999998</v>
       </c>
       <c r="P49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14066599999999999</v>
       </c>
       <c r="Q49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.132107</v>
       </c>
       <c r="R49" s="67"/>
       <c r="S49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12354799999999996</v>
       </c>
       <c r="T49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13781299999999999</v>
       </c>
       <c r="U49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13781299999999999</v>
       </c>
       <c r="V49" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13496</v>
       </c>
       <c r="W49" s="67">
-        <f t="shared" ref="W49:X49" si="8">(W5*$C$90)+$C$89</f>
+        <f t="shared" ref="W49:X49" si="9">(W5*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="X49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.28331600000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49" s="67">
+        <f t="shared" ref="Y49:Z49" si="10">(Y5*$C$90)+$C$89</f>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="Z49" s="67">
+        <f t="shared" si="10"/>
+        <v>0.30328699999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="66" t="s">
         <v>21</v>
       </c>
@@ -4501,89 +4522,97 @@
         <v>70</v>
       </c>
       <c r="C50" s="67">
-        <f t="shared" ref="C50" si="9">(C6*$C$90)+$C$89</f>
+        <f t="shared" ref="C50" si="11">(C6*$C$90)+$C$89</f>
         <v>0.23196200000000003</v>
       </c>
       <c r="D50" s="67">
-        <f t="shared" ref="D50:V50" si="10">(D6*$C$90)+$C$89</f>
+        <f t="shared" ref="D50:V50" si="12">(D6*$C$90)+$C$89</f>
         <v>0.23766800000000002</v>
       </c>
       <c r="E50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="F50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="G50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="H50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.291875</v>
       </c>
       <c r="I50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="J50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="K50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="L50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="M50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="N50" s="67"/>
       <c r="O50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.19772599999999999</v>
       </c>
       <c r="P50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18060800000000002</v>
       </c>
       <c r="Q50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.160637</v>
       </c>
       <c r="R50" s="67"/>
       <c r="S50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.160637</v>
       </c>
       <c r="T50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="U50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="V50" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.160637</v>
       </c>
       <c r="W50" s="67">
-        <f t="shared" ref="W50:X50" si="11">(W6*$C$90)+$C$89</f>
+        <f t="shared" ref="W50:X50" si="13">(W6*$C$90)+$C$89</f>
         <v>0.30328699999999997</v>
       </c>
       <c r="X50" s="67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.30043399999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50" s="67">
+        <f t="shared" ref="Y50:Z50" si="14">(Y6*$C$90)+$C$89</f>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="Z50" s="67">
+        <f t="shared" si="14"/>
+        <v>0.31184599999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>23</v>
       </c>
@@ -4591,89 +4620,97 @@
         <v>10</v>
       </c>
       <c r="C51" s="68">
-        <f t="shared" ref="C51" si="12">(C7*$B$90)+$B$89</f>
+        <f t="shared" ref="C51" si="15">(C7*$B$90)+$B$89</f>
         <v>0.29087800000000003</v>
       </c>
       <c r="D51" s="68">
-        <f t="shared" ref="D51:V51" si="13">(D7*$B$90)+$B$89</f>
+        <f t="shared" ref="D51:V51" si="16">(D7*$B$90)+$B$89</f>
         <v>0.23934400000000006</v>
       </c>
       <c r="E51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.32523400000000002</v>
       </c>
       <c r="F51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="G51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.31051000000000001</v>
       </c>
       <c r="H51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.21971200000000002</v>
       </c>
       <c r="I51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.308056</v>
       </c>
       <c r="J51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.366952</v>
       </c>
       <c r="K51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.29824000000000006</v>
       </c>
       <c r="L51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="M51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.26388400000000001</v>
       </c>
       <c r="N51" s="68"/>
       <c r="O51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.16327000000000003</v>
       </c>
       <c r="P51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.22216600000000003</v>
       </c>
       <c r="Q51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.15345400000000003</v>
       </c>
       <c r="R51" s="68"/>
       <c r="S51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.16572400000000004</v>
       </c>
       <c r="T51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.32278000000000001</v>
       </c>
       <c r="U51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.308056</v>
       </c>
       <c r="V51" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.332596</v>
       </c>
       <c r="W51" s="68">
-        <f t="shared" ref="W51:X51" si="14">(W7*$B$90)+$B$89</f>
+        <f t="shared" ref="W51:X51" si="17">(W7*$B$90)+$B$89</f>
         <v>0.35713600000000006</v>
       </c>
       <c r="X51" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.332596</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51" s="68">
+        <f t="shared" ref="Y51:Z51" si="18">(Y7*$B$90)+$B$89</f>
+        <v>0.34732000000000002</v>
+      </c>
+      <c r="Z51" s="68">
+        <f t="shared" si="18"/>
+        <v>0.34732000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>23</v>
       </c>
@@ -4681,89 +4718,97 @@
         <v>30</v>
       </c>
       <c r="C52" s="68">
-        <f t="shared" ref="C52" si="15">(C8*$C$90)+$C$89</f>
+        <f t="shared" ref="C52" si="19">(C8*$C$90)+$C$89</f>
         <v>0.30613999999999997</v>
       </c>
       <c r="D52" s="68">
-        <f t="shared" ref="D52:V52" si="16">(D8*$C$90)+$C$89</f>
+        <f t="shared" ref="D52:V52" si="20">(D8*$C$90)+$C$89</f>
         <v>0.28331600000000001</v>
       </c>
       <c r="E52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="F52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="G52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="I52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="J52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="K52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="L52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="M52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="N52" s="68"/>
       <c r="O52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.17775500000000002</v>
       </c>
       <c r="P52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.16634299999999999</v>
       </c>
       <c r="Q52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.15207800000000002</v>
       </c>
       <c r="R52" s="68"/>
       <c r="S52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.14351899999999998</v>
       </c>
       <c r="T52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.21199100000000001</v>
       </c>
       <c r="U52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.21199100000000001</v>
       </c>
       <c r="V52" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.24908</v>
       </c>
       <c r="W52" s="68">
-        <f t="shared" ref="W52:X52" si="17">(W8*$C$90)+$C$89</f>
+        <f t="shared" ref="W52:X52" si="21">(W8*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="X52" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.31184599999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52" s="68">
+        <f t="shared" ref="Y52:Z52" si="22">(Y8*$C$90)+$C$89</f>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="Z52" s="68">
+        <f t="shared" si="22"/>
+        <v>0.31755199999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>23</v>
       </c>
@@ -4771,89 +4816,97 @@
         <v>50</v>
       </c>
       <c r="C53" s="68">
-        <f t="shared" ref="C53" si="18">(C9*$C$90)+$C$89</f>
+        <f t="shared" ref="C53" si="23">(C9*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="D53" s="68">
-        <f t="shared" ref="D53:V53" si="19">(D9*$C$90)+$C$89</f>
+        <f t="shared" ref="D53:V53" si="24">(D9*$C$90)+$C$89</f>
         <v>0.291875</v>
       </c>
       <c r="E53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="F53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="G53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="H53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="I53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="J53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="K53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="L53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="M53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="N53" s="68"/>
       <c r="O53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.21199100000000001</v>
       </c>
       <c r="P53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.18346100000000001</v>
       </c>
       <c r="Q53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.15493100000000001</v>
       </c>
       <c r="R53" s="68"/>
       <c r="S53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.160637</v>
       </c>
       <c r="T53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="U53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.15207800000000002</v>
       </c>
       <c r="V53" s="68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="W53" s="68">
-        <f t="shared" ref="W53:X53" si="20">(W9*$C$90)+$C$89</f>
+        <f t="shared" ref="W53:X53" si="25">(W9*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="X53" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.30043399999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53" s="68">
+        <f t="shared" ref="Y53:Z53" si="26">(Y9*$C$90)+$C$89</f>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="Z53" s="68">
+        <f t="shared" si="26"/>
+        <v>0.32040499999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
@@ -4861,89 +4914,97 @@
         <v>70</v>
       </c>
       <c r="C54" s="68">
-        <f t="shared" ref="C54" si="21">(C10*$C$90)+$C$89</f>
+        <f t="shared" ref="C54" si="27">(C10*$C$90)+$C$89</f>
         <v>0.29472799999999999</v>
       </c>
       <c r="D54" s="68">
-        <f t="shared" ref="D54:V54" si="22">(D10*$C$90)+$C$89</f>
+        <f t="shared" ref="D54:V54" si="28">(D10*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="E54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="F54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="G54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="H54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="I54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.291875</v>
       </c>
       <c r="J54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="K54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="L54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.291875</v>
       </c>
       <c r="M54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="N54" s="68"/>
       <c r="O54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="P54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.24908</v>
       </c>
       <c r="Q54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.22340299999999999</v>
       </c>
       <c r="R54" s="68"/>
       <c r="S54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.22340299999999999</v>
       </c>
       <c r="T54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="U54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.217697</v>
       </c>
       <c r="V54" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.22055</v>
       </c>
       <c r="W54" s="68">
-        <f t="shared" ref="W54:X54" si="23">(W10*$C$90)+$C$89</f>
+        <f t="shared" ref="W54:X54" si="29">(W10*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="X54" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.30043399999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54" s="68">
+        <f t="shared" ref="Y54:Z54" si="30">(Y10*$C$90)+$C$89</f>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="Z54" s="68">
+        <f t="shared" si="30"/>
+        <v>0.32896399999999992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
         <v>24</v>
       </c>
@@ -4951,89 +5012,97 @@
         <v>10</v>
       </c>
       <c r="C55" s="70">
-        <f t="shared" ref="C55" si="24">(C11*$B$90)+$B$89</f>
+        <f t="shared" ref="C55" si="31">(C11*$B$90)+$B$89</f>
         <v>0.35468200000000005</v>
       </c>
       <c r="D55" s="70">
-        <f t="shared" ref="D55:V55" si="25">(D11*$B$90)+$B$89</f>
+        <f t="shared" ref="D55:V55" si="32">(D11*$B$90)+$B$89</f>
         <v>0.31787199999999999</v>
       </c>
       <c r="E55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.38413000000000003</v>
       </c>
       <c r="F55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.39885399999999999</v>
       </c>
       <c r="G55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="H55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.31051000000000001</v>
       </c>
       <c r="I55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.38658400000000004</v>
       </c>
       <c r="J55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.41848599999999997</v>
       </c>
       <c r="K55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.35468200000000005</v>
       </c>
       <c r="L55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.39394600000000002</v>
       </c>
       <c r="M55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.32768800000000003</v>
       </c>
       <c r="N55" s="70"/>
       <c r="O55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.25406800000000002</v>
       </c>
       <c r="P55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.28106200000000003</v>
       </c>
       <c r="Q55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.23934400000000006</v>
       </c>
       <c r="R55" s="70"/>
       <c r="S55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.24670599999999998</v>
       </c>
       <c r="T55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.366952</v>
       </c>
       <c r="U55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.34732000000000002</v>
       </c>
       <c r="V55" s="70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="W55" s="70">
-        <f t="shared" ref="W55:X55" si="26">(W11*$B$90)+$B$89</f>
+        <f t="shared" ref="W55:X55" si="33">(W11*$B$90)+$B$89</f>
         <v>0.40867000000000003</v>
       </c>
       <c r="X55" s="70">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0.38413000000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55" s="70">
+        <f t="shared" ref="Y55:Z55" si="34">(Y11*$B$90)+$B$89</f>
+        <v>0.40130800000000005</v>
+      </c>
+      <c r="Z55" s="70">
+        <f t="shared" si="34"/>
+        <v>0.40130800000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>24</v>
       </c>
@@ -5045,85 +5114,93 @@
         <v>0.36034699999999997</v>
       </c>
       <c r="D56" s="70">
-        <f t="shared" ref="D56:V56" si="27">(D12*$C$90)+$C$89</f>
+        <f t="shared" ref="D56:V56" si="35">(D12*$C$90)+$C$89</f>
         <v>0.348935</v>
       </c>
       <c r="E56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.36034699999999997</v>
       </c>
       <c r="F56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.36605299999999996</v>
       </c>
       <c r="G56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.36319999999999997</v>
       </c>
       <c r="H56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="I56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.348935</v>
       </c>
       <c r="J56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.36034699999999997</v>
       </c>
       <c r="K56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.346082</v>
       </c>
       <c r="L56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="M56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="N56" s="70"/>
       <c r="O56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="P56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="Q56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="R56" s="70"/>
       <c r="S56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.24908</v>
       </c>
       <c r="T56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="U56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="V56" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.289022</v>
       </c>
       <c r="W56" s="70">
-        <f t="shared" ref="W56:X56" si="28">(W12*$C$90)+$C$89</f>
+        <f t="shared" ref="W56:X56" si="36">(W12*$C$90)+$C$89</f>
         <v>0.37746499999999994</v>
       </c>
       <c r="X56" s="70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.35464099999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56" s="70">
+        <f t="shared" ref="Y56:Z56" si="37">(Y12*$C$90)+$C$89</f>
+        <v>0.36605299999999996</v>
+      </c>
+      <c r="Z56" s="70">
+        <f t="shared" si="37"/>
+        <v>0.36034699999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
         <v>24</v>
       </c>
@@ -5135,85 +5212,93 @@
         <v>0.3432289999999999</v>
       </c>
       <c r="D57" s="70">
-        <f t="shared" ref="D57:V57" si="29">(D13*$C$90)+$C$89</f>
+        <f t="shared" ref="D57:V57" si="38">(D13*$C$90)+$C$89</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="E57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="F57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="G57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="H57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="I57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="J57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="K57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="L57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="M57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="N57" s="70"/>
       <c r="O57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="P57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="Q57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="R57" s="70"/>
       <c r="S57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="T57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="U57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="V57" s="70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="W57" s="70">
-        <f t="shared" ref="W57:X57" si="30">(W13*$C$90)+$C$89</f>
+        <f t="shared" ref="W57:X57" si="39">(W13*$C$90)+$C$89</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="X57" s="70">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>0.3432289999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57" s="70">
+        <f t="shared" ref="Y57:Z57" si="40">(Y13*$C$90)+$C$89</f>
+        <v>0.3403759999999999</v>
+      </c>
+      <c r="Z57" s="70">
+        <f t="shared" si="40"/>
+        <v>0.3403759999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>24</v>
       </c>
@@ -5225,85 +5310,93 @@
         <v>0.30613999999999997</v>
       </c>
       <c r="D58" s="70">
-        <f t="shared" ref="D58:V58" si="31">(D14*$C$90)+$C$89</f>
+        <f t="shared" ref="D58:V58" si="41">(D14*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="E58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="F58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="G58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="I58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="J58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="K58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="L58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="M58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.291875</v>
       </c>
       <c r="N58" s="70"/>
       <c r="O58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="P58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="Q58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="R58" s="70"/>
       <c r="S58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="T58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="U58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="V58" s="70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.246227</v>
       </c>
       <c r="W58" s="70">
-        <f t="shared" ref="W58:X58" si="32">(W14*$C$90)+$C$89</f>
+        <f t="shared" ref="W58:X58" si="42">(W14*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="X58" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0.30043399999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58" s="70">
+        <f t="shared" ref="Y58:Z58" si="43">(Y14*$C$90)+$C$89</f>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="Z58" s="70">
+        <f t="shared" si="43"/>
+        <v>0.30328699999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
         <v>24</v>
       </c>
@@ -5315,85 +5408,93 @@
         <v>0.30613999999999997</v>
       </c>
       <c r="D59" s="70">
-        <f t="shared" ref="D59:V59" si="33">(D15*$C$90)+$C$89</f>
+        <f t="shared" ref="D59:V59" si="44">(D15*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="E59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="F59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="G59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="H59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="I59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="J59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="K59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="L59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="M59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="N59" s="70"/>
       <c r="O59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="P59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.289022</v>
       </c>
       <c r="Q59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="R59" s="70"/>
       <c r="S59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="T59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="U59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="V59" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="W59" s="70">
-        <f t="shared" ref="W59:X59" si="34">(W15*$C$90)+$C$89</f>
+        <f t="shared" ref="W59:X59" si="45">(W15*$C$90)+$C$89</f>
         <v>0.27475700000000003</v>
       </c>
       <c r="X59" s="70">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>0.30328699999999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59" s="70">
+        <f t="shared" ref="Y59:Z59" si="46">(Y15*$C$90)+$C$89</f>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="Z59" s="70">
+        <f t="shared" si="46"/>
+        <v>0.30899299999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
         <v>25</v>
       </c>
@@ -5401,89 +5502,97 @@
         <v>10</v>
       </c>
       <c r="C60" s="71">
-        <f t="shared" ref="C60" si="35">(C16*$B$90)+$B$89</f>
+        <f t="shared" ref="C60" si="47">(C16*$B$90)+$B$89</f>
         <v>0.36940600000000001</v>
       </c>
       <c r="D60" s="71">
-        <f t="shared" ref="D60:V60" si="36">(D16*$B$90)+$B$89</f>
+        <f t="shared" ref="D60:V60" si="48">(D16*$B$90)+$B$89</f>
         <v>0.32278000000000001</v>
       </c>
       <c r="E60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.40130800000000005</v>
       </c>
       <c r="F60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.41603200000000001</v>
       </c>
       <c r="G60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.379222</v>
       </c>
       <c r="H60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.32768800000000003</v>
       </c>
       <c r="I60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.38658400000000004</v>
       </c>
       <c r="J60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.42094000000000004</v>
       </c>
       <c r="K60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.36940600000000001</v>
       </c>
       <c r="L60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.39149200000000001</v>
       </c>
       <c r="M60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.332596</v>
       </c>
       <c r="N60" s="71"/>
       <c r="O60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.26388400000000001</v>
       </c>
       <c r="P60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.308056</v>
       </c>
       <c r="Q60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.26143</v>
       </c>
       <c r="R60" s="71"/>
       <c r="S60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.26388400000000001</v>
       </c>
       <c r="T60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="U60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.36449800000000004</v>
       </c>
       <c r="V60" s="71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.38167600000000002</v>
       </c>
       <c r="W60" s="71">
-        <f t="shared" ref="W60:X60" si="37">(W16*$B$90)+$B$89</f>
+        <f t="shared" ref="W60:X60" si="49">(W16*$B$90)+$B$89</f>
         <v>0.40130800000000005</v>
       </c>
       <c r="X60" s="71">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>0.39640000000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60" s="71">
+        <f t="shared" ref="Y60:Z60" si="50">(Y16*$B$90)+$B$89</f>
+        <v>0.40867000000000003</v>
+      </c>
+      <c r="Z60" s="71">
+        <f t="shared" si="50"/>
+        <v>0.41848599999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>25</v>
       </c>
@@ -5491,89 +5600,97 @@
         <v>30</v>
       </c>
       <c r="C61" s="71">
-        <f t="shared" ref="C61" si="38">(C17*$C$90)+$C$89</f>
+        <f t="shared" ref="C61" si="51">(C17*$C$90)+$C$89</f>
         <v>0.36890599999999996</v>
       </c>
       <c r="D61" s="71">
-        <f t="shared" ref="D61:V61" si="39">(D17*$C$90)+$C$89</f>
+        <f t="shared" ref="D61:V61" si="52">(D17*$C$90)+$C$89</f>
         <v>0.36034699999999997</v>
       </c>
       <c r="E61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.37461199999999995</v>
       </c>
       <c r="F61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.37746499999999994</v>
       </c>
       <c r="G61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.38317099999999993</v>
       </c>
       <c r="H61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="I61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.36890599999999996</v>
       </c>
       <c r="J61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.38887699999999992</v>
       </c>
       <c r="K61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.36890599999999996</v>
       </c>
       <c r="L61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.37461199999999995</v>
       </c>
       <c r="M61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.35464099999999998</v>
       </c>
       <c r="N61" s="71"/>
       <c r="O61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.291875</v>
       </c>
       <c r="P61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="Q61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="R61" s="71"/>
       <c r="S61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="T61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="U61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="V61" s="71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="W61" s="71">
-        <f t="shared" ref="W61:X61" si="40">(W17*$C$90)+$C$89</f>
+        <f t="shared" ref="W61:X61" si="53">(W17*$C$90)+$C$89</f>
         <v>0.35749399999999998</v>
       </c>
       <c r="X61" s="71">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>0.38031799999999993</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61" s="71">
+        <f t="shared" ref="Y61:Z61" si="54">(Y17*$C$90)+$C$89</f>
+        <v>0.37746499999999994</v>
+      </c>
+      <c r="Z61" s="71">
+        <f t="shared" si="54"/>
+        <v>0.38031799999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>25</v>
       </c>
@@ -5581,89 +5698,97 @@
         <v>50</v>
       </c>
       <c r="C62" s="71">
-        <f t="shared" ref="C62" si="41">(C18*$C$90)+$C$89</f>
+        <f t="shared" ref="C62" si="55">(C18*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="D62" s="71">
-        <f t="shared" ref="D62:V62" si="42">(D18*$C$90)+$C$89</f>
+        <f t="shared" ref="D62:V62" si="56">(D18*$C$90)+$C$89</f>
         <v>0.33752299999999991</v>
       </c>
       <c r="E62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.33752299999999991</v>
       </c>
       <c r="F62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.33752299999999991</v>
       </c>
       <c r="G62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="H62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="I62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="J62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="K62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="L62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="M62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="N62" s="71"/>
       <c r="O62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="P62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="Q62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.26334499999999994</v>
       </c>
       <c r="R62" s="71"/>
       <c r="S62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.24908</v>
       </c>
       <c r="T62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="U62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="V62" s="71">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="W62" s="71">
-        <f t="shared" ref="W62:X62" si="43">(W18*$C$90)+$C$89</f>
+        <f t="shared" ref="W62:X62" si="57">(W18*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="X62" s="71">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>0.33752299999999991</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62" s="71">
+        <f t="shared" ref="Y62:Z62" si="58">(Y18*$C$90)+$C$89</f>
+        <v>0.3403759999999999</v>
+      </c>
+      <c r="Z62" s="71">
+        <f t="shared" si="58"/>
+        <v>0.33466999999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>25</v>
       </c>
@@ -5671,89 +5796,97 @@
         <v>70</v>
       </c>
       <c r="C63" s="71">
-        <f t="shared" ref="C63" si="44">(C19*$C$90)+$C$89</f>
+        <f t="shared" ref="C63" si="59">(C19*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="D63" s="71">
-        <f t="shared" ref="D63:V63" si="45">(D19*$C$90)+$C$89</f>
+        <f t="shared" ref="D63:V63" si="60">(D19*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="E63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="F63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="G63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="H63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="I63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="J63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="K63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="L63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="M63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="N63" s="71"/>
       <c r="O63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="P63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.26334499999999994</v>
       </c>
       <c r="Q63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="R63" s="71"/>
       <c r="S63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.246227</v>
       </c>
       <c r="T63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.23481500000000002</v>
       </c>
       <c r="U63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="V63" s="71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="W63" s="71">
-        <f t="shared" ref="W63:X63" si="46">(W19*$C$90)+$C$89</f>
+        <f t="shared" ref="W63:X63" si="61">(W19*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="X63" s="71">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>0.291875</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63" s="71">
+        <f t="shared" ref="Y63:Z63" si="62">(Y19*$C$90)+$C$89</f>
+        <v>0.291875</v>
+      </c>
+      <c r="Z63" s="71">
+        <f t="shared" si="62"/>
+        <v>0.29758099999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
         <v>25</v>
       </c>
@@ -5761,89 +5894,97 @@
         <v>90</v>
       </c>
       <c r="C64" s="71">
-        <f t="shared" ref="C64" si="47">(C20*$C$90)+$C$89</f>
+        <f t="shared" ref="C64" si="63">(C20*$C$90)+$C$89</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="D64" s="71">
-        <f t="shared" ref="D64:V64" si="48">(D20*$C$90)+$C$89</f>
+        <f t="shared" ref="D64:V64" si="64">(D20*$C$90)+$C$89</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="E64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="F64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.291875</v>
       </c>
       <c r="G64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="H64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="I64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="J64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="K64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="L64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="M64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="N64" s="71"/>
       <c r="O64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="P64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="Q64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.289022</v>
       </c>
       <c r="R64" s="71"/>
       <c r="S64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="T64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="U64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="V64" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="W64" s="71">
-        <f t="shared" ref="W64:X64" si="49">(W20*$C$90)+$C$89</f>
+        <f t="shared" ref="W64:X64" si="65">(W20*$C$90)+$C$89</f>
         <v>0.28616900000000001</v>
       </c>
       <c r="X64" s="71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>0.291875</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64" s="71">
+        <f t="shared" ref="Y64:Z64" si="66">(Y20*$C$90)+$C$89</f>
+        <v>0.289022</v>
+      </c>
+      <c r="Z64" s="71">
+        <f t="shared" si="66"/>
+        <v>0.29472799999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
         <v>26</v>
       </c>
@@ -5855,85 +5996,93 @@
         <v>0.21725800000000001</v>
       </c>
       <c r="D65" s="13">
-        <f t="shared" ref="D65:V65" si="50">(D21*$B$90)+$B$89</f>
+        <f t="shared" ref="D65:V65" si="67">(D21*$B$90)+$B$89</f>
         <v>0.15590800000000005</v>
       </c>
       <c r="E65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.29333200000000004</v>
       </c>
       <c r="F65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.35222800000000004</v>
       </c>
       <c r="G65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.27615400000000001</v>
       </c>
       <c r="H65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.18535600000000002</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.33750400000000003</v>
       </c>
       <c r="J65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.36940600000000001</v>
       </c>
       <c r="K65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.26143</v>
       </c>
       <c r="L65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.33750400000000003</v>
       </c>
       <c r="M65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.26879200000000003</v>
       </c>
       <c r="N65" s="13"/>
       <c r="O65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.11173599999999999</v>
       </c>
       <c r="P65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.17799400000000004</v>
       </c>
       <c r="Q65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>7.737999999999999E-2</v>
       </c>
       <c r="R65" s="13"/>
       <c r="S65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>8.9649999999999994E-2</v>
       </c>
       <c r="T65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.25652200000000003</v>
       </c>
       <c r="U65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.23689000000000004</v>
       </c>
       <c r="V65" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>0.26143</v>
       </c>
       <c r="W65" s="13">
-        <f t="shared" ref="W65:X65" si="51">(W21*$B$90)+$B$89</f>
+        <f t="shared" ref="W65:X65" si="68">(W21*$B$90)+$B$89</f>
         <v>0.34486600000000006</v>
       </c>
       <c r="X65" s="13">
-        <f t="shared" si="51"/>
+        <f t="shared" si="68"/>
         <v>0.27860800000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65" s="13">
+        <f t="shared" ref="Y65:Z65" si="69">(Y21*$B$90)+$B$89</f>
+        <v>0.32768800000000003</v>
+      </c>
+      <c r="Z65" s="13">
+        <f t="shared" si="69"/>
+        <v>0.32523400000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="s">
         <v>26</v>
       </c>
@@ -5945,85 +6094,93 @@
         <v>0.27190399999999992</v>
       </c>
       <c r="D66" s="13">
-        <f t="shared" ref="D66:V66" si="52">(D22*$C$90)+$C$89</f>
+        <f t="shared" ref="D66:V66" si="70">(D22*$C$90)+$C$89</f>
         <v>0.20913799999999996</v>
       </c>
       <c r="E66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="F66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.38317099999999993</v>
       </c>
       <c r="G66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="H66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.20343199999999997</v>
       </c>
       <c r="I66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.36034699999999997</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.39458299999999991</v>
       </c>
       <c r="K66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="L66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.36319999999999997</v>
       </c>
       <c r="M66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="N66" s="13"/>
       <c r="O66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.12640099999999996</v>
       </c>
       <c r="P66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.10928300000000005</v>
       </c>
       <c r="Q66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>7.5047000000000003E-2</v>
       </c>
       <c r="R66" s="13"/>
       <c r="S66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>6.6487999999999964E-2</v>
       </c>
       <c r="T66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.13781299999999999</v>
       </c>
       <c r="U66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.18916699999999995</v>
       </c>
       <c r="V66" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="70"/>
         <v>0.22910899999999998</v>
       </c>
       <c r="W66" s="13">
-        <f t="shared" ref="W66:X66" si="53">(W22*$C$90)+$C$89</f>
+        <f t="shared" ref="W66:X66" si="71">(W22*$C$90)+$C$89</f>
         <v>0.36319999999999997</v>
       </c>
       <c r="X66" s="13">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>0.30043399999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66" s="13">
+        <f t="shared" ref="Y66:Z66" si="72">(Y22*$C$90)+$C$89</f>
+        <v>0.346082</v>
+      </c>
+      <c r="Z66" s="13">
+        <f t="shared" si="72"/>
+        <v>0.346082</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>27</v>
       </c>
@@ -6035,85 +6192,93 @@
         <v>0.19762600000000002</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ref="D67:V67" si="54">(D23*$B$90)+$B$89</f>
+        <f t="shared" ref="D67:V67" si="73">(D23*$B$90)+$B$89</f>
         <v>0.11419</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.30560199999999998</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.35959000000000008</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.26879200000000003</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.18044800000000005</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.33995800000000004</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.36940600000000001</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.26143</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.34732000000000002</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.24915999999999999</v>
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>8.9649999999999994E-2</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.14854600000000001</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>6.5110000000000015E-2</v>
       </c>
       <c r="R67" s="5"/>
       <c r="S67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>8.4741999999999998E-2</v>
       </c>
       <c r="T67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.27860800000000002</v>
       </c>
       <c r="U67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.25406800000000002</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>0.27860800000000002</v>
       </c>
       <c r="W67" s="5">
-        <f t="shared" ref="W67:X67" si="55">(W23*$B$90)+$B$89</f>
+        <f t="shared" ref="W67:X67" si="74">(W23*$B$90)+$B$89</f>
         <v>0.34977400000000003</v>
       </c>
       <c r="X67" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>0.2737</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67" s="5">
+        <f t="shared" ref="Y67:Z67" si="75">(Y23*$B$90)+$B$89</f>
+        <v>0.33505000000000001</v>
+      </c>
+      <c r="Z67" s="5">
+        <f t="shared" si="75"/>
+        <v>0.32768800000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>27</v>
       </c>
@@ -6125,85 +6290,93 @@
         <v>0.25193300000000007</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" ref="D68:V68" si="56">(D24*$C$90)+$C$89</f>
+        <f t="shared" ref="D68:V68" si="76">(D24*$C$90)+$C$89</f>
         <v>0.132107</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.38602400000000003</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.217697</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.36605299999999996</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.38317099999999993</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.35749399999999998</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>7.5047000000000003E-2</v>
       </c>
       <c r="P68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>9.2165000000000025E-2</v>
       </c>
       <c r="Q68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>6.3634999999999969E-2</v>
       </c>
       <c r="R68" s="5"/>
       <c r="S68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>5.2222999999999992E-2</v>
       </c>
       <c r="T68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="U68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="V68" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="76"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="W68" s="5">
-        <f t="shared" ref="W68:X68" si="57">(W24*$C$90)+$C$89</f>
+        <f t="shared" ref="W68:X68" si="77">(W24*$C$90)+$C$89</f>
         <v>0.35749399999999998</v>
       </c>
       <c r="X68" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v>0.29758099999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68" s="5">
+        <f t="shared" ref="Y68:Z68" si="78">(Y24*$C$90)+$C$89</f>
+        <v>0.36034699999999997</v>
+      </c>
+      <c r="Z68" s="5">
+        <f t="shared" si="78"/>
+        <v>0.35178799999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="52" t="s">
         <v>28</v>
       </c>
@@ -6215,85 +6388,93 @@
         <v>0.32278000000000001</v>
       </c>
       <c r="D69" s="69">
-        <f t="shared" ref="D69:V69" si="58">(D25*$B$90)+$B$89</f>
+        <f t="shared" ref="D69:V69" si="79">(D25*$B$90)+$B$89</f>
         <v>0.29333200000000004</v>
       </c>
       <c r="E69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.35222800000000004</v>
       </c>
       <c r="F69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="G69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="H69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.28842400000000001</v>
       </c>
       <c r="I69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.35468200000000005</v>
       </c>
       <c r="J69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.38658400000000004</v>
       </c>
       <c r="K69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.32523400000000002</v>
       </c>
       <c r="L69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.36449800000000004</v>
       </c>
       <c r="M69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.308056</v>
       </c>
       <c r="N69" s="69"/>
       <c r="O69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.19517200000000001</v>
       </c>
       <c r="P69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.23443600000000003</v>
       </c>
       <c r="Q69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.192718</v>
       </c>
       <c r="R69" s="69"/>
       <c r="S69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.20989600000000003</v>
       </c>
       <c r="T69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.34732000000000002</v>
       </c>
       <c r="U69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.33014200000000005</v>
       </c>
       <c r="V69" s="69">
-        <f t="shared" si="58"/>
+        <f t="shared" si="79"/>
         <v>0.34486600000000006</v>
       </c>
       <c r="W69" s="69">
-        <f t="shared" ref="W69:X69" si="59">(W25*$B$90)+$B$89</f>
+        <f t="shared" ref="W69:X69" si="80">(W25*$B$90)+$B$89</f>
         <v>0.36449800000000004</v>
       </c>
       <c r="X69" s="69">
-        <f t="shared" si="59"/>
+        <f t="shared" si="80"/>
         <v>0.35468200000000005</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69" s="69">
+        <f t="shared" ref="Y69:Z69" si="81">(Y25*$B$90)+$B$89</f>
+        <v>0.36940600000000001</v>
+      </c>
+      <c r="Z69" s="69">
+        <f t="shared" si="81"/>
+        <v>0.37186000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="52" t="s">
         <v>28</v>
       </c>
@@ -6305,85 +6486,93 @@
         <v>0.32611100000000004</v>
       </c>
       <c r="D70" s="69">
-        <f t="shared" ref="D70:V72" si="60">(D26*$C$90)+$C$89</f>
+        <f t="shared" ref="D70:V72" si="82">(D26*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="E70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="F70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="G70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="H70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="I70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="J70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="K70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="L70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="M70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N70" s="69"/>
       <c r="O70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.22625599999999998</v>
       </c>
       <c r="P70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.20628499999999997</v>
       </c>
       <c r="Q70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="R70" s="69"/>
       <c r="S70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.20343199999999997</v>
       </c>
       <c r="T70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="U70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="V70" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="W70" s="69">
-        <f t="shared" ref="W70:X70" si="61">(W26*$C$90)+$C$89</f>
+        <f t="shared" ref="W70:X70" si="83">(W26*$C$90)+$C$89</f>
         <v>0.32896399999999992</v>
       </c>
       <c r="X70" s="69">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>0.32040499999999994</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70" s="69">
+        <f t="shared" ref="Y70:Z70" si="84">(Y26*$C$90)+$C$89</f>
+        <v>0.33466999999999991</v>
+      </c>
+      <c r="Z70" s="69">
+        <f t="shared" si="84"/>
+        <v>0.33181699999999992</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
         <v>28</v>
       </c>
@@ -6391,89 +6580,97 @@
         <v>50</v>
       </c>
       <c r="C71" s="69">
-        <f t="shared" ref="C71:Q72" si="62">(C27*$C$90)+$C$89</f>
+        <f t="shared" ref="C71:Q72" si="85">(C27*$C$90)+$C$89</f>
         <v>0.31184599999999996</v>
       </c>
       <c r="D71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="E71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="F71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="G71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="H71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="I71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="J71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="K71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="L71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="M71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="N71" s="69"/>
       <c r="O71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="P71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.22340299999999999</v>
       </c>
       <c r="Q71" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="R71" s="69"/>
       <c r="S71" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="T71" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.24052100000000001</v>
       </c>
       <c r="U71" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.246227</v>
       </c>
       <c r="V71" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="W71" s="69">
-        <f t="shared" ref="W71:X71" si="63">(W27*$C$90)+$C$89</f>
+        <f t="shared" ref="W71:X71" si="86">(W27*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="X71" s="69">
-        <f t="shared" si="63"/>
+        <f t="shared" si="86"/>
         <v>0.30328699999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71" s="69">
+        <f t="shared" ref="Y71:Z71" si="87">(Y27*$C$90)+$C$89</f>
+        <v>0.35178799999999999</v>
+      </c>
+      <c r="Z71" s="69">
+        <f t="shared" si="87"/>
+        <v>0.31755199999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
         <v>28</v>
       </c>
@@ -6481,89 +6678,97 @@
         <v>70</v>
       </c>
       <c r="C72" s="69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="D72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="E72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="F72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="G72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="I72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="J72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="K72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="L72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="M72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N72" s="69"/>
       <c r="O72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="P72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="Q72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="R72" s="69"/>
       <c r="S72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.23481500000000002</v>
       </c>
       <c r="T72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="U72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.246227</v>
       </c>
       <c r="V72" s="69">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>0.24908</v>
       </c>
       <c r="W72" s="69">
-        <f t="shared" ref="W72:X72" si="64">(W28*$C$90)+$C$89</f>
+        <f t="shared" ref="W72:X72" si="88">(W28*$C$90)+$C$89</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="X72" s="69">
-        <f t="shared" si="64"/>
+        <f t="shared" si="88"/>
         <v>0.30899299999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72" s="69">
+        <f t="shared" ref="Y72:Z72" si="89">(Y28*$C$90)+$C$89</f>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="Z72" s="69">
+        <f t="shared" si="89"/>
+        <v>0.31184599999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="56" t="s">
         <v>29</v>
       </c>
@@ -6575,85 +6780,93 @@
         <v>0.31787199999999999</v>
       </c>
       <c r="D73" s="10">
-        <f t="shared" ref="D73:V73" si="65">(D29*$B$90)+$B$89</f>
+        <f t="shared" ref="D73:V73" si="90">(D29*$B$90)+$B$89</f>
         <v>0.27124600000000004</v>
       </c>
       <c r="E73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.33014200000000005</v>
       </c>
       <c r="F73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.35713600000000006</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.320326</v>
       </c>
       <c r="H73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.24915999999999999</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.33505000000000001</v>
       </c>
       <c r="J73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.37431400000000004</v>
       </c>
       <c r="K73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.31787199999999999</v>
       </c>
       <c r="L73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.34486600000000006</v>
       </c>
       <c r="M73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.30314800000000003</v>
       </c>
       <c r="N73" s="10"/>
       <c r="O73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.204988</v>
       </c>
       <c r="P73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.28597000000000006</v>
       </c>
       <c r="Q73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.19026399999999999</v>
       </c>
       <c r="R73" s="10"/>
       <c r="S73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.204988</v>
       </c>
       <c r="T73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.332596</v>
       </c>
       <c r="U73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.33014200000000005</v>
       </c>
       <c r="V73" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="90"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="W73" s="10">
-        <f t="shared" ref="W73:X73" si="66">(W29*$B$90)+$B$89</f>
+        <f t="shared" ref="W73:X73" si="91">(W29*$B$90)+$B$89</f>
         <v>0.35713600000000006</v>
       </c>
       <c r="X73" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="91"/>
         <v>0.34241200000000005</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73" s="10">
+        <f t="shared" ref="Y73:Z73" si="92">(Y29*$B$90)+$B$89</f>
+        <v>0.35713600000000006</v>
+      </c>
+      <c r="Z73" s="10">
+        <f t="shared" si="92"/>
+        <v>0.366952</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="56" t="s">
         <v>29</v>
       </c>
@@ -6665,85 +6878,93 @@
         <v>0.33181699999999992</v>
       </c>
       <c r="D74" s="10">
-        <f t="shared" ref="D74:V77" si="67">(D30*$C$90)+$C$89</f>
+        <f t="shared" ref="D74:V77" si="93">(D30*$C$90)+$C$89</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="E74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="F74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.346082</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="H74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="J74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="K74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="L74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="M74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N74" s="10"/>
       <c r="O74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.21484400000000001</v>
       </c>
       <c r="P74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="Q74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.19772599999999999</v>
       </c>
       <c r="R74" s="10"/>
       <c r="S74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.20628499999999997</v>
       </c>
       <c r="T74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="U74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="V74" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="W74" s="10">
-        <f t="shared" ref="W74:X74" si="68">(W30*$C$90)+$C$89</f>
+        <f t="shared" ref="W74:X74" si="94">(W30*$C$90)+$C$89</f>
         <v>0.346082</v>
       </c>
       <c r="X74" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="94"/>
         <v>0.32611100000000004</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74" s="10">
+        <f t="shared" ref="Y74:Z74" si="95">(Y30*$C$90)+$C$89</f>
+        <v>0.346082</v>
+      </c>
+      <c r="Z74" s="10">
+        <f t="shared" si="95"/>
+        <v>0.348935</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="56" t="s">
         <v>29</v>
       </c>
@@ -6751,89 +6972,97 @@
         <v>50</v>
       </c>
       <c r="C75" s="10">
-        <f t="shared" ref="C75:Q77" si="69">(C31*$C$90)+$C$89</f>
+        <f t="shared" ref="C75:Q77" si="96">(C31*$C$90)+$C$89</f>
         <v>0.31755199999999995</v>
       </c>
       <c r="D75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="E75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="J75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="M75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="N75" s="10"/>
       <c r="O75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="P75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.246227</v>
       </c>
       <c r="Q75" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.22625599999999998</v>
       </c>
       <c r="R75" s="10"/>
       <c r="S75" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.21484400000000001</v>
       </c>
       <c r="T75" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.246227</v>
       </c>
       <c r="U75" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.246227</v>
       </c>
       <c r="V75" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="W75" s="10">
-        <f t="shared" ref="W75:X75" si="70">(W31*$C$90)+$C$89</f>
+        <f t="shared" ref="W75:X75" si="97">(W31*$C$90)+$C$89</f>
         <v>0.31755199999999995</v>
       </c>
       <c r="X75" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="97"/>
         <v>0.32325800000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75" s="10">
+        <f t="shared" ref="Y75:Z75" si="98">(Y31*$C$90)+$C$89</f>
+        <v>0.32611100000000004</v>
+      </c>
+      <c r="Z75" s="10">
+        <f t="shared" si="98"/>
+        <v>0.32896399999999992</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="56" t="s">
         <v>29</v>
       </c>
@@ -6841,89 +7070,97 @@
         <v>70</v>
       </c>
       <c r="C76" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.289022</v>
       </c>
       <c r="D76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.291875</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.291875</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.291875</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.289022</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="J76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="M76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="N76" s="10"/>
       <c r="O76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.22910899999999998</v>
       </c>
       <c r="Q76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.22055</v>
       </c>
       <c r="R76" s="10"/>
       <c r="S76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="T76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.217697</v>
       </c>
       <c r="U76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.21484400000000001</v>
       </c>
       <c r="V76" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.22055</v>
       </c>
       <c r="W76" s="10">
-        <f t="shared" ref="W76:X76" si="71">(W32*$C$90)+$C$89</f>
+        <f t="shared" ref="W76:X76" si="99">(W32*$C$90)+$C$89</f>
         <v>0.291875</v>
       </c>
       <c r="X76" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>0.29472799999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76" s="10">
+        <f t="shared" ref="Y76:Z76" si="100">(Y32*$C$90)+$C$89</f>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="Z76" s="10">
+        <f t="shared" si="100"/>
+        <v>0.30043399999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="56" t="s">
         <v>29</v>
       </c>
@@ -6931,85 +7168,93 @@
         <v>90</v>
       </c>
       <c r="C77" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="D77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="E77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="F77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="H77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="J77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="K77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="L77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="M77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="N77" s="10"/>
       <c r="O77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="Q77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="R77" s="10"/>
       <c r="S77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.24908</v>
       </c>
       <c r="T77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="U77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="V77" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="93"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="W77" s="10">
-        <f t="shared" ref="W77:X77" si="72">(W33*$C$90)+$C$89</f>
+        <f t="shared" ref="W77:X77" si="101">(W33*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
       <c r="X77" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="101"/>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="Y77" s="10">
+        <f t="shared" ref="Y77:Z77" si="102">(Y33*$C$90)+$C$89</f>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="Z77" s="10">
+        <f t="shared" si="102"/>
         <v>0.30899299999999996</v>
       </c>
     </row>
@@ -7055,7 +7300,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A34:A38 C2:C33 C39:C44 C46:C59 C61:X67 C73:C79 C84:C1048576 D73:X77 D46:M46 O46:Q46 S46:V46 D47:X59" xr:uid="{C7DBAEFF-2D9E-4FD5-9381-A2ED13C25348}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A34:A38 C2:C33 C39:C44 C46:C59 C61:Z67 C73:C79 C84:C1048576 D73:Z77 D46:M46 O46:Q46 S46:V46 D47:Z59" xr:uid="{C7DBAEFF-2D9E-4FD5-9381-A2ED13C25348}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7069,7 +7314,7 @@
   </sheetPr>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -7133,7 +7378,7 @@
       <c r="O1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="88" t="s">
+      <c r="P1" s="77" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7174,10 +7419,10 @@
       <c r="N2" s="79">
         <v>45371</v>
       </c>
-      <c r="O2" s="90">
+      <c r="O2" s="76">
         <v>45412</v>
       </c>
-      <c r="P2" s="89">
+      <c r="P2" s="75">
         <v>45375</v>
       </c>
     </row>

--- a/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
+++ b/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willbro\OSU Soil Physics Dropbox\William Brown Jr\Brown\PhD\Dissertation\NP_Marena_Sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116B38D-A821-42AD-9ACB-6FB7AEDE40BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5E03B-0D88-4397-8788-8CD9A2D09EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E93F8746-9E87-4457-9EA2-96B4DD1F63F6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
   <si>
     <t>Slope (CountRatio)</t>
   </si>
@@ -150,6 +150,18 @@
   <si>
     <t>30772 MARE        30602 STIL</t>
   </si>
+  <si>
+    <t>30773 MARE        30602 STIL</t>
+  </si>
+  <si>
+    <t>30674 MARE        30522 STIL</t>
+  </si>
+  <si>
+    <t>30672 MARE        30301 STIL</t>
+  </si>
+  <si>
+    <t>30774 MARE        30602 STIL</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +205,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -875,7 +893,7 @@
   <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y45" sqref="Y45"/>
+      <selection activeCell="AB78" sqref="AB78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,6 +920,8 @@
     <col min="24" max="24" width="11.7109375" style="1" customWidth="1"/>
     <col min="25" max="25" width="12.28515625" style="1" customWidth="1"/>
     <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="12" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -981,8 +1001,12 @@
       <c r="Z1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
+      <c r="AA1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AC1" s="20"/>
       <c r="AD1" s="20"/>
     </row>
@@ -1063,7 +1087,13 @@
         <v>34</v>
       </c>
       <c r="Z2" s="78">
-        <v>45375</v>
+        <v>45436</v>
+      </c>
+      <c r="AA2" s="78">
+        <v>45453</v>
+      </c>
+      <c r="AB2" s="78">
+        <v>45484</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1145,8 +1175,12 @@
       <c r="Z3" s="29">
         <v>1.9</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
+      <c r="AA3" s="26">
+        <v>1.61</v>
+      </c>
+      <c r="AB3" s="26">
+        <v>1.41</v>
+      </c>
       <c r="AC3" s="30"/>
       <c r="AD3" s="30"/>
     </row>
@@ -1225,8 +1259,12 @@
       <c r="Z4" s="29">
         <v>1.91</v>
       </c>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
+      <c r="AA4" s="26">
+        <v>1.73</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>1.43</v>
+      </c>
       <c r="AC4" s="30"/>
       <c r="AD4" s="30"/>
     </row>
@@ -1305,8 +1343,12 @@
       <c r="Z5" s="29">
         <v>1.79</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
+      <c r="AA5" s="26">
+        <v>1.73</v>
+      </c>
+      <c r="AB5" s="26">
+        <v>1.31</v>
+      </c>
       <c r="AC5" s="30"/>
       <c r="AD5" s="30"/>
     </row>
@@ -1385,8 +1427,12 @@
       <c r="Z6" s="29">
         <v>1.82</v>
       </c>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
+      <c r="AA6" s="26">
+        <v>1.79</v>
+      </c>
+      <c r="AB6" s="26">
+        <v>1.55</v>
+      </c>
       <c r="AC6" s="30"/>
       <c r="AD6" s="30"/>
     </row>
@@ -1465,8 +1511,12 @@
       <c r="Z7" s="33">
         <v>1.8</v>
       </c>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
+      <c r="AA7" s="31">
+        <v>1.45</v>
+      </c>
+      <c r="AB7" s="31">
+        <v>1.33</v>
+      </c>
       <c r="AC7" s="34"/>
       <c r="AD7" s="34"/>
     </row>
@@ -1545,8 +1595,12 @@
       <c r="Z8" s="33">
         <v>1.84</v>
       </c>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
+      <c r="AA8" s="31">
+        <v>1.68</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>1.44</v>
+      </c>
       <c r="AC8" s="34"/>
       <c r="AD8" s="34"/>
     </row>
@@ -1625,8 +1679,12 @@
       <c r="Z9" s="33">
         <v>1.85</v>
       </c>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
+      <c r="AA9" s="31">
+        <v>1.78</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>1.42</v>
+      </c>
       <c r="AC9" s="34"/>
       <c r="AD9" s="34"/>
     </row>
@@ -1705,8 +1763,12 @@
       <c r="Z10" s="33">
         <v>1.88</v>
       </c>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
+      <c r="AA10" s="31">
+        <v>1.85</v>
+      </c>
+      <c r="AB10" s="31">
+        <v>1.64</v>
+      </c>
       <c r="AC10" s="34"/>
       <c r="AD10" s="34"/>
     </row>
@@ -1785,8 +1847,12 @@
       <c r="Z11" s="37">
         <v>2.02</v>
       </c>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
+      <c r="AA11" s="35">
+        <v>1.72</v>
+      </c>
+      <c r="AB11" s="35">
+        <v>1.6</v>
+      </c>
       <c r="AC11" s="39"/>
       <c r="AD11" s="39"/>
     </row>
@@ -1865,8 +1931,12 @@
       <c r="Z12" s="37">
         <v>1.99</v>
       </c>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
+      <c r="AA12" s="35">
+        <v>1.9</v>
+      </c>
+      <c r="AB12" s="35">
+        <v>1.77</v>
+      </c>
       <c r="AC12" s="39"/>
       <c r="AD12" s="39"/>
     </row>
@@ -1945,8 +2015,12 @@
       <c r="Z13" s="37">
         <v>1.92</v>
       </c>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
+      <c r="AA13" s="35">
+        <v>1.89</v>
+      </c>
+      <c r="AB13" s="35">
+        <v>1.8</v>
+      </c>
       <c r="AC13" s="39"/>
       <c r="AD13" s="39"/>
     </row>
@@ -2025,8 +2099,12 @@
       <c r="Z14" s="37">
         <v>1.79</v>
       </c>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
+      <c r="AA14" s="35">
+        <v>1.79</v>
+      </c>
+      <c r="AB14" s="35">
+        <v>1.72</v>
+      </c>
       <c r="AC14" s="39"/>
       <c r="AD14" s="39"/>
     </row>
@@ -2105,8 +2183,12 @@
       <c r="Z15" s="37">
         <v>1.81</v>
       </c>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
+      <c r="AA15" s="35">
+        <v>1.83</v>
+      </c>
+      <c r="AB15" s="35">
+        <v>1.77</v>
+      </c>
       <c r="AC15" s="39"/>
       <c r="AD15" s="39"/>
     </row>
@@ -2185,8 +2267,12 @@
       <c r="Z16" s="42">
         <v>2.09</v>
       </c>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
+      <c r="AA16" s="40">
+        <v>1.85</v>
+      </c>
+      <c r="AB16" s="40">
+        <v>1.64</v>
+      </c>
       <c r="AC16" s="43"/>
       <c r="AD16" s="43"/>
     </row>
@@ -2265,8 +2351,12 @@
       <c r="Z17" s="42">
         <v>2.06</v>
       </c>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
+      <c r="AA17" s="40">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AB17" s="40">
+        <v>1.82</v>
+      </c>
       <c r="AC17" s="43"/>
       <c r="AD17" s="43"/>
     </row>
@@ -2345,8 +2435,12 @@
       <c r="Z18" s="42">
         <v>1.9</v>
       </c>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
+      <c r="AA18" s="40">
+        <v>1.91</v>
+      </c>
+      <c r="AB18" s="40">
+        <v>1.78</v>
+      </c>
       <c r="AC18" s="43"/>
       <c r="AD18" s="43"/>
     </row>
@@ -2425,8 +2519,12 @@
       <c r="Z19" s="42">
         <v>1.77</v>
       </c>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
+      <c r="AA19" s="40">
+        <v>1.76</v>
+      </c>
+      <c r="AB19" s="40">
+        <v>1.74</v>
+      </c>
       <c r="AC19" s="43"/>
       <c r="AD19" s="43"/>
     </row>
@@ -2505,8 +2603,12 @@
       <c r="Z20" s="42">
         <v>1.76</v>
       </c>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
+      <c r="AA20" s="40">
+        <v>1.77</v>
+      </c>
+      <c r="AB20" s="40">
+        <v>1.75</v>
+      </c>
       <c r="AC20" s="43"/>
       <c r="AD20" s="43"/>
     </row>
@@ -2585,8 +2687,12 @@
       <c r="Z21" s="46">
         <v>1.71</v>
       </c>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
+      <c r="AA21" s="44">
+        <v>1.3</v>
+      </c>
+      <c r="AB21" s="44">
+        <v>1.04</v>
+      </c>
       <c r="AC21" s="47"/>
       <c r="AD21" s="47"/>
     </row>
@@ -2665,8 +2771,12 @@
       <c r="Z22" s="46">
         <v>1.94</v>
       </c>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
+      <c r="AA22" s="44">
+        <v>1.57</v>
+      </c>
+      <c r="AB22" s="44">
+        <v>1.17</v>
+      </c>
       <c r="AC22" s="47"/>
       <c r="AD22" s="47"/>
     </row>
@@ -2745,8 +2855,12 @@
       <c r="Z23" s="50">
         <v>1.72</v>
       </c>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
+      <c r="AA23" s="48">
+        <v>1.38</v>
+      </c>
+      <c r="AB23" s="48">
+        <v>1.3</v>
+      </c>
       <c r="AC23" s="51"/>
       <c r="AD23" s="51"/>
     </row>
@@ -2825,8 +2939,12 @@
       <c r="Z24" s="50">
         <v>1.96</v>
       </c>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
+      <c r="AA24" s="48">
+        <v>1.68</v>
+      </c>
+      <c r="AB24" s="48">
+        <v>1.53</v>
+      </c>
       <c r="AC24" s="51"/>
       <c r="AD24" s="51"/>
     </row>
@@ -2905,8 +3023,12 @@
       <c r="Z25" s="54">
         <v>1.9</v>
       </c>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
+      <c r="AA25" s="52">
+        <v>1.7</v>
+      </c>
+      <c r="AB25" s="52">
+        <v>1.46</v>
+      </c>
       <c r="AC25" s="55"/>
       <c r="AD25" s="55"/>
     </row>
@@ -2985,8 +3107,12 @@
       <c r="Z26" s="54">
         <v>1.89</v>
       </c>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
+      <c r="AA26" s="52">
+        <v>1.81</v>
+      </c>
+      <c r="AB26" s="52">
+        <v>1.62</v>
+      </c>
       <c r="AC26" s="55"/>
       <c r="AD26" s="55"/>
     </row>
@@ -3065,8 +3191,12 @@
       <c r="Z27" s="54">
         <v>1.84</v>
       </c>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
+      <c r="AA27" s="52">
+        <v>1.81</v>
+      </c>
+      <c r="AB27" s="52">
+        <v>1.62</v>
+      </c>
       <c r="AC27" s="55"/>
       <c r="AD27" s="55"/>
     </row>
@@ -3145,8 +3275,12 @@
       <c r="Z28" s="54">
         <v>1.82</v>
       </c>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
+      <c r="AA28" s="52">
+        <v>1.82</v>
+      </c>
+      <c r="AB28" s="52">
+        <v>1.67</v>
+      </c>
       <c r="AC28" s="55"/>
       <c r="AD28" s="55"/>
     </row>
@@ -3225,8 +3359,12 @@
       <c r="Z29" s="58">
         <v>1.88</v>
       </c>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
+      <c r="AA29" s="56">
+        <v>1.64</v>
+      </c>
+      <c r="AB29" s="56">
+        <v>1.39</v>
+      </c>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
     </row>
@@ -3305,8 +3443,12 @@
       <c r="Z30" s="58">
         <v>1.95</v>
       </c>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
+      <c r="AA30" s="56">
+        <v>1.82</v>
+      </c>
+      <c r="AB30" s="56">
+        <v>1.57</v>
+      </c>
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
     </row>
@@ -3385,8 +3527,12 @@
       <c r="Z31" s="58">
         <v>1.88</v>
       </c>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
+      <c r="AA31" s="56">
+        <v>1.83</v>
+      </c>
+      <c r="AB31" s="56">
+        <v>1.61</v>
+      </c>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
     </row>
@@ -3465,8 +3611,12 @@
       <c r="Z32" s="58">
         <v>1.78</v>
       </c>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
+      <c r="AA32" s="56">
+        <v>1.75</v>
+      </c>
+      <c r="AB32" s="56">
+        <v>1.6</v>
+      </c>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
     </row>
@@ -3545,8 +3695,12 @@
       <c r="Z33" s="58">
         <v>1.81</v>
       </c>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
+      <c r="AA33" s="56">
+        <v>1.8</v>
+      </c>
+      <c r="AB33" s="56">
+        <v>1.71</v>
+      </c>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
     </row>
@@ -3605,8 +3759,12 @@
       <c r="Z34" s="62">
         <v>1.65</v>
       </c>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
+      <c r="AA34" s="59">
+        <v>1.5</v>
+      </c>
+      <c r="AB34" s="59">
+        <v>1.23</v>
+      </c>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="63"/>
@@ -3667,8 +3825,12 @@
       <c r="Z35" s="62">
         <v>1.73</v>
       </c>
-      <c r="AA35" s="63"/>
-      <c r="AB35" s="63"/>
+      <c r="AA35" s="59">
+        <v>1.65</v>
+      </c>
+      <c r="AB35" s="59">
+        <v>1.39</v>
+      </c>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="63"/>
@@ -3729,8 +3891,12 @@
       <c r="Z36" s="62">
         <v>1.83</v>
       </c>
-      <c r="AA36" s="63"/>
-      <c r="AB36" s="63"/>
+      <c r="AA36" s="59">
+        <v>1.78</v>
+      </c>
+      <c r="AB36" s="59">
+        <v>1.61</v>
+      </c>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="63"/>
@@ -3791,8 +3957,12 @@
       <c r="Z37" s="62">
         <v>1.94</v>
       </c>
-      <c r="AA37" s="63"/>
-      <c r="AB37" s="63"/>
+      <c r="AA37" s="59">
+        <v>1.89</v>
+      </c>
+      <c r="AB37" s="59">
+        <v>1.79</v>
+      </c>
       <c r="AC37" s="63"/>
       <c r="AD37" s="63"/>
       <c r="AE37" s="63"/>
@@ -3853,8 +4023,12 @@
       <c r="Z38" s="62">
         <v>1.99</v>
       </c>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
+      <c r="AA38" s="59">
+        <v>1.95</v>
+      </c>
+      <c r="AB38" s="59">
+        <v>1.91</v>
+      </c>
       <c r="AC38" s="63"/>
       <c r="AD38" s="63"/>
       <c r="AE38" s="63"/>
@@ -3909,8 +4083,12 @@
       <c r="Z39" s="37">
         <v>1.7</v>
       </c>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
+      <c r="AA39" s="35">
+        <v>1.34</v>
+      </c>
+      <c r="AB39" s="35">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="AC39" s="39"/>
       <c r="AD39" s="39"/>
       <c r="AE39" s="39"/>
@@ -3965,8 +4143,12 @@
       <c r="Z40" s="37">
         <v>1.77</v>
       </c>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
+      <c r="AA40" s="35">
+        <v>1.53</v>
+      </c>
+      <c r="AB40" s="35">
+        <v>1.17</v>
+      </c>
       <c r="AC40" s="39"/>
       <c r="AD40" s="39"/>
       <c r="AE40" s="39"/>
@@ -4021,8 +4203,12 @@
       <c r="Z41" s="37">
         <v>1.85</v>
       </c>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
+      <c r="AA41" s="35">
+        <v>1.8</v>
+      </c>
+      <c r="AB41" s="35">
+        <v>1.34</v>
+      </c>
       <c r="AC41" s="39"/>
       <c r="AD41" s="39"/>
       <c r="AE41" s="39"/>
@@ -4077,8 +4263,12 @@
       <c r="Z42" s="37">
         <v>1.92</v>
       </c>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="39"/>
+      <c r="AA42" s="35">
+        <v>1.86</v>
+      </c>
+      <c r="AB42" s="35">
+        <v>1.62</v>
+      </c>
       <c r="AC42" s="39"/>
       <c r="AD42" s="39"/>
       <c r="AE42" s="39"/>
@@ -4133,8 +4323,12 @@
       <c r="Z43" s="37">
         <v>1.95</v>
       </c>
-      <c r="AA43" s="39"/>
-      <c r="AB43" s="39"/>
+      <c r="AA43" s="35">
+        <v>1.97</v>
+      </c>
+      <c r="AB43" s="35">
+        <v>1.79</v>
+      </c>
       <c r="AC43" s="39"/>
       <c r="AD43" s="39"/>
       <c r="AE43" s="39"/>
@@ -4219,6 +4413,12 @@
       <c r="Z46" s="74" t="s">
         <v>32</v>
       </c>
+      <c r="AA46" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB46" s="74" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="66" t="s">
@@ -4317,6 +4517,14 @@
         <f t="shared" si="2"/>
         <v>0.37186000000000002</v>
       </c>
+      <c r="AA47" s="67">
+        <f t="shared" ref="AA47:AB47" si="3">(AA3*$B$90)+$B$89</f>
+        <v>0.30069400000000007</v>
+      </c>
+      <c r="AB47" s="67">
+        <f t="shared" si="3"/>
+        <v>0.251614</v>
+      </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="66" t="s">
@@ -4326,97 +4534,105 @@
         <v>30</v>
       </c>
       <c r="C48" s="67">
-        <f t="shared" ref="C48" si="3">(C4*$C$90)+$C$89</f>
+        <f t="shared" ref="C48" si="4">(C4*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
       <c r="D48" s="67">
-        <f t="shared" ref="D48:V48" si="4">(D4*$C$90)+$C$89</f>
+        <f t="shared" ref="D48:V48" si="5">(D4*$C$90)+$C$89</f>
         <v>0.28616900000000001</v>
       </c>
       <c r="E48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="F48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33752299999999991</v>
       </c>
       <c r="G48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="H48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="I48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23481500000000002</v>
       </c>
       <c r="J48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="K48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="L48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="M48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="N48" s="67"/>
       <c r="O48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17775500000000002</v>
       </c>
       <c r="P48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16919600000000004</v>
       </c>
       <c r="Q48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="R48" s="67"/>
       <c r="S48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15207800000000002</v>
       </c>
       <c r="T48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19772599999999999</v>
       </c>
       <c r="U48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18631399999999995</v>
       </c>
       <c r="V48" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20057899999999998</v>
       </c>
       <c r="W48" s="67">
-        <f t="shared" ref="W48:X48" si="5">(W4*$C$90)+$C$89</f>
+        <f t="shared" ref="W48:X48" si="6">(W4*$C$90)+$C$89</f>
         <v>0.32040499999999994</v>
       </c>
       <c r="X48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="Y48" s="67">
-        <f t="shared" ref="Y48:Z48" si="6">(Y4*$C$90)+$C$89</f>
+        <f t="shared" ref="Y48:Z48" si="7">(Y4*$C$90)+$C$89</f>
         <v>0.32325800000000005</v>
       </c>
       <c r="Z48" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.33752299999999991</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48" s="67">
+        <f t="shared" ref="AA48:AB48" si="8">(AA4*$C$90)+$C$89</f>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="AB48" s="67">
+        <f t="shared" si="8"/>
+        <v>0.20057899999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="66" t="s">
         <v>21</v>
       </c>
@@ -4424,97 +4640,105 @@
         <v>50</v>
       </c>
       <c r="C49" s="67">
-        <f t="shared" ref="C49" si="7">(C5*$C$90)+$C$89</f>
+        <f t="shared" ref="C49" si="9">(C5*$C$90)+$C$89</f>
         <v>0.25478600000000007</v>
       </c>
       <c r="D49" s="67">
-        <f t="shared" ref="D49:V49" si="8">(D5*$C$90)+$C$89</f>
+        <f t="shared" ref="D49:V49" si="10">(D5*$C$90)+$C$89</f>
         <v>0.25478600000000007</v>
       </c>
       <c r="E49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="F49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="G49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="H49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="I49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="J49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="K49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="L49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="M49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.20343199999999997</v>
       </c>
       <c r="N49" s="67"/>
       <c r="O49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14351899999999998</v>
       </c>
       <c r="P49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14066599999999999</v>
       </c>
       <c r="Q49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.132107</v>
       </c>
       <c r="R49" s="67"/>
       <c r="S49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.12354799999999996</v>
       </c>
       <c r="T49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.13781299999999999</v>
       </c>
       <c r="U49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.13781299999999999</v>
       </c>
       <c r="V49" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.13496</v>
       </c>
       <c r="W49" s="67">
-        <f t="shared" ref="W49:X49" si="9">(W5*$C$90)+$C$89</f>
+        <f t="shared" ref="W49:X49" si="11">(W5*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="X49" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="Y49" s="67">
-        <f t="shared" ref="Y49:Z49" si="10">(Y5*$C$90)+$C$89</f>
+        <f t="shared" ref="Y49:Z49" si="12">(Y5*$C$90)+$C$89</f>
         <v>0.29472799999999999</v>
       </c>
       <c r="Z49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.30328699999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA49" s="67">
+        <f t="shared" ref="AA49:AB49" si="13">(AA5*$C$90)+$C$89</f>
+        <v>0.28616900000000001</v>
+      </c>
+      <c r="AB49" s="67">
+        <f t="shared" si="13"/>
+        <v>0.16634299999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="66" t="s">
         <v>21</v>
       </c>
@@ -4522,97 +4746,105 @@
         <v>70</v>
       </c>
       <c r="C50" s="67">
-        <f t="shared" ref="C50" si="11">(C6*$C$90)+$C$89</f>
+        <f t="shared" ref="C50" si="14">(C6*$C$90)+$C$89</f>
         <v>0.23196200000000003</v>
       </c>
       <c r="D50" s="67">
-        <f t="shared" ref="D50:V50" si="12">(D6*$C$90)+$C$89</f>
+        <f t="shared" ref="D50:V50" si="15">(D6*$C$90)+$C$89</f>
         <v>0.23766800000000002</v>
       </c>
       <c r="E50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="F50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="G50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="H50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.291875</v>
       </c>
       <c r="I50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="J50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="K50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="L50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="M50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="N50" s="67"/>
       <c r="O50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.19772599999999999</v>
       </c>
       <c r="P50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.18060800000000002</v>
       </c>
       <c r="Q50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.160637</v>
       </c>
       <c r="R50" s="67"/>
       <c r="S50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.160637</v>
       </c>
       <c r="T50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="U50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="V50" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.160637</v>
       </c>
       <c r="W50" s="67">
-        <f t="shared" ref="W50:X50" si="13">(W6*$C$90)+$C$89</f>
+        <f t="shared" ref="W50:X50" si="16">(W6*$C$90)+$C$89</f>
         <v>0.30328699999999997</v>
       </c>
       <c r="X50" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="Y50" s="67">
-        <f t="shared" ref="Y50:Z50" si="14">(Y6*$C$90)+$C$89</f>
+        <f t="shared" ref="Y50:Z50" si="17">(Y6*$C$90)+$C$89</f>
         <v>0.31184599999999996</v>
       </c>
       <c r="Z50" s="67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.31184599999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA50" s="67">
+        <f t="shared" ref="AA50:AB50" si="18">(AA6*$C$90)+$C$89</f>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="AB50" s="67">
+        <f t="shared" si="18"/>
+        <v>0.23481500000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>23</v>
       </c>
@@ -4620,97 +4852,105 @@
         <v>10</v>
       </c>
       <c r="C51" s="68">
-        <f t="shared" ref="C51" si="15">(C7*$B$90)+$B$89</f>
+        <f t="shared" ref="C51" si="19">(C7*$B$90)+$B$89</f>
         <v>0.29087800000000003</v>
       </c>
       <c r="D51" s="68">
-        <f t="shared" ref="D51:V51" si="16">(D7*$B$90)+$B$89</f>
+        <f t="shared" ref="D51:V51" si="20">(D7*$B$90)+$B$89</f>
         <v>0.23934400000000006</v>
       </c>
       <c r="E51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.32523400000000002</v>
       </c>
       <c r="F51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="G51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.31051000000000001</v>
       </c>
       <c r="H51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.21971200000000002</v>
       </c>
       <c r="I51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.308056</v>
       </c>
       <c r="J51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.366952</v>
       </c>
       <c r="K51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.29824000000000006</v>
       </c>
       <c r="L51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="M51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.26388400000000001</v>
       </c>
       <c r="N51" s="68"/>
       <c r="O51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.16327000000000003</v>
       </c>
       <c r="P51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.22216600000000003</v>
       </c>
       <c r="Q51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.15345400000000003</v>
       </c>
       <c r="R51" s="68"/>
       <c r="S51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.16572400000000004</v>
       </c>
       <c r="T51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.32278000000000001</v>
       </c>
       <c r="U51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.308056</v>
       </c>
       <c r="V51" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.332596</v>
       </c>
       <c r="W51" s="68">
-        <f t="shared" ref="W51:X51" si="17">(W7*$B$90)+$B$89</f>
+        <f t="shared" ref="W51:X51" si="21">(W7*$B$90)+$B$89</f>
         <v>0.35713600000000006</v>
       </c>
       <c r="X51" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.332596</v>
       </c>
       <c r="Y51" s="68">
-        <f t="shared" ref="Y51:Z51" si="18">(Y7*$B$90)+$B$89</f>
+        <f t="shared" ref="Y51:Z51" si="22">(Y7*$B$90)+$B$89</f>
         <v>0.34732000000000002</v>
       </c>
       <c r="Z51" s="68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.34732000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA51" s="68">
+        <f t="shared" ref="AA51:AB51" si="23">(AA7*$B$90)+$B$89</f>
+        <v>0.26143</v>
+      </c>
+      <c r="AB51" s="68">
+        <f t="shared" si="23"/>
+        <v>0.23198200000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>23</v>
       </c>
@@ -4718,97 +4958,105 @@
         <v>30</v>
       </c>
       <c r="C52" s="68">
-        <f t="shared" ref="C52" si="19">(C8*$C$90)+$C$89</f>
+        <f t="shared" ref="C52" si="24">(C8*$C$90)+$C$89</f>
         <v>0.30613999999999997</v>
       </c>
       <c r="D52" s="68">
-        <f t="shared" ref="D52:V52" si="20">(D8*$C$90)+$C$89</f>
+        <f t="shared" ref="D52:V52" si="25">(D8*$C$90)+$C$89</f>
         <v>0.28331600000000001</v>
       </c>
       <c r="E52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="F52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="G52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="I52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="J52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="K52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="L52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="M52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="N52" s="68"/>
       <c r="O52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17775500000000002</v>
       </c>
       <c r="P52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.16634299999999999</v>
       </c>
       <c r="Q52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.15207800000000002</v>
       </c>
       <c r="R52" s="68"/>
       <c r="S52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.14351899999999998</v>
       </c>
       <c r="T52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.21199100000000001</v>
       </c>
       <c r="U52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.21199100000000001</v>
       </c>
       <c r="V52" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.24908</v>
       </c>
       <c r="W52" s="68">
-        <f t="shared" ref="W52:X52" si="21">(W8*$C$90)+$C$89</f>
+        <f t="shared" ref="W52:X52" si="26">(W8*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="X52" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="Y52" s="68">
-        <f t="shared" ref="Y52:Z52" si="22">(Y8*$C$90)+$C$89</f>
+        <f t="shared" ref="Y52:Z52" si="27">(Y8*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
       <c r="Z52" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.31755199999999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA52" s="68">
+        <f t="shared" ref="AA52:AB52" si="28">(AA8*$C$90)+$C$89</f>
+        <v>0.27190399999999992</v>
+      </c>
+      <c r="AB52" s="68">
+        <f t="shared" si="28"/>
+        <v>0.20343199999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>23</v>
       </c>
@@ -4816,97 +5064,105 @@
         <v>50</v>
       </c>
       <c r="C53" s="68">
-        <f t="shared" ref="C53" si="23">(C9*$C$90)+$C$89</f>
+        <f t="shared" ref="C53" si="29">(C9*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="D53" s="68">
-        <f t="shared" ref="D53:V53" si="24">(D9*$C$90)+$C$89</f>
+        <f t="shared" ref="D53:V53" si="30">(D9*$C$90)+$C$89</f>
         <v>0.291875</v>
       </c>
       <c r="E53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="F53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="G53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="H53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="I53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="J53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="K53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="L53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="M53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="N53" s="68"/>
       <c r="O53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.21199100000000001</v>
       </c>
       <c r="P53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.18346100000000001</v>
       </c>
       <c r="Q53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.15493100000000001</v>
       </c>
       <c r="R53" s="68"/>
       <c r="S53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.160637</v>
       </c>
       <c r="T53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="U53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.15207800000000002</v>
       </c>
       <c r="V53" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="W53" s="68">
-        <f t="shared" ref="W53:X53" si="25">(W9*$C$90)+$C$89</f>
+        <f t="shared" ref="W53:X53" si="31">(W9*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="X53" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="Y53" s="68">
-        <f t="shared" ref="Y53:Z53" si="26">(Y9*$C$90)+$C$89</f>
+        <f t="shared" ref="Y53:Z53" si="32">(Y9*$C$90)+$C$89</f>
         <v>0.30613999999999997</v>
       </c>
       <c r="Z53" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.32040499999999994</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA53" s="68">
+        <f t="shared" ref="AA53:AB53" si="33">(AA9*$C$90)+$C$89</f>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="AB53" s="68">
+        <f t="shared" si="33"/>
+        <v>0.19772599999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
@@ -4914,97 +5170,105 @@
         <v>70</v>
       </c>
       <c r="C54" s="68">
-        <f t="shared" ref="C54" si="27">(C10*$C$90)+$C$89</f>
+        <f t="shared" ref="C54" si="34">(C10*$C$90)+$C$89</f>
         <v>0.29472799999999999</v>
       </c>
       <c r="D54" s="68">
-        <f t="shared" ref="D54:V54" si="28">(D10*$C$90)+$C$89</f>
+        <f t="shared" ref="D54:V54" si="35">(D10*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="E54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="F54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="G54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="H54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="I54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.291875</v>
       </c>
       <c r="J54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="K54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="L54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.291875</v>
       </c>
       <c r="M54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="N54" s="68"/>
       <c r="O54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="P54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.24908</v>
       </c>
       <c r="Q54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.22340299999999999</v>
       </c>
       <c r="R54" s="68"/>
       <c r="S54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.22340299999999999</v>
       </c>
       <c r="T54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="U54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.217697</v>
       </c>
       <c r="V54" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.22055</v>
       </c>
       <c r="W54" s="68">
-        <f t="shared" ref="W54:X54" si="29">(W10*$C$90)+$C$89</f>
+        <f t="shared" ref="W54:X54" si="36">(W10*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="X54" s="68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="Y54" s="68">
-        <f t="shared" ref="Y54:Z54" si="30">(Y10*$C$90)+$C$89</f>
+        <f t="shared" ref="Y54:Z54" si="37">(Y10*$C$90)+$C$89</f>
         <v>0.32325800000000005</v>
       </c>
       <c r="Z54" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.32896399999999992</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA54" s="68">
+        <f t="shared" ref="AA54:AB54" si="38">(AA10*$C$90)+$C$89</f>
+        <v>0.32040499999999994</v>
+      </c>
+      <c r="AB54" s="68">
+        <f t="shared" si="38"/>
+        <v>0.26049199999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
         <v>24</v>
       </c>
@@ -5012,97 +5276,105 @@
         <v>10</v>
       </c>
       <c r="C55" s="70">
-        <f t="shared" ref="C55" si="31">(C11*$B$90)+$B$89</f>
+        <f t="shared" ref="C55" si="39">(C11*$B$90)+$B$89</f>
         <v>0.35468200000000005</v>
       </c>
       <c r="D55" s="70">
-        <f t="shared" ref="D55:V55" si="32">(D11*$B$90)+$B$89</f>
+        <f t="shared" ref="D55:V55" si="40">(D11*$B$90)+$B$89</f>
         <v>0.31787199999999999</v>
       </c>
       <c r="E55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.38413000000000003</v>
       </c>
       <c r="F55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.39885399999999999</v>
       </c>
       <c r="G55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="H55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.31051000000000001</v>
       </c>
       <c r="I55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.38658400000000004</v>
       </c>
       <c r="J55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.41848599999999997</v>
       </c>
       <c r="K55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.35468200000000005</v>
       </c>
       <c r="L55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.39394600000000002</v>
       </c>
       <c r="M55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.32768800000000003</v>
       </c>
       <c r="N55" s="70"/>
       <c r="O55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.25406800000000002</v>
       </c>
       <c r="P55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.28106200000000003</v>
       </c>
       <c r="Q55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.23934400000000006</v>
       </c>
       <c r="R55" s="70"/>
       <c r="S55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.24670599999999998</v>
       </c>
       <c r="T55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.366952</v>
       </c>
       <c r="U55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.34732000000000002</v>
       </c>
       <c r="V55" s="70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="W55" s="70">
-        <f t="shared" ref="W55:X55" si="33">(W11*$B$90)+$B$89</f>
+        <f t="shared" ref="W55:X55" si="41">(W11*$B$90)+$B$89</f>
         <v>0.40867000000000003</v>
       </c>
       <c r="X55" s="70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>0.38413000000000003</v>
       </c>
       <c r="Y55" s="70">
-        <f t="shared" ref="Y55:Z55" si="34">(Y11*$B$90)+$B$89</f>
+        <f t="shared" ref="Y55:Z55" si="42">(Y11*$B$90)+$B$89</f>
         <v>0.40130800000000005</v>
       </c>
       <c r="Z55" s="70">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>0.40130800000000005</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA55" s="70">
+        <f t="shared" ref="AA55:AB55" si="43">(AA11*$B$90)+$B$89</f>
+        <v>0.32768800000000003</v>
+      </c>
+      <c r="AB55" s="70">
+        <f t="shared" si="43"/>
+        <v>0.29824000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>24</v>
       </c>
@@ -5114,93 +5386,101 @@
         <v>0.36034699999999997</v>
       </c>
       <c r="D56" s="70">
-        <f t="shared" ref="D56:V56" si="35">(D12*$C$90)+$C$89</f>
+        <f t="shared" ref="D56:V56" si="44">(D12*$C$90)+$C$89</f>
         <v>0.348935</v>
       </c>
       <c r="E56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.36034699999999997</v>
       </c>
       <c r="F56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.36605299999999996</v>
       </c>
       <c r="G56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.36319999999999997</v>
       </c>
       <c r="H56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="I56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.348935</v>
       </c>
       <c r="J56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.36034699999999997</v>
       </c>
       <c r="K56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.346082</v>
       </c>
       <c r="L56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="M56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="N56" s="70"/>
       <c r="O56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="P56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="Q56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="R56" s="70"/>
       <c r="S56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.24908</v>
       </c>
       <c r="T56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="U56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="V56" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.289022</v>
       </c>
       <c r="W56" s="70">
-        <f t="shared" ref="W56:X56" si="36">(W12*$C$90)+$C$89</f>
+        <f t="shared" ref="W56:X56" si="45">(W12*$C$90)+$C$89</f>
         <v>0.37746499999999994</v>
       </c>
       <c r="X56" s="70">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0.35464099999999998</v>
       </c>
       <c r="Y56" s="70">
-        <f t="shared" ref="Y56:Z56" si="37">(Y12*$C$90)+$C$89</f>
+        <f t="shared" ref="Y56:Z56" si="46">(Y12*$C$90)+$C$89</f>
         <v>0.36605299999999996</v>
       </c>
       <c r="Z56" s="70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0.36034699999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA56" s="70">
+        <f t="shared" ref="AA56:AB56" si="47">(AA12*$C$90)+$C$89</f>
+        <v>0.33466999999999991</v>
+      </c>
+      <c r="AB56" s="70">
+        <f t="shared" si="47"/>
+        <v>0.29758099999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
         <v>24</v>
       </c>
@@ -5212,93 +5492,101 @@
         <v>0.3432289999999999</v>
       </c>
       <c r="D57" s="70">
-        <f t="shared" ref="D57:V57" si="38">(D13*$C$90)+$C$89</f>
+        <f t="shared" ref="D57:V57" si="48">(D13*$C$90)+$C$89</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="E57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="F57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="G57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="H57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="I57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="J57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="K57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="L57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="M57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="N57" s="70"/>
       <c r="O57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="P57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="Q57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="R57" s="70"/>
       <c r="S57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="T57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="U57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="V57" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="W57" s="70">
-        <f t="shared" ref="W57:X57" si="39">(W13*$C$90)+$C$89</f>
+        <f t="shared" ref="W57:X57" si="49">(W13*$C$90)+$C$89</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="X57" s="70">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="Y57" s="70">
-        <f t="shared" ref="Y57:Z57" si="40">(Y13*$C$90)+$C$89</f>
+        <f t="shared" ref="Y57:Z57" si="50">(Y13*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="Z57" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>0.3403759999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA57" s="70">
+        <f t="shared" ref="AA57:AB57" si="51">(AA13*$C$90)+$C$89</f>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="AB57" s="70">
+        <f t="shared" si="51"/>
+        <v>0.30613999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>24</v>
       </c>
@@ -5310,93 +5598,101 @@
         <v>0.30613999999999997</v>
       </c>
       <c r="D58" s="70">
-        <f t="shared" ref="D58:V58" si="41">(D14*$C$90)+$C$89</f>
+        <f t="shared" ref="D58:V58" si="52">(D14*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="E58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="F58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="G58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="I58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="J58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="K58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="L58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="M58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.291875</v>
       </c>
       <c r="N58" s="70"/>
       <c r="O58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="P58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="Q58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="R58" s="70"/>
       <c r="S58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="T58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="U58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="V58" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0.246227</v>
       </c>
       <c r="W58" s="70">
-        <f t="shared" ref="W58:X58" si="42">(W14*$C$90)+$C$89</f>
+        <f t="shared" ref="W58:X58" si="53">(W14*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="X58" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="Y58" s="70">
-        <f t="shared" ref="Y58:Z58" si="43">(Y14*$C$90)+$C$89</f>
+        <f t="shared" ref="Y58:Z58" si="54">(Y14*$C$90)+$C$89</f>
         <v>0.30328699999999997</v>
       </c>
       <c r="Z58" s="70">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v>0.30328699999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA58" s="70">
+        <f t="shared" ref="AA58:AB58" si="55">(AA14*$C$90)+$C$89</f>
+        <v>0.30328699999999997</v>
+      </c>
+      <c r="AB58" s="70">
+        <f t="shared" si="55"/>
+        <v>0.28331600000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
         <v>24</v>
       </c>
@@ -5408,93 +5704,101 @@
         <v>0.30613999999999997</v>
       </c>
       <c r="D59" s="70">
-        <f t="shared" ref="D59:V59" si="44">(D15*$C$90)+$C$89</f>
+        <f t="shared" ref="D59:V59" si="56">(D15*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="E59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="F59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="G59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="H59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="I59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="J59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="K59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="L59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="M59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="N59" s="70"/>
       <c r="O59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="P59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.289022</v>
       </c>
       <c r="Q59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="R59" s="70"/>
       <c r="S59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="T59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="U59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="V59" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="W59" s="70">
-        <f t="shared" ref="W59:X59" si="45">(W15*$C$90)+$C$89</f>
+        <f t="shared" ref="W59:X59" si="57">(W15*$C$90)+$C$89</f>
         <v>0.27475700000000003</v>
       </c>
       <c r="X59" s="70">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="Y59" s="70">
-        <f t="shared" ref="Y59:Z59" si="46">(Y15*$C$90)+$C$89</f>
+        <f t="shared" ref="Y59:Z59" si="58">(Y15*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
       <c r="Z59" s="70">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>0.30899299999999996</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA59" s="70">
+        <f t="shared" ref="AA59:AB59" si="59">(AA15*$C$90)+$C$89</f>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="AB59" s="70">
+        <f t="shared" si="59"/>
+        <v>0.29758099999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
         <v>25</v>
       </c>
@@ -5502,97 +5806,105 @@
         <v>10</v>
       </c>
       <c r="C60" s="71">
-        <f t="shared" ref="C60" si="47">(C16*$B$90)+$B$89</f>
+        <f t="shared" ref="C60" si="60">(C16*$B$90)+$B$89</f>
         <v>0.36940600000000001</v>
       </c>
       <c r="D60" s="71">
-        <f t="shared" ref="D60:V60" si="48">(D16*$B$90)+$B$89</f>
+        <f t="shared" ref="D60:V60" si="61">(D16*$B$90)+$B$89</f>
         <v>0.32278000000000001</v>
       </c>
       <c r="E60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.40130800000000005</v>
       </c>
       <c r="F60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.41603200000000001</v>
       </c>
       <c r="G60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.379222</v>
       </c>
       <c r="H60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.32768800000000003</v>
       </c>
       <c r="I60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.38658400000000004</v>
       </c>
       <c r="J60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.42094000000000004</v>
       </c>
       <c r="K60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.36940600000000001</v>
       </c>
       <c r="L60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.39149200000000001</v>
       </c>
       <c r="M60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.332596</v>
       </c>
       <c r="N60" s="71"/>
       <c r="O60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.26388400000000001</v>
       </c>
       <c r="P60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.308056</v>
       </c>
       <c r="Q60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.26143</v>
       </c>
       <c r="R60" s="71"/>
       <c r="S60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.26388400000000001</v>
       </c>
       <c r="T60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="U60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.36449800000000004</v>
       </c>
       <c r="V60" s="71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.38167600000000002</v>
       </c>
       <c r="W60" s="71">
-        <f t="shared" ref="W60:X60" si="49">(W16*$B$90)+$B$89</f>
+        <f t="shared" ref="W60:X60" si="62">(W16*$B$90)+$B$89</f>
         <v>0.40130800000000005</v>
       </c>
       <c r="X60" s="71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="62"/>
         <v>0.39640000000000003</v>
       </c>
       <c r="Y60" s="71">
-        <f t="shared" ref="Y60:Z60" si="50">(Y16*$B$90)+$B$89</f>
+        <f t="shared" ref="Y60:Z60" si="63">(Y16*$B$90)+$B$89</f>
         <v>0.40867000000000003</v>
       </c>
       <c r="Z60" s="71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v>0.41848599999999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA60" s="71">
+        <f t="shared" ref="AA60:AB60" si="64">(AA16*$B$90)+$B$89</f>
+        <v>0.35959000000000008</v>
+      </c>
+      <c r="AB60" s="71">
+        <f t="shared" si="64"/>
+        <v>0.308056</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>25</v>
       </c>
@@ -5600,97 +5912,105 @@
         <v>30</v>
       </c>
       <c r="C61" s="71">
-        <f t="shared" ref="C61" si="51">(C17*$C$90)+$C$89</f>
+        <f t="shared" ref="C61" si="65">(C17*$C$90)+$C$89</f>
         <v>0.36890599999999996</v>
       </c>
       <c r="D61" s="71">
-        <f t="shared" ref="D61:V61" si="52">(D17*$C$90)+$C$89</f>
+        <f t="shared" ref="D61:V61" si="66">(D17*$C$90)+$C$89</f>
         <v>0.36034699999999997</v>
       </c>
       <c r="E61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.37461199999999995</v>
       </c>
       <c r="F61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.37746499999999994</v>
       </c>
       <c r="G61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.38317099999999993</v>
       </c>
       <c r="H61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="I61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.36890599999999996</v>
       </c>
       <c r="J61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.38887699999999992</v>
       </c>
       <c r="K61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.36890599999999996</v>
       </c>
       <c r="L61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.37461199999999995</v>
       </c>
       <c r="M61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.35464099999999998</v>
       </c>
       <c r="N61" s="71"/>
       <c r="O61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.291875</v>
       </c>
       <c r="P61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="Q61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="R61" s="71"/>
       <c r="S61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="T61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="U61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="V61" s="71">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="W61" s="71">
-        <f t="shared" ref="W61:X61" si="53">(W17*$C$90)+$C$89</f>
+        <f t="shared" ref="W61:X61" si="67">(W17*$C$90)+$C$89</f>
         <v>0.35749399999999998</v>
       </c>
       <c r="X61" s="71">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.38031799999999993</v>
       </c>
       <c r="Y61" s="71">
-        <f t="shared" ref="Y61:Z61" si="54">(Y17*$C$90)+$C$89</f>
+        <f t="shared" ref="Y61:Z61" si="68">(Y17*$C$90)+$C$89</f>
         <v>0.37746499999999994</v>
       </c>
       <c r="Z61" s="71">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>0.38031799999999993</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA61" s="71">
+        <f t="shared" ref="AA61:AB61" si="69">(AA17*$C$90)+$C$89</f>
+        <v>0.36605299999999996</v>
+      </c>
+      <c r="AB61" s="71">
+        <f t="shared" si="69"/>
+        <v>0.31184599999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>25</v>
       </c>
@@ -5698,97 +6018,105 @@
         <v>50</v>
       </c>
       <c r="C62" s="71">
-        <f t="shared" ref="C62" si="55">(C18*$C$90)+$C$89</f>
+        <f t="shared" ref="C62" si="70">(C18*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="D62" s="71">
-        <f t="shared" ref="D62:V62" si="56">(D18*$C$90)+$C$89</f>
+        <f t="shared" ref="D62:V62" si="71">(D18*$C$90)+$C$89</f>
         <v>0.33752299999999991</v>
       </c>
       <c r="E62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.33752299999999991</v>
       </c>
       <c r="F62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.33752299999999991</v>
       </c>
       <c r="G62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="H62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="I62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="J62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="K62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="L62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="M62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="N62" s="71"/>
       <c r="O62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="P62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="Q62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.26334499999999994</v>
       </c>
       <c r="R62" s="71"/>
       <c r="S62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.24908</v>
       </c>
       <c r="T62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="U62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="V62" s="71">
-        <f t="shared" si="56"/>
+        <f t="shared" si="71"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="W62" s="71">
-        <f t="shared" ref="W62:X62" si="57">(W18*$C$90)+$C$89</f>
+        <f t="shared" ref="W62:X62" si="72">(W18*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="X62" s="71">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.33752299999999991</v>
       </c>
       <c r="Y62" s="71">
-        <f t="shared" ref="Y62:Z62" si="58">(Y18*$C$90)+$C$89</f>
+        <f t="shared" ref="Y62:Z62" si="73">(Y18*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="Z62" s="71">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>0.33466999999999991</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA62" s="71">
+        <f t="shared" ref="AA62:AB62" si="74">(AA18*$C$90)+$C$89</f>
+        <v>0.33752299999999991</v>
+      </c>
+      <c r="AB62" s="71">
+        <f t="shared" si="74"/>
+        <v>0.30043399999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>25</v>
       </c>
@@ -5796,97 +6124,105 @@
         <v>70</v>
       </c>
       <c r="C63" s="71">
-        <f t="shared" ref="C63" si="59">(C19*$C$90)+$C$89</f>
+        <f t="shared" ref="C63" si="75">(C19*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="D63" s="71">
-        <f t="shared" ref="D63:V63" si="60">(D19*$C$90)+$C$89</f>
+        <f t="shared" ref="D63:V63" si="76">(D19*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="E63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="F63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="G63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="H63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="I63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="J63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="K63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="L63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="M63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="N63" s="71"/>
       <c r="O63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="P63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.26334499999999994</v>
       </c>
       <c r="Q63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="R63" s="71"/>
       <c r="S63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.246227</v>
       </c>
       <c r="T63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.23481500000000002</v>
       </c>
       <c r="U63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="V63" s="71">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="W63" s="71">
-        <f t="shared" ref="W63:X63" si="61">(W19*$C$90)+$C$89</f>
+        <f t="shared" ref="W63:X63" si="77">(W19*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="X63" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="77"/>
         <v>0.291875</v>
       </c>
       <c r="Y63" s="71">
-        <f t="shared" ref="Y63:Z63" si="62">(Y19*$C$90)+$C$89</f>
+        <f t="shared" ref="Y63:Z63" si="78">(Y19*$C$90)+$C$89</f>
         <v>0.291875</v>
       </c>
       <c r="Z63" s="71">
-        <f t="shared" si="62"/>
+        <f t="shared" si="78"/>
         <v>0.29758099999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA63" s="71">
+        <f t="shared" ref="AA63:AB63" si="79">(AA19*$C$90)+$C$89</f>
+        <v>0.29472799999999999</v>
+      </c>
+      <c r="AB63" s="71">
+        <f t="shared" si="79"/>
+        <v>0.289022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
         <v>25</v>
       </c>
@@ -5894,97 +6230,105 @@
         <v>90</v>
       </c>
       <c r="C64" s="71">
-        <f t="shared" ref="C64" si="63">(C20*$C$90)+$C$89</f>
+        <f t="shared" ref="C64" si="80">(C20*$C$90)+$C$89</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="D64" s="71">
-        <f t="shared" ref="D64:V64" si="64">(D20*$C$90)+$C$89</f>
+        <f t="shared" ref="D64:V64" si="81">(D20*$C$90)+$C$89</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="E64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="F64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.291875</v>
       </c>
       <c r="G64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="H64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="I64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="J64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="K64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="L64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="M64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="N64" s="71"/>
       <c r="O64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="P64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="Q64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.289022</v>
       </c>
       <c r="R64" s="71"/>
       <c r="S64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="T64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="U64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="V64" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="W64" s="71">
-        <f t="shared" ref="W64:X64" si="65">(W20*$C$90)+$C$89</f>
+        <f t="shared" ref="W64:X64" si="82">(W20*$C$90)+$C$89</f>
         <v>0.28616900000000001</v>
       </c>
       <c r="X64" s="71">
-        <f t="shared" si="65"/>
+        <f t="shared" si="82"/>
         <v>0.291875</v>
       </c>
       <c r="Y64" s="71">
-        <f t="shared" ref="Y64:Z64" si="66">(Y20*$C$90)+$C$89</f>
+        <f t="shared" ref="Y64:Z64" si="83">(Y20*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="Z64" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>0.29472799999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA64" s="71">
+        <f t="shared" ref="AA64:AB64" si="84">(AA20*$C$90)+$C$89</f>
+        <v>0.29758099999999998</v>
+      </c>
+      <c r="AB64" s="71">
+        <f t="shared" si="84"/>
+        <v>0.291875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
         <v>26</v>
       </c>
@@ -5996,93 +6340,101 @@
         <v>0.21725800000000001</v>
       </c>
       <c r="D65" s="13">
-        <f t="shared" ref="D65:V65" si="67">(D21*$B$90)+$B$89</f>
+        <f t="shared" ref="D65:V65" si="85">(D21*$B$90)+$B$89</f>
         <v>0.15590800000000005</v>
       </c>
       <c r="E65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.29333200000000004</v>
       </c>
       <c r="F65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.35222800000000004</v>
       </c>
       <c r="G65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.27615400000000001</v>
       </c>
       <c r="H65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.18535600000000002</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.33750400000000003</v>
       </c>
       <c r="J65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.36940600000000001</v>
       </c>
       <c r="K65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.26143</v>
       </c>
       <c r="L65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.33750400000000003</v>
       </c>
       <c r="M65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.26879200000000003</v>
       </c>
       <c r="N65" s="13"/>
       <c r="O65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.11173599999999999</v>
       </c>
       <c r="P65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.17799400000000004</v>
       </c>
       <c r="Q65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>7.737999999999999E-2</v>
       </c>
       <c r="R65" s="13"/>
       <c r="S65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>8.9649999999999994E-2</v>
       </c>
       <c r="T65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.25652200000000003</v>
       </c>
       <c r="U65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.23689000000000004</v>
       </c>
       <c r="V65" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="85"/>
         <v>0.26143</v>
       </c>
       <c r="W65" s="13">
-        <f t="shared" ref="W65:X65" si="68">(W21*$B$90)+$B$89</f>
+        <f t="shared" ref="W65:X65" si="86">(W21*$B$90)+$B$89</f>
         <v>0.34486600000000006</v>
       </c>
       <c r="X65" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="86"/>
         <v>0.27860800000000002</v>
       </c>
       <c r="Y65" s="13">
-        <f t="shared" ref="Y65:Z65" si="69">(Y21*$B$90)+$B$89</f>
+        <f t="shared" ref="Y65:Z65" si="87">(Y21*$B$90)+$B$89</f>
         <v>0.32768800000000003</v>
       </c>
       <c r="Z65" s="13">
-        <f t="shared" si="69"/>
+        <f t="shared" si="87"/>
         <v>0.32523400000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA65" s="13">
+        <f t="shared" ref="AA65:AB65" si="88">(AA21*$B$90)+$B$89</f>
+        <v>0.22462000000000004</v>
+      </c>
+      <c r="AB65" s="13">
+        <f t="shared" si="88"/>
+        <v>0.16081600000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="s">
         <v>26</v>
       </c>
@@ -6094,93 +6446,101 @@
         <v>0.27190399999999992</v>
       </c>
       <c r="D66" s="13">
-        <f t="shared" ref="D66:V66" si="70">(D22*$C$90)+$C$89</f>
+        <f t="shared" ref="D66:V66" si="89">(D22*$C$90)+$C$89</f>
         <v>0.20913799999999996</v>
       </c>
       <c r="E66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="F66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.38317099999999993</v>
       </c>
       <c r="G66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="H66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.20343199999999997</v>
       </c>
       <c r="I66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.36034699999999997</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.39458299999999991</v>
       </c>
       <c r="K66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="L66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.36319999999999997</v>
       </c>
       <c r="M66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="N66" s="13"/>
       <c r="O66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.12640099999999996</v>
       </c>
       <c r="P66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.10928300000000005</v>
       </c>
       <c r="Q66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>7.5047000000000003E-2</v>
       </c>
       <c r="R66" s="13"/>
       <c r="S66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>6.6487999999999964E-2</v>
       </c>
       <c r="T66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.13781299999999999</v>
       </c>
       <c r="U66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.18916699999999995</v>
       </c>
       <c r="V66" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="89"/>
         <v>0.22910899999999998</v>
       </c>
       <c r="W66" s="13">
-        <f t="shared" ref="W66:X66" si="71">(W22*$C$90)+$C$89</f>
+        <f t="shared" ref="W66:X66" si="90">(W22*$C$90)+$C$89</f>
         <v>0.36319999999999997</v>
       </c>
       <c r="X66" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="90"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="Y66" s="13">
-        <f t="shared" ref="Y66:Z66" si="72">(Y22*$C$90)+$C$89</f>
+        <f t="shared" ref="Y66:Z66" si="91">(Y22*$C$90)+$C$89</f>
         <v>0.346082</v>
       </c>
       <c r="Z66" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="91"/>
         <v>0.346082</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA66" s="13">
+        <f t="shared" ref="AA66:AB66" si="92">(AA22*$C$90)+$C$89</f>
+        <v>0.24052100000000001</v>
+      </c>
+      <c r="AB66" s="13">
+        <f t="shared" si="92"/>
+        <v>0.12640099999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>27</v>
       </c>
@@ -6192,93 +6552,101 @@
         <v>0.19762600000000002</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ref="D67:V67" si="73">(D23*$B$90)+$B$89</f>
+        <f t="shared" ref="D67:V67" si="93">(D23*$B$90)+$B$89</f>
         <v>0.11419</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.30560199999999998</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.35959000000000008</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.26879200000000003</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.18044800000000005</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.33995800000000004</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.36940600000000001</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.26143</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.34732000000000002</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.24915999999999999</v>
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>8.9649999999999994E-2</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.14854600000000001</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>6.5110000000000015E-2</v>
       </c>
       <c r="R67" s="5"/>
       <c r="S67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>8.4741999999999998E-2</v>
       </c>
       <c r="T67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.27860800000000002</v>
       </c>
       <c r="U67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.25406800000000002</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>0.27860800000000002</v>
       </c>
       <c r="W67" s="5">
-        <f t="shared" ref="W67:X67" si="74">(W23*$B$90)+$B$89</f>
+        <f t="shared" ref="W67:X67" si="94">(W23*$B$90)+$B$89</f>
         <v>0.34977400000000003</v>
       </c>
       <c r="X67" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="94"/>
         <v>0.2737</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" ref="Y67:Z67" si="75">(Y23*$B$90)+$B$89</f>
+        <f t="shared" ref="Y67:Z67" si="95">(Y23*$B$90)+$B$89</f>
         <v>0.33505000000000001</v>
       </c>
       <c r="Z67" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="95"/>
         <v>0.32768800000000003</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA67" s="5">
+        <f t="shared" ref="AA67:AB67" si="96">(AA23*$B$90)+$B$89</f>
+        <v>0.24425200000000002</v>
+      </c>
+      <c r="AB67" s="5">
+        <f t="shared" si="96"/>
+        <v>0.22462000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>27</v>
       </c>
@@ -6290,93 +6658,101 @@
         <v>0.25193300000000007</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" ref="D68:V68" si="76">(D24*$C$90)+$C$89</f>
+        <f t="shared" ref="D68:V68" si="97">(D24*$C$90)+$C$89</f>
         <v>0.132107</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.38602400000000003</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.217697</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.36605299999999996</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.38317099999999993</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.35749399999999998</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>7.5047000000000003E-2</v>
       </c>
       <c r="P68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>9.2165000000000025E-2</v>
       </c>
       <c r="Q68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>6.3634999999999969E-2</v>
       </c>
       <c r="R68" s="5"/>
       <c r="S68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>5.2222999999999992E-2</v>
       </c>
       <c r="T68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="U68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="V68" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="97"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="W68" s="5">
-        <f t="shared" ref="W68:X68" si="77">(W24*$C$90)+$C$89</f>
+        <f t="shared" ref="W68:X68" si="98">(W24*$C$90)+$C$89</f>
         <v>0.35749399999999998</v>
       </c>
       <c r="X68" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="98"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="Y68" s="5">
-        <f t="shared" ref="Y68:Z68" si="78">(Y24*$C$90)+$C$89</f>
+        <f t="shared" ref="Y68:Z68" si="99">(Y24*$C$90)+$C$89</f>
         <v>0.36034699999999997</v>
       </c>
       <c r="Z68" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="99"/>
         <v>0.35178799999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA68" s="5">
+        <f t="shared" ref="AA68:AB68" si="100">(AA24*$C$90)+$C$89</f>
+        <v>0.27190399999999992</v>
+      </c>
+      <c r="AB68" s="5">
+        <f t="shared" si="100"/>
+        <v>0.22910899999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="52" t="s">
         <v>28</v>
       </c>
@@ -6388,93 +6764,101 @@
         <v>0.32278000000000001</v>
       </c>
       <c r="D69" s="69">
-        <f t="shared" ref="D69:V69" si="79">(D25*$B$90)+$B$89</f>
+        <f t="shared" ref="D69:V69" si="101">(D25*$B$90)+$B$89</f>
         <v>0.29333200000000004</v>
       </c>
       <c r="E69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.35222800000000004</v>
       </c>
       <c r="F69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="G69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="H69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.28842400000000001</v>
       </c>
       <c r="I69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.35468200000000005</v>
       </c>
       <c r="J69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.38658400000000004</v>
       </c>
       <c r="K69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.32523400000000002</v>
       </c>
       <c r="L69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.36449800000000004</v>
       </c>
       <c r="M69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.308056</v>
       </c>
       <c r="N69" s="69"/>
       <c r="O69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.19517200000000001</v>
       </c>
       <c r="P69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.23443600000000003</v>
       </c>
       <c r="Q69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.192718</v>
       </c>
       <c r="R69" s="69"/>
       <c r="S69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.20989600000000003</v>
       </c>
       <c r="T69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.34732000000000002</v>
       </c>
       <c r="U69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.33014200000000005</v>
       </c>
       <c r="V69" s="69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="101"/>
         <v>0.34486600000000006</v>
       </c>
       <c r="W69" s="69">
-        <f t="shared" ref="W69:X69" si="80">(W25*$B$90)+$B$89</f>
+        <f t="shared" ref="W69:X69" si="102">(W25*$B$90)+$B$89</f>
         <v>0.36449800000000004</v>
       </c>
       <c r="X69" s="69">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.35468200000000005</v>
       </c>
       <c r="Y69" s="69">
-        <f t="shared" ref="Y69:Z69" si="81">(Y25*$B$90)+$B$89</f>
+        <f t="shared" ref="Y69:Z69" si="103">(Y25*$B$90)+$B$89</f>
         <v>0.36940600000000001</v>
       </c>
       <c r="Z69" s="69">
-        <f t="shared" si="81"/>
+        <f t="shared" si="103"/>
         <v>0.37186000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA69" s="69">
+        <f t="shared" ref="AA69:AB69" si="104">(AA25*$B$90)+$B$89</f>
+        <v>0.32278000000000001</v>
+      </c>
+      <c r="AB69" s="69">
+        <f t="shared" si="104"/>
+        <v>0.26388400000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="52" t="s">
         <v>28</v>
       </c>
@@ -6486,93 +6870,101 @@
         <v>0.32611100000000004</v>
       </c>
       <c r="D70" s="69">
-        <f t="shared" ref="D70:V72" si="82">(D26*$C$90)+$C$89</f>
+        <f t="shared" ref="D70:V72" si="105">(D26*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="E70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="F70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="G70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="H70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="I70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="J70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="K70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="L70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="M70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N70" s="69"/>
       <c r="O70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.22625599999999998</v>
       </c>
       <c r="P70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.20628499999999997</v>
       </c>
       <c r="Q70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="R70" s="69"/>
       <c r="S70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.20343199999999997</v>
       </c>
       <c r="T70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="U70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="V70" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="W70" s="69">
-        <f t="shared" ref="W70:X70" si="83">(W26*$C$90)+$C$89</f>
+        <f t="shared" ref="W70:X70" si="106">(W26*$C$90)+$C$89</f>
         <v>0.32896399999999992</v>
       </c>
       <c r="X70" s="69">
-        <f t="shared" si="83"/>
+        <f t="shared" si="106"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="Y70" s="69">
-        <f t="shared" ref="Y70:Z70" si="84">(Y26*$C$90)+$C$89</f>
+        <f t="shared" ref="Y70:Z70" si="107">(Y26*$C$90)+$C$89</f>
         <v>0.33466999999999991</v>
       </c>
       <c r="Z70" s="69">
-        <f t="shared" si="84"/>
+        <f t="shared" si="107"/>
         <v>0.33181699999999992</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA70" s="69">
+        <f t="shared" ref="AA70:AB70" si="108">(AA26*$C$90)+$C$89</f>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="AB70" s="69">
+        <f t="shared" si="108"/>
+        <v>0.25478600000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
         <v>28</v>
       </c>
@@ -6580,97 +6972,105 @@
         <v>50</v>
       </c>
       <c r="C71" s="69">
-        <f t="shared" ref="C71:Q72" si="85">(C27*$C$90)+$C$89</f>
+        <f t="shared" ref="C71:Q72" si="109">(C27*$C$90)+$C$89</f>
         <v>0.31184599999999996</v>
       </c>
       <c r="D71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="E71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="F71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="G71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="H71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="I71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="J71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="K71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="L71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="M71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="N71" s="69"/>
       <c r="O71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="P71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.22340299999999999</v>
       </c>
       <c r="Q71" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="R71" s="69"/>
       <c r="S71" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="T71" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.24052100000000001</v>
       </c>
       <c r="U71" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.246227</v>
       </c>
       <c r="V71" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="W71" s="69">
-        <f t="shared" ref="W71:X71" si="86">(W27*$C$90)+$C$89</f>
+        <f t="shared" ref="W71:X71" si="110">(W27*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="X71" s="69">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="Y71" s="69">
-        <f t="shared" ref="Y71:Z71" si="87">(Y27*$C$90)+$C$89</f>
+        <f t="shared" ref="Y71:Z71" si="111">(Y27*$C$90)+$C$89</f>
         <v>0.35178799999999999</v>
       </c>
       <c r="Z71" s="69">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>0.31755199999999995</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA71" s="69">
+        <f t="shared" ref="AA71:AB71" si="112">(AA27*$C$90)+$C$89</f>
+        <v>0.30899299999999996</v>
+      </c>
+      <c r="AB71" s="69">
+        <f t="shared" si="112"/>
+        <v>0.25478600000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
         <v>28</v>
       </c>
@@ -6678,97 +7078,105 @@
         <v>70</v>
       </c>
       <c r="C72" s="69">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="D72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="E72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="F72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="G72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="I72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="J72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="K72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="L72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="M72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N72" s="69"/>
       <c r="O72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="P72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="Q72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="R72" s="69"/>
       <c r="S72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.23481500000000002</v>
       </c>
       <c r="T72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="U72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.246227</v>
       </c>
       <c r="V72" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>0.24908</v>
       </c>
       <c r="W72" s="69">
-        <f t="shared" ref="W72:X72" si="88">(W28*$C$90)+$C$89</f>
+        <f t="shared" ref="W72:X72" si="113">(W28*$C$90)+$C$89</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="X72" s="69">
-        <f t="shared" si="88"/>
+        <f t="shared" si="113"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="Y72" s="69">
-        <f t="shared" ref="Y72:Z72" si="89">(Y28*$C$90)+$C$89</f>
+        <f t="shared" ref="Y72:Z72" si="114">(Y28*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="Z72" s="69">
-        <f t="shared" si="89"/>
+        <f t="shared" si="114"/>
         <v>0.31184599999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA72" s="69">
+        <f t="shared" ref="AA72:AB72" si="115">(AA28*$C$90)+$C$89</f>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="AB72" s="69">
+        <f t="shared" si="115"/>
+        <v>0.26905099999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="56" t="s">
         <v>29</v>
       </c>
@@ -6780,93 +7188,101 @@
         <v>0.31787199999999999</v>
       </c>
       <c r="D73" s="10">
-        <f t="shared" ref="D73:V73" si="90">(D29*$B$90)+$B$89</f>
+        <f t="shared" ref="D73:V73" si="116">(D29*$B$90)+$B$89</f>
         <v>0.27124600000000004</v>
       </c>
       <c r="E73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.33014200000000005</v>
       </c>
       <c r="F73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.35713600000000006</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.320326</v>
       </c>
       <c r="H73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.24915999999999999</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.33505000000000001</v>
       </c>
       <c r="J73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.37431400000000004</v>
       </c>
       <c r="K73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.31787199999999999</v>
       </c>
       <c r="L73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.34486600000000006</v>
       </c>
       <c r="M73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.30314800000000003</v>
       </c>
       <c r="N73" s="10"/>
       <c r="O73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.204988</v>
       </c>
       <c r="P73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.28597000000000006</v>
       </c>
       <c r="Q73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.19026399999999999</v>
       </c>
       <c r="R73" s="10"/>
       <c r="S73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.204988</v>
       </c>
       <c r="T73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.332596</v>
       </c>
       <c r="U73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.33014200000000005</v>
       </c>
       <c r="V73" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="116"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="W73" s="10">
-        <f t="shared" ref="W73:X73" si="91">(W29*$B$90)+$B$89</f>
+        <f t="shared" ref="W73:X73" si="117">(W29*$B$90)+$B$89</f>
         <v>0.35713600000000006</v>
       </c>
       <c r="X73" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="117"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="Y73" s="10">
-        <f t="shared" ref="Y73:Z73" si="92">(Y29*$B$90)+$B$89</f>
+        <f t="shared" ref="Y73:Z73" si="118">(Y29*$B$90)+$B$89</f>
         <v>0.35713600000000006</v>
       </c>
       <c r="Z73" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="118"/>
         <v>0.366952</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA73" s="10">
+        <f t="shared" ref="AA73:AB73" si="119">(AA29*$B$90)+$B$89</f>
+        <v>0.308056</v>
+      </c>
+      <c r="AB73" s="10">
+        <f t="shared" si="119"/>
+        <v>0.24670599999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="56" t="s">
         <v>29</v>
       </c>
@@ -6878,93 +7294,101 @@
         <v>0.33181699999999992</v>
       </c>
       <c r="D74" s="10">
-        <f t="shared" ref="D74:V77" si="93">(D30*$C$90)+$C$89</f>
+        <f t="shared" ref="D74:V77" si="120">(D30*$C$90)+$C$89</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="E74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="F74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.346082</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="H74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="J74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="K74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="L74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="M74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N74" s="10"/>
       <c r="O74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.21484400000000001</v>
       </c>
       <c r="P74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="Q74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.19772599999999999</v>
       </c>
       <c r="R74" s="10"/>
       <c r="S74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.20628499999999997</v>
       </c>
       <c r="T74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="U74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="V74" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="W74" s="10">
-        <f t="shared" ref="W74:X74" si="94">(W30*$C$90)+$C$89</f>
+        <f t="shared" ref="W74:X74" si="121">(W30*$C$90)+$C$89</f>
         <v>0.346082</v>
       </c>
       <c r="X74" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="Y74" s="10">
-        <f t="shared" ref="Y74:Z74" si="95">(Y30*$C$90)+$C$89</f>
+        <f t="shared" ref="Y74:Z74" si="122">(Y30*$C$90)+$C$89</f>
         <v>0.346082</v>
       </c>
       <c r="Z74" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="122"/>
         <v>0.348935</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA74" s="10">
+        <f t="shared" ref="AA74:AB74" si="123">(AA30*$C$90)+$C$89</f>
+        <v>0.31184599999999996</v>
+      </c>
+      <c r="AB74" s="10">
+        <f t="shared" si="123"/>
+        <v>0.24052100000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="56" t="s">
         <v>29</v>
       </c>
@@ -6972,97 +7396,105 @@
         <v>50</v>
       </c>
       <c r="C75" s="10">
-        <f t="shared" ref="C75:Q77" si="96">(C31*$C$90)+$C$89</f>
+        <f t="shared" ref="C75:Q77" si="124">(C31*$C$90)+$C$89</f>
         <v>0.31755199999999995</v>
       </c>
       <c r="D75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="E75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="J75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="M75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="N75" s="10"/>
       <c r="O75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="P75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.246227</v>
       </c>
       <c r="Q75" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.22625599999999998</v>
       </c>
       <c r="R75" s="10"/>
       <c r="S75" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.21484400000000001</v>
       </c>
       <c r="T75" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.246227</v>
       </c>
       <c r="U75" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.246227</v>
       </c>
       <c r="V75" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="W75" s="10">
-        <f t="shared" ref="W75:X75" si="97">(W31*$C$90)+$C$89</f>
+        <f t="shared" ref="W75:X75" si="125">(W31*$C$90)+$C$89</f>
         <v>0.31755199999999995</v>
       </c>
       <c r="X75" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="125"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="Y75" s="10">
-        <f t="shared" ref="Y75:Z75" si="98">(Y31*$C$90)+$C$89</f>
+        <f t="shared" ref="Y75:Z75" si="126">(Y31*$C$90)+$C$89</f>
         <v>0.32611100000000004</v>
       </c>
       <c r="Z75" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="126"/>
         <v>0.32896399999999992</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA75" s="10">
+        <f t="shared" ref="AA75:AB75" si="127">(AA31*$C$90)+$C$89</f>
+        <v>0.31469899999999995</v>
+      </c>
+      <c r="AB75" s="10">
+        <f t="shared" si="127"/>
+        <v>0.25193300000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="56" t="s">
         <v>29</v>
       </c>
@@ -7070,97 +7502,105 @@
         <v>70</v>
       </c>
       <c r="C76" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.289022</v>
       </c>
       <c r="D76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.291875</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.291875</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.291875</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.289022</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="J76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="M76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="N76" s="10"/>
       <c r="O76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.22910899999999998</v>
       </c>
       <c r="Q76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.22055</v>
       </c>
       <c r="R76" s="10"/>
       <c r="S76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="T76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.217697</v>
       </c>
       <c r="U76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.21484400000000001</v>
       </c>
       <c r="V76" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.22055</v>
       </c>
       <c r="W76" s="10">
-        <f t="shared" ref="W76:X76" si="99">(W32*$C$90)+$C$89</f>
+        <f t="shared" ref="W76:X76" si="128">(W32*$C$90)+$C$89</f>
         <v>0.291875</v>
       </c>
       <c r="X76" s="10">
-        <f t="shared" si="99"/>
+        <f t="shared" si="128"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="Y76" s="10">
-        <f t="shared" ref="Y76:Z76" si="100">(Y32*$C$90)+$C$89</f>
+        <f t="shared" ref="Y76:Z76" si="129">(Y32*$C$90)+$C$89</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="Z76" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="129"/>
         <v>0.30043399999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA76" s="10">
+        <f t="shared" ref="AA76:AB76" si="130">(AA32*$C$90)+$C$89</f>
+        <v>0.291875</v>
+      </c>
+      <c r="AB76" s="10">
+        <f t="shared" si="130"/>
+        <v>0.24908</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="56" t="s">
         <v>29</v>
       </c>
@@ -7168,94 +7608,102 @@
         <v>90</v>
       </c>
       <c r="C77" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="D77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="E77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="F77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="H77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="J77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="K77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="L77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="M77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="N77" s="10"/>
       <c r="O77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="Q77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="R77" s="10"/>
       <c r="S77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.24908</v>
       </c>
       <c r="T77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="U77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="V77" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="W77" s="10">
-        <f t="shared" ref="W77:X77" si="101">(W33*$C$90)+$C$89</f>
+        <f t="shared" ref="W77:X77" si="131">(W33*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
       <c r="X77" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="131"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="Y77" s="10">
-        <f t="shared" ref="Y77:Z77" si="102">(Y33*$C$90)+$C$89</f>
+        <f t="shared" ref="Y77:Z77" si="132">(Y33*$C$90)+$C$89</f>
         <v>0.30613999999999997</v>
       </c>
       <c r="Z77" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="132"/>
         <v>0.30899299999999996</v>
+      </c>
+      <c r="AA77" s="10">
+        <f t="shared" ref="AA77:AB77" si="133">(AA33*$C$90)+$C$89</f>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="AB77" s="10">
+        <f t="shared" si="133"/>
+        <v>0.28046300000000002</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7299,8 +7747,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A34:A38 C2:C33 C39:C44 C46:C59 C61:Z67 C73:C79 C84:C1048576 D73:Z77 D46:M46 O46:Q46 S46:V46 D47:Z59" xr:uid="{C7DBAEFF-2D9E-4FD5-9381-A2ED13C25348}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A34:A38 C2:C33 C39:C44 C46:C59 C61:AB67 C73:C79 C84:C1048576 D73:AB77 D46:M46 O46:Q46 S46:V46 D47:AB59" xr:uid="{C7DBAEFF-2D9E-4FD5-9381-A2ED13C25348}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7312,10 +7761,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7335,9 +7784,11 @@
     <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="80" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="80" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
         <v>9</v>
       </c>
@@ -7381,8 +7832,14 @@
       <c r="P1" s="77" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
@@ -7423,10 +7880,16 @@
         <v>45412</v>
       </c>
       <c r="P2" s="75">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45436</v>
+      </c>
+      <c r="Q2" s="75">
+        <v>45453</v>
+      </c>
+      <c r="R2" s="75">
+        <v>45484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>7</v>
       </c>
@@ -7473,8 +7936,14 @@
       <c r="P3" s="15">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q3" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="R3" s="15">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="84"/>
       <c r="B4" s="13" t="s">
         <v>5</v>
@@ -7519,8 +7988,14 @@
       <c r="P4" s="15">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q4" s="15">
+        <v>1.65</v>
+      </c>
+      <c r="R4" s="15">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="84"/>
       <c r="B5" s="13" t="s">
         <v>5</v>
@@ -7565,8 +8040,14 @@
       <c r="P5" s="15">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q5" s="15">
+        <v>1.78</v>
+      </c>
+      <c r="R5" s="15">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="13" t="s">
         <v>5</v>
@@ -7611,8 +8092,14 @@
       <c r="P6" s="15">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q6" s="15">
+        <v>1.89</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="13" t="s">
         <v>5</v>
@@ -7657,8 +8144,14 @@
       <c r="P7" s="15">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="15">
+        <v>1.95</v>
+      </c>
+      <c r="R7" s="15">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
         <v>6</v>
       </c>
@@ -7714,11 +8207,19 @@
         <v>0.31051000000000001</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" ref="P8" si="1">(P3*$D$28)+$D$27</f>
+        <f t="shared" ref="P8:R8" si="1">(P3*$D$28)+$D$27</f>
         <v>0.31051000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.2737</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.20744200000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="83"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -7775,8 +8276,16 @@
         <f t="shared" si="4"/>
         <v>0.28616900000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="4">
+        <f t="shared" ref="Q9:R9" si="5">(Q4*$E$28)+$E$27</f>
+        <v>0.26334499999999994</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="5"/>
+        <v>0.18916699999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="83"/>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -7818,23 +8327,31 @@
         <v>0.217697</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ref="M10:N10" si="5">(M5*$E$28)+$E$27</f>
+        <f t="shared" ref="M10:N10" si="6">(M5*$E$28)+$E$27</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.291875</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" ref="O10:P10" si="6">(O5*$E$28)+$E$27</f>
+        <f t="shared" ref="O10:P10" si="7">(O5*$E$28)+$E$27</f>
         <v>0.32325800000000005</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31469899999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="4">
+        <f t="shared" ref="Q10:R10" si="8">(Q5*$E$28)+$E$27</f>
+        <v>0.30043399999999998</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="8"/>
+        <v>0.25193300000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="83"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -7860,39 +8377,47 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4">
-        <f t="shared" ref="I11:L11" si="7">(I6*$E$28)+$E$27</f>
+        <f t="shared" ref="I11:L11" si="9">(I6*$E$28)+$E$27</f>
         <v>0.26619799999999993</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" ref="M11:N11" si="8">(M6*$E$28)+$E$27</f>
+        <f t="shared" ref="M11:N11" si="10">(M6*$E$28)+$E$27</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" ref="O11:P11" si="9">(O6*$E$28)+$E$27</f>
+        <f t="shared" ref="O11:P11" si="11">(O6*$E$28)+$E$27</f>
         <v>0.348935</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.346082</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4">
+        <f t="shared" ref="Q11:R11" si="12">(Q6*$E$28)+$E$27</f>
+        <v>0.33181699999999992</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="12"/>
+        <v>0.30328699999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="83"/>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -7918,39 +8443,47 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
-        <f t="shared" ref="I12:L12" si="10">(I7*$E$28)+$E$27</f>
+        <f t="shared" ref="I12:L12" si="13">(I7*$E$28)+$E$27</f>
         <v>0.289022</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12:N12" si="11">(M7*$E$28)+$E$27</f>
+        <f t="shared" ref="M12:N12" si="14">(M7*$E$28)+$E$27</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.35464099999999998</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" ref="O12:P12" si="12">(O7*$E$28)+$E$27</f>
+        <f t="shared" ref="O12:P12" si="15">(O7*$E$28)+$E$27</f>
         <v>0.36034699999999997</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.36034699999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="4">
+        <f t="shared" ref="Q12:R12" si="16">(Q7*$E$28)+$E$27</f>
+        <v>0.348935</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="16"/>
+        <v>0.33752299999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
         <v>7</v>
       </c>
@@ -7991,8 +8524,14 @@
       <c r="P13" s="16">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="16">
+        <v>1.34</v>
+      </c>
+      <c r="R13" s="16">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="85"/>
       <c r="B14" s="8" t="s">
         <v>10</v>
@@ -8031,8 +8570,14 @@
       <c r="P14" s="16">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="16">
+        <v>1.53</v>
+      </c>
+      <c r="R14" s="16">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="85"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
@@ -8071,8 +8616,14 @@
       <c r="P15" s="16">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="R15" s="16">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="85"/>
       <c r="B16" s="8" t="s">
         <v>10</v>
@@ -8111,8 +8662,14 @@
       <c r="P16" s="16">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="16">
+        <v>1.86</v>
+      </c>
+      <c r="R16" s="16">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="85"/>
       <c r="B17" s="8" t="s">
         <v>10</v>
@@ -8151,8 +8708,14 @@
       <c r="P17" s="16">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="16">
+        <v>1.97</v>
+      </c>
+      <c r="R17" s="16">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="86" t="s">
         <v>6</v>
       </c>
@@ -8167,43 +8730,51 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="17">
-        <f t="shared" ref="H18:M18" si="13">(H13*$D$28)+$D$27</f>
+        <f t="shared" ref="H18:M18" si="17">(H13*$D$28)+$D$27</f>
         <v>0.16081600000000001</v>
       </c>
       <c r="I18" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.16081600000000001</v>
       </c>
       <c r="J18" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.30069400000000007</v>
       </c>
       <c r="K18" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.28351600000000005</v>
       </c>
       <c r="L18" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.30314800000000003</v>
       </c>
       <c r="M18" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.32523400000000002</v>
       </c>
       <c r="N18" s="17">
-        <f t="shared" ref="N18:O18" si="14">(N13*$D$28)+$D$27</f>
+        <f t="shared" ref="N18:O18" si="18">(N13*$D$28)+$D$27</f>
         <v>0.31051000000000001</v>
       </c>
       <c r="O18" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.32768800000000003</v>
       </c>
       <c r="P18" s="17">
-        <f t="shared" ref="P18" si="15">(P13*$D$28)+$D$27</f>
+        <f t="shared" ref="P18:R18" si="19">(P13*$D$28)+$D$27</f>
         <v>0.32278000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="17">
+        <f t="shared" si="19"/>
+        <v>0.23443600000000003</v>
+      </c>
+      <c r="R18" s="17">
+        <f t="shared" si="19"/>
+        <v>0.17799400000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
       <c r="B19" s="11" t="s">
         <v>10</v>
@@ -8216,43 +8787,51 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="17">
-        <f t="shared" ref="H19:K22" si="16">(H14*$E$28)+$E$27</f>
+        <f t="shared" ref="H19:K22" si="20">(H14*$E$28)+$E$27</f>
         <v>0.11784199999999997</v>
       </c>
       <c r="I19" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.11498899999999998</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.24052100000000001</v>
       </c>
       <c r="L19" s="17">
-        <f t="shared" ref="L19:M19" si="17">(L14*$E$28)+$E$27</f>
+        <f t="shared" ref="L19:M19" si="21">(L14*$E$28)+$E$27</f>
         <v>0.26334499999999994</v>
       </c>
       <c r="M19" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.291875</v>
       </c>
       <c r="N19" s="17">
-        <f t="shared" ref="N19:O19" si="18">(N14*$E$28)+$E$27</f>
+        <f t="shared" ref="N19:O19" si="22">(N14*$E$28)+$E$27</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="O19" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.289022</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" ref="P19" si="19">(P14*$E$28)+$E$27</f>
+        <f t="shared" ref="P19:R19" si="23">(P14*$E$28)+$E$27</f>
         <v>0.29758099999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="17">
+        <f t="shared" si="23"/>
+        <v>0.22910899999999998</v>
+      </c>
+      <c r="R19" s="17">
+        <f t="shared" si="23"/>
+        <v>0.12640099999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -8265,43 +8844,51 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.16634299999999999</v>
       </c>
       <c r="I20" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.16349</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.22625599999999998</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.23196200000000003</v>
       </c>
       <c r="L20" s="17">
-        <f t="shared" ref="L20:M20" si="20">(L15*$E$28)+$E$27</f>
+        <f t="shared" ref="L20:M20" si="24">(L15*$E$28)+$E$27</f>
         <v>0.246227</v>
       </c>
       <c r="M20" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" ref="N20:O20" si="21">(N15*$E$28)+$E$27</f>
+        <f t="shared" ref="N20:O20" si="25">(N15*$E$28)+$E$27</f>
         <v>0.30328699999999997</v>
       </c>
       <c r="O20" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="P20" s="17">
-        <f t="shared" ref="P20" si="22">(P15*$E$28)+$E$27</f>
+        <f t="shared" ref="P20:R20" si="26">(P15*$E$28)+$E$27</f>
         <v>0.32040499999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="17">
+        <f t="shared" si="26"/>
+        <v>0.30613999999999997</v>
+      </c>
+      <c r="R20" s="17">
+        <f t="shared" si="26"/>
+        <v>0.17490200000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
       <c r="B21" s="11" t="s">
         <v>10</v>
@@ -8314,43 +8901,51 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.246227</v>
       </c>
       <c r="I21" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="J21" s="17">
-        <f t="shared" ref="J21:K21" si="23">(J16*$E$28)+$E$27</f>
+        <f t="shared" ref="J21:K21" si="27">(J16*$E$28)+$E$27</f>
         <v>0.24052100000000001</v>
       </c>
       <c r="K21" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="L21" s="17">
-        <f t="shared" ref="L21:M21" si="24">(L16*$E$28)+$E$27</f>
+        <f t="shared" ref="L21:M21" si="28">(L16*$E$28)+$E$27</f>
         <v>0.246227</v>
       </c>
       <c r="M21" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="N21" s="17">
-        <f t="shared" ref="N21:O21" si="25">(N16*$E$28)+$E$27</f>
+        <f t="shared" ref="N21:O21" si="29">(N16*$E$28)+$E$27</f>
         <v>0.32896399999999992</v>
       </c>
       <c r="O21" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="P21" s="17">
-        <f t="shared" ref="P21" si="26">(P16*$E$28)+$E$27</f>
+        <f t="shared" ref="P21:R21" si="30">(P16*$E$28)+$E$27</f>
         <v>0.3403759999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="17">
+        <f t="shared" si="30"/>
+        <v>0.32325800000000005</v>
+      </c>
+      <c r="R21" s="17">
+        <f t="shared" si="30"/>
+        <v>0.25478600000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
       <c r="B22" s="11" t="s">
         <v>10</v>
@@ -8363,43 +8958,51 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="I22" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="J22" s="17">
-        <f t="shared" ref="J22:K22" si="27">(J17*$E$28)+$E$27</f>
+        <f t="shared" ref="J22:K22" si="31">(J17*$E$28)+$E$27</f>
         <v>0.28331600000000001</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.291875</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" ref="L22:M22" si="28">(L17*$E$28)+$E$27</f>
+        <f t="shared" ref="L22:M22" si="32">(L17*$E$28)+$E$27</f>
         <v>0.13781299999999999</v>
       </c>
       <c r="M22" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="N22" s="17">
-        <f t="shared" ref="N22:O22" si="29">(N17*$E$28)+$E$27</f>
+        <f t="shared" ref="N22:O22" si="33">(N17*$E$28)+$E$27</f>
         <v>0.346082</v>
       </c>
       <c r="O22" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.348935</v>
       </c>
       <c r="P22" s="17">
-        <f t="shared" ref="P22" si="30">(P17*$E$28)+$E$27</f>
+        <f t="shared" ref="P22:R22" si="34">(P17*$E$28)+$E$27</f>
         <v>0.348935</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" s="17">
+        <f t="shared" si="34"/>
+        <v>0.35464099999999998</v>
+      </c>
+      <c r="R22" s="17">
+        <f t="shared" si="34"/>
+        <v>0.30328699999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
@@ -8407,7 +9010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
@@ -8415,7 +9018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
@@ -8426,7 +9029,7 @@
         <v>-0.2074</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
@@ -8445,6 +9048,7 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B3:B12" xr:uid="{F82CBA22-E32B-4601-8617-F18722855524}"/>
   </dataValidations>

--- a/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
+++ b/data/Oklahoma_State_University/MARE_neutron_probe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willbro\OSU Soil Physics Dropbox\William Brown Jr\Brown\PhD\Dissertation\NP_Marena_Sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5E03B-0D88-4397-8788-8CD9A2D09EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7C74DF-1107-44BB-9E4C-9A3237B139B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E93F8746-9E87-4457-9EA2-96B4DD1F63F6}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{E93F8746-9E87-4457-9EA2-96B4DD1F63F6}"/>
   </bookViews>
   <sheets>
     <sheet name="NPmeasurements_2023" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="42">
   <si>
     <t>Slope (CountRatio)</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>30774 MARE        30602 STIL</t>
+  </si>
+  <si>
+    <t>30691 MARE        31659 STIL</t>
   </si>
 </sst>
 </file>
@@ -892,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07D0316-E494-46A6-902F-D47D5FC607C9}">
   <dimension ref="A1:AF90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB78" sqref="AB78"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="AD69" sqref="AD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +925,7 @@
     <col min="26" max="26" width="13.140625" customWidth="1"/>
     <col min="27" max="27" width="12" style="3" customWidth="1"/>
     <col min="28" max="28" width="12.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,7 +1011,9 @@
       <c r="AB1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="20"/>
+      <c r="AC1" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="AD1" s="20"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -1095,6 +1101,9 @@
       <c r="AB2" s="78">
         <v>45484</v>
       </c>
+      <c r="AC2" s="78">
+        <v>45509</v>
+      </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -1181,7 +1190,9 @@
       <c r="AB3" s="26">
         <v>1.41</v>
       </c>
-      <c r="AC3" s="30"/>
+      <c r="AC3" s="29">
+        <v>1.3</v>
+      </c>
       <c r="AD3" s="30"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1265,7 +1276,9 @@
       <c r="AB4" s="26">
         <v>1.43</v>
       </c>
-      <c r="AC4" s="30"/>
+      <c r="AC4" s="29">
+        <v>1.32</v>
+      </c>
       <c r="AD4" s="30"/>
     </row>
     <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1349,7 +1362,9 @@
       <c r="AB5" s="26">
         <v>1.31</v>
       </c>
-      <c r="AC5" s="30"/>
+      <c r="AC5" s="29">
+        <v>1.24</v>
+      </c>
       <c r="AD5" s="30"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1433,7 +1448,9 @@
       <c r="AB6" s="26">
         <v>1.55</v>
       </c>
-      <c r="AC6" s="30"/>
+      <c r="AC6" s="29">
+        <v>1.33</v>
+      </c>
       <c r="AD6" s="30"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1517,7 +1534,9 @@
       <c r="AB7" s="31">
         <v>1.33</v>
       </c>
-      <c r="AC7" s="34"/>
+      <c r="AC7" s="33">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="AD7" s="34"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1601,7 +1620,9 @@
       <c r="AB8" s="31">
         <v>1.44</v>
       </c>
-      <c r="AC8" s="34"/>
+      <c r="AC8" s="33">
+        <v>1.3</v>
+      </c>
       <c r="AD8" s="34"/>
     </row>
     <row r="9" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1685,7 +1706,9 @@
       <c r="AB9" s="31">
         <v>1.42</v>
       </c>
-      <c r="AC9" s="34"/>
+      <c r="AC9" s="33">
+        <v>1.28</v>
+      </c>
       <c r="AD9" s="34"/>
     </row>
     <row r="10" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1769,7 +1792,9 @@
       <c r="AB10" s="31">
         <v>1.64</v>
       </c>
-      <c r="AC10" s="34"/>
+      <c r="AC10" s="33">
+        <v>1.51</v>
+      </c>
       <c r="AD10" s="34"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1853,7 +1878,9 @@
       <c r="AB11" s="35">
         <v>1.6</v>
       </c>
-      <c r="AC11" s="39"/>
+      <c r="AC11" s="37">
+        <v>1.51</v>
+      </c>
       <c r="AD11" s="39"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1937,7 +1964,9 @@
       <c r="AB12" s="35">
         <v>1.77</v>
       </c>
-      <c r="AC12" s="39"/>
+      <c r="AC12" s="37">
+        <v>1.71</v>
+      </c>
       <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2021,7 +2050,9 @@
       <c r="AB13" s="35">
         <v>1.8</v>
       </c>
-      <c r="AC13" s="39"/>
+      <c r="AC13" s="37">
+        <v>1.7</v>
+      </c>
       <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2105,7 +2136,9 @@
       <c r="AB14" s="35">
         <v>1.72</v>
       </c>
-      <c r="AC14" s="39"/>
+      <c r="AC14" s="37">
+        <v>1.66</v>
+      </c>
       <c r="AD14" s="39"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2189,7 +2222,9 @@
       <c r="AB15" s="35">
         <v>1.77</v>
       </c>
-      <c r="AC15" s="39"/>
+      <c r="AC15" s="37">
+        <v>1.72</v>
+      </c>
       <c r="AD15" s="39"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2273,7 +2308,9 @@
       <c r="AB16" s="40">
         <v>1.64</v>
       </c>
-      <c r="AC16" s="43"/>
+      <c r="AC16" s="42">
+        <v>1.56</v>
+      </c>
       <c r="AD16" s="43"/>
     </row>
     <row r="17" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2357,7 +2394,9 @@
       <c r="AB17" s="40">
         <v>1.82</v>
       </c>
-      <c r="AC17" s="43"/>
+      <c r="AC17" s="42">
+        <v>1.77</v>
+      </c>
       <c r="AD17" s="43"/>
     </row>
     <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2441,7 +2480,9 @@
       <c r="AB18" s="40">
         <v>1.78</v>
       </c>
-      <c r="AC18" s="43"/>
+      <c r="AC18" s="42">
+        <v>1.71</v>
+      </c>
       <c r="AD18" s="43"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2525,7 +2566,9 @@
       <c r="AB19" s="40">
         <v>1.74</v>
       </c>
-      <c r="AC19" s="43"/>
+      <c r="AC19" s="42">
+        <v>1.64</v>
+      </c>
       <c r="AD19" s="43"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2609,7 +2652,9 @@
       <c r="AB20" s="40">
         <v>1.75</v>
       </c>
-      <c r="AC20" s="43"/>
+      <c r="AC20" s="42">
+        <v>1.73</v>
+      </c>
       <c r="AD20" s="43"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2693,7 +2738,9 @@
       <c r="AB21" s="44">
         <v>1.04</v>
       </c>
-      <c r="AC21" s="47"/>
+      <c r="AC21" s="46">
+        <v>0.83</v>
+      </c>
       <c r="AD21" s="47"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2777,7 +2824,9 @@
       <c r="AB22" s="44">
         <v>1.17</v>
       </c>
-      <c r="AC22" s="47"/>
+      <c r="AC22" s="46">
+        <v>1.03</v>
+      </c>
       <c r="AD22" s="47"/>
     </row>
     <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2861,7 +2910,9 @@
       <c r="AB23" s="48">
         <v>1.3</v>
       </c>
-      <c r="AC23" s="51"/>
+      <c r="AC23" s="50">
+        <v>0.85</v>
+      </c>
       <c r="AD23" s="51"/>
     </row>
     <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -2945,7 +2996,9 @@
       <c r="AB24" s="48">
         <v>1.53</v>
       </c>
-      <c r="AC24" s="51"/>
+      <c r="AC24" s="50">
+        <v>1.07</v>
+      </c>
       <c r="AD24" s="51"/>
     </row>
     <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -3029,7 +3082,9 @@
       <c r="AB25" s="52">
         <v>1.46</v>
       </c>
-      <c r="AC25" s="55"/>
+      <c r="AC25" s="54">
+        <v>1.35</v>
+      </c>
       <c r="AD25" s="55"/>
     </row>
     <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -3113,7 +3168,9 @@
       <c r="AB26" s="52">
         <v>1.62</v>
       </c>
-      <c r="AC26" s="55"/>
+      <c r="AC26" s="54">
+        <v>1.52</v>
+      </c>
       <c r="AD26" s="55"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -3197,7 +3254,9 @@
       <c r="AB27" s="52">
         <v>1.62</v>
       </c>
-      <c r="AC27" s="55"/>
+      <c r="AC27" s="54">
+        <v>1.52</v>
+      </c>
       <c r="AD27" s="55"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -3281,7 +3340,9 @@
       <c r="AB28" s="52">
         <v>1.67</v>
       </c>
-      <c r="AC28" s="55"/>
+      <c r="AC28" s="54">
+        <v>1.6</v>
+      </c>
       <c r="AD28" s="55"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -3365,7 +3426,9 @@
       <c r="AB29" s="56">
         <v>1.39</v>
       </c>
-      <c r="AC29" s="9"/>
+      <c r="AC29" s="58">
+        <v>1.28</v>
+      </c>
       <c r="AD29" s="9"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -3449,7 +3512,9 @@
       <c r="AB30" s="56">
         <v>1.57</v>
       </c>
-      <c r="AC30" s="9"/>
+      <c r="AC30" s="58">
+        <v>1.46</v>
+      </c>
       <c r="AD30" s="9"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -3533,7 +3598,9 @@
       <c r="AB31" s="56">
         <v>1.61</v>
       </c>
-      <c r="AC31" s="9"/>
+      <c r="AC31" s="58">
+        <v>1.51</v>
+      </c>
       <c r="AD31" s="9"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -3617,7 +3684,9 @@
       <c r="AB32" s="56">
         <v>1.6</v>
       </c>
-      <c r="AC32" s="9"/>
+      <c r="AC32" s="58">
+        <v>1.47</v>
+      </c>
       <c r="AD32" s="9"/>
     </row>
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -3701,7 +3770,9 @@
       <c r="AB33" s="56">
         <v>1.71</v>
       </c>
-      <c r="AC33" s="9"/>
+      <c r="AC33" s="58">
+        <v>1.58</v>
+      </c>
       <c r="AD33" s="9"/>
     </row>
     <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -3765,7 +3836,9 @@
       <c r="AB34" s="59">
         <v>1.23</v>
       </c>
-      <c r="AC34" s="63"/>
+      <c r="AC34" s="62">
+        <v>0.93</v>
+      </c>
       <c r="AD34" s="63"/>
       <c r="AE34" s="63"/>
       <c r="AF34" s="63"/>
@@ -3831,7 +3904,9 @@
       <c r="AB35" s="59">
         <v>1.39</v>
       </c>
-      <c r="AC35" s="63"/>
+      <c r="AC35" s="62">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AD35" s="63"/>
       <c r="AE35" s="63"/>
       <c r="AF35" s="63"/>
@@ -3897,7 +3972,9 @@
       <c r="AB36" s="59">
         <v>1.61</v>
       </c>
-      <c r="AC36" s="63"/>
+      <c r="AC36" s="62">
+        <v>1.37</v>
+      </c>
       <c r="AD36" s="63"/>
       <c r="AE36" s="63"/>
       <c r="AF36" s="63"/>
@@ -3963,7 +4040,9 @@
       <c r="AB37" s="59">
         <v>1.79</v>
       </c>
-      <c r="AC37" s="63"/>
+      <c r="AC37" s="62">
+        <v>1.62</v>
+      </c>
       <c r="AD37" s="63"/>
       <c r="AE37" s="63"/>
       <c r="AF37" s="63"/>
@@ -4029,7 +4108,9 @@
       <c r="AB38" s="59">
         <v>1.91</v>
       </c>
-      <c r="AC38" s="63"/>
+      <c r="AC38" s="62">
+        <v>1.68</v>
+      </c>
       <c r="AD38" s="63"/>
       <c r="AE38" s="63"/>
       <c r="AF38" s="63"/>
@@ -4089,7 +4170,9 @@
       <c r="AB39" s="35">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AC39" s="39"/>
+      <c r="AC39" s="37">
+        <v>1</v>
+      </c>
       <c r="AD39" s="39"/>
       <c r="AE39" s="39"/>
       <c r="AF39" s="39"/>
@@ -4149,7 +4232,9 @@
       <c r="AB40" s="35">
         <v>1.17</v>
       </c>
-      <c r="AC40" s="39"/>
+      <c r="AC40" s="37">
+        <v>1.06</v>
+      </c>
       <c r="AD40" s="39"/>
       <c r="AE40" s="39"/>
       <c r="AF40" s="39"/>
@@ -4209,7 +4294,9 @@
       <c r="AB41" s="35">
         <v>1.34</v>
       </c>
-      <c r="AC41" s="39"/>
+      <c r="AC41" s="37">
+        <v>1.28</v>
+      </c>
       <c r="AD41" s="39"/>
       <c r="AE41" s="39"/>
       <c r="AF41" s="39"/>
@@ -4269,7 +4356,9 @@
       <c r="AB42" s="35">
         <v>1.62</v>
       </c>
-      <c r="AC42" s="39"/>
+      <c r="AC42" s="37">
+        <v>1.5</v>
+      </c>
       <c r="AD42" s="39"/>
       <c r="AE42" s="39"/>
       <c r="AF42" s="39"/>
@@ -4329,7 +4418,9 @@
       <c r="AB43" s="35">
         <v>1.79</v>
       </c>
-      <c r="AC43" s="39"/>
+      <c r="AC43" s="37">
+        <v>1.66</v>
+      </c>
       <c r="AD43" s="39"/>
       <c r="AE43" s="39"/>
       <c r="AF43" s="39"/>
@@ -4419,6 +4510,9 @@
       <c r="AB46" s="74" t="s">
         <v>32</v>
       </c>
+      <c r="AC46" s="74" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="66" t="s">
@@ -4518,13 +4612,17 @@
         <v>0.37186000000000002</v>
       </c>
       <c r="AA47" s="67">
-        <f t="shared" ref="AA47:AB47" si="3">(AA3*$B$90)+$B$89</f>
+        <f t="shared" ref="AA47:AC47" si="3">(AA3*$B$90)+$B$89</f>
         <v>0.30069400000000007</v>
       </c>
       <c r="AB47" s="67">
         <f t="shared" si="3"/>
         <v>0.251614</v>
       </c>
+      <c r="AC47" s="67">
+        <f t="shared" ref="AC47" si="4">(AC3*$B$90)+$B$89</f>
+        <v>0.22462000000000004</v>
+      </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="66" t="s">
@@ -4534,105 +4632,109 @@
         <v>30</v>
       </c>
       <c r="C48" s="67">
-        <f t="shared" ref="C48" si="4">(C4*$C$90)+$C$89</f>
+        <f t="shared" ref="C48" si="5">(C4*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
       <c r="D48" s="67">
-        <f t="shared" ref="D48:V48" si="5">(D4*$C$90)+$C$89</f>
+        <f t="shared" ref="D48:V48" si="6">(D4*$C$90)+$C$89</f>
         <v>0.28616900000000001</v>
       </c>
       <c r="E48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="F48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33752299999999991</v>
       </c>
       <c r="G48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="H48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="I48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23481500000000002</v>
       </c>
       <c r="J48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="K48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="L48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="M48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="N48" s="67"/>
       <c r="O48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17775500000000002</v>
       </c>
       <c r="P48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16919600000000004</v>
       </c>
       <c r="Q48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="R48" s="67"/>
       <c r="S48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15207800000000002</v>
       </c>
       <c r="T48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19772599999999999</v>
       </c>
       <c r="U48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18631399999999995</v>
       </c>
       <c r="V48" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20057899999999998</v>
       </c>
       <c r="W48" s="67">
-        <f t="shared" ref="W48:X48" si="6">(W4*$C$90)+$C$89</f>
+        <f t="shared" ref="W48:X48" si="7">(W4*$C$90)+$C$89</f>
         <v>0.32040499999999994</v>
       </c>
       <c r="X48" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="Y48" s="67">
-        <f t="shared" ref="Y48:Z48" si="7">(Y4*$C$90)+$C$89</f>
+        <f t="shared" ref="Y48:Z48" si="8">(Y4*$C$90)+$C$89</f>
         <v>0.32325800000000005</v>
       </c>
       <c r="Z48" s="67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33752299999999991</v>
       </c>
       <c r="AA48" s="67">
-        <f t="shared" ref="AA48:AB48" si="8">(AA4*$C$90)+$C$89</f>
+        <f t="shared" ref="AA48:AB48" si="9">(AA4*$C$90)+$C$89</f>
         <v>0.28616900000000001</v>
       </c>
       <c r="AB48" s="67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.20057899999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC48" s="67">
+        <f t="shared" ref="AC48" si="10">(AC4*$C$90)+$C$89</f>
+        <v>0.16919600000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="66" t="s">
         <v>21</v>
       </c>
@@ -4640,105 +4742,109 @@
         <v>50</v>
       </c>
       <c r="C49" s="67">
-        <f t="shared" ref="C49" si="9">(C5*$C$90)+$C$89</f>
+        <f t="shared" ref="C49" si="11">(C5*$C$90)+$C$89</f>
         <v>0.25478600000000007</v>
       </c>
       <c r="D49" s="67">
-        <f t="shared" ref="D49:V49" si="10">(D5*$C$90)+$C$89</f>
+        <f t="shared" ref="D49:V49" si="12">(D5*$C$90)+$C$89</f>
         <v>0.25478600000000007</v>
       </c>
       <c r="E49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="F49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="G49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="H49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="I49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="J49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="K49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="L49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="M49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.20343199999999997</v>
       </c>
       <c r="N49" s="67"/>
       <c r="O49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14351899999999998</v>
       </c>
       <c r="P49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14066599999999999</v>
       </c>
       <c r="Q49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.132107</v>
       </c>
       <c r="R49" s="67"/>
       <c r="S49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12354799999999996</v>
       </c>
       <c r="T49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13781299999999999</v>
       </c>
       <c r="U49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13781299999999999</v>
       </c>
       <c r="V49" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13496</v>
       </c>
       <c r="W49" s="67">
-        <f t="shared" ref="W49:X49" si="11">(W5*$C$90)+$C$89</f>
+        <f t="shared" ref="W49:X49" si="13">(W5*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="X49" s="67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="Y49" s="67">
-        <f t="shared" ref="Y49:Z49" si="12">(Y5*$C$90)+$C$89</f>
+        <f t="shared" ref="Y49:Z49" si="14">(Y5*$C$90)+$C$89</f>
         <v>0.29472799999999999</v>
       </c>
       <c r="Z49" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="AA49" s="67">
-        <f t="shared" ref="AA49:AB49" si="13">(AA5*$C$90)+$C$89</f>
+        <f t="shared" ref="AA49:AB49" si="15">(AA5*$C$90)+$C$89</f>
         <v>0.28616900000000001</v>
       </c>
       <c r="AB49" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16634299999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC49" s="67">
+        <f t="shared" ref="AC49" si="16">(AC5*$C$90)+$C$89</f>
+        <v>0.14637199999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="66" t="s">
         <v>21</v>
       </c>
@@ -4746,105 +4852,109 @@
         <v>70</v>
       </c>
       <c r="C50" s="67">
-        <f t="shared" ref="C50" si="14">(C6*$C$90)+$C$89</f>
+        <f t="shared" ref="C50" si="17">(C6*$C$90)+$C$89</f>
         <v>0.23196200000000003</v>
       </c>
       <c r="D50" s="67">
-        <f t="shared" ref="D50:V50" si="15">(D6*$C$90)+$C$89</f>
+        <f t="shared" ref="D50:V50" si="18">(D6*$C$90)+$C$89</f>
         <v>0.23766800000000002</v>
       </c>
       <c r="E50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="F50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="G50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="H50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.291875</v>
       </c>
       <c r="I50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="J50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="K50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="L50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="M50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="N50" s="67"/>
       <c r="O50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.19772599999999999</v>
       </c>
       <c r="P50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.18060800000000002</v>
       </c>
       <c r="Q50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.160637</v>
       </c>
       <c r="R50" s="67"/>
       <c r="S50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.160637</v>
       </c>
       <c r="T50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="U50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="V50" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.160637</v>
       </c>
       <c r="W50" s="67">
-        <f t="shared" ref="W50:X50" si="16">(W6*$C$90)+$C$89</f>
+        <f t="shared" ref="W50:X50" si="19">(W6*$C$90)+$C$89</f>
         <v>0.30328699999999997</v>
       </c>
       <c r="X50" s="67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="Y50" s="67">
-        <f t="shared" ref="Y50:Z50" si="17">(Y6*$C$90)+$C$89</f>
+        <f t="shared" ref="Y50:Z50" si="20">(Y6*$C$90)+$C$89</f>
         <v>0.31184599999999996</v>
       </c>
       <c r="Z50" s="67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="AA50" s="67">
-        <f t="shared" ref="AA50:AB50" si="18">(AA6*$C$90)+$C$89</f>
+        <f t="shared" ref="AA50:AB50" si="21">(AA6*$C$90)+$C$89</f>
         <v>0.30328699999999997</v>
       </c>
       <c r="AB50" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.23481500000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC50" s="67">
+        <f t="shared" ref="AC50" si="22">(AC6*$C$90)+$C$89</f>
+        <v>0.17204900000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>23</v>
       </c>
@@ -4852,105 +4962,109 @@
         <v>10</v>
       </c>
       <c r="C51" s="68">
-        <f t="shared" ref="C51" si="19">(C7*$B$90)+$B$89</f>
+        <f t="shared" ref="C51" si="23">(C7*$B$90)+$B$89</f>
         <v>0.29087800000000003</v>
       </c>
       <c r="D51" s="68">
-        <f t="shared" ref="D51:V51" si="20">(D7*$B$90)+$B$89</f>
+        <f t="shared" ref="D51:V51" si="24">(D7*$B$90)+$B$89</f>
         <v>0.23934400000000006</v>
       </c>
       <c r="E51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.32523400000000002</v>
       </c>
       <c r="F51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="G51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.31051000000000001</v>
       </c>
       <c r="H51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.21971200000000002</v>
       </c>
       <c r="I51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.308056</v>
       </c>
       <c r="J51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.366952</v>
       </c>
       <c r="K51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.29824000000000006</v>
       </c>
       <c r="L51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="M51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.26388400000000001</v>
       </c>
       <c r="N51" s="68"/>
       <c r="O51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.16327000000000003</v>
       </c>
       <c r="P51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.22216600000000003</v>
       </c>
       <c r="Q51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.15345400000000003</v>
       </c>
       <c r="R51" s="68"/>
       <c r="S51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.16572400000000004</v>
       </c>
       <c r="T51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.32278000000000001</v>
       </c>
       <c r="U51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.308056</v>
       </c>
       <c r="V51" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.332596</v>
       </c>
       <c r="W51" s="68">
-        <f t="shared" ref="W51:X51" si="21">(W7*$B$90)+$B$89</f>
+        <f t="shared" ref="W51:X51" si="25">(W7*$B$90)+$B$89</f>
         <v>0.35713600000000006</v>
       </c>
       <c r="X51" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.332596</v>
       </c>
       <c r="Y51" s="68">
-        <f t="shared" ref="Y51:Z51" si="22">(Y7*$B$90)+$B$89</f>
+        <f t="shared" ref="Y51:Z51" si="26">(Y7*$B$90)+$B$89</f>
         <v>0.34732000000000002</v>
       </c>
       <c r="Z51" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.34732000000000002</v>
       </c>
       <c r="AA51" s="68">
-        <f t="shared" ref="AA51:AB51" si="23">(AA7*$B$90)+$B$89</f>
+        <f t="shared" ref="AA51:AB51" si="27">(AA7*$B$90)+$B$89</f>
         <v>0.26143</v>
       </c>
       <c r="AB51" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.23198200000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC51" s="68">
+        <f t="shared" ref="AC51" si="28">(AC7*$B$90)+$B$89</f>
+        <v>0.18780999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>23</v>
       </c>
@@ -4958,105 +5072,109 @@
         <v>30</v>
       </c>
       <c r="C52" s="68">
-        <f t="shared" ref="C52" si="24">(C8*$C$90)+$C$89</f>
+        <f t="shared" ref="C52" si="29">(C8*$C$90)+$C$89</f>
         <v>0.30613999999999997</v>
       </c>
       <c r="D52" s="68">
-        <f t="shared" ref="D52:V52" si="25">(D8*$C$90)+$C$89</f>
+        <f t="shared" ref="D52:V52" si="30">(D8*$C$90)+$C$89</f>
         <v>0.28331600000000001</v>
       </c>
       <c r="E52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="F52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="G52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="I52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="J52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="K52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="L52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="M52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="N52" s="68"/>
       <c r="O52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.17775500000000002</v>
       </c>
       <c r="P52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.16634299999999999</v>
       </c>
       <c r="Q52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.15207800000000002</v>
       </c>
       <c r="R52" s="68"/>
       <c r="S52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.14351899999999998</v>
       </c>
       <c r="T52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.21199100000000001</v>
       </c>
       <c r="U52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.21199100000000001</v>
       </c>
       <c r="V52" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.24908</v>
       </c>
       <c r="W52" s="68">
-        <f t="shared" ref="W52:X52" si="26">(W8*$C$90)+$C$89</f>
+        <f t="shared" ref="W52:X52" si="31">(W8*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="X52" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="Y52" s="68">
-        <f t="shared" ref="Y52:Z52" si="27">(Y8*$C$90)+$C$89</f>
+        <f t="shared" ref="Y52:Z52" si="32">(Y8*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
       <c r="Z52" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="AA52" s="68">
-        <f t="shared" ref="AA52:AB52" si="28">(AA8*$C$90)+$C$89</f>
+        <f t="shared" ref="AA52:AB52" si="33">(AA8*$C$90)+$C$89</f>
         <v>0.27190399999999992</v>
       </c>
       <c r="AB52" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.20343199999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC52" s="68">
+        <f t="shared" ref="AC52" si="34">(AC8*$C$90)+$C$89</f>
+        <v>0.16349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>23</v>
       </c>
@@ -5064,105 +5182,109 @@
         <v>50</v>
       </c>
       <c r="C53" s="68">
-        <f t="shared" ref="C53" si="29">(C9*$C$90)+$C$89</f>
+        <f t="shared" ref="C53" si="35">(C9*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="D53" s="68">
-        <f t="shared" ref="D53:V53" si="30">(D9*$C$90)+$C$89</f>
+        <f t="shared" ref="D53:V53" si="36">(D9*$C$90)+$C$89</f>
         <v>0.291875</v>
       </c>
       <c r="E53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="F53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="G53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="H53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="I53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="J53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="K53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="L53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="M53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="N53" s="68"/>
       <c r="O53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.21199100000000001</v>
       </c>
       <c r="P53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.18346100000000001</v>
       </c>
       <c r="Q53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.15493100000000001</v>
       </c>
       <c r="R53" s="68"/>
       <c r="S53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.160637</v>
       </c>
       <c r="T53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="U53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.15207800000000002</v>
       </c>
       <c r="V53" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.15778400000000001</v>
       </c>
       <c r="W53" s="68">
-        <f t="shared" ref="W53:X53" si="31">(W9*$C$90)+$C$89</f>
+        <f t="shared" ref="W53:X53" si="37">(W9*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="X53" s="68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="Y53" s="68">
-        <f t="shared" ref="Y53:Z53" si="32">(Y9*$C$90)+$C$89</f>
+        <f t="shared" ref="Y53:Z53" si="38">(Y9*$C$90)+$C$89</f>
         <v>0.30613999999999997</v>
       </c>
       <c r="Z53" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="AA53" s="68">
-        <f t="shared" ref="AA53:AB53" si="33">(AA9*$C$90)+$C$89</f>
+        <f t="shared" ref="AA53:AB53" si="39">(AA9*$C$90)+$C$89</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="AB53" s="68">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.19772599999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC53" s="68">
+        <f t="shared" ref="AC53" si="40">(AC9*$C$90)+$C$89</f>
+        <v>0.15778400000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
@@ -5170,105 +5292,109 @@
         <v>70</v>
       </c>
       <c r="C54" s="68">
-        <f t="shared" ref="C54" si="34">(C10*$C$90)+$C$89</f>
+        <f t="shared" ref="C54" si="41">(C10*$C$90)+$C$89</f>
         <v>0.29472799999999999</v>
       </c>
       <c r="D54" s="68">
-        <f t="shared" ref="D54:V54" si="35">(D10*$C$90)+$C$89</f>
+        <f t="shared" ref="D54:V54" si="42">(D10*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="E54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="F54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="G54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="H54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="I54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.291875</v>
       </c>
       <c r="J54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="K54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="L54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.291875</v>
       </c>
       <c r="M54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="N54" s="68"/>
       <c r="O54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="P54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.24908</v>
       </c>
       <c r="Q54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.22340299999999999</v>
       </c>
       <c r="R54" s="68"/>
       <c r="S54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.22340299999999999</v>
       </c>
       <c r="T54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="U54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.217697</v>
       </c>
       <c r="V54" s="68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.22055</v>
       </c>
       <c r="W54" s="68">
-        <f t="shared" ref="W54:X54" si="36">(W10*$C$90)+$C$89</f>
+        <f t="shared" ref="W54:X54" si="43">(W10*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="X54" s="68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="Y54" s="68">
-        <f t="shared" ref="Y54:Z54" si="37">(Y10*$C$90)+$C$89</f>
+        <f t="shared" ref="Y54:Z54" si="44">(Y10*$C$90)+$C$89</f>
         <v>0.32325800000000005</v>
       </c>
       <c r="Z54" s="68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="AA54" s="68">
-        <f t="shared" ref="AA54:AB54" si="38">(AA10*$C$90)+$C$89</f>
+        <f t="shared" ref="AA54:AB54" si="45">(AA10*$C$90)+$C$89</f>
         <v>0.32040499999999994</v>
       </c>
       <c r="AB54" s="68">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.26049199999999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC54" s="68">
+        <f t="shared" ref="AC54" si="46">(AC10*$C$90)+$C$89</f>
+        <v>0.22340299999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
         <v>24</v>
       </c>
@@ -5276,105 +5402,109 @@
         <v>10</v>
       </c>
       <c r="C55" s="70">
-        <f t="shared" ref="C55" si="39">(C11*$B$90)+$B$89</f>
+        <f t="shared" ref="C55" si="47">(C11*$B$90)+$B$89</f>
         <v>0.35468200000000005</v>
       </c>
       <c r="D55" s="70">
-        <f t="shared" ref="D55:V55" si="40">(D11*$B$90)+$B$89</f>
+        <f t="shared" ref="D55:V55" si="48">(D11*$B$90)+$B$89</f>
         <v>0.31787199999999999</v>
       </c>
       <c r="E55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.38413000000000003</v>
       </c>
       <c r="F55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.39885399999999999</v>
       </c>
       <c r="G55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="H55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.31051000000000001</v>
       </c>
       <c r="I55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.38658400000000004</v>
       </c>
       <c r="J55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.41848599999999997</v>
       </c>
       <c r="K55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.35468200000000005</v>
       </c>
       <c r="L55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.39394600000000002</v>
       </c>
       <c r="M55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.32768800000000003</v>
       </c>
       <c r="N55" s="70"/>
       <c r="O55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.25406800000000002</v>
       </c>
       <c r="P55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.28106200000000003</v>
       </c>
       <c r="Q55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.23934400000000006</v>
       </c>
       <c r="R55" s="70"/>
       <c r="S55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.24670599999999998</v>
       </c>
       <c r="T55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.366952</v>
       </c>
       <c r="U55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.34732000000000002</v>
       </c>
       <c r="V55" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="W55" s="70">
-        <f t="shared" ref="W55:X55" si="41">(W11*$B$90)+$B$89</f>
+        <f t="shared" ref="W55:X55" si="49">(W11*$B$90)+$B$89</f>
         <v>0.40867000000000003</v>
       </c>
       <c r="X55" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.38413000000000003</v>
       </c>
       <c r="Y55" s="70">
-        <f t="shared" ref="Y55:Z55" si="42">(Y11*$B$90)+$B$89</f>
+        <f t="shared" ref="Y55:Z55" si="50">(Y11*$B$90)+$B$89</f>
         <v>0.40130800000000005</v>
       </c>
       <c r="Z55" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.40130800000000005</v>
       </c>
       <c r="AA55" s="70">
-        <f t="shared" ref="AA55:AB55" si="43">(AA11*$B$90)+$B$89</f>
+        <f t="shared" ref="AA55:AB55" si="51">(AA11*$B$90)+$B$89</f>
         <v>0.32768800000000003</v>
       </c>
       <c r="AB55" s="70">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.29824000000000006</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC55" s="70">
+        <f t="shared" ref="AC55" si="52">(AC11*$B$90)+$B$89</f>
+        <v>0.27615400000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>24</v>
       </c>
@@ -5386,101 +5516,105 @@
         <v>0.36034699999999997</v>
       </c>
       <c r="D56" s="70">
-        <f t="shared" ref="D56:V56" si="44">(D12*$C$90)+$C$89</f>
+        <f t="shared" ref="D56:V56" si="53">(D12*$C$90)+$C$89</f>
         <v>0.348935</v>
       </c>
       <c r="E56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.36034699999999997</v>
       </c>
       <c r="F56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.36605299999999996</v>
       </c>
       <c r="G56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.36319999999999997</v>
       </c>
       <c r="H56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="I56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.348935</v>
       </c>
       <c r="J56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.36034699999999997</v>
       </c>
       <c r="K56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.346082</v>
       </c>
       <c r="L56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="M56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="N56" s="70"/>
       <c r="O56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="P56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="Q56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="R56" s="70"/>
       <c r="S56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.24908</v>
       </c>
       <c r="T56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="U56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="V56" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.289022</v>
       </c>
       <c r="W56" s="70">
-        <f t="shared" ref="W56:X56" si="45">(W12*$C$90)+$C$89</f>
+        <f t="shared" ref="W56:X56" si="54">(W12*$C$90)+$C$89</f>
         <v>0.37746499999999994</v>
       </c>
       <c r="X56" s="70">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0.35464099999999998</v>
       </c>
       <c r="Y56" s="70">
-        <f t="shared" ref="Y56:Z56" si="46">(Y12*$C$90)+$C$89</f>
+        <f t="shared" ref="Y56:Z56" si="55">(Y12*$C$90)+$C$89</f>
         <v>0.36605299999999996</v>
       </c>
       <c r="Z56" s="70">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.36034699999999997</v>
       </c>
       <c r="AA56" s="70">
-        <f t="shared" ref="AA56:AB56" si="47">(AA12*$C$90)+$C$89</f>
+        <f t="shared" ref="AA56:AB56" si="56">(AA12*$C$90)+$C$89</f>
         <v>0.33466999999999991</v>
       </c>
       <c r="AB56" s="70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>0.29758099999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC56" s="70">
+        <f t="shared" ref="AC56" si="57">(AC12*$C$90)+$C$89</f>
+        <v>0.28046300000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
         <v>24</v>
       </c>
@@ -5492,101 +5626,105 @@
         <v>0.3432289999999999</v>
       </c>
       <c r="D57" s="70">
-        <f t="shared" ref="D57:V57" si="48">(D13*$C$90)+$C$89</f>
+        <f t="shared" ref="D57:V57" si="58">(D13*$C$90)+$C$89</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="E57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="F57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="G57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="H57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="I57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="J57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="K57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="L57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="M57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="N57" s="70"/>
       <c r="O57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="P57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="Q57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="R57" s="70"/>
       <c r="S57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="T57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="U57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="V57" s="70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="W57" s="70">
-        <f t="shared" ref="W57:X57" si="49">(W13*$C$90)+$C$89</f>
+        <f t="shared" ref="W57:X57" si="59">(W13*$C$90)+$C$89</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="X57" s="70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="Y57" s="70">
-        <f t="shared" ref="Y57:Z57" si="50">(Y13*$C$90)+$C$89</f>
+        <f t="shared" ref="Y57:Z57" si="60">(Y13*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="Z57" s="70">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="AA57" s="70">
-        <f t="shared" ref="AA57:AB57" si="51">(AA13*$C$90)+$C$89</f>
+        <f t="shared" ref="AA57:AB57" si="61">(AA13*$C$90)+$C$89</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="AB57" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.30613999999999997</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC57" s="70">
+        <f t="shared" ref="AC57" si="62">(AC13*$C$90)+$C$89</f>
+        <v>0.27761000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>24</v>
       </c>
@@ -5598,101 +5736,105 @@
         <v>0.30613999999999997</v>
       </c>
       <c r="D58" s="70">
-        <f t="shared" ref="D58:V58" si="52">(D14*$C$90)+$C$89</f>
+        <f t="shared" ref="D58:V58" si="63">(D14*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="E58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="F58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="G58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="I58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="J58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="K58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="L58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="M58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.291875</v>
       </c>
       <c r="N58" s="70"/>
       <c r="O58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="P58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="Q58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="R58" s="70"/>
       <c r="S58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="T58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="U58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="V58" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.246227</v>
       </c>
       <c r="W58" s="70">
-        <f t="shared" ref="W58:X58" si="53">(W14*$C$90)+$C$89</f>
+        <f t="shared" ref="W58:X58" si="64">(W14*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="X58" s="70">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="Y58" s="70">
-        <f t="shared" ref="Y58:Z58" si="54">(Y14*$C$90)+$C$89</f>
+        <f t="shared" ref="Y58:Z58" si="65">(Y14*$C$90)+$C$89</f>
         <v>0.30328699999999997</v>
       </c>
       <c r="Z58" s="70">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="AA58" s="70">
-        <f t="shared" ref="AA58:AB58" si="55">(AA14*$C$90)+$C$89</f>
+        <f t="shared" ref="AA58:AB58" si="66">(AA14*$C$90)+$C$89</f>
         <v>0.30328699999999997</v>
       </c>
       <c r="AB58" s="70">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.28331600000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC58" s="70">
+        <f t="shared" ref="AC58" si="67">(AC14*$C$90)+$C$89</f>
+        <v>0.26619799999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
         <v>24</v>
       </c>
@@ -5704,101 +5846,105 @@
         <v>0.30613999999999997</v>
       </c>
       <c r="D59" s="70">
-        <f t="shared" ref="D59:V59" si="56">(D15*$C$90)+$C$89</f>
+        <f t="shared" ref="D59:V59" si="68">(D15*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="E59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="F59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="G59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="H59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="I59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="J59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="K59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="L59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="M59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="N59" s="70"/>
       <c r="O59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="P59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.289022</v>
       </c>
       <c r="Q59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="R59" s="70"/>
       <c r="S59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="T59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="U59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="V59" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="W59" s="70">
-        <f t="shared" ref="W59:X59" si="57">(W15*$C$90)+$C$89</f>
+        <f t="shared" ref="W59:X59" si="69">(W15*$C$90)+$C$89</f>
         <v>0.27475700000000003</v>
       </c>
       <c r="X59" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="Y59" s="70">
-        <f t="shared" ref="Y59:Z59" si="58">(Y15*$C$90)+$C$89</f>
+        <f t="shared" ref="Y59:Z59" si="70">(Y15*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
       <c r="Z59" s="70">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="AA59" s="70">
-        <f t="shared" ref="AA59:AB59" si="59">(AA15*$C$90)+$C$89</f>
+        <f t="shared" ref="AA59:AB59" si="71">(AA15*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="AB59" s="70">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.29758099999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC59" s="70">
+        <f t="shared" ref="AC59" si="72">(AC15*$C$90)+$C$89</f>
+        <v>0.28331600000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
         <v>25</v>
       </c>
@@ -5806,105 +5952,109 @@
         <v>10</v>
       </c>
       <c r="C60" s="71">
-        <f t="shared" ref="C60" si="60">(C16*$B$90)+$B$89</f>
+        <f t="shared" ref="C60" si="73">(C16*$B$90)+$B$89</f>
         <v>0.36940600000000001</v>
       </c>
       <c r="D60" s="71">
-        <f t="shared" ref="D60:V60" si="61">(D16*$B$90)+$B$89</f>
+        <f t="shared" ref="D60:V60" si="74">(D16*$B$90)+$B$89</f>
         <v>0.32278000000000001</v>
       </c>
       <c r="E60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.40130800000000005</v>
       </c>
       <c r="F60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.41603200000000001</v>
       </c>
       <c r="G60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.379222</v>
       </c>
       <c r="H60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.32768800000000003</v>
       </c>
       <c r="I60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.38658400000000004</v>
       </c>
       <c r="J60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.42094000000000004</v>
       </c>
       <c r="K60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.36940600000000001</v>
       </c>
       <c r="L60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.39149200000000001</v>
       </c>
       <c r="M60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.332596</v>
       </c>
       <c r="N60" s="71"/>
       <c r="O60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.26388400000000001</v>
       </c>
       <c r="P60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.308056</v>
       </c>
       <c r="Q60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.26143</v>
       </c>
       <c r="R60" s="71"/>
       <c r="S60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.26388400000000001</v>
       </c>
       <c r="T60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="U60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.36449800000000004</v>
       </c>
       <c r="V60" s="71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>0.38167600000000002</v>
       </c>
       <c r="W60" s="71">
-        <f t="shared" ref="W60:X60" si="62">(W16*$B$90)+$B$89</f>
+        <f t="shared" ref="W60:X60" si="75">(W16*$B$90)+$B$89</f>
         <v>0.40130800000000005</v>
       </c>
       <c r="X60" s="71">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>0.39640000000000003</v>
       </c>
       <c r="Y60" s="71">
-        <f t="shared" ref="Y60:Z60" si="63">(Y16*$B$90)+$B$89</f>
+        <f t="shared" ref="Y60:Z60" si="76">(Y16*$B$90)+$B$89</f>
         <v>0.40867000000000003</v>
       </c>
       <c r="Z60" s="71">
-        <f t="shared" si="63"/>
+        <f t="shared" si="76"/>
         <v>0.41848599999999997</v>
       </c>
       <c r="AA60" s="71">
-        <f t="shared" ref="AA60:AB60" si="64">(AA16*$B$90)+$B$89</f>
+        <f t="shared" ref="AA60:AB60" si="77">(AA16*$B$90)+$B$89</f>
         <v>0.35959000000000008</v>
       </c>
       <c r="AB60" s="71">
-        <f t="shared" si="64"/>
+        <f t="shared" si="77"/>
         <v>0.308056</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC60" s="71">
+        <f t="shared" ref="AC60" si="78">(AC16*$B$90)+$B$89</f>
+        <v>0.28842400000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>25</v>
       </c>
@@ -5912,105 +6062,109 @@
         <v>30</v>
       </c>
       <c r="C61" s="71">
-        <f t="shared" ref="C61" si="65">(C17*$C$90)+$C$89</f>
+        <f t="shared" ref="C61" si="79">(C17*$C$90)+$C$89</f>
         <v>0.36890599999999996</v>
       </c>
       <c r="D61" s="71">
-        <f t="shared" ref="D61:V61" si="66">(D17*$C$90)+$C$89</f>
+        <f t="shared" ref="D61:V61" si="80">(D17*$C$90)+$C$89</f>
         <v>0.36034699999999997</v>
       </c>
       <c r="E61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.37461199999999995</v>
       </c>
       <c r="F61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.37746499999999994</v>
       </c>
       <c r="G61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.38317099999999993</v>
       </c>
       <c r="H61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="I61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.36890599999999996</v>
       </c>
       <c r="J61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.38887699999999992</v>
       </c>
       <c r="K61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.36890599999999996</v>
       </c>
       <c r="L61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.37461199999999995</v>
       </c>
       <c r="M61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.35464099999999998</v>
       </c>
       <c r="N61" s="71"/>
       <c r="O61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.291875</v>
       </c>
       <c r="P61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="Q61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="R61" s="71"/>
       <c r="S61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="T61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="U61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="V61" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="W61" s="71">
-        <f t="shared" ref="W61:X61" si="67">(W17*$C$90)+$C$89</f>
+        <f t="shared" ref="W61:X61" si="81">(W17*$C$90)+$C$89</f>
         <v>0.35749399999999998</v>
       </c>
       <c r="X61" s="71">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>0.38031799999999993</v>
       </c>
       <c r="Y61" s="71">
-        <f t="shared" ref="Y61:Z61" si="68">(Y17*$C$90)+$C$89</f>
+        <f t="shared" ref="Y61:Z61" si="82">(Y17*$C$90)+$C$89</f>
         <v>0.37746499999999994</v>
       </c>
       <c r="Z61" s="71">
-        <f t="shared" si="68"/>
+        <f t="shared" si="82"/>
         <v>0.38031799999999993</v>
       </c>
       <c r="AA61" s="71">
-        <f t="shared" ref="AA61:AB61" si="69">(AA17*$C$90)+$C$89</f>
+        <f t="shared" ref="AA61:AB61" si="83">(AA17*$C$90)+$C$89</f>
         <v>0.36605299999999996</v>
       </c>
       <c r="AB61" s="71">
-        <f t="shared" si="69"/>
+        <f t="shared" si="83"/>
         <v>0.31184599999999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC61" s="71">
+        <f t="shared" ref="AC61" si="84">(AC17*$C$90)+$C$89</f>
+        <v>0.29758099999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>25</v>
       </c>
@@ -6018,105 +6172,109 @@
         <v>50</v>
       </c>
       <c r="C62" s="71">
-        <f t="shared" ref="C62" si="70">(C18*$C$90)+$C$89</f>
+        <f t="shared" ref="C62" si="85">(C18*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="D62" s="71">
-        <f t="shared" ref="D62:V62" si="71">(D18*$C$90)+$C$89</f>
+        <f t="shared" ref="D62:V62" si="86">(D18*$C$90)+$C$89</f>
         <v>0.33752299999999991</v>
       </c>
       <c r="E62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.33752299999999991</v>
       </c>
       <c r="F62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.33752299999999991</v>
       </c>
       <c r="G62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="H62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="I62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="J62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="K62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="L62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="M62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="N62" s="71"/>
       <c r="O62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="P62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="Q62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.26334499999999994</v>
       </c>
       <c r="R62" s="71"/>
       <c r="S62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.24908</v>
       </c>
       <c r="T62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="U62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="V62" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="W62" s="71">
-        <f t="shared" ref="W62:X62" si="72">(W18*$C$90)+$C$89</f>
+        <f t="shared" ref="W62:X62" si="87">(W18*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="X62" s="71">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>0.33752299999999991</v>
       </c>
       <c r="Y62" s="71">
-        <f t="shared" ref="Y62:Z62" si="73">(Y18*$C$90)+$C$89</f>
+        <f t="shared" ref="Y62:Z62" si="88">(Y18*$C$90)+$C$89</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="Z62" s="71">
-        <f t="shared" si="73"/>
+        <f t="shared" si="88"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="AA62" s="71">
-        <f t="shared" ref="AA62:AB62" si="74">(AA18*$C$90)+$C$89</f>
+        <f t="shared" ref="AA62:AB62" si="89">(AA18*$C$90)+$C$89</f>
         <v>0.33752299999999991</v>
       </c>
       <c r="AB62" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="89"/>
         <v>0.30043399999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC62" s="71">
+        <f t="shared" ref="AC62" si="90">(AC18*$C$90)+$C$89</f>
+        <v>0.28046300000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>25</v>
       </c>
@@ -6124,105 +6282,109 @@
         <v>70</v>
       </c>
       <c r="C63" s="71">
-        <f t="shared" ref="C63" si="75">(C19*$C$90)+$C$89</f>
+        <f t="shared" ref="C63" si="91">(C19*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="D63" s="71">
-        <f t="shared" ref="D63:V63" si="76">(D19*$C$90)+$C$89</f>
+        <f t="shared" ref="D63:V63" si="92">(D19*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="E63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="F63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="G63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="H63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="I63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="J63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="K63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="L63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="M63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="N63" s="71"/>
       <c r="O63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="P63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.26334499999999994</v>
       </c>
       <c r="Q63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="R63" s="71"/>
       <c r="S63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.246227</v>
       </c>
       <c r="T63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.23481500000000002</v>
       </c>
       <c r="U63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="V63" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="92"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="W63" s="71">
-        <f t="shared" ref="W63:X63" si="77">(W19*$C$90)+$C$89</f>
+        <f t="shared" ref="W63:X63" si="93">(W19*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="X63" s="71">
-        <f t="shared" si="77"/>
+        <f t="shared" si="93"/>
         <v>0.291875</v>
       </c>
       <c r="Y63" s="71">
-        <f t="shared" ref="Y63:Z63" si="78">(Y19*$C$90)+$C$89</f>
+        <f t="shared" ref="Y63:Z63" si="94">(Y19*$C$90)+$C$89</f>
         <v>0.291875</v>
       </c>
       <c r="Z63" s="71">
-        <f t="shared" si="78"/>
+        <f t="shared" si="94"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="AA63" s="71">
-        <f t="shared" ref="AA63:AB63" si="79">(AA19*$C$90)+$C$89</f>
+        <f t="shared" ref="AA63:AB63" si="95">(AA19*$C$90)+$C$89</f>
         <v>0.29472799999999999</v>
       </c>
       <c r="AB63" s="71">
-        <f t="shared" si="79"/>
+        <f t="shared" si="95"/>
         <v>0.289022</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC63" s="71">
+        <f t="shared" ref="AC63" si="96">(AC19*$C$90)+$C$89</f>
+        <v>0.26049199999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
         <v>25</v>
       </c>
@@ -6230,105 +6392,109 @@
         <v>90</v>
       </c>
       <c r="C64" s="71">
-        <f t="shared" ref="C64" si="80">(C20*$C$90)+$C$89</f>
+        <f t="shared" ref="C64" si="97">(C20*$C$90)+$C$89</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="D64" s="71">
-        <f t="shared" ref="D64:V64" si="81">(D20*$C$90)+$C$89</f>
+        <f t="shared" ref="D64:V64" si="98">(D20*$C$90)+$C$89</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="E64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="F64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.291875</v>
       </c>
       <c r="G64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="H64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="I64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="J64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="K64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="L64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="M64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="N64" s="71"/>
       <c r="O64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="P64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="Q64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.289022</v>
       </c>
       <c r="R64" s="71"/>
       <c r="S64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="T64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="U64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="V64" s="71">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="W64" s="71">
-        <f t="shared" ref="W64:X64" si="82">(W20*$C$90)+$C$89</f>
+        <f t="shared" ref="W64:X64" si="99">(W20*$C$90)+$C$89</f>
         <v>0.28616900000000001</v>
       </c>
       <c r="X64" s="71">
-        <f t="shared" si="82"/>
+        <f t="shared" si="99"/>
         <v>0.291875</v>
       </c>
       <c r="Y64" s="71">
-        <f t="shared" ref="Y64:Z64" si="83">(Y20*$C$90)+$C$89</f>
+        <f t="shared" ref="Y64:Z64" si="100">(Y20*$C$90)+$C$89</f>
         <v>0.289022</v>
       </c>
       <c r="Z64" s="71">
-        <f t="shared" si="83"/>
+        <f t="shared" si="100"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="AA64" s="71">
-        <f t="shared" ref="AA64:AB64" si="84">(AA20*$C$90)+$C$89</f>
+        <f t="shared" ref="AA64:AB64" si="101">(AA20*$C$90)+$C$89</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="AB64" s="71">
-        <f t="shared" si="84"/>
+        <f t="shared" si="101"/>
         <v>0.291875</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC64" s="71">
+        <f t="shared" ref="AC64" si="102">(AC20*$C$90)+$C$89</f>
+        <v>0.28616900000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
         <v>26</v>
       </c>
@@ -6340,101 +6506,105 @@
         <v>0.21725800000000001</v>
       </c>
       <c r="D65" s="13">
-        <f t="shared" ref="D65:V65" si="85">(D21*$B$90)+$B$89</f>
+        <f t="shared" ref="D65:V65" si="103">(D21*$B$90)+$B$89</f>
         <v>0.15590800000000005</v>
       </c>
       <c r="E65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.29333200000000004</v>
       </c>
       <c r="F65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.35222800000000004</v>
       </c>
       <c r="G65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.27615400000000001</v>
       </c>
       <c r="H65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.18535600000000002</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.33750400000000003</v>
       </c>
       <c r="J65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.36940600000000001</v>
       </c>
       <c r="K65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.26143</v>
       </c>
       <c r="L65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.33750400000000003</v>
       </c>
       <c r="M65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.26879200000000003</v>
       </c>
       <c r="N65" s="13"/>
       <c r="O65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.11173599999999999</v>
       </c>
       <c r="P65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.17799400000000004</v>
       </c>
       <c r="Q65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>7.737999999999999E-2</v>
       </c>
       <c r="R65" s="13"/>
       <c r="S65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>8.9649999999999994E-2</v>
       </c>
       <c r="T65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.25652200000000003</v>
       </c>
       <c r="U65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.23689000000000004</v>
       </c>
       <c r="V65" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="103"/>
         <v>0.26143</v>
       </c>
       <c r="W65" s="13">
-        <f t="shared" ref="W65:X65" si="86">(W21*$B$90)+$B$89</f>
+        <f t="shared" ref="W65:X65" si="104">(W21*$B$90)+$B$89</f>
         <v>0.34486600000000006</v>
       </c>
       <c r="X65" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0.27860800000000002</v>
       </c>
       <c r="Y65" s="13">
-        <f t="shared" ref="Y65:Z65" si="87">(Y21*$B$90)+$B$89</f>
+        <f t="shared" ref="Y65:Z65" si="105">(Y21*$B$90)+$B$89</f>
         <v>0.32768800000000003</v>
       </c>
       <c r="Z65" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="105"/>
         <v>0.32523400000000002</v>
       </c>
       <c r="AA65" s="13">
-        <f t="shared" ref="AA65:AB65" si="88">(AA21*$B$90)+$B$89</f>
+        <f t="shared" ref="AA65:AB65" si="106">(AA21*$B$90)+$B$89</f>
         <v>0.22462000000000004</v>
       </c>
       <c r="AB65" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="106"/>
         <v>0.16081600000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC65" s="13">
+        <f t="shared" ref="AC65" si="107">(AC21*$B$90)+$B$89</f>
+        <v>0.109282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="s">
         <v>26</v>
       </c>
@@ -6446,101 +6616,105 @@
         <v>0.27190399999999992</v>
       </c>
       <c r="D66" s="13">
-        <f t="shared" ref="D66:V66" si="89">(D22*$C$90)+$C$89</f>
+        <f t="shared" ref="D66:V66" si="108">(D22*$C$90)+$C$89</f>
         <v>0.20913799999999996</v>
       </c>
       <c r="E66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="F66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.38317099999999993</v>
       </c>
       <c r="G66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="H66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.20343199999999997</v>
       </c>
       <c r="I66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.36034699999999997</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.39458299999999991</v>
       </c>
       <c r="K66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="L66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.36319999999999997</v>
       </c>
       <c r="M66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="N66" s="13"/>
       <c r="O66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.12640099999999996</v>
       </c>
       <c r="P66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.10928300000000005</v>
       </c>
       <c r="Q66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>7.5047000000000003E-2</v>
       </c>
       <c r="R66" s="13"/>
       <c r="S66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>6.6487999999999964E-2</v>
       </c>
       <c r="T66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.13781299999999999</v>
       </c>
       <c r="U66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.18916699999999995</v>
       </c>
       <c r="V66" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>0.22910899999999998</v>
       </c>
       <c r="W66" s="13">
-        <f t="shared" ref="W66:X66" si="90">(W22*$C$90)+$C$89</f>
+        <f t="shared" ref="W66:X66" si="109">(W22*$C$90)+$C$89</f>
         <v>0.36319999999999997</v>
       </c>
       <c r="X66" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="109"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="Y66" s="13">
-        <f t="shared" ref="Y66:Z66" si="91">(Y22*$C$90)+$C$89</f>
+        <f t="shared" ref="Y66:Z66" si="110">(Y22*$C$90)+$C$89</f>
         <v>0.346082</v>
       </c>
       <c r="Z66" s="13">
-        <f t="shared" si="91"/>
+        <f t="shared" si="110"/>
         <v>0.346082</v>
       </c>
       <c r="AA66" s="13">
-        <f t="shared" ref="AA66:AB66" si="92">(AA22*$C$90)+$C$89</f>
+        <f t="shared" ref="AA66:AB66" si="111">(AA22*$C$90)+$C$89</f>
         <v>0.24052100000000001</v>
       </c>
       <c r="AB66" s="13">
-        <f t="shared" si="92"/>
+        <f t="shared" si="111"/>
         <v>0.12640099999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC66" s="13">
+        <f t="shared" ref="AC66" si="112">(AC22*$C$90)+$C$89</f>
+        <v>8.645899999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>27</v>
       </c>
@@ -6552,101 +6726,105 @@
         <v>0.19762600000000002</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ref="D67:V67" si="93">(D23*$B$90)+$B$89</f>
+        <f t="shared" ref="D67:V67" si="113">(D23*$B$90)+$B$89</f>
         <v>0.11419</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.30560199999999998</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.35959000000000008</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.26879200000000003</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.18044800000000005</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.33995800000000004</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.36940600000000001</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.26143</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.34732000000000002</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.24915999999999999</v>
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>8.9649999999999994E-2</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.14854600000000001</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>6.5110000000000015E-2</v>
       </c>
       <c r="R67" s="5"/>
       <c r="S67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>8.4741999999999998E-2</v>
       </c>
       <c r="T67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.27860800000000002</v>
       </c>
       <c r="U67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.25406800000000002</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="113"/>
         <v>0.27860800000000002</v>
       </c>
       <c r="W67" s="5">
-        <f t="shared" ref="W67:X67" si="94">(W23*$B$90)+$B$89</f>
+        <f t="shared" ref="W67:X67" si="114">(W23*$B$90)+$B$89</f>
         <v>0.34977400000000003</v>
       </c>
       <c r="X67" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="114"/>
         <v>0.2737</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" ref="Y67:Z67" si="95">(Y23*$B$90)+$B$89</f>
+        <f t="shared" ref="Y67:Z67" si="115">(Y23*$B$90)+$B$89</f>
         <v>0.33505000000000001</v>
       </c>
       <c r="Z67" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="115"/>
         <v>0.32768800000000003</v>
       </c>
       <c r="AA67" s="5">
-        <f t="shared" ref="AA67:AB67" si="96">(AA23*$B$90)+$B$89</f>
+        <f t="shared" ref="AA67:AB67" si="116">(AA23*$B$90)+$B$89</f>
         <v>0.24425200000000002</v>
       </c>
       <c r="AB67" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="116"/>
         <v>0.22462000000000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC67" s="5">
+        <f t="shared" ref="AC67" si="117">(AC23*$B$90)+$B$89</f>
+        <v>0.11419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>27</v>
       </c>
@@ -6658,101 +6836,105 @@
         <v>0.25193300000000007</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" ref="D68:V68" si="97">(D24*$C$90)+$C$89</f>
+        <f t="shared" ref="D68:V68" si="118">(D24*$C$90)+$C$89</f>
         <v>0.132107</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.38602400000000003</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.217697</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.36605299999999996</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.38317099999999993</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.35749399999999998</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>7.5047000000000003E-2</v>
       </c>
       <c r="P68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>9.2165000000000025E-2</v>
       </c>
       <c r="Q68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>6.3634999999999969E-2</v>
       </c>
       <c r="R68" s="5"/>
       <c r="S68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>5.2222999999999992E-2</v>
       </c>
       <c r="T68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="U68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="V68" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="118"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="W68" s="5">
-        <f t="shared" ref="W68:X68" si="98">(W24*$C$90)+$C$89</f>
+        <f t="shared" ref="W68:X68" si="119">(W24*$C$90)+$C$89</f>
         <v>0.35749399999999998</v>
       </c>
       <c r="X68" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="119"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="Y68" s="5">
-        <f t="shared" ref="Y68:Z68" si="99">(Y24*$C$90)+$C$89</f>
+        <f t="shared" ref="Y68:Z68" si="120">(Y24*$C$90)+$C$89</f>
         <v>0.36034699999999997</v>
       </c>
       <c r="Z68" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="120"/>
         <v>0.35178799999999999</v>
       </c>
       <c r="AA68" s="5">
-        <f t="shared" ref="AA68:AB68" si="100">(AA24*$C$90)+$C$89</f>
+        <f t="shared" ref="AA68:AB68" si="121">(AA24*$C$90)+$C$89</f>
         <v>0.27190399999999992</v>
       </c>
       <c r="AB68" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>0.22910899999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC68" s="5">
+        <f t="shared" ref="AC68" si="122">(AC24*$C$90)+$C$89</f>
+        <v>9.7871000000000014E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="52" t="s">
         <v>28</v>
       </c>
@@ -6764,101 +6946,105 @@
         <v>0.32278000000000001</v>
       </c>
       <c r="D69" s="69">
-        <f t="shared" ref="D69:V69" si="101">(D25*$B$90)+$B$89</f>
+        <f t="shared" ref="D69:V69" si="123">(D25*$B$90)+$B$89</f>
         <v>0.29333200000000004</v>
       </c>
       <c r="E69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.35222800000000004</v>
       </c>
       <c r="F69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="G69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="H69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.28842400000000001</v>
       </c>
       <c r="I69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.35468200000000005</v>
       </c>
       <c r="J69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.38658400000000004</v>
       </c>
       <c r="K69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.32523400000000002</v>
       </c>
       <c r="L69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.36449800000000004</v>
       </c>
       <c r="M69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.308056</v>
       </c>
       <c r="N69" s="69"/>
       <c r="O69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.19517200000000001</v>
       </c>
       <c r="P69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.23443600000000003</v>
       </c>
       <c r="Q69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.192718</v>
       </c>
       <c r="R69" s="69"/>
       <c r="S69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.20989600000000003</v>
       </c>
       <c r="T69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.34732000000000002</v>
       </c>
       <c r="U69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.33014200000000005</v>
       </c>
       <c r="V69" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="123"/>
         <v>0.34486600000000006</v>
       </c>
       <c r="W69" s="69">
-        <f t="shared" ref="W69:X69" si="102">(W25*$B$90)+$B$89</f>
+        <f t="shared" ref="W69:X69" si="124">(W25*$B$90)+$B$89</f>
         <v>0.36449800000000004</v>
       </c>
       <c r="X69" s="69">
-        <f t="shared" si="102"/>
+        <f t="shared" si="124"/>
         <v>0.35468200000000005</v>
       </c>
       <c r="Y69" s="69">
-        <f t="shared" ref="Y69:Z69" si="103">(Y25*$B$90)+$B$89</f>
+        <f t="shared" ref="Y69:Z69" si="125">(Y25*$B$90)+$B$89</f>
         <v>0.36940600000000001</v>
       </c>
       <c r="Z69" s="69">
-        <f t="shared" si="103"/>
+        <f t="shared" si="125"/>
         <v>0.37186000000000002</v>
       </c>
       <c r="AA69" s="69">
-        <f t="shared" ref="AA69:AB69" si="104">(AA25*$B$90)+$B$89</f>
+        <f t="shared" ref="AA69:AB69" si="126">(AA25*$B$90)+$B$89</f>
         <v>0.32278000000000001</v>
       </c>
       <c r="AB69" s="69">
-        <f t="shared" si="104"/>
+        <f t="shared" si="126"/>
         <v>0.26388400000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC69" s="69">
+        <f t="shared" ref="AC69" si="127">(AC25*$B$90)+$B$89</f>
+        <v>0.23689000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="52" t="s">
         <v>28</v>
       </c>
@@ -6870,101 +7056,105 @@
         <v>0.32611100000000004</v>
       </c>
       <c r="D70" s="69">
-        <f t="shared" ref="D70:V72" si="105">(D26*$C$90)+$C$89</f>
+        <f t="shared" ref="D70:V72" si="128">(D26*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="E70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="F70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="G70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="H70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="I70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="J70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="K70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="L70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="M70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N70" s="69"/>
       <c r="O70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.22625599999999998</v>
       </c>
       <c r="P70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.20628499999999997</v>
       </c>
       <c r="Q70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="R70" s="69"/>
       <c r="S70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.20343199999999997</v>
       </c>
       <c r="T70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="U70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="V70" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="W70" s="69">
-        <f t="shared" ref="W70:X70" si="106">(W26*$C$90)+$C$89</f>
+        <f t="shared" ref="W70:X70" si="129">(W26*$C$90)+$C$89</f>
         <v>0.32896399999999992</v>
       </c>
       <c r="X70" s="69">
-        <f t="shared" si="106"/>
+        <f t="shared" si="129"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="Y70" s="69">
-        <f t="shared" ref="Y70:Z70" si="107">(Y26*$C$90)+$C$89</f>
+        <f t="shared" ref="Y70:Z70" si="130">(Y26*$C$90)+$C$89</f>
         <v>0.33466999999999991</v>
       </c>
       <c r="Z70" s="69">
-        <f t="shared" si="107"/>
+        <f t="shared" si="130"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="AA70" s="69">
-        <f t="shared" ref="AA70:AB70" si="108">(AA26*$C$90)+$C$89</f>
+        <f t="shared" ref="AA70:AB70" si="131">(AA26*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
       <c r="AB70" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="131"/>
         <v>0.25478600000000007</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC70" s="69">
+        <f t="shared" ref="AC70" si="132">(AC26*$C$90)+$C$89</f>
+        <v>0.22625599999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
         <v>28</v>
       </c>
@@ -6972,105 +7162,109 @@
         <v>50</v>
       </c>
       <c r="C71" s="69">
-        <f t="shared" ref="C71:Q72" si="109">(C27*$C$90)+$C$89</f>
+        <f t="shared" ref="C71:Q72" si="133">(C27*$C$90)+$C$89</f>
         <v>0.31184599999999996</v>
       </c>
       <c r="D71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="E71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="F71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="G71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="H71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="I71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="J71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="K71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="L71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="M71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="N71" s="69"/>
       <c r="O71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="P71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.22340299999999999</v>
       </c>
       <c r="Q71" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="R71" s="69"/>
       <c r="S71" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="T71" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.24052100000000001</v>
       </c>
       <c r="U71" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.246227</v>
       </c>
       <c r="V71" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="W71" s="69">
-        <f t="shared" ref="W71:X71" si="110">(W27*$C$90)+$C$89</f>
+        <f t="shared" ref="W71:X71" si="134">(W27*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="X71" s="69">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="Y71" s="69">
-        <f t="shared" ref="Y71:Z71" si="111">(Y27*$C$90)+$C$89</f>
+        <f t="shared" ref="Y71:Z71" si="135">(Y27*$C$90)+$C$89</f>
         <v>0.35178799999999999</v>
       </c>
       <c r="Z71" s="69">
-        <f t="shared" si="111"/>
+        <f t="shared" si="135"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="AA71" s="69">
-        <f t="shared" ref="AA71:AB71" si="112">(AA27*$C$90)+$C$89</f>
+        <f t="shared" ref="AA71:AB71" si="136">(AA27*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
       <c r="AB71" s="69">
-        <f t="shared" si="112"/>
+        <f t="shared" si="136"/>
         <v>0.25478600000000007</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC71" s="69">
+        <f t="shared" ref="AC71" si="137">(AC27*$C$90)+$C$89</f>
+        <v>0.22625599999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
         <v>28</v>
       </c>
@@ -7078,105 +7272,109 @@
         <v>70</v>
       </c>
       <c r="C72" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="133"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="D72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="E72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="F72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="G72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="I72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="J72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="K72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="L72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.30328699999999997</v>
       </c>
       <c r="M72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N72" s="69"/>
       <c r="O72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="P72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="Q72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.23766800000000002</v>
       </c>
       <c r="R72" s="69"/>
       <c r="S72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.23481500000000002</v>
       </c>
       <c r="T72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="U72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.246227</v>
       </c>
       <c r="V72" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0.24908</v>
       </c>
       <c r="W72" s="69">
-        <f t="shared" ref="W72:X72" si="113">(W28*$C$90)+$C$89</f>
+        <f t="shared" ref="W72:X72" si="138">(W28*$C$90)+$C$89</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="X72" s="69">
-        <f t="shared" si="113"/>
+        <f t="shared" si="138"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="Y72" s="69">
-        <f t="shared" ref="Y72:Z72" si="114">(Y28*$C$90)+$C$89</f>
+        <f t="shared" ref="Y72:Z72" si="139">(Y28*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="Z72" s="69">
-        <f t="shared" si="114"/>
+        <f t="shared" si="139"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="AA72" s="69">
-        <f t="shared" ref="AA72:AB72" si="115">(AA28*$C$90)+$C$89</f>
+        <f t="shared" ref="AA72:AB72" si="140">(AA28*$C$90)+$C$89</f>
         <v>0.31184599999999996</v>
       </c>
       <c r="AB72" s="69">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>0.26905099999999993</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC72" s="69">
+        <f t="shared" ref="AC72" si="141">(AC28*$C$90)+$C$89</f>
+        <v>0.24908</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="56" t="s">
         <v>29</v>
       </c>
@@ -7188,101 +7386,105 @@
         <v>0.31787199999999999</v>
       </c>
       <c r="D73" s="10">
-        <f t="shared" ref="D73:V73" si="116">(D29*$B$90)+$B$89</f>
+        <f t="shared" ref="D73:V73" si="142">(D29*$B$90)+$B$89</f>
         <v>0.27124600000000004</v>
       </c>
       <c r="E73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.33014200000000005</v>
       </c>
       <c r="F73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.35713600000000006</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.320326</v>
       </c>
       <c r="H73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.24915999999999999</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.33505000000000001</v>
       </c>
       <c r="J73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.37431400000000004</v>
       </c>
       <c r="K73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.31787199999999999</v>
       </c>
       <c r="L73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.34486600000000006</v>
       </c>
       <c r="M73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.30314800000000003</v>
       </c>
       <c r="N73" s="10"/>
       <c r="O73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.204988</v>
       </c>
       <c r="P73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.28597000000000006</v>
       </c>
       <c r="Q73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.19026399999999999</v>
       </c>
       <c r="R73" s="10"/>
       <c r="S73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.204988</v>
       </c>
       <c r="T73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.332596</v>
       </c>
       <c r="U73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.33014200000000005</v>
       </c>
       <c r="V73" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="142"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="W73" s="10">
-        <f t="shared" ref="W73:X73" si="117">(W29*$B$90)+$B$89</f>
+        <f t="shared" ref="W73:X73" si="143">(W29*$B$90)+$B$89</f>
         <v>0.35713600000000006</v>
       </c>
       <c r="X73" s="10">
-        <f t="shared" si="117"/>
+        <f t="shared" si="143"/>
         <v>0.34241200000000005</v>
       </c>
       <c r="Y73" s="10">
-        <f t="shared" ref="Y73:Z73" si="118">(Y29*$B$90)+$B$89</f>
+        <f t="shared" ref="Y73:Z73" si="144">(Y29*$B$90)+$B$89</f>
         <v>0.35713600000000006</v>
       </c>
       <c r="Z73" s="10">
-        <f t="shared" si="118"/>
+        <f t="shared" si="144"/>
         <v>0.366952</v>
       </c>
       <c r="AA73" s="10">
-        <f t="shared" ref="AA73:AB73" si="119">(AA29*$B$90)+$B$89</f>
+        <f t="shared" ref="AA73:AB73" si="145">(AA29*$B$90)+$B$89</f>
         <v>0.308056</v>
       </c>
       <c r="AB73" s="10">
-        <f t="shared" si="119"/>
+        <f t="shared" si="145"/>
         <v>0.24670599999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC73" s="10">
+        <f t="shared" ref="AC73" si="146">(AC29*$B$90)+$B$89</f>
+        <v>0.21971200000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="56" t="s">
         <v>29</v>
       </c>
@@ -7294,101 +7496,105 @@
         <v>0.33181699999999992</v>
       </c>
       <c r="D74" s="10">
-        <f t="shared" ref="D74:V77" si="120">(D30*$C$90)+$C$89</f>
+        <f t="shared" ref="D74:V77" si="147">(D30*$C$90)+$C$89</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="E74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="F74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.346082</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="H74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.31755199999999995</v>
       </c>
       <c r="J74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="K74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="L74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="M74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N74" s="10"/>
       <c r="O74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.21484400000000001</v>
       </c>
       <c r="P74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="Q74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.19772599999999999</v>
       </c>
       <c r="R74" s="10"/>
       <c r="S74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.20628499999999997</v>
       </c>
       <c r="T74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="U74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="V74" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="W74" s="10">
-        <f t="shared" ref="W74:X74" si="121">(W30*$C$90)+$C$89</f>
+        <f t="shared" ref="W74:X74" si="148">(W30*$C$90)+$C$89</f>
         <v>0.346082</v>
       </c>
       <c r="X74" s="10">
-        <f t="shared" si="121"/>
+        <f t="shared" si="148"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="Y74" s="10">
-        <f t="shared" ref="Y74:Z74" si="122">(Y30*$C$90)+$C$89</f>
+        <f t="shared" ref="Y74:Z74" si="149">(Y30*$C$90)+$C$89</f>
         <v>0.346082</v>
       </c>
       <c r="Z74" s="10">
-        <f t="shared" si="122"/>
+        <f t="shared" si="149"/>
         <v>0.348935</v>
       </c>
       <c r="AA74" s="10">
-        <f t="shared" ref="AA74:AB74" si="123">(AA30*$C$90)+$C$89</f>
+        <f t="shared" ref="AA74:AB74" si="150">(AA30*$C$90)+$C$89</f>
         <v>0.31184599999999996</v>
       </c>
       <c r="AB74" s="10">
-        <f t="shared" si="123"/>
+        <f t="shared" si="150"/>
         <v>0.24052100000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC74" s="10">
+        <f t="shared" ref="AC74" si="151">(AC30*$C$90)+$C$89</f>
+        <v>0.20913799999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="56" t="s">
         <v>29</v>
       </c>
@@ -7396,105 +7602,109 @@
         <v>50</v>
       </c>
       <c r="C75" s="10">
-        <f t="shared" ref="C75:Q77" si="124">(C31*$C$90)+$C$89</f>
+        <f t="shared" ref="C75:Q77" si="152">(C31*$C$90)+$C$89</f>
         <v>0.31755199999999995</v>
       </c>
       <c r="D75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="E75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="J75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.33181699999999992</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="M75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="N75" s="10"/>
       <c r="O75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="P75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.246227</v>
       </c>
       <c r="Q75" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.22625599999999998</v>
       </c>
       <c r="R75" s="10"/>
       <c r="S75" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.21484400000000001</v>
       </c>
       <c r="T75" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.246227</v>
       </c>
       <c r="U75" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.246227</v>
       </c>
       <c r="V75" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="W75" s="10">
-        <f t="shared" ref="W75:X75" si="125">(W31*$C$90)+$C$89</f>
+        <f t="shared" ref="W75:X75" si="153">(W31*$C$90)+$C$89</f>
         <v>0.31755199999999995</v>
       </c>
       <c r="X75" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="153"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="Y75" s="10">
-        <f t="shared" ref="Y75:Z75" si="126">(Y31*$C$90)+$C$89</f>
+        <f t="shared" ref="Y75:Z75" si="154">(Y31*$C$90)+$C$89</f>
         <v>0.32611100000000004</v>
       </c>
       <c r="Z75" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="154"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="AA75" s="10">
-        <f t="shared" ref="AA75:AB75" si="127">(AA31*$C$90)+$C$89</f>
+        <f t="shared" ref="AA75:AB75" si="155">(AA31*$C$90)+$C$89</f>
         <v>0.31469899999999995</v>
       </c>
       <c r="AB75" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="155"/>
         <v>0.25193300000000007</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC75" s="10">
+        <f t="shared" ref="AC75" si="156">(AC31*$C$90)+$C$89</f>
+        <v>0.22340299999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="56" t="s">
         <v>29</v>
       </c>
@@ -7502,105 +7712,109 @@
         <v>70</v>
       </c>
       <c r="C76" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.289022</v>
       </c>
       <c r="D76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.291875</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.291875</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.291875</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.289022</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="J76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.29758099999999998</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="M76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="N76" s="10"/>
       <c r="O76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.22910899999999998</v>
       </c>
       <c r="Q76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.22055</v>
       </c>
       <c r="R76" s="10"/>
       <c r="S76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="T76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.217697</v>
       </c>
       <c r="U76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.21484400000000001</v>
       </c>
       <c r="V76" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.22055</v>
       </c>
       <c r="W76" s="10">
-        <f t="shared" ref="W76:X76" si="128">(W32*$C$90)+$C$89</f>
+        <f t="shared" ref="W76:X76" si="157">(W32*$C$90)+$C$89</f>
         <v>0.291875</v>
       </c>
       <c r="X76" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="157"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="Y76" s="10">
-        <f t="shared" ref="Y76:Z76" si="129">(Y32*$C$90)+$C$89</f>
+        <f t="shared" ref="Y76:Z76" si="158">(Y32*$C$90)+$C$89</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="Z76" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="158"/>
         <v>0.30043399999999998</v>
       </c>
       <c r="AA76" s="10">
-        <f t="shared" ref="AA76:AB76" si="130">(AA32*$C$90)+$C$89</f>
+        <f t="shared" ref="AA76:AB76" si="159">(AA32*$C$90)+$C$89</f>
         <v>0.291875</v>
       </c>
       <c r="AB76" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="159"/>
         <v>0.24908</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC76" s="10">
+        <f t="shared" ref="AC76" si="160">(AC32*$C$90)+$C$89</f>
+        <v>0.21199100000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="56" t="s">
         <v>29</v>
       </c>
@@ -7608,102 +7822,106 @@
         <v>90</v>
       </c>
       <c r="C77" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="152"/>
         <v>0.28046300000000002</v>
       </c>
       <c r="D77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.27190399999999992</v>
       </c>
       <c r="E77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="F77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.32611100000000004</v>
       </c>
       <c r="H77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="J77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="K77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="L77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="M77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="N77" s="10"/>
       <c r="O77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="Q77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.26049199999999995</v>
       </c>
       <c r="R77" s="10"/>
       <c r="S77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.24908</v>
       </c>
       <c r="T77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="U77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.25193300000000007</v>
       </c>
       <c r="V77" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="W77" s="10">
-        <f t="shared" ref="W77:X77" si="131">(W33*$C$90)+$C$89</f>
+        <f t="shared" ref="W77:X77" si="161">(W33*$C$90)+$C$89</f>
         <v>0.30899299999999996</v>
       </c>
       <c r="X77" s="10">
-        <f t="shared" si="131"/>
+        <f t="shared" si="161"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="Y77" s="10">
-        <f t="shared" ref="Y77:Z77" si="132">(Y33*$C$90)+$C$89</f>
+        <f t="shared" ref="Y77:Z77" si="162">(Y33*$C$90)+$C$89</f>
         <v>0.30613999999999997</v>
       </c>
       <c r="Z77" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="162"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="AA77" s="10">
-        <f t="shared" ref="AA77:AB77" si="133">(AA33*$C$90)+$C$89</f>
+        <f t="shared" ref="AA77:AB77" si="163">(AA33*$C$90)+$C$89</f>
         <v>0.30613999999999997</v>
       </c>
       <c r="AB77" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="163"/>
         <v>0.28046300000000002</v>
+      </c>
+      <c r="AC77" s="10">
+        <f t="shared" ref="AC77" si="164">(AC33*$C$90)+$C$89</f>
+        <v>0.24337400000000001</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7749,7 +7967,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A34:A38 C2:C33 C39:C44 C46:C59 C61:AB67 C73:C79 C84:C1048576 D73:AB77 D46:M46 O46:Q46 S46:V46 D47:AB59" xr:uid="{C7DBAEFF-2D9E-4FD5-9381-A2ED13C25348}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A34:A38 C2:C33 C39:C44 C46:C59 C61:AC67 C73:C79 C84:C1048576 D73:AC77 D46:M46 O46:Q46 S46:V46 D47:AC59" xr:uid="{C7DBAEFF-2D9E-4FD5-9381-A2ED13C25348}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7761,10 +7979,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7786,9 +8004,10 @@
     <col min="16" max="16" width="13.5703125" customWidth="1"/>
     <col min="17" max="17" width="14.140625" customWidth="1"/>
     <col min="18" max="18" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="80" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="80" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
         <v>9</v>
       </c>
@@ -7838,8 +8057,11 @@
       <c r="R1" s="77" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
@@ -7888,8 +8110,11 @@
       <c r="R2" s="75">
         <v>45484</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S2" s="75">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>7</v>
       </c>
@@ -7942,8 +8167,11 @@
       <c r="R3" s="15">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S3" s="15">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="84"/>
       <c r="B4" s="13" t="s">
         <v>5</v>
@@ -7994,8 +8222,11 @@
       <c r="R4" s="15">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S4" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="84"/>
       <c r="B5" s="13" t="s">
         <v>5</v>
@@ -8046,8 +8277,11 @@
       <c r="R5" s="15">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S5" s="15">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="13" t="s">
         <v>5</v>
@@ -8098,8 +8332,11 @@
       <c r="R6" s="15">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S6" s="15">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="13" t="s">
         <v>5</v>
@@ -8150,8 +8387,11 @@
       <c r="R7" s="15">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="15">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
         <v>6</v>
       </c>
@@ -8218,8 +8458,12 @@
         <f t="shared" si="1"/>
         <v>0.20744200000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="4">
+        <f t="shared" ref="S8" si="2">(S3*$D$28)+$D$27</f>
+        <v>0.133822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="83"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -8228,64 +8472,68 @@
         <v>30</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:L12" si="2">(D4*$E$28)+$E$27</f>
+        <f t="shared" ref="D9:L12" si="3">(D4*$E$28)+$E$27</f>
         <v>0.24052100000000001</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19487299999999999</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17490200000000003</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12640099999999996</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11213600000000004</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24052100000000001</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22055</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22055</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" ref="M9:N9" si="3">(M4*$E$28)+$E$27</f>
+        <f t="shared" ref="M9:N9" si="4">(M4*$E$28)+$E$27</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26334499999999994</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" ref="O9:P9" si="4">(O4*$E$28)+$E$27</f>
+        <f t="shared" ref="O9:P9" si="5">(O4*$E$28)+$E$27</f>
         <v>0.29472799999999999</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" ref="Q9:R9" si="5">(Q4*$E$28)+$E$27</f>
+        <f t="shared" ref="Q9:R9" si="6">(Q4*$E$28)+$E$27</f>
         <v>0.26334499999999994</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18916699999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="4">
+        <f t="shared" ref="S9" si="7">(S4*$E$28)+$E$27</f>
+        <v>0.10643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="83"/>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -8294,64 +8542,68 @@
         <v>50</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.291875</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27761000000000002</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25478600000000007</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.217697</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19487299999999999</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20628499999999997</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20913799999999996</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.217697</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ref="M10:N10" si="6">(M5*$E$28)+$E$27</f>
+        <f t="shared" ref="M10:N10" si="8">(M5*$E$28)+$E$27</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.291875</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" ref="O10:P10" si="7">(O5*$E$28)+$E$27</f>
+        <f t="shared" ref="O10:P10" si="9">(O5*$E$28)+$E$27</f>
         <v>0.32325800000000005</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" ref="Q10:R10" si="8">(Q5*$E$28)+$E$27</f>
+        <f t="shared" ref="Q10:R10" si="10">(Q5*$E$28)+$E$27</f>
         <v>0.30043399999999998</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.25193300000000007</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="4">
+        <f t="shared" ref="S10" si="11">(S5*$E$28)+$E$27</f>
+        <v>0.18346100000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="83"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -8360,64 +8612,68 @@
         <v>70</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32040499999999994</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4">
-        <f t="shared" ref="I11:L11" si="9">(I6*$E$28)+$E$27</f>
+        <f t="shared" ref="I11:L11" si="12">(I6*$E$28)+$E$27</f>
         <v>0.26619799999999993</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26905099999999993</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" ref="M11:N11" si="10">(M6*$E$28)+$E$27</f>
+        <f t="shared" ref="M11:N11" si="13">(M6*$E$28)+$E$27</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" ref="O11:P11" si="11">(O6*$E$28)+$E$27</f>
+        <f t="shared" ref="O11:P11" si="14">(O6*$E$28)+$E$27</f>
         <v>0.348935</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.346082</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" ref="Q11:R11" si="12">(Q6*$E$28)+$E$27</f>
+        <f t="shared" ref="Q11:R11" si="15">(Q6*$E$28)+$E$27</f>
         <v>0.33181699999999992</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.30328699999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="4">
+        <f t="shared" ref="S11" si="16">(S6*$E$28)+$E$27</f>
+        <v>0.25478600000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="83"/>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -8426,64 +8682,68 @@
         <v>90</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3403759999999999</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33466999999999991</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31469899999999995</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
-        <f t="shared" ref="I12:L12" si="13">(I7*$E$28)+$E$27</f>
+        <f t="shared" ref="I12:L12" si="17">(I7*$E$28)+$E$27</f>
         <v>0.289022</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.28331600000000001</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.27475700000000003</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12:N12" si="14">(M7*$E$28)+$E$27</f>
+        <f t="shared" ref="M12:N12" si="18">(M7*$E$28)+$E$27</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.35464099999999998</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" ref="O12:P12" si="15">(O7*$E$28)+$E$27</f>
+        <f t="shared" ref="O12:P12" si="19">(O7*$E$28)+$E$27</f>
         <v>0.36034699999999997</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.36034699999999997</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" ref="Q12:R12" si="16">(Q7*$E$28)+$E$27</f>
+        <f t="shared" ref="Q12:R12" si="20">(Q7*$E$28)+$E$27</f>
         <v>0.348935</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.33752299999999991</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="4">
+        <f t="shared" ref="S12" si="21">(S7*$E$28)+$E$27</f>
+        <v>0.27190399999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
         <v>7</v>
       </c>
@@ -8530,8 +8790,11 @@
       <c r="R13" s="16">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="85"/>
       <c r="B14" s="8" t="s">
         <v>10</v>
@@ -8576,8 +8839,11 @@
       <c r="R14" s="16">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="16">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="85"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
@@ -8622,8 +8888,11 @@
       <c r="R15" s="16">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="16">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="85"/>
       <c r="B16" s="8" t="s">
         <v>10</v>
@@ -8668,8 +8937,11 @@
       <c r="R16" s="16">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="85"/>
       <c r="B17" s="8" t="s">
         <v>10</v>
@@ -8714,8 +8986,11 @@
       <c r="R17" s="16">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="16">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="86" t="s">
         <v>6</v>
       </c>
@@ -8730,51 +9005,55 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="17">
-        <f t="shared" ref="H18:M18" si="17">(H13*$D$28)+$D$27</f>
+        <f t="shared" ref="H18:M18" si="22">(H13*$D$28)+$D$27</f>
         <v>0.16081600000000001</v>
       </c>
       <c r="I18" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.16081600000000001</v>
       </c>
       <c r="J18" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.30069400000000007</v>
       </c>
       <c r="K18" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.28351600000000005</v>
       </c>
       <c r="L18" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.30314800000000003</v>
       </c>
       <c r="M18" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.32523400000000002</v>
       </c>
       <c r="N18" s="17">
-        <f t="shared" ref="N18:O18" si="18">(N13*$D$28)+$D$27</f>
+        <f t="shared" ref="N18:O18" si="23">(N13*$D$28)+$D$27</f>
         <v>0.31051000000000001</v>
       </c>
       <c r="O18" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.32768800000000003</v>
       </c>
       <c r="P18" s="17">
-        <f t="shared" ref="P18:R18" si="19">(P13*$D$28)+$D$27</f>
+        <f t="shared" ref="P18:R18" si="24">(P13*$D$28)+$D$27</f>
         <v>0.32278000000000001</v>
       </c>
       <c r="Q18" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.23443600000000003</v>
       </c>
       <c r="R18" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.17799400000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="17">
+        <f t="shared" ref="S18" si="25">(S13*$D$28)+$D$27</f>
+        <v>0.15100000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
       <c r="B19" s="11" t="s">
         <v>10</v>
@@ -8787,51 +9066,55 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="17">
-        <f t="shared" ref="H19:K22" si="20">(H14*$E$28)+$E$27</f>
+        <f t="shared" ref="H19:K22" si="26">(H14*$E$28)+$E$27</f>
         <v>0.11784199999999997</v>
       </c>
       <c r="I19" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.11498899999999998</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.26619799999999993</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.24052100000000001</v>
       </c>
       <c r="L19" s="17">
-        <f t="shared" ref="L19:M19" si="21">(L14*$E$28)+$E$27</f>
+        <f t="shared" ref="L19:M19" si="27">(L14*$E$28)+$E$27</f>
         <v>0.26334499999999994</v>
       </c>
       <c r="M19" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.291875</v>
       </c>
       <c r="N19" s="17">
-        <f t="shared" ref="N19:O19" si="22">(N14*$E$28)+$E$27</f>
+        <f t="shared" ref="N19:O19" si="28">(N14*$E$28)+$E$27</f>
         <v>0.28046300000000002</v>
       </c>
       <c r="O19" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.289022</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" ref="P19:R19" si="23">(P14*$E$28)+$E$27</f>
+        <f t="shared" ref="P19:R19" si="29">(P14*$E$28)+$E$27</f>
         <v>0.29758099999999998</v>
       </c>
       <c r="Q19" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.22910899999999998</v>
       </c>
       <c r="R19" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.12640099999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="17">
+        <f t="shared" ref="S19" si="30">(S14*$E$28)+$E$27</f>
+        <v>9.5018000000000019E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -8844,51 +9127,55 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.16634299999999999</v>
       </c>
       <c r="I20" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.16349</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.22625599999999998</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.23196200000000003</v>
       </c>
       <c r="L20" s="17">
-        <f t="shared" ref="L20:M20" si="24">(L15*$E$28)+$E$27</f>
+        <f t="shared" ref="L20:M20" si="31">(L15*$E$28)+$E$27</f>
         <v>0.246227</v>
       </c>
       <c r="M20" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0.30899299999999996</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" ref="N20:O20" si="25">(N15*$E$28)+$E$27</f>
+        <f t="shared" ref="N20:O20" si="32">(N15*$E$28)+$E$27</f>
         <v>0.30328699999999997</v>
       </c>
       <c r="O20" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0.31184599999999996</v>
       </c>
       <c r="P20" s="17">
-        <f t="shared" ref="P20:R20" si="26">(P15*$E$28)+$E$27</f>
+        <f t="shared" ref="P20:R20" si="33">(P15*$E$28)+$E$27</f>
         <v>0.32040499999999994</v>
       </c>
       <c r="Q20" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0.30613999999999997</v>
       </c>
       <c r="R20" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0.17490200000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="17">
+        <f t="shared" ref="S20" si="34">(S15*$E$28)+$E$27</f>
+        <v>0.15778400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
       <c r="B21" s="11" t="s">
         <v>10</v>
@@ -8901,51 +9188,55 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.246227</v>
       </c>
       <c r="I21" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.24337400000000001</v>
       </c>
       <c r="J21" s="17">
-        <f t="shared" ref="J21:K21" si="27">(J16*$E$28)+$E$27</f>
+        <f t="shared" ref="J21:K21" si="35">(J16*$E$28)+$E$27</f>
         <v>0.24052100000000001</v>
       </c>
       <c r="K21" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.25763899999999995</v>
       </c>
       <c r="L21" s="17">
-        <f t="shared" ref="L21:M21" si="28">(L16*$E$28)+$E$27</f>
+        <f t="shared" ref="L21:M21" si="36">(L16*$E$28)+$E$27</f>
         <v>0.246227</v>
       </c>
       <c r="M21" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="N21" s="17">
-        <f t="shared" ref="N21:O21" si="29">(N16*$E$28)+$E$27</f>
+        <f t="shared" ref="N21:O21" si="37">(N16*$E$28)+$E$27</f>
         <v>0.32896399999999992</v>
       </c>
       <c r="O21" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0.32896399999999992</v>
       </c>
       <c r="P21" s="17">
-        <f t="shared" ref="P21:R21" si="30">(P16*$E$28)+$E$27</f>
+        <f t="shared" ref="P21:R21" si="38">(P16*$E$28)+$E$27</f>
         <v>0.3403759999999999</v>
       </c>
       <c r="Q21" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.32325800000000005</v>
       </c>
       <c r="R21" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.25478600000000007</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="17">
+        <f t="shared" ref="S21" si="39">(S16*$E$28)+$E$27</f>
+        <v>0.22055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
       <c r="B22" s="11" t="s">
         <v>10</v>
@@ -8958,51 +9249,55 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.28616900000000001</v>
       </c>
       <c r="I22" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.29472799999999999</v>
       </c>
       <c r="J22" s="17">
-        <f t="shared" ref="J22:K22" si="31">(J17*$E$28)+$E$27</f>
+        <f t="shared" ref="J22:K22" si="40">(J17*$E$28)+$E$27</f>
         <v>0.28331600000000001</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0.291875</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" ref="L22:M22" si="32">(L17*$E$28)+$E$27</f>
+        <f t="shared" ref="L22:M22" si="41">(L17*$E$28)+$E$27</f>
         <v>0.13781299999999999</v>
       </c>
       <c r="M22" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.3432289999999999</v>
       </c>
       <c r="N22" s="17">
-        <f t="shared" ref="N22:O22" si="33">(N17*$E$28)+$E$27</f>
+        <f t="shared" ref="N22:O22" si="42">(N17*$E$28)+$E$27</f>
         <v>0.346082</v>
       </c>
       <c r="O22" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.348935</v>
       </c>
       <c r="P22" s="17">
-        <f t="shared" ref="P22:R22" si="34">(P17*$E$28)+$E$27</f>
+        <f t="shared" ref="P22:R22" si="43">(P17*$E$28)+$E$27</f>
         <v>0.348935</v>
       </c>
       <c r="Q22" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0.35464099999999998</v>
       </c>
       <c r="R22" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0.30328699999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="17">
+        <f t="shared" ref="S22" si="44">(S17*$E$28)+$E$27</f>
+        <v>0.26619799999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
@@ -9010,7 +9305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
@@ -9018,7 +9313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
@@ -9029,7 +9324,7 @@
         <v>-0.2074</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
